--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,15 +44,653 @@
   </si>
   <si>
     <t xml:space="preserve">Inconnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04 17:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-03 00:00:01 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-27 00:00:01 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-21 22:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-24 19:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-23 20:52:25 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-23 21:54:43 +0200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -124,7 +762,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,60 +783,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I214" activeCellId="0" sqref="I214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>44527.2291666667</v>
+      <c r="A2" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1109.667</v>
+        <v>1127.386</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>89.871</v>
+        <v>90.112</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.61</v>
+        <v>2.168</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1.802</v>
@@ -214,17 +852,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>44528</v>
+      <c r="A3" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1117.212</v>
+        <v>1127.386</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>89.871</v>
+        <v>90.112</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.61</v>
+        <v>2.168</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1.802</v>
@@ -240,17 +878,17 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>44529</v>
+      <c r="A4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1127.386</v>
+        <v>1134.94</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>90.112</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.61</v>
+        <v>2.168</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1.802</v>
@@ -266,17 +904,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>44530</v>
+      <c r="A5" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1127.386</v>
+        <v>1156.259</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>90.112</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.61</v>
+        <v>2.168</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1.802</v>
@@ -292,17 +930,17 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>44531</v>
+      <c r="A6" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1127.386</v>
+        <v>1156.259</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>90.112</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.61</v>
+        <v>2.444</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1.802</v>
@@ -318,17 +956,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>44532</v>
+      <c r="A7" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1127.386</v>
+        <v>1156.259</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>90.112</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.61</v>
+        <v>2.444</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1.802</v>
@@ -344,17 +982,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>44533</v>
+      <c r="A8" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1127.386</v>
+        <v>1156.259</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>90.112</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1.802</v>
@@ -370,17 +1008,17 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>44534</v>
+      <c r="A9" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1127.386</v>
+        <v>1160.022</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>90.112</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1.802</v>
@@ -396,17 +1034,17 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>44535</v>
+      <c r="A10" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1127.386</v>
+        <v>1160.022</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>90.112</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1.802</v>
@@ -422,17 +1060,17 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>44536</v>
+      <c r="A11" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1134.94</v>
+        <v>1167.552</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1.802</v>
@@ -448,23 +1086,23 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>44537</v>
+      <c r="A12" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1156.259</v>
+        <v>1189.794</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.047</v>
+        <v>0.318</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.166</v>
@@ -474,14 +1112,14 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>44538</v>
+      <c r="A13" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1156.259</v>
+        <v>1189.794</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2.444</v>
@@ -490,7 +1128,7 @@
         <v>1.802</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.047</v>
+        <v>0.318</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.166</v>
@@ -500,14 +1138,14 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>44539</v>
+      <c r="A14" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1156.259</v>
+        <v>1189.794</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2.444</v>
@@ -516,7 +1154,7 @@
         <v>1.802</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.166</v>
@@ -526,14 +1164,14 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>44540</v>
+      <c r="A15" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1156.259</v>
+        <v>1189.794</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2.444</v>
@@ -542,7 +1180,7 @@
         <v>1.802</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.166</v>
@@ -552,14 +1190,14 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>44541</v>
+      <c r="A16" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1160.022</v>
+        <v>1189.794</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2.444</v>
@@ -568,7 +1206,7 @@
         <v>1.802</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.166</v>
@@ -578,14 +1216,14 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>44542</v>
+      <c r="A17" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1160.022</v>
+        <v>1190.53</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2.444</v>
@@ -594,7 +1232,7 @@
         <v>1.802</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.166</v>
@@ -604,11 +1242,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>44543</v>
+      <c r="A18" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1167.552</v>
+        <v>1197.98</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>90.117</v>
@@ -620,7 +1258,7 @@
         <v>1.802</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.166</v>
@@ -630,11 +1268,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>44544</v>
+      <c r="A19" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1189.794</v>
+        <v>1199.181</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>90.117</v>
@@ -646,7 +1284,7 @@
         <v>1.802</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.318</v>
+        <v>0.452</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.166</v>
@@ -656,11 +1294,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>44545</v>
+      <c r="A20" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1189.794</v>
+        <v>1199.181</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>90.117</v>
@@ -672,21 +1310,21 @@
         <v>1.802</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.318</v>
+        <v>0.452</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1628.134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>44546</v>
+      <c r="A21" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1189.794</v>
+        <v>1199.181</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>90.117</v>
@@ -701,18 +1339,18 @@
         <v>0.452</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1628.134</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>44547</v>
+      <c r="A22" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1189.794</v>
+        <v>1206.667</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>90.117</v>
@@ -727,21 +1365,21 @@
         <v>0.452</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1628.134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>44548</v>
+      <c r="A23" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1189.794</v>
+        <v>1229.367</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>90.117</v>
+        <v>90.427</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2.444</v>
@@ -753,21 +1391,21 @@
         <v>0.452</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1628.134</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>44549</v>
+      <c r="A24" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1190.53</v>
+        <v>1241.13</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>90.117</v>
+        <v>110.029</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2.444</v>
@@ -779,21 +1417,21 @@
         <v>0.452</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1628.134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>44550</v>
+      <c r="A25" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1197.98</v>
+        <v>1241.641</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>90.117</v>
+        <v>110.102</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2.444</v>
@@ -805,21 +1443,21 @@
         <v>0.452</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1628.134</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>44551</v>
+      <c r="A26" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1199.181</v>
+        <v>1241.641</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>90.117</v>
+        <v>110.62</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>2.444</v>
@@ -831,21 +1469,21 @@
         <v>0.452</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1628.134</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>44552</v>
+      <c r="A27" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1199.181</v>
+        <v>1249.282</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>90.117</v>
+        <v>114.443</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>2.444</v>
@@ -864,14 +1502,14 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>44553</v>
+      <c r="A28" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1199.181</v>
+        <v>1279.959</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>90.117</v>
+        <v>117.85</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2.444</v>
@@ -890,14 +1528,14 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>44554</v>
+      <c r="A29" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1206.667</v>
+        <v>1287.664</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>90.117</v>
+        <v>117.85</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2.444</v>
@@ -916,14 +1554,14 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>44555</v>
+      <c r="A30" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1229.367</v>
+        <v>1310.236</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>90.427</v>
+        <v>117.85</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2.444</v>
@@ -942,14 +1580,14 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>44556</v>
+      <c r="A31" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1241.13</v>
+        <v>1310.236</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>110.029</v>
+        <v>117.85</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2.444</v>
@@ -968,14 +1606,14 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>44557</v>
+      <c r="A32" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1241.641</v>
+        <v>1315.885</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>110.102</v>
+        <v>117.85</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>2.444</v>
@@ -994,14 +1632,14 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>44558</v>
+      <c r="A33" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1241.641</v>
+        <v>1315.885</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>110.62</v>
+        <v>117.85</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>2.444</v>
@@ -1020,14 +1658,14 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>44559</v>
+      <c r="A34" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1249.282</v>
+        <v>1323.507</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>114.443</v>
+        <v>117.855</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2.444</v>
@@ -1046,14 +1684,14 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>44560</v>
+      <c r="A35" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1279.959</v>
+        <v>1345.958</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>2.444</v>
@@ -1072,14 +1710,14 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>44561</v>
+      <c r="A36" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1287.664</v>
+        <v>1345.958</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>2.444</v>
@@ -1098,14 +1736,14 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>44562</v>
+      <c r="A37" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1310.236</v>
+        <v>1345.958</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2.444</v>
@@ -1124,14 +1762,14 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>44563</v>
+      <c r="A38" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1310.236</v>
+        <v>1353.581</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>2.444</v>
@@ -1150,14 +1788,14 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>44564</v>
+      <c r="A39" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1315.885</v>
+        <v>1375.914</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2.444</v>
@@ -1176,14 +1814,14 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>44565</v>
+      <c r="A40" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1315.885</v>
+        <v>1386.467</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2.444</v>
@@ -1192,7 +1830,7 @@
         <v>1.802</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.452</v>
+        <v>0.718</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>0.753</v>
@@ -1202,11 +1840,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>44566</v>
+      <c r="A41" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1323.507</v>
+        <v>1386.467</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>117.855</v>
@@ -1218,7 +1856,7 @@
         <v>1.802</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>0.753</v>
@@ -1228,11 +1866,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>44567</v>
+      <c r="A42" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1345.958</v>
+        <v>1386.467</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>117.855</v>
@@ -1244,7 +1882,7 @@
         <v>1.802</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>0.753</v>
@@ -1254,11 +1892,11 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>44568</v>
+      <c r="A43" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1345.958</v>
+        <v>1386.467</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>117.855</v>
@@ -1270,7 +1908,7 @@
         <v>1.802</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>0.753</v>
@@ -1280,11 +1918,11 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>44569</v>
+      <c r="A44" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1345.958</v>
+        <v>1386.467</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>117.855</v>
@@ -1296,7 +1934,7 @@
         <v>1.802</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>0.753</v>
@@ -1306,23 +1944,23 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44570</v>
+      <c r="A45" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1353.581</v>
+        <v>1386.467</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>117.855</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2.444</v>
+        <v>10.036</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>0.753</v>
@@ -1332,23 +1970,23 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>44571</v>
+      <c r="A46" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1375.914</v>
+        <v>1394.103</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>0.753</v>
@@ -1358,23 +1996,23 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>44572</v>
+      <c r="A47" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.718</v>
+        <v>2.911</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>0.753</v>
@@ -1384,17 +2022,17 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>44573</v>
+      <c r="A48" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1.802</v>
@@ -1410,17 +2048,17 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>44574</v>
+      <c r="A49" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1.802</v>
@@ -1436,17 +2074,17 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>44575</v>
+      <c r="A50" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1.802</v>
@@ -1462,17 +2100,17 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>44576</v>
+      <c r="A51" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1.802</v>
@@ -1488,17 +2126,17 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>44577</v>
+      <c r="A52" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>10.036</v>
+        <v>32.949</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1.802</v>
@@ -1514,11 +2152,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>44578</v>
+      <c r="A53" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1394.103</v>
+        <v>1423.835</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>120.167</v>
@@ -1540,11 +2178,11 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>44579</v>
+      <c r="A54" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>120.167</v>
@@ -1566,11 +2204,11 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>44580</v>
+      <c r="A55" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>120.167</v>
@@ -1592,11 +2230,11 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>44581</v>
+      <c r="A56" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>120.167</v>
@@ -1618,11 +2256,11 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>44582</v>
+      <c r="A57" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>120.167</v>
@@ -1644,17 +2282,17 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>44583</v>
+      <c r="A58" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>32.949</v>
+        <v>35.429</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1.802</v>
@@ -1670,17 +2308,17 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>44584</v>
+      <c r="A59" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1.802</v>
@@ -1696,17 +2334,17 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>44585</v>
+      <c r="A60" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1423.835</v>
+        <v>1436.524</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1.802</v>
@@ -1722,17 +2360,17 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>44586</v>
+      <c r="A61" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1429.616</v>
+        <v>1436.921</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1.802</v>
@@ -1748,17 +2386,17 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>44587</v>
+      <c r="A62" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1429.616</v>
+        <v>1438.812</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1.802</v>
@@ -1774,17 +2412,17 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>44588</v>
+      <c r="A63" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1429.616</v>
+        <v>1438.812</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1.802</v>
@@ -1800,17 +2438,17 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>44589</v>
+      <c r="A64" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1429.616</v>
+        <v>1438.812</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1.802</v>
@@ -1826,17 +2464,17 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>44590</v>
+      <c r="A65" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1429.616</v>
+        <v>1438.941</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>35.429</v>
+        <v>36.405</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1.802</v>
@@ -1852,11 +2490,11 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>44591</v>
+      <c r="A66" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1429.616</v>
+        <v>1446.553</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>120.167</v>
@@ -1878,14 +2516,14 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>44592</v>
+      <c r="A67" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1436.524</v>
+        <v>1471.601</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>36.405</v>
@@ -1904,14 +2542,14 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>44593</v>
+      <c r="A68" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1436.921</v>
+        <v>1471.601</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>36.405</v>
@@ -1930,14 +2568,14 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>44594</v>
+      <c r="A69" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1438.812</v>
+        <v>1471.601</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>36.405</v>
@@ -1956,14 +2594,14 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>44595</v>
+      <c r="A70" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1438.812</v>
+        <v>1471.601</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>36.405</v>
@@ -1982,14 +2620,14 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>44596</v>
+      <c r="A71" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1438.812</v>
+        <v>1471.601</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>36.405</v>
@@ -2008,14 +2646,14 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>44597</v>
+      <c r="A72" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1438.941</v>
+        <v>1471.601</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>36.405</v>
@@ -2034,17 +2672,17 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>44598</v>
+      <c r="A73" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1446.553</v>
+        <v>1479.143</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120.167</v>
+        <v>120.76</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1.802</v>
@@ -2060,17 +2698,17 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>44599</v>
+      <c r="A74" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1471.601</v>
+        <v>1484.415</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1.802</v>
@@ -2086,17 +2724,17 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>44600</v>
+      <c r="A75" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1471.601</v>
+        <v>1484.415</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1.802</v>
@@ -2112,17 +2750,17 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>44601</v>
+      <c r="A76" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1471.601</v>
+        <v>1484.415</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1.802</v>
@@ -2138,17 +2776,17 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>44602</v>
+      <c r="A77" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1471.601</v>
+        <v>1484.415</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1.802</v>
@@ -2164,17 +2802,17 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>44603</v>
+      <c r="A78" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1471.601</v>
+        <v>1486.893</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1.802</v>
@@ -2190,17 +2828,17 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>44604</v>
+      <c r="A79" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1471.601</v>
+        <v>1486.893</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1.802</v>
@@ -2216,11 +2854,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>44605</v>
+      <c r="A80" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1479.143</v>
+        <v>1494.513</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>120.76</v>
@@ -2242,11 +2880,11 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>44606</v>
+      <c r="A81" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1484.415</v>
+        <v>1500.075</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>120.76</v>
@@ -2268,11 +2906,11 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>44607</v>
+      <c r="A82" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1484.415</v>
+        <v>1500.075</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>120.76</v>
@@ -2294,11 +2932,11 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>44608</v>
+      <c r="A83" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1484.415</v>
+        <v>1502.493</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>120.76</v>
@@ -2320,11 +2958,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>44609</v>
+      <c r="A84" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1484.415</v>
+        <v>1502.493</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>120.76</v>
@@ -2346,11 +2984,11 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>44610</v>
+      <c r="A85" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>1486.893</v>
+        <v>1502.983</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>120.76</v>
@@ -2372,11 +3010,11 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>44611</v>
+      <c r="A86" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1486.893</v>
+        <v>1502.983</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>120.76</v>
@@ -2398,11 +3036,11 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>44612</v>
+      <c r="A87" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1494.513</v>
+        <v>1502.983</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>120.76</v>
@@ -2424,11 +3062,11 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>44613</v>
+      <c r="A88" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1500.075</v>
+        <v>1502.983</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>120.76</v>
@@ -2450,11 +3088,11 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>44614</v>
+      <c r="A89" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1500.075</v>
+        <v>1502.983</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>120.76</v>
@@ -2476,17 +3114,17 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>44615</v>
+      <c r="A90" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1502.493</v>
+        <v>1502.983</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1.802</v>
@@ -2502,17 +3140,17 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>44616</v>
+      <c r="A91" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1502.493</v>
+        <v>1502.983</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1.802</v>
@@ -2528,8 +3166,8 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>44617</v>
+      <c r="A92" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>1502.983</v>
@@ -2538,7 +3176,7 @@
         <v>120.76</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1.802</v>
@@ -2554,8 +3192,8 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>44618</v>
+      <c r="A93" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>1502.983</v>
@@ -2564,7 +3202,7 @@
         <v>120.76</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1.802</v>
@@ -2580,8 +3218,8 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>44619</v>
+      <c r="A94" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1502.983</v>
@@ -2590,7 +3228,7 @@
         <v>120.76</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1.802</v>
@@ -2606,17 +3244,17 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>44620</v>
+      <c r="A95" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1502.983</v>
+        <v>1503.528</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1.802</v>
@@ -2632,17 +3270,17 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>44621</v>
+      <c r="A96" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1502.983</v>
+        <v>1503.528</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1.802</v>
@@ -2658,11 +3296,11 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>44622</v>
+      <c r="A97" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1502.983</v>
+        <v>1503.528</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>120.76</v>
@@ -2684,11 +3322,11 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>44623.0000115741</v>
+      <c r="A98" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1502.983</v>
+        <v>1503.543</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>120.76</v>
@@ -2710,11 +3348,11 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>44624</v>
+      <c r="A99" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1502.983</v>
+        <v>1504.3</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>120.76</v>
@@ -2736,11 +3374,11 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>44625</v>
+      <c r="A100" s="0" t="s">
+        <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>1502.983</v>
+        <v>1504.3</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>120.76</v>
@@ -2762,11 +3400,11 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>44626</v>
+      <c r="A101" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>1502.983</v>
+        <v>1504.3</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>120.76</v>
@@ -2788,11 +3426,11 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
-        <v>44627</v>
+      <c r="A102" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1503.528</v>
+        <v>1509.15</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>120.76</v>
@@ -2814,11 +3452,11 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>44628</v>
+      <c r="A103" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1503.528</v>
+        <v>1509.15</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>120.76</v>
@@ -2840,11 +3478,11 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>44629</v>
+      <c r="A104" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1503.528</v>
+        <v>1509.15</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>120.76</v>
@@ -2866,11 +3504,11 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>44630</v>
+      <c r="A105" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1503.543</v>
+        <v>1509.15</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>120.76</v>
@@ -2892,11 +3530,11 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>44631</v>
+      <c r="A106" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>1504.3</v>
+        <v>1509.15</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>120.76</v>
@@ -2918,14 +3556,14 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>44632</v>
+      <c r="A107" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1504.3</v>
+        <v>1516.393</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>37.963</v>
@@ -2944,14 +3582,14 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>44633</v>
+      <c r="A108" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1504.3</v>
+        <v>1516.393</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>37.963</v>
@@ -2970,14 +3608,14 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>44634</v>
+      <c r="A109" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1509.15</v>
+        <v>1518.198</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>37.963</v>
@@ -2996,14 +3634,14 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>44635</v>
+      <c r="A110" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>1509.15</v>
+        <v>1518.198</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>37.963</v>
@@ -3022,14 +3660,14 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
-        <v>44636</v>
+      <c r="A111" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1509.15</v>
+        <v>1518.198</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>37.963</v>
@@ -3048,14 +3686,14 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
-        <v>44637</v>
+      <c r="A112" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1509.15</v>
+        <v>1518.198</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>37.963</v>
@@ -3074,14 +3712,14 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
-        <v>44638</v>
+      <c r="A113" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1509.15</v>
+        <v>1519.152</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>37.963</v>
@@ -3100,11 +3738,11 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>44639</v>
+      <c r="A114" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1516.393</v>
+        <v>1519.152</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>120.783</v>
@@ -3126,11 +3764,11 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
-        <v>44640</v>
+      <c r="A115" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1516.393</v>
+        <v>1526.801</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>120.783</v>
@@ -3152,11 +3790,11 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>44641</v>
+      <c r="A116" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1518.198</v>
+        <v>1542.406</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>120.783</v>
@@ -3178,11 +3816,11 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>44642</v>
+      <c r="A117" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1518.198</v>
+        <v>1546.617</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>120.783</v>
@@ -3204,11 +3842,11 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>44643</v>
+      <c r="A118" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1518.198</v>
+        <v>1546.617</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>120.783</v>
@@ -3230,11 +3868,11 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>44644</v>
+      <c r="A119" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1518.198</v>
+        <v>1549.226</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>120.783</v>
@@ -3256,11 +3894,11 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>44645</v>
+      <c r="A120" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>1519.152</v>
+        <v>1549.226</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>120.783</v>
@@ -3282,11 +3920,11 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>44646</v>
+      <c r="A121" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>1519.152</v>
+        <v>1549.226</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>120.783</v>
@@ -3308,11 +3946,11 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <v>44647</v>
+      <c r="A122" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>1526.801</v>
+        <v>1554.01</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>120.783</v>
@@ -3334,11 +3972,11 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
-        <v>44648</v>
+      <c r="A123" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>1542.406</v>
+        <v>1555.705</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>120.783</v>
@@ -3360,11 +3998,11 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
-        <v>44649</v>
+      <c r="A124" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>1546.617</v>
+        <v>1555.705</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>120.783</v>
@@ -3386,11 +4024,11 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>44650</v>
+      <c r="A125" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>1546.617</v>
+        <v>1555.705</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>120.783</v>
@@ -3412,11 +4050,11 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>44651</v>
+      <c r="A126" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>1549.226</v>
+        <v>1555.705</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>120.783</v>
@@ -3438,11 +4076,11 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>44652</v>
+      <c r="A127" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1549.226</v>
+        <v>1557.601</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>120.783</v>
@@ -3464,11 +4102,11 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
-        <v>44653</v>
+      <c r="A128" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>1549.226</v>
+        <v>1557.601</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>120.783</v>
@@ -3490,11 +4128,11 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <v>44654</v>
+      <c r="A129" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>1554.01</v>
+        <v>1557.601</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>120.783</v>
@@ -3516,11 +4154,11 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
-        <v>44655</v>
+      <c r="A130" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>1555.705</v>
+        <v>1562.795</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>120.783</v>
@@ -3542,11 +4180,11 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
-        <v>44656</v>
+      <c r="A131" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>1555.705</v>
+        <v>1566.999</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>120.783</v>
@@ -3568,11 +4206,11 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>44657</v>
+      <c r="A132" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1555.705</v>
+        <v>1566.999</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>120.783</v>
@@ -3594,11 +4232,11 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
-        <v>44658</v>
+      <c r="A133" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>1555.705</v>
+        <v>1569.146</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>120.783</v>
@@ -3620,11 +4258,11 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
-        <v>44659</v>
+      <c r="A134" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>1557.601</v>
+        <v>1569.146</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>120.783</v>
@@ -3646,11 +4284,11 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <v>44660</v>
+      <c r="A135" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1557.601</v>
+        <v>1569.146</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>120.783</v>
@@ -3672,11 +4310,11 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
-        <v>44661</v>
+      <c r="A136" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>1557.601</v>
+        <v>1574.856</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>120.783</v>
@@ -3698,11 +4336,11 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>44662</v>
+      <c r="A137" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>1562.795</v>
+        <v>1596.036</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>120.783</v>
@@ -3724,11 +4362,11 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
-        <v>44663</v>
+      <c r="A138" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>1566.999</v>
+        <v>1607.704</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>120.783</v>
@@ -3750,11 +4388,11 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
-        <v>44664</v>
+      <c r="A139" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>1566.999</v>
+        <v>1607.704</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>120.783</v>
@@ -3776,11 +4414,11 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>44665</v>
+      <c r="A140" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>1569.146</v>
+        <v>1610.236</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>120.783</v>
@@ -3802,11 +4440,11 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>44666</v>
+      <c r="A141" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>1569.146</v>
+        <v>1610.236</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>120.783</v>
@@ -3828,11 +4466,11 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>44667</v>
+      <c r="A142" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1569.146</v>
+        <v>1615.023</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>120.783</v>
@@ -3854,11 +4492,11 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <v>44668</v>
+      <c r="A143" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>1574.856</v>
+        <v>1624.966</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>120.783</v>
@@ -3880,11 +4518,11 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
-        <v>44669</v>
+      <c r="A144" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>1596.036</v>
+        <v>1624.966</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>120.783</v>
@@ -3906,11 +4544,11 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
-        <v>44670</v>
+      <c r="A145" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1607.704</v>
+        <v>1627.551</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>120.783</v>
@@ -3932,11 +4570,11 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
-        <v>44671</v>
+      <c r="A146" s="0" t="s">
+        <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>1607.704</v>
+        <v>1627.551</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>120.783</v>
@@ -3958,11 +4596,11 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
-        <v>44672</v>
+      <c r="A147" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>1610.236</v>
+        <v>1627.551</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>120.783</v>
@@ -3984,11 +4622,11 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
-        <v>44673</v>
+      <c r="A148" s="0" t="s">
+        <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>1610.236</v>
+        <v>1628.089</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>120.783</v>
@@ -4010,11 +4648,11 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
-        <v>44674</v>
+      <c r="A149" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>1615.023</v>
+        <v>1628.089</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>120.783</v>
@@ -4036,11 +4674,11 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
-        <v>44675</v>
+      <c r="A150" s="0" t="s">
+        <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>1624.966</v>
+        <v>1628.089</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>120.783</v>
@@ -4062,14 +4700,14 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
-        <v>44676</v>
+      <c r="A151" s="0" t="s">
+        <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>1624.966</v>
+        <v>1655.3</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>37.963</v>
@@ -4088,14 +4726,14 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
-        <v>44677</v>
+      <c r="A152" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>1627.551</v>
+        <v>1681.417</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>37.963</v>
@@ -4114,14 +4752,14 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
-        <v>44678.0000115741</v>
+      <c r="A153" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>1627.551</v>
+        <v>1695.138</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>37.963</v>
@@ -4140,14 +4778,14 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
-        <v>44679</v>
+      <c r="A154" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>1627.551</v>
+        <v>1697.331</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>37.963</v>
@@ -4166,14 +4804,14 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
-        <v>44680</v>
+      <c r="A155" s="0" t="s">
+        <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>1628.089</v>
+        <v>1698.137</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>37.963</v>
@@ -4192,14 +4830,14 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
-        <v>44681</v>
+      <c r="A156" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>1628.089</v>
+        <v>1698.137</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>37.963</v>
@@ -4218,14 +4856,14 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
-        <v>44682</v>
+      <c r="A157" s="0" t="s">
+        <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>1628.089</v>
+        <v>1698.137</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>37.963</v>
@@ -4244,11 +4882,11 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
-        <v>44683</v>
+      <c r="A158" s="0" t="s">
+        <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>1655.3</v>
+        <v>1698.137</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>120.903</v>
@@ -4270,11 +4908,11 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
-        <v>44684</v>
+      <c r="A159" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>1681.417</v>
+        <v>1698.96</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>120.903</v>
@@ -4296,11 +4934,11 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
-        <v>44685</v>
+      <c r="A160" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>1695.138</v>
+        <v>1698.96</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>120.903</v>
@@ -4322,11 +4960,11 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
-        <v>44686</v>
+      <c r="A161" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>1697.331</v>
+        <v>1698.96</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>120.903</v>
@@ -4348,11 +4986,11 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
-        <v>44687</v>
+      <c r="A162" s="0" t="s">
+        <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>1698.137</v>
+        <v>1698.96</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>120.903</v>
@@ -4374,11 +5012,11 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
-        <v>44688</v>
+      <c r="A163" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>1698.137</v>
+        <v>1699.023</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>120.903</v>
@@ -4400,11 +5038,11 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <v>44689</v>
+      <c r="A164" s="0" t="s">
+        <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>1698.137</v>
+        <v>1703.826</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>120.903</v>
@@ -4426,11 +5064,11 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
-        <v>44690</v>
+      <c r="A165" s="0" t="s">
+        <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>1698.137</v>
+        <v>1717.017</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>120.903</v>
@@ -4452,11 +5090,11 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
-        <v>44691</v>
+      <c r="A166" s="0" t="s">
+        <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>1698.96</v>
+        <v>1721.798</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>120.903</v>
@@ -4478,11 +5116,11 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
-        <v>44692</v>
+      <c r="A167" s="0" t="s">
+        <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>1698.96</v>
+        <v>1732.352</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>120.903</v>
@@ -4504,11 +5142,11 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
-        <v>44693</v>
+      <c r="A168" s="0" t="s">
+        <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>1698.96</v>
+        <v>1732.352</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>120.903</v>
@@ -4530,17 +5168,17 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <v>44694</v>
+      <c r="A169" s="0" t="s">
+        <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>1698.96</v>
+        <v>1732.352</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1.802</v>
@@ -4556,17 +5194,17 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
-        <v>44695</v>
+      <c r="A170" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>1699.023</v>
+        <v>1732.352</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1.802</v>
@@ -4582,17 +5220,17 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
-        <v>44696</v>
+      <c r="A171" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>1703.826</v>
+        <v>1739.822</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1.802</v>
@@ -4608,17 +5246,17 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
-        <v>44702.9166666667</v>
+      <c r="A172" s="0" t="s">
+        <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>1717.017</v>
+        <v>1753.541</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1.802</v>
@@ -4634,17 +5272,17 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
-        <v>44703</v>
+      <c r="A173" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>1721.798</v>
+        <v>1753.541</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1.802</v>
@@ -4660,17 +5298,17 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
-        <v>44704</v>
+      <c r="A174" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>1732.352</v>
+        <v>1781.201</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>1.802</v>
@@ -4686,17 +5324,17 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
-        <v>44705</v>
+      <c r="A175" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>1732.352</v>
+        <v>1793.538</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>1.802</v>
@@ -4712,14 +5350,14 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
-        <v>44706</v>
+      <c r="A176" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>1732.352</v>
+        <v>1793.538</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>40.429</v>
@@ -4738,14 +5376,14 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
-        <v>44707</v>
+      <c r="A177" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>1732.352</v>
+        <v>1796.994</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>40.429</v>
@@ -4764,14 +5402,14 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
-        <v>44708</v>
+      <c r="A178" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>1739.822</v>
+        <v>1796.994</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>40.429</v>
@@ -4790,14 +5428,14 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
-        <v>44709</v>
+      <c r="A179" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>1753.541</v>
+        <v>1796.994</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>40.429</v>
@@ -4816,14 +5454,14 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
-        <v>44710</v>
+      <c r="A180" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>1753.541</v>
+        <v>1796.994</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>40.429</v>
@@ -4842,11 +5480,11 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
-        <v>44711</v>
+      <c r="A181" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>1781.201</v>
+        <v>1796.994</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>125.902</v>
@@ -4868,11 +5506,11 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
-        <v>44712</v>
+      <c r="A182" s="0" t="s">
+        <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>1793.538</v>
+        <v>1796.994</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>125.902</v>
@@ -4894,11 +5532,11 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
-        <v>44713</v>
+      <c r="A183" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>1793.538</v>
+        <v>1796.994</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>125.902</v>
@@ -4920,11 +5558,11 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
-        <v>44714</v>
+      <c r="A184" s="0" t="s">
+        <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>1796.994</v>
+        <v>1798.132</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>125.902</v>
@@ -4946,11 +5584,11 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
-        <v>44715</v>
+      <c r="A185" s="0" t="s">
+        <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>1796.994</v>
+        <v>1798.132</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>125.902</v>
@@ -4972,11 +5610,11 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
-        <v>44716</v>
+      <c r="A186" s="0" t="s">
+        <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>1796.994</v>
+        <v>1798.132</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>125.902</v>
@@ -4998,11 +5636,11 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
-        <v>44717</v>
+      <c r="A187" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>1796.994</v>
+        <v>1798.132</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>125.902</v>
@@ -5024,11 +5662,11 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
-        <v>44718</v>
+      <c r="A188" s="0" t="s">
+        <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>1796.994</v>
+        <v>1802.04</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>125.902</v>
@@ -5050,11 +5688,11 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
-        <v>44719</v>
+      <c r="A189" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>1796.994</v>
+        <v>1802.04</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>125.902</v>
@@ -5076,11 +5714,11 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
-        <v>44720</v>
+      <c r="A190" s="0" t="s">
+        <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>1796.994</v>
+        <v>1803.906</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>125.902</v>
@@ -5102,11 +5740,11 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
-        <v>44721</v>
+      <c r="A191" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>1798.132</v>
+        <v>1803.906</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>125.902</v>
@@ -5128,11 +5766,11 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
-        <v>44722</v>
+      <c r="A192" s="0" t="s">
+        <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>1798.132</v>
+        <v>1805.865</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>125.902</v>
@@ -5154,14 +5792,14 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
-        <v>44723</v>
+      <c r="A193" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>1798.132</v>
+        <v>1828.818</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>125.902</v>
+        <v>126.75</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>40.429</v>
@@ -5180,14 +5818,14 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
-        <v>44724</v>
+      <c r="A194" s="0" t="s">
+        <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>1798.132</v>
+        <v>1828.818</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>125.902</v>
+        <v>126.75</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>40.429</v>
@@ -5206,14 +5844,14 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
-        <v>44725</v>
+      <c r="A195" s="0" t="s">
+        <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>1802.04</v>
+        <v>1828.818</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>125.902</v>
+        <v>128.105</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>40.429</v>
@@ -5232,14 +5870,14 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
-        <v>44726</v>
+      <c r="A196" s="0" t="s">
+        <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>1802.04</v>
+        <v>1828.818</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>125.902</v>
+        <v>132.344</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>40.429</v>
@@ -5258,14 +5896,14 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
-        <v>44727</v>
+      <c r="A197" s="0" t="s">
+        <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>1803.906</v>
+        <v>1836.454</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>40.429</v>
@@ -5284,14 +5922,14 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
-        <v>44728</v>
+      <c r="A198" s="0" t="s">
+        <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>1803.906</v>
+        <v>1839.363</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>40.429</v>
@@ -5310,14 +5948,14 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
-        <v>44729</v>
+      <c r="A199" s="0" t="s">
+        <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>1805.865</v>
+        <v>1841.97</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>40.429</v>
@@ -5336,14 +5974,14 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
-        <v>44730</v>
+      <c r="A200" s="0" t="s">
+        <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>1828.818</v>
+        <v>1841.97</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>126.75</v>
+        <v>132.426</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>40.429</v>
@@ -5362,14 +6000,14 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
-        <v>44731</v>
+      <c r="A201" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>1828.818</v>
+        <v>1841.97</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>126.75</v>
+        <v>132.426</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>40.429</v>
@@ -5388,14 +6026,14 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
-        <v>44736.7916666667</v>
+      <c r="A202" s="0" t="s">
+        <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>1828.818</v>
+        <v>1841.97</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>128.105</v>
+        <v>132.426</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>40.429</v>
@@ -5414,14 +6052,14 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
-        <v>44737</v>
+      <c r="A203" s="0" t="s">
+        <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>1828.818</v>
+        <v>1843.146</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>132.344</v>
+        <v>132.426</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>40.429</v>
@@ -5440,11 +6078,11 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
-        <v>44738</v>
+      <c r="A204" s="0" t="s">
+        <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>1836.454</v>
+        <v>1850.778</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>132.426</v>
@@ -5466,11 +6104,11 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
-        <v>44739</v>
+      <c r="A205" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>1839.363</v>
+        <v>1859.281</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>132.426</v>
@@ -5492,11 +6130,11 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
-        <v>44740</v>
+      <c r="A206" s="0" t="s">
+        <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>1841.97</v>
+        <v>1859.281</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>132.426</v>
@@ -5518,11 +6156,11 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
-        <v>44741</v>
+      <c r="A207" s="0" t="s">
+        <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>1841.97</v>
+        <v>1862.009</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>132.426</v>
@@ -5544,11 +6182,11 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
-        <v>44742</v>
+      <c r="A208" s="0" t="s">
+        <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>1841.97</v>
+        <v>1862.405</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>132.426</v>
@@ -5570,11 +6208,11 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
-        <v>44743</v>
+      <c r="A209" s="0" t="s">
+        <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>1841.97</v>
+        <v>1862.405</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>132.426</v>
@@ -5596,11 +6234,11 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
-        <v>44744</v>
+      <c r="A210" s="0" t="s">
+        <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>1843.146</v>
+        <v>1863.029</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>132.426</v>
@@ -5622,14 +6260,14 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
-        <v>44745</v>
+      <c r="A211" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>1850.778</v>
+        <v>1869.914</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>40.429</v>
@@ -5648,14 +6286,14 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
-        <v>44746</v>
+      <c r="A212" s="0" t="s">
+        <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>1859.281</v>
+        <v>1881.196</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>40.429</v>
@@ -5674,14 +6312,14 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
-        <v>44746.4840625</v>
+      <c r="A213" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>1859.281</v>
+        <v>1881.196</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>40.429</v>
@@ -5697,12 +6335,38 @@
       </c>
       <c r="H213" s="0" t="n">
         <v>1628.134</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>1881.196</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>132.465</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>40.429</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>1.802</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>1856.046</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,34 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-04 17:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-13 00:00:00 +0100</t>
+    <t xml:space="preserve">2021-12-13 04:00:00 +0100</t>
   </si>
   <si>
     <t xml:space="preserve">2021-12-14 00:00:00 +0100</t>
@@ -682,7 +655,34 @@
     <t xml:space="preserve">2022-08-23 20:52:25 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-08-23 21:54:43 +0200</t>
+    <t xml:space="preserve">2022-08-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-01 08:39:09 +0200</t>
   </si>
 </sst>
 </file>
@@ -785,15 +785,15 @@
   </sheetPr>
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I214" activeCellId="0" sqref="I214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
@@ -830,13 +830,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1127.386</v>
+        <v>1182.785</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1.802</v>
@@ -856,19 +856,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1127.386</v>
+        <v>1189.794</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.047</v>
+        <v>0.318</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.166</v>
@@ -882,19 +882,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1134.94</v>
+        <v>1189.794</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.047</v>
+        <v>0.318</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.166</v>
@@ -908,19 +908,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1156.259</v>
+        <v>1189.794</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.168</v>
+        <v>2.444</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.166</v>
@@ -934,10 +934,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1156.259</v>
+        <v>1189.794</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.444</v>
@@ -946,7 +946,7 @@
         <v>1.802</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.166</v>
@@ -960,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1156.259</v>
+        <v>1189.794</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.444</v>
@@ -972,7 +972,7 @@
         <v>1.802</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.166</v>
@@ -986,10 +986,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1156.259</v>
+        <v>1190.53</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2.444</v>
@@ -998,7 +998,7 @@
         <v>1.802</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.166</v>
@@ -1012,10 +1012,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1160.022</v>
+        <v>1197.98</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2.444</v>
@@ -1024,7 +1024,7 @@
         <v>1.802</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0.166</v>
@@ -1038,10 +1038,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1160.022</v>
+        <v>1199.181</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>90.112</v>
+        <v>90.117</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2.444</v>
@@ -1050,7 +1050,7 @@
         <v>1.802</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.166</v>
@@ -1064,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1167.552</v>
+        <v>1199.181</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>90.117</v>
@@ -1076,10 +1076,10 @@
         <v>1.802</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.047</v>
+        <v>0.452</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1628.134</v>
@@ -1090,7 +1090,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1189.794</v>
+        <v>1199.181</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>90.117</v>
@@ -1102,10 +1102,10 @@
         <v>1.802</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.318</v>
+        <v>0.452</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1628.134</v>
@@ -1116,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1189.794</v>
+        <v>1206.667</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>90.117</v>
@@ -1128,10 +1128,10 @@
         <v>1.802</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.318</v>
+        <v>0.452</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1628.134</v>
@@ -1142,10 +1142,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1189.794</v>
+        <v>1229.367</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>90.117</v>
+        <v>90.427</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2.444</v>
@@ -1157,7 +1157,7 @@
         <v>0.452</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1628.134</v>
@@ -1168,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1189.794</v>
+        <v>1241.13</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>90.117</v>
+        <v>110.029</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2.444</v>
@@ -1183,7 +1183,7 @@
         <v>0.452</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1628.134</v>
@@ -1194,10 +1194,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1189.794</v>
+        <v>1241.641</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>90.117</v>
+        <v>110.102</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2.444</v>
@@ -1209,7 +1209,7 @@
         <v>0.452</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1628.134</v>
@@ -1220,10 +1220,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1190.53</v>
+        <v>1241.641</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>90.117</v>
+        <v>110.62</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2.444</v>
@@ -1235,7 +1235,7 @@
         <v>0.452</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1628.134</v>
@@ -1246,10 +1246,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1197.98</v>
+        <v>1249.282</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>90.117</v>
+        <v>114.443</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2.444</v>
@@ -1261,7 +1261,7 @@
         <v>0.452</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1628.134</v>
@@ -1272,10 +1272,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1199.181</v>
+        <v>1279.959</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>90.117</v>
+        <v>117.85</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2.444</v>
@@ -1287,7 +1287,7 @@
         <v>0.452</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1628.134</v>
@@ -1298,10 +1298,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1199.181</v>
+        <v>1287.664</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>90.117</v>
+        <v>117.85</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2.444</v>
@@ -1324,10 +1324,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1199.181</v>
+        <v>1310.236</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>90.117</v>
+        <v>117.85</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2.444</v>
@@ -1350,10 +1350,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1206.667</v>
+        <v>1310.236</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>90.117</v>
+        <v>117.85</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2.444</v>
@@ -1376,10 +1376,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1229.367</v>
+        <v>1315.885</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>90.427</v>
+        <v>117.85</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2.444</v>
@@ -1402,10 +1402,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1241.13</v>
+        <v>1315.885</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>110.029</v>
+        <v>117.85</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2.444</v>
@@ -1428,10 +1428,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1241.641</v>
+        <v>1323.507</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>110.102</v>
+        <v>117.855</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2.444</v>
@@ -1454,10 +1454,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1241.641</v>
+        <v>1345.958</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>110.62</v>
+        <v>117.855</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>2.444</v>
@@ -1480,10 +1480,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1249.282</v>
+        <v>1345.958</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>114.443</v>
+        <v>117.855</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>2.444</v>
@@ -1506,10 +1506,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1279.959</v>
+        <v>1345.958</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2.444</v>
@@ -1532,10 +1532,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1287.664</v>
+        <v>1353.581</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2.444</v>
@@ -1558,10 +1558,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1310.236</v>
+        <v>1375.914</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2.444</v>
@@ -1584,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1310.236</v>
+        <v>1386.467</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2.444</v>
@@ -1596,7 +1596,7 @@
         <v>1.802</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.452</v>
+        <v>0.718</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0.753</v>
@@ -1610,10 +1610,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1315.885</v>
+        <v>1386.467</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>2.444</v>
@@ -1622,7 +1622,7 @@
         <v>1.802</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>0.753</v>
@@ -1636,10 +1636,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1315.885</v>
+        <v>1386.467</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>117.85</v>
+        <v>117.855</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>2.444</v>
@@ -1648,7 +1648,7 @@
         <v>1.802</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>0.753</v>
@@ -1662,7 +1662,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1323.507</v>
+        <v>1386.467</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>117.855</v>
@@ -1674,7 +1674,7 @@
         <v>1.802</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0.753</v>
@@ -1688,7 +1688,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1345.958</v>
+        <v>1386.467</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>117.855</v>
@@ -1700,7 +1700,7 @@
         <v>1.802</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>0.753</v>
@@ -1714,19 +1714,19 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1345.958</v>
+        <v>1386.467</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>117.855</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2.444</v>
+        <v>10.036</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>0.753</v>
@@ -1740,19 +1740,19 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1345.958</v>
+        <v>1394.103</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>0.753</v>
@@ -1766,19 +1766,19 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1353.581</v>
+        <v>1416.446</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>0.753</v>
@@ -1792,19 +1792,19 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1375.914</v>
+        <v>1416.446</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>0.753</v>
@@ -1818,19 +1818,19 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.718</v>
+        <v>2.911</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>0.753</v>
@@ -1844,13 +1844,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1.802</v>
@@ -1870,13 +1870,13 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1.802</v>
@@ -1896,13 +1896,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1386.467</v>
+        <v>1416.446</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1.802</v>
@@ -1922,13 +1922,13 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1386.467</v>
+        <v>1423.835</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2.444</v>
+        <v>32.949</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1.802</v>
@@ -1948,13 +1948,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1386.467</v>
+        <v>1429.616</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>117.855</v>
+        <v>120.167</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>10.036</v>
+        <v>32.949</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1.802</v>
@@ -1974,7 +1974,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1394.103</v>
+        <v>1429.616</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>120.167</v>
@@ -2000,7 +2000,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>120.167</v>
@@ -2026,7 +2026,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>120.167</v>
@@ -2052,13 +2052,13 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>32.949</v>
+        <v>35.429</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1.802</v>
@@ -2078,13 +2078,13 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1416.446</v>
+        <v>1429.616</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1.802</v>
@@ -2104,13 +2104,13 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1416.446</v>
+        <v>1436.524</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1.802</v>
@@ -2130,13 +2130,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1416.446</v>
+        <v>1436.921</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1.802</v>
@@ -2156,13 +2156,13 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1423.835</v>
+        <v>1438.812</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1.802</v>
@@ -2182,13 +2182,13 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1429.616</v>
+        <v>1438.812</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>1.802</v>
@@ -2208,13 +2208,13 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1429.616</v>
+        <v>1438.812</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1.802</v>
@@ -2234,13 +2234,13 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1429.616</v>
+        <v>1438.941</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1.802</v>
@@ -2260,13 +2260,13 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1429.616</v>
+        <v>1446.553</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>120.167</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>32.949</v>
+        <v>36.405</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1.802</v>
@@ -2286,13 +2286,13 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1429.616</v>
+        <v>1471.601</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>35.429</v>
+        <v>36.405</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1.802</v>
@@ -2312,10 +2312,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1429.616</v>
+        <v>1471.601</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>36.405</v>
@@ -2338,10 +2338,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1436.524</v>
+        <v>1471.601</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>36.405</v>
@@ -2364,10 +2364,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1436.921</v>
+        <v>1471.601</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>36.405</v>
@@ -2390,10 +2390,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1438.812</v>
+        <v>1471.601</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>36.405</v>
@@ -2416,10 +2416,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1438.812</v>
+        <v>1471.601</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>120.167</v>
+        <v>120.727</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>36.405</v>
@@ -2442,13 +2442,13 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1438.812</v>
+        <v>1479.143</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>120.167</v>
+        <v>120.76</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1.802</v>
@@ -2468,13 +2468,13 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1438.941</v>
+        <v>1484.415</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>120.167</v>
+        <v>120.76</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1.802</v>
@@ -2494,13 +2494,13 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1446.553</v>
+        <v>1484.415</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>120.167</v>
+        <v>120.76</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1.802</v>
@@ -2520,13 +2520,13 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1471.601</v>
+        <v>1484.415</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1.802</v>
@@ -2546,13 +2546,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1471.601</v>
+        <v>1484.415</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1.802</v>
@@ -2572,13 +2572,13 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1471.601</v>
+        <v>1486.893</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1.802</v>
@@ -2598,13 +2598,13 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1471.601</v>
+        <v>1486.893</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1.802</v>
@@ -2624,13 +2624,13 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1471.601</v>
+        <v>1494.513</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1.802</v>
@@ -2650,13 +2650,13 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1471.601</v>
+        <v>1500.075</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>120.727</v>
+        <v>120.76</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>36.405</v>
+        <v>36.416</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1.802</v>
@@ -2676,7 +2676,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1479.143</v>
+        <v>1500.075</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>120.76</v>
@@ -2702,7 +2702,7 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1484.415</v>
+        <v>1502.493</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>120.76</v>
@@ -2728,7 +2728,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1484.415</v>
+        <v>1502.493</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>120.76</v>
@@ -2754,7 +2754,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1484.415</v>
+        <v>1502.983</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>120.76</v>
@@ -2780,7 +2780,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1484.415</v>
+        <v>1502.983</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>120.76</v>
@@ -2806,7 +2806,7 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1486.893</v>
+        <v>1502.983</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>120.76</v>
@@ -2832,7 +2832,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1486.893</v>
+        <v>1502.983</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>120.76</v>
@@ -2858,7 +2858,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1494.513</v>
+        <v>1502.983</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>120.76</v>
@@ -2884,13 +2884,13 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1500.075</v>
+        <v>1502.983</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1.802</v>
@@ -2910,13 +2910,13 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1500.075</v>
+        <v>1502.983</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1.802</v>
@@ -2936,13 +2936,13 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1502.493</v>
+        <v>1502.983</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1.802</v>
@@ -2962,13 +2962,13 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1502.493</v>
+        <v>1502.983</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1.802</v>
@@ -2994,7 +2994,7 @@
         <v>120.76</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1.802</v>
@@ -3014,13 +3014,13 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1502.983</v>
+        <v>1503.528</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1.802</v>
@@ -3040,13 +3040,13 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1502.983</v>
+        <v>1503.528</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1.802</v>
@@ -3066,13 +3066,13 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1502.983</v>
+        <v>1503.528</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1.802</v>
@@ -3092,13 +3092,13 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1502.983</v>
+        <v>1503.543</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>120.76</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1.802</v>
@@ -3118,7 +3118,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1502.983</v>
+        <v>1504.3</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>120.76</v>
@@ -3144,7 +3144,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1502.983</v>
+        <v>1504.3</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>120.76</v>
@@ -3170,7 +3170,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1502.983</v>
+        <v>1504.3</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>120.76</v>
@@ -3196,7 +3196,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1502.983</v>
+        <v>1509.15</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>120.76</v>
@@ -3222,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1502.983</v>
+        <v>1509.15</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>120.76</v>
@@ -3248,7 +3248,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1503.528</v>
+        <v>1509.15</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>120.76</v>
@@ -3274,7 +3274,7 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1503.528</v>
+        <v>1509.15</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>120.76</v>
@@ -3300,7 +3300,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1503.528</v>
+        <v>1509.15</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>120.76</v>
@@ -3326,10 +3326,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1503.543</v>
+        <v>1516.393</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>37.963</v>
@@ -3352,10 +3352,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1504.3</v>
+        <v>1516.393</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>37.963</v>
@@ -3378,10 +3378,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>1504.3</v>
+        <v>1518.198</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>37.963</v>
@@ -3404,10 +3404,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>1504.3</v>
+        <v>1518.198</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>37.963</v>
@@ -3430,10 +3430,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1509.15</v>
+        <v>1518.198</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>37.963</v>
@@ -3456,10 +3456,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1509.15</v>
+        <v>1518.198</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>37.963</v>
@@ -3482,10 +3482,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1509.15</v>
+        <v>1519.152</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>37.963</v>
@@ -3508,10 +3508,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1509.15</v>
+        <v>1519.152</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>37.963</v>
@@ -3534,10 +3534,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>1509.15</v>
+        <v>1526.801</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>37.963</v>
@@ -3560,7 +3560,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1516.393</v>
+        <v>1542.406</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>120.783</v>
@@ -3586,7 +3586,7 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1516.393</v>
+        <v>1546.617</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>120.783</v>
@@ -3612,7 +3612,7 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1518.198</v>
+        <v>1546.617</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>120.783</v>
@@ -3638,7 +3638,7 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>1518.198</v>
+        <v>1549.226</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>120.783</v>
@@ -3664,7 +3664,7 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1518.198</v>
+        <v>1549.226</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>120.783</v>
@@ -3690,7 +3690,7 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1518.198</v>
+        <v>1549.226</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>120.783</v>
@@ -3716,7 +3716,7 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1519.152</v>
+        <v>1554.01</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>120.783</v>
@@ -3742,7 +3742,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1519.152</v>
+        <v>1555.705</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>120.783</v>
@@ -3768,7 +3768,7 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1526.801</v>
+        <v>1555.705</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>120.783</v>
@@ -3794,7 +3794,7 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1542.406</v>
+        <v>1555.705</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>120.783</v>
@@ -3820,7 +3820,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1546.617</v>
+        <v>1555.705</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>120.783</v>
@@ -3846,7 +3846,7 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1546.617</v>
+        <v>1557.601</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>120.783</v>
@@ -3872,7 +3872,7 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1549.226</v>
+        <v>1557.601</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>120.783</v>
@@ -3898,7 +3898,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>1549.226</v>
+        <v>1557.601</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>120.783</v>
@@ -3924,7 +3924,7 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>1549.226</v>
+        <v>1562.795</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>120.783</v>
@@ -3950,7 +3950,7 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>1554.01</v>
+        <v>1566.999</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>120.783</v>
@@ -3976,7 +3976,7 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>1555.705</v>
+        <v>1566.999</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>120.783</v>
@@ -4002,7 +4002,7 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>1555.705</v>
+        <v>1569.146</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>120.783</v>
@@ -4028,7 +4028,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>1555.705</v>
+        <v>1569.146</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>120.783</v>
@@ -4054,7 +4054,7 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>1555.705</v>
+        <v>1569.146</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>120.783</v>
@@ -4080,7 +4080,7 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1557.601</v>
+        <v>1574.856</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>120.783</v>
@@ -4106,7 +4106,7 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>1557.601</v>
+        <v>1596.036</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>120.783</v>
@@ -4132,7 +4132,7 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>1557.601</v>
+        <v>1607.704</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>120.783</v>
@@ -4158,7 +4158,7 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>1562.795</v>
+        <v>1607.704</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>120.783</v>
@@ -4184,7 +4184,7 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>1566.999</v>
+        <v>1610.236</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>120.783</v>
@@ -4210,7 +4210,7 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1566.999</v>
+        <v>1610.236</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>120.783</v>
@@ -4236,7 +4236,7 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>1569.146</v>
+        <v>1615.023</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>120.783</v>
@@ -4262,7 +4262,7 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>1569.146</v>
+        <v>1624.966</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>120.783</v>
@@ -4288,7 +4288,7 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1569.146</v>
+        <v>1624.966</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>120.783</v>
@@ -4314,7 +4314,7 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>1574.856</v>
+        <v>1627.551</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>120.783</v>
@@ -4340,7 +4340,7 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>1596.036</v>
+        <v>1627.551</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>120.783</v>
@@ -4366,7 +4366,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>1607.704</v>
+        <v>1627.551</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>120.783</v>
@@ -4392,7 +4392,7 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>1607.704</v>
+        <v>1628.089</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>120.783</v>
@@ -4418,7 +4418,7 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>1610.236</v>
+        <v>1628.089</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>120.783</v>
@@ -4444,7 +4444,7 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>1610.236</v>
+        <v>1628.089</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>120.783</v>
@@ -4470,10 +4470,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1615.023</v>
+        <v>1655.3</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>37.963</v>
@@ -4496,10 +4496,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>1624.966</v>
+        <v>1681.417</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>37.963</v>
@@ -4522,10 +4522,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>1624.966</v>
+        <v>1695.138</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>37.963</v>
@@ -4548,10 +4548,10 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1627.551</v>
+        <v>1697.331</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>37.963</v>
@@ -4574,10 +4574,10 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>1627.551</v>
+        <v>1698.137</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>37.963</v>
@@ -4600,10 +4600,10 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>1627.551</v>
+        <v>1698.137</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>37.963</v>
@@ -4626,10 +4626,10 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>1628.089</v>
+        <v>1698.137</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>37.963</v>
@@ -4652,10 +4652,10 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>1628.089</v>
+        <v>1698.137</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>37.963</v>
@@ -4678,10 +4678,10 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>1628.089</v>
+        <v>1698.96</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>37.963</v>
@@ -4704,7 +4704,7 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>1655.3</v>
+        <v>1698.96</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>120.903</v>
@@ -4730,7 +4730,7 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>1681.417</v>
+        <v>1698.96</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>120.903</v>
@@ -4756,7 +4756,7 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>1695.138</v>
+        <v>1698.96</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>120.903</v>
@@ -4782,7 +4782,7 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>1697.331</v>
+        <v>1699.023</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>120.903</v>
@@ -4808,7 +4808,7 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>1698.137</v>
+        <v>1703.826</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>120.903</v>
@@ -4834,7 +4834,7 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>1698.137</v>
+        <v>1717.017</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>120.903</v>
@@ -4860,7 +4860,7 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>1698.137</v>
+        <v>1721.798</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>120.903</v>
@@ -4886,7 +4886,7 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>1698.137</v>
+        <v>1732.352</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>120.903</v>
@@ -4912,7 +4912,7 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>1698.96</v>
+        <v>1732.352</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>120.903</v>
@@ -4938,13 +4938,13 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>1698.96</v>
+        <v>1732.352</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1.802</v>
@@ -4964,13 +4964,13 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>1698.96</v>
+        <v>1732.352</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1.802</v>
@@ -4990,13 +4990,13 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>1698.96</v>
+        <v>1739.822</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1.802</v>
@@ -5016,13 +5016,13 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>1699.023</v>
+        <v>1753.541</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1.802</v>
@@ -5042,13 +5042,13 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>1703.826</v>
+        <v>1753.541</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>120.903</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1.802</v>
@@ -5068,13 +5068,13 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>1717.017</v>
+        <v>1781.201</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>1.802</v>
@@ -5094,13 +5094,13 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>1721.798</v>
+        <v>1793.538</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>1.802</v>
@@ -5120,13 +5120,13 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>1732.352</v>
+        <v>1793.538</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>1.802</v>
@@ -5146,13 +5146,13 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>1732.352</v>
+        <v>1796.994</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1.802</v>
@@ -5172,10 +5172,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>1732.352</v>
+        <v>1796.994</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>40.429</v>
@@ -5198,10 +5198,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>1732.352</v>
+        <v>1796.994</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>40.429</v>
@@ -5224,10 +5224,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>1739.822</v>
+        <v>1796.994</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>40.429</v>
@@ -5250,10 +5250,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>1753.541</v>
+        <v>1796.994</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>40.429</v>
@@ -5276,10 +5276,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>1753.541</v>
+        <v>1796.994</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>40.429</v>
@@ -5302,7 +5302,7 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>1781.201</v>
+        <v>1796.994</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>125.902</v>
@@ -5328,7 +5328,7 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>1793.538</v>
+        <v>1798.132</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>125.902</v>
@@ -5354,7 +5354,7 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>1793.538</v>
+        <v>1798.132</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>125.902</v>
@@ -5380,7 +5380,7 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>1796.994</v>
+        <v>1798.132</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>125.902</v>
@@ -5406,7 +5406,7 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>1796.994</v>
+        <v>1798.132</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>125.902</v>
@@ -5432,7 +5432,7 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>1796.994</v>
+        <v>1802.04</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>125.902</v>
@@ -5458,7 +5458,7 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>1796.994</v>
+        <v>1802.04</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>125.902</v>
@@ -5484,7 +5484,7 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>1796.994</v>
+        <v>1803.906</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>125.902</v>
@@ -5510,7 +5510,7 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>1796.994</v>
+        <v>1803.906</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>125.902</v>
@@ -5536,7 +5536,7 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>1796.994</v>
+        <v>1805.865</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>125.902</v>
@@ -5562,10 +5562,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>1798.132</v>
+        <v>1828.818</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>125.902</v>
+        <v>126.75</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>40.429</v>
@@ -5588,10 +5588,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>1798.132</v>
+        <v>1828.818</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>125.902</v>
+        <v>126.75</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>40.429</v>
@@ -5614,10 +5614,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>1798.132</v>
+        <v>1828.818</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>125.902</v>
+        <v>128.105</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>40.429</v>
@@ -5640,10 +5640,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>1798.132</v>
+        <v>1828.818</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>125.902</v>
+        <v>132.344</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>40.429</v>
@@ -5666,10 +5666,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>1802.04</v>
+        <v>1836.454</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>40.429</v>
@@ -5692,10 +5692,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>1802.04</v>
+        <v>1839.363</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>40.429</v>
@@ -5718,10 +5718,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>1803.906</v>
+        <v>1841.97</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>40.429</v>
@@ -5744,10 +5744,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>1803.906</v>
+        <v>1841.97</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>40.429</v>
@@ -5770,10 +5770,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>1805.865</v>
+        <v>1841.97</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>40.429</v>
@@ -5796,10 +5796,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>1828.818</v>
+        <v>1841.97</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>126.75</v>
+        <v>132.426</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>40.429</v>
@@ -5822,10 +5822,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>1828.818</v>
+        <v>1843.146</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>126.75</v>
+        <v>132.426</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>40.429</v>
@@ -5848,10 +5848,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>1828.818</v>
+        <v>1850.778</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>128.105</v>
+        <v>132.426</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>40.429</v>
@@ -5874,10 +5874,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>1828.818</v>
+        <v>1859.281</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>132.344</v>
+        <v>132.426</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>40.429</v>
@@ -5900,7 +5900,7 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>1836.454</v>
+        <v>1859.281</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>132.426</v>
@@ -5926,7 +5926,7 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>1839.363</v>
+        <v>1862.009</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>132.426</v>
@@ -5952,7 +5952,7 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>1841.97</v>
+        <v>1862.405</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>132.426</v>
@@ -5978,7 +5978,7 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>1841.97</v>
+        <v>1862.405</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>132.426</v>
@@ -6004,7 +6004,7 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>1841.97</v>
+        <v>1863.029</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>132.426</v>
@@ -6030,10 +6030,10 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>1841.97</v>
+        <v>1869.914</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>40.429</v>
@@ -6056,10 +6056,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>1843.146</v>
+        <v>1881.196</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>40.429</v>
@@ -6082,10 +6082,10 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>1850.778</v>
+        <v>1881.196</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>40.429</v>
@@ -6108,10 +6108,10 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>1859.281</v>
+        <v>1886.222</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>40.429</v>
@@ -6126,7 +6126,7 @@
         <v>0.753</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,10 +6134,10 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>1859.281</v>
+        <v>1907.981</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>40.429</v>
@@ -6152,7 +6152,7 @@
         <v>0.753</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,10 +6160,10 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>1862.009</v>
+        <v>1907.981</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>40.429</v>
@@ -6178,7 +6178,7 @@
         <v>0.753</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,10 +6186,10 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>1862.405</v>
+        <v>1907.981</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>40.429</v>
@@ -6204,7 +6204,7 @@
         <v>0.753</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6212,10 +6212,10 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>1862.405</v>
+        <v>1907.981</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>40.429</v>
@@ -6230,7 +6230,7 @@
         <v>0.753</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,10 +6238,10 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>1863.029</v>
+        <v>1907.981</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>40.429</v>
@@ -6256,7 +6256,7 @@
         <v>0.753</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,7 +6264,7 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>1869.914</v>
+        <v>1907.981</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>132.465</v>
@@ -6282,7 +6282,7 @@
         <v>0.753</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,7 +6290,7 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>1881.196</v>
+        <v>1907.981</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>132.465</v>
@@ -6308,7 +6308,7 @@
         <v>0.753</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,7 +6316,7 @@
         <v>219</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>1881.196</v>
+        <v>1907.981</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>132.465</v>
@@ -6334,7 +6334,7 @@
         <v>0.753</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6342,7 +6342,7 @@
         <v>220</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>1881.196</v>
+        <v>1907.981</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>132.465</v>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,184 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-13 04:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-10 00:00:00 +0100</t>
+    <t xml:space="preserve">2022-02-10 17:00:00 +0100</t>
   </si>
   <si>
     <t xml:space="preserve">2022-02-11 00:00:00 +0100</t>
@@ -682,7 +505,184 @@
     <t xml:space="preserve">2022-09-01 00:00:00 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-09-01 08:39:09 +0200</t>
+    <t xml:space="preserve">2022-09-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-16 00:00:01 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-30 20:52:13 +0100</t>
   </si>
 </sst>
 </file>
@@ -783,13 +783,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I214" activeCellId="0" sqref="I214"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K193" activeCellId="0" sqref="K193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
@@ -830,22 +830,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1182.785</v>
+        <v>1471.601</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>90.117</v>
+        <v>120.727</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2.444</v>
+        <v>36.405</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.047</v>
+        <v>2.911</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1628.134</v>
@@ -856,22 +856,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1189.794</v>
+        <v>1471.601</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>90.117</v>
+        <v>120.727</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2.444</v>
+        <v>36.405</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.318</v>
+        <v>2.911</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1628.134</v>
@@ -882,22 +882,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1189.794</v>
+        <v>1471.601</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>90.117</v>
+        <v>120.727</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2.444</v>
+        <v>36.405</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.318</v>
+        <v>2.911</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1628.134</v>
@@ -908,22 +908,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1189.794</v>
+        <v>1479.143</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1628.134</v>
@@ -934,22 +934,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1189.794</v>
+        <v>1484.415</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1628.134</v>
@@ -960,22 +960,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1189.794</v>
+        <v>1484.415</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1628.134</v>
@@ -986,22 +986,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1190.53</v>
+        <v>1484.415</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1628.134</v>
@@ -1012,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1197.98</v>
+        <v>1484.415</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1628.134</v>
@@ -1038,22 +1038,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1199.181</v>
+        <v>1486.893</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.166</v>
+        <v>0.753</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1628.134</v>
@@ -1064,19 +1064,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1199.181</v>
+        <v>1486.893</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0.753</v>
@@ -1090,19 +1090,19 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1199.181</v>
+        <v>1494.513</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.753</v>
@@ -1116,19 +1116,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1206.667</v>
+        <v>1500.075</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>90.117</v>
+        <v>120.76</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.753</v>
@@ -1142,19 +1142,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1229.367</v>
+        <v>1500.075</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>90.427</v>
+        <v>120.76</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.753</v>
@@ -1168,19 +1168,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1241.13</v>
+        <v>1502.493</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>110.029</v>
+        <v>120.76</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.753</v>
@@ -1194,19 +1194,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1241.641</v>
+        <v>1502.493</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>110.102</v>
+        <v>120.76</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.753</v>
@@ -1220,19 +1220,19 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1241.641</v>
+        <v>1502.983</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>110.62</v>
+        <v>120.76</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.753</v>
@@ -1246,19 +1246,19 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1249.282</v>
+        <v>1502.983</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>114.443</v>
+        <v>120.76</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.753</v>
@@ -1272,19 +1272,19 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1279.959</v>
+        <v>1502.983</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>117.85</v>
+        <v>120.76</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.753</v>
@@ -1298,19 +1298,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1287.664</v>
+        <v>1502.983</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>117.85</v>
+        <v>120.76</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0.753</v>
@@ -1324,19 +1324,19 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1310.236</v>
+        <v>1502.983</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>117.85</v>
+        <v>120.76</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2.444</v>
+        <v>36.416</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0.753</v>
@@ -1350,19 +1350,19 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1310.236</v>
+        <v>1502.983</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>117.85</v>
+        <v>120.76</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0.753</v>
@@ -1376,19 +1376,19 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1315.885</v>
+        <v>1502.983</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>117.85</v>
+        <v>120.76</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0.753</v>
@@ -1402,19 +1402,19 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1315.885</v>
+        <v>1502.983</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>117.85</v>
+        <v>120.76</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0.753</v>
@@ -1428,19 +1428,19 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1323.507</v>
+        <v>1502.983</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>0.753</v>
@@ -1454,19 +1454,19 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1345.958</v>
+        <v>1502.983</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>0.753</v>
@@ -1480,19 +1480,19 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1345.958</v>
+        <v>1503.528</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0.753</v>
@@ -1506,19 +1506,19 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1345.958</v>
+        <v>1503.528</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>0.753</v>
@@ -1532,19 +1532,19 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1353.581</v>
+        <v>1503.528</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0.753</v>
@@ -1558,19 +1558,19 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1375.914</v>
+        <v>1503.543</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.452</v>
+        <v>2.911</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>0.753</v>
@@ -1584,19 +1584,19 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1386.467</v>
+        <v>1504.3</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1.802</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.718</v>
+        <v>2.911</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0.753</v>
@@ -1610,13 +1610,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1386.467</v>
+        <v>1504.3</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1.802</v>
@@ -1636,13 +1636,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1386.467</v>
+        <v>1504.3</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1.802</v>
@@ -1662,13 +1662,13 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1386.467</v>
+        <v>1509.15</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1.802</v>
@@ -1688,13 +1688,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1386.467</v>
+        <v>1509.15</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>2.444</v>
+        <v>37.963</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1.802</v>
@@ -1714,13 +1714,13 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1386.467</v>
+        <v>1509.15</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>117.855</v>
+        <v>120.76</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>10.036</v>
+        <v>37.963</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1.802</v>
@@ -1740,13 +1740,13 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1394.103</v>
+        <v>1509.15</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120.167</v>
+        <v>120.76</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1.802</v>
@@ -1766,13 +1766,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1416.446</v>
+        <v>1509.15</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>120.167</v>
+        <v>120.76</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1.802</v>
@@ -1792,13 +1792,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1416.446</v>
+        <v>1516.393</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1.802</v>
@@ -1818,13 +1818,13 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1416.446</v>
+        <v>1516.393</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1.802</v>
@@ -1844,13 +1844,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1416.446</v>
+        <v>1518.198</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1.802</v>
@@ -1870,13 +1870,13 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1416.446</v>
+        <v>1518.198</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1.802</v>
@@ -1896,13 +1896,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1416.446</v>
+        <v>1518.198</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1.802</v>
@@ -1922,13 +1922,13 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1423.835</v>
+        <v>1518.198</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1.802</v>
@@ -1948,13 +1948,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1429.616</v>
+        <v>1519.152</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1.802</v>
@@ -1974,13 +1974,13 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1429.616</v>
+        <v>1519.152</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1.802</v>
@@ -2000,13 +2000,13 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1429.616</v>
+        <v>1526.801</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1.802</v>
@@ -2026,13 +2026,13 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1429.616</v>
+        <v>1542.406</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>32.949</v>
+        <v>37.963</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1.802</v>
@@ -2052,13 +2052,13 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1429.616</v>
+        <v>1546.617</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>35.429</v>
+        <v>37.963</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1.802</v>
@@ -2078,13 +2078,13 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1429.616</v>
+        <v>1546.617</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1.802</v>
@@ -2104,13 +2104,13 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1436.524</v>
+        <v>1549.226</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1.802</v>
@@ -2130,13 +2130,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1436.921</v>
+        <v>1549.226</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1.802</v>
@@ -2156,13 +2156,13 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1438.812</v>
+        <v>1549.226</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1.802</v>
@@ -2182,13 +2182,13 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1438.812</v>
+        <v>1554.01</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>1.802</v>
@@ -2208,13 +2208,13 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1438.812</v>
+        <v>1555.705</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1.802</v>
@@ -2234,13 +2234,13 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1438.941</v>
+        <v>1555.705</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1.802</v>
@@ -2260,13 +2260,13 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1446.553</v>
+        <v>1555.705</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>120.167</v>
+        <v>120.783</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1.802</v>
@@ -2286,13 +2286,13 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1471.601</v>
+        <v>1555.705</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1.802</v>
@@ -2312,13 +2312,13 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1471.601</v>
+        <v>1557.601</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1.802</v>
@@ -2338,13 +2338,13 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1471.601</v>
+        <v>1557.601</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1.802</v>
@@ -2364,13 +2364,13 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1471.601</v>
+        <v>1557.601</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1.802</v>
@@ -2390,13 +2390,13 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1471.601</v>
+        <v>1562.795</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1.802</v>
@@ -2416,13 +2416,13 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1471.601</v>
+        <v>1566.999</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1.802</v>
@@ -2442,13 +2442,13 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1479.143</v>
+        <v>1566.999</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1.802</v>
@@ -2468,13 +2468,13 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1484.415</v>
+        <v>1569.146</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1.802</v>
@@ -2494,13 +2494,13 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1484.415</v>
+        <v>1569.146</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1.802</v>
@@ -2520,13 +2520,13 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1484.415</v>
+        <v>1569.146</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1.802</v>
@@ -2546,13 +2546,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1484.415</v>
+        <v>1574.856</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1.802</v>
@@ -2572,13 +2572,13 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1486.893</v>
+        <v>1596.036</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1.802</v>
@@ -2598,13 +2598,13 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1486.893</v>
+        <v>1607.704</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1.802</v>
@@ -2624,13 +2624,13 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1494.513</v>
+        <v>1607.704</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1.802</v>
@@ -2650,13 +2650,13 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1500.075</v>
+        <v>1610.236</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1.802</v>
@@ -2676,13 +2676,13 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1500.075</v>
+        <v>1610.236</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1.802</v>
@@ -2702,13 +2702,13 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1502.493</v>
+        <v>1615.023</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1.802</v>
@@ -2728,13 +2728,13 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1502.493</v>
+        <v>1624.966</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1.802</v>
@@ -2754,13 +2754,13 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1502.983</v>
+        <v>1624.966</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1.802</v>
@@ -2780,13 +2780,13 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1502.983</v>
+        <v>1627.551</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1.802</v>
@@ -2806,13 +2806,13 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1502.983</v>
+        <v>1627.551</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1.802</v>
@@ -2832,13 +2832,13 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1502.983</v>
+        <v>1627.551</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1.802</v>
@@ -2858,13 +2858,13 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1502.983</v>
+        <v>1628.089</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1.802</v>
@@ -2884,10 +2884,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1502.983</v>
+        <v>1628.089</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>37.963</v>
@@ -2910,10 +2910,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1502.983</v>
+        <v>1628.089</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>37.963</v>
@@ -2936,10 +2936,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1502.983</v>
+        <v>1655.3</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>37.963</v>
@@ -2962,10 +2962,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1502.983</v>
+        <v>1681.417</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>37.963</v>
@@ -2988,10 +2988,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>1502.983</v>
+        <v>1695.138</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>37.963</v>
@@ -3014,10 +3014,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1503.528</v>
+        <v>1697.331</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>37.963</v>
@@ -3040,10 +3040,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1503.528</v>
+        <v>1698.137</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>37.963</v>
@@ -3066,10 +3066,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1503.528</v>
+        <v>1698.137</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>37.963</v>
@@ -3092,10 +3092,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1503.543</v>
+        <v>1698.137</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>37.963</v>
@@ -3118,10 +3118,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1504.3</v>
+        <v>1698.137</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>37.963</v>
@@ -3144,10 +3144,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1504.3</v>
+        <v>1698.96</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>37.963</v>
@@ -3170,10 +3170,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1504.3</v>
+        <v>1698.96</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>37.963</v>
@@ -3196,10 +3196,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1509.15</v>
+        <v>1698.96</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>37.963</v>
@@ -3222,10 +3222,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1509.15</v>
+        <v>1698.96</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>37.963</v>
@@ -3248,10 +3248,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1509.15</v>
+        <v>1699.023</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>37.963</v>
@@ -3274,10 +3274,10 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1509.15</v>
+        <v>1703.826</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>37.963</v>
@@ -3300,10 +3300,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1509.15</v>
+        <v>1717.017</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>37.963</v>
@@ -3326,10 +3326,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1516.393</v>
+        <v>1721.798</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>37.963</v>
@@ -3352,10 +3352,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1516.393</v>
+        <v>1732.352</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>37.963</v>
@@ -3378,10 +3378,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>1518.198</v>
+        <v>1732.352</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>37.963</v>
@@ -3404,13 +3404,13 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>1518.198</v>
+        <v>1732.352</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1.802</v>
@@ -3430,13 +3430,13 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1518.198</v>
+        <v>1732.352</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1.802</v>
@@ -3456,13 +3456,13 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1518.198</v>
+        <v>1739.822</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1.802</v>
@@ -3482,13 +3482,13 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1519.152</v>
+        <v>1753.541</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1.802</v>
@@ -3508,13 +3508,13 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1519.152</v>
+        <v>1753.541</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1.802</v>
@@ -3534,13 +3534,13 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>1526.801</v>
+        <v>1781.201</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1.802</v>
@@ -3560,13 +3560,13 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1542.406</v>
+        <v>1793.538</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1.802</v>
@@ -3586,13 +3586,13 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1546.617</v>
+        <v>1793.538</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1.802</v>
@@ -3612,13 +3612,13 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1546.617</v>
+        <v>1796.994</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1.802</v>
@@ -3638,13 +3638,13 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>1549.226</v>
+        <v>1796.994</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>1.802</v>
@@ -3664,13 +3664,13 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1549.226</v>
+        <v>1796.994</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>1.802</v>
@@ -3690,13 +3690,13 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1549.226</v>
+        <v>1796.994</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>1.802</v>
@@ -3716,13 +3716,13 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1554.01</v>
+        <v>1796.994</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>1.802</v>
@@ -3742,13 +3742,13 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1555.705</v>
+        <v>1796.994</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>1.802</v>
@@ -3768,13 +3768,13 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1555.705</v>
+        <v>1796.994</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>1.802</v>
@@ -3794,13 +3794,13 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1555.705</v>
+        <v>1798.132</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>1.802</v>
@@ -3820,13 +3820,13 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1555.705</v>
+        <v>1798.132</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>1.802</v>
@@ -3846,13 +3846,13 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1557.601</v>
+        <v>1798.132</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>1.802</v>
@@ -3872,13 +3872,13 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1557.601</v>
+        <v>1798.132</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>1.802</v>
@@ -3898,13 +3898,13 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>1557.601</v>
+        <v>1802.04</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>1.802</v>
@@ -3924,13 +3924,13 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>1562.795</v>
+        <v>1802.04</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1.802</v>
@@ -3950,13 +3950,13 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>1566.999</v>
+        <v>1803.906</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1.802</v>
@@ -3976,13 +3976,13 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>1566.999</v>
+        <v>1803.906</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1.802</v>
@@ -4002,13 +4002,13 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>1569.146</v>
+        <v>1805.865</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1.802</v>
@@ -4028,13 +4028,13 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>1569.146</v>
+        <v>1828.818</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>120.783</v>
+        <v>126.75</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1.802</v>
@@ -4054,13 +4054,13 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>1569.146</v>
+        <v>1828.818</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>120.783</v>
+        <v>126.75</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1.802</v>
@@ -4080,13 +4080,13 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1574.856</v>
+        <v>1828.818</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>120.783</v>
+        <v>128.105</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1.802</v>
@@ -4106,13 +4106,13 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>1596.036</v>
+        <v>1828.818</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>120.783</v>
+        <v>132.344</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1.802</v>
@@ -4132,13 +4132,13 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>1607.704</v>
+        <v>1836.454</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1.802</v>
@@ -4158,13 +4158,13 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>1607.704</v>
+        <v>1839.363</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1.802</v>
@@ -4184,13 +4184,13 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>1610.236</v>
+        <v>1841.97</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1.802</v>
@@ -4210,13 +4210,13 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1610.236</v>
+        <v>1841.97</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1.802</v>
@@ -4236,13 +4236,13 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>1615.023</v>
+        <v>1841.97</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1.802</v>
@@ -4262,13 +4262,13 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>1624.966</v>
+        <v>1841.97</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1.802</v>
@@ -4288,13 +4288,13 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1624.966</v>
+        <v>1843.146</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1.802</v>
@@ -4314,13 +4314,13 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>1627.551</v>
+        <v>1850.778</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1.802</v>
@@ -4340,13 +4340,13 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>1627.551</v>
+        <v>1859.281</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1.802</v>
@@ -4366,13 +4366,13 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>1627.551</v>
+        <v>1859.281</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1.802</v>
@@ -4392,13 +4392,13 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>1628.089</v>
+        <v>1862.009</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1.802</v>
@@ -4418,13 +4418,13 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>1628.089</v>
+        <v>1862.405</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1.802</v>
@@ -4444,13 +4444,13 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>1628.089</v>
+        <v>1862.405</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1.802</v>
@@ -4470,13 +4470,13 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1655.3</v>
+        <v>1863.029</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1.802</v>
@@ -4496,13 +4496,13 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>1681.417</v>
+        <v>1869.914</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1.802</v>
@@ -4522,13 +4522,13 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>1695.138</v>
+        <v>1881.196</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1.802</v>
@@ -4548,13 +4548,13 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1697.331</v>
+        <v>1881.196</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1.802</v>
@@ -4574,13 +4574,13 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>1698.137</v>
+        <v>1886.222</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1.802</v>
@@ -4592,7 +4592,7 @@
         <v>0.753</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,13 +4600,13 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>1698.137</v>
+        <v>1907.981</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1.802</v>
@@ -4618,7 +4618,7 @@
         <v>0.753</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,13 +4626,13 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>1698.137</v>
+        <v>1907.981</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1.802</v>
@@ -4644,7 +4644,7 @@
         <v>0.753</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,13 +4652,13 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>1698.137</v>
+        <v>1907.981</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1.802</v>
@@ -4670,7 +4670,7 @@
         <v>0.753</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,13 +4678,13 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>1698.96</v>
+        <v>1907.981</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1.802</v>
@@ -4696,7 +4696,7 @@
         <v>0.753</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,13 +4704,13 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>1698.96</v>
+        <v>1907.981</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1.802</v>
@@ -4722,7 +4722,7 @@
         <v>0.753</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,13 +4730,13 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>1698.96</v>
+        <v>1907.981</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1.802</v>
@@ -4748,7 +4748,7 @@
         <v>0.753</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,13 +4756,13 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>1698.96</v>
+        <v>1907.981</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1.802</v>
@@ -4774,7 +4774,7 @@
         <v>0.753</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,13 +4782,13 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>1699.023</v>
+        <v>1907.981</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1.802</v>
@@ -4800,7 +4800,7 @@
         <v>0.753</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,13 +4808,13 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>1703.826</v>
+        <v>1907.981</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1.802</v>
@@ -4826,7 +4826,7 @@
         <v>0.753</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,13 +4834,13 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>1717.017</v>
+        <v>1907.981</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1.802</v>
@@ -4852,7 +4852,7 @@
         <v>0.753</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,13 +4860,13 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>1721.798</v>
+        <v>1907.981</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1.802</v>
@@ -4878,7 +4878,7 @@
         <v>0.753</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,13 +4886,13 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>1732.352</v>
+        <v>1907.981</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1.802</v>
@@ -4904,7 +4904,7 @@
         <v>0.753</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,13 +4912,13 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>1732.352</v>
+        <v>1907.981</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1.802</v>
@@ -4930,7 +4930,7 @@
         <v>0.753</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,10 +4938,10 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>1732.352</v>
+        <v>1907.981</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>40.429</v>
@@ -4956,7 +4956,7 @@
         <v>0.753</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,10 +4964,10 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>1732.352</v>
+        <v>1907.981</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>40.429</v>
@@ -4982,7 +4982,7 @@
         <v>0.753</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,10 +4990,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>1739.822</v>
+        <v>1907.981</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>40.429</v>
@@ -5008,7 +5008,7 @@
         <v>0.753</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,10 +5016,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>1753.541</v>
+        <v>1907.981</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>40.429</v>
@@ -5034,7 +5034,7 @@
         <v>0.753</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,10 +5042,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>1753.541</v>
+        <v>1907.981</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>40.429</v>
@@ -5060,7 +5060,7 @@
         <v>0.753</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,10 +5068,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>1781.201</v>
+        <v>1912.759</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>40.429</v>
@@ -5086,7 +5086,7 @@
         <v>0.753</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,10 +5094,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>1793.538</v>
+        <v>1931.285</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>125.902</v>
+        <v>133.352</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>40.429</v>
@@ -5112,7 +5112,7 @@
         <v>0.753</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,10 +5120,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>1793.538</v>
+        <v>1947.236</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>40.429</v>
@@ -5138,7 +5138,7 @@
         <v>0.753</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,10 +5146,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>1796.994</v>
+        <v>1947.236</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>40.429</v>
@@ -5164,7 +5164,7 @@
         <v>0.753</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,10 +5172,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>1796.994</v>
+        <v>1947.886</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>40.429</v>
@@ -5190,7 +5190,7 @@
         <v>0.753</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,10 +5198,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>1796.994</v>
+        <v>1947.886</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>40.429</v>
@@ -5216,7 +5216,7 @@
         <v>0.753</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,10 +5224,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>1796.994</v>
+        <v>1947.886</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>40.429</v>
@@ -5242,7 +5242,7 @@
         <v>0.753</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5250,10 +5250,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>1796.994</v>
+        <v>1962.96</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>40.429</v>
@@ -5268,7 +5268,7 @@
         <v>0.753</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5276,10 +5276,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>1796.994</v>
+        <v>1962.96</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>40.429</v>
@@ -5294,7 +5294,7 @@
         <v>0.753</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,10 +5302,10 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>1796.994</v>
+        <v>1962.96</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>40.429</v>
@@ -5320,7 +5320,7 @@
         <v>0.753</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,10 +5328,10 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>1798.132</v>
+        <v>1963.031</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>40.429</v>
@@ -5346,7 +5346,7 @@
         <v>0.753</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,10 +5354,10 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>1798.132</v>
+        <v>1963.031</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>40.429</v>
@@ -5372,7 +5372,7 @@
         <v>0.753</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,10 +5380,10 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>1798.132</v>
+        <v>1963.031</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>40.429</v>
@@ -5398,7 +5398,7 @@
         <v>0.753</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5406,10 +5406,10 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>1798.132</v>
+        <v>1970.397</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>40.429</v>
@@ -5424,7 +5424,7 @@
         <v>0.753</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,10 +5432,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>1802.04</v>
+        <v>1970.548</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>40.429</v>
@@ -5450,7 +5450,7 @@
         <v>0.753</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,10 +5458,10 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>1802.04</v>
+        <v>1970.548</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>40.429</v>
@@ -5476,7 +5476,7 @@
         <v>0.753</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5484,10 +5484,10 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>1803.906</v>
+        <v>1970.548</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>40.429</v>
@@ -5502,7 +5502,15 @@
         <v>0.753</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <f aca="false">SUM(B181:H181)</f>
+        <v>4006.832</v>
+      </c>
+      <c r="J181" s="0" t="n">
+        <f aca="false">I181-$I$181</f>
+        <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,10 +5518,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>1803.906</v>
+        <v>1970.548</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>40.429</v>
@@ -5528,7 +5536,15 @@
         <v>0.753</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <f aca="false">SUM(B182:H182)</f>
+        <v>4006.832</v>
+      </c>
+      <c r="J182" s="0" t="n">
+        <f aca="false">I182-$I$181</f>
+        <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,10 +5552,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>1805.865</v>
+        <v>1970.873</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>40.429</v>
@@ -5554,7 +5570,15 @@
         <v>0.753</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <f aca="false">SUM(B183:H183)</f>
+        <v>4007.157</v>
+      </c>
+      <c r="J183" s="0" t="n">
+        <f aca="false">I183-$I$181</f>
+        <v>0.325000000000273</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,10 +5586,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>1828.818</v>
+        <v>1970.873</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>126.75</v>
+        <v>134.343</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>40.429</v>
@@ -5580,7 +5604,15 @@
         <v>0.753</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <f aca="false">SUM(B184:H184)</f>
+        <v>4007.157</v>
+      </c>
+      <c r="J184" s="0" t="n">
+        <f aca="false">I184-$I$181</f>
+        <v>0.325000000000273</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5588,10 +5620,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>1828.818</v>
+        <v>1970.873</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>126.75</v>
+        <v>134.343</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>40.429</v>
@@ -5606,7 +5638,15 @@
         <v>0.753</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <f aca="false">SUM(B185:H185)</f>
+        <v>4007.157</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <f aca="false">I185-$I$181</f>
+        <v>0.325000000000273</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,10 +5654,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>1828.818</v>
+        <v>1971.538</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>128.105</v>
+        <v>134.343</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>40.429</v>
@@ -5632,7 +5672,15 @@
         <v>0.753</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <f aca="false">SUM(B186:H186)</f>
+        <v>4007.822</v>
+      </c>
+      <c r="J186" s="0" t="n">
+        <f aca="false">I186-$I$181</f>
+        <v>0.990000000000237</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,10 +5688,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>1828.818</v>
+        <v>1981.161</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>132.344</v>
+        <v>134.343</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>40.429</v>
@@ -5658,7 +5706,15 @@
         <v>0.753</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <f aca="false">SUM(B187:H187)</f>
+        <v>4017.445</v>
+      </c>
+      <c r="J187" s="0" t="n">
+        <f aca="false">I187-$I$181</f>
+        <v>10.6130000000003</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,10 +5722,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>1836.454</v>
+        <v>1981.161</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>40.429</v>
@@ -5684,7 +5740,15 @@
         <v>0.753</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <f aca="false">SUM(B188:H188)</f>
+        <v>4017.445</v>
+      </c>
+      <c r="J188" s="0" t="n">
+        <f aca="false">I188-$I$181</f>
+        <v>10.6130000000003</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,10 +5756,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>1839.363</v>
+        <v>1981.161</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>40.429</v>
@@ -5710,7 +5774,15 @@
         <v>0.753</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <f aca="false">SUM(B189:H189)</f>
+        <v>4017.445</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <f aca="false">I189-$I$181</f>
+        <v>10.6130000000003</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,10 +5790,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>1841.97</v>
+        <v>1981.296</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>40.429</v>
@@ -5736,7 +5808,15 @@
         <v>0.753</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <f aca="false">SUM(B190:H190)</f>
+        <v>4017.58</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <f aca="false">I190-$I$181</f>
+        <v>10.748</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,10 +5824,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>1841.97</v>
+        <v>1981.296</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>40.429</v>
@@ -5762,7 +5842,15 @@
         <v>0.753</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <f aca="false">SUM(B191:H191)</f>
+        <v>4017.58</v>
+      </c>
+      <c r="J191" s="0" t="n">
+        <f aca="false">I191-$I$181</f>
+        <v>10.748</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5770,10 +5858,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>1841.97</v>
+        <v>1981.527</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>40.429</v>
@@ -5788,7 +5876,15 @@
         <v>0.753</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <f aca="false">SUM(B192:H192)</f>
+        <v>4017.811</v>
+      </c>
+      <c r="J192" s="0" t="n">
+        <f aca="false">I192-$I$181</f>
+        <v>10.9790000000003</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,10 +5892,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>1841.97</v>
+        <v>1981.527</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>40.429</v>
@@ -5814,7 +5910,15 @@
         <v>0.753</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <f aca="false">SUM(B193:H193)</f>
+        <v>4017.811</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <f aca="false">I193-$I$181</f>
+        <v>10.9790000000003</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,10 +5926,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>1843.146</v>
+        <v>1989.396</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>40.429</v>
@@ -5840,7 +5944,15 @@
         <v>0.753</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <f aca="false">SUM(B194:H194)</f>
+        <v>4025.68</v>
+      </c>
+      <c r="J194" s="0" t="n">
+        <f aca="false">I194-$I$181</f>
+        <v>18.848</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,10 +5960,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>1850.778</v>
+        <v>1989.396</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>40.429</v>
@@ -5866,7 +5978,15 @@
         <v>0.753</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <f aca="false">SUM(B195:H195)</f>
+        <v>4025.68</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <f aca="false">I195-$I$181</f>
+        <v>18.848</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5874,10 +5994,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>1859.281</v>
+        <v>1996.318</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>40.429</v>
@@ -5892,7 +6012,15 @@
         <v>0.753</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <f aca="false">SUM(B196:H196)</f>
+        <v>4032.602</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <f aca="false">I196-$I$181</f>
+        <v>25.77</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5900,10 +6028,10 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>1859.281</v>
+        <v>1996.318</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>40.429</v>
@@ -5918,7 +6046,15 @@
         <v>0.753</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <f aca="false">SUM(B197:H197)</f>
+        <v>4032.602</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <f aca="false">I197-$I$181</f>
+        <v>25.77</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,10 +6062,10 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>1862.009</v>
+        <v>1996.54</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>40.429</v>
@@ -5944,7 +6080,15 @@
         <v>0.753</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <f aca="false">SUM(B198:H198)</f>
+        <v>4032.824</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <f aca="false">I198-$I$181</f>
+        <v>25.9920000000002</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,10 +6096,10 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>1862.405</v>
+        <v>1996.54</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>40.429</v>
@@ -5970,7 +6114,15 @@
         <v>0.753</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <f aca="false">SUM(B199:H199)</f>
+        <v>4032.824</v>
+      </c>
+      <c r="J199" s="0" t="n">
+        <f aca="false">I199-$I$181</f>
+        <v>25.9920000000002</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5978,10 +6130,10 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>1862.405</v>
+        <v>1996.54</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>40.429</v>
@@ -5996,7 +6148,15 @@
         <v>0.753</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <f aca="false">SUM(B200:H200)</f>
+        <v>4032.824</v>
+      </c>
+      <c r="J200" s="0" t="n">
+        <f aca="false">I200-$I$181</f>
+        <v>25.9920000000002</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,10 +6164,10 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>1863.029</v>
+        <v>1996.54</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>40.429</v>
@@ -6022,7 +6182,15 @@
         <v>0.753</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <f aca="false">SUM(B201:H201)</f>
+        <v>4032.824</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <f aca="false">I201-$I$181</f>
+        <v>25.9920000000002</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,10 +6198,10 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>1869.914</v>
+        <v>1997.107</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>40.429</v>
@@ -6048,7 +6216,15 @@
         <v>0.753</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <f aca="false">SUM(B202:H202)</f>
+        <v>4033.391</v>
+      </c>
+      <c r="J202" s="0" t="n">
+        <f aca="false">I202-$I$181</f>
+        <v>26.5590000000002</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6056,10 +6232,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>1881.196</v>
+        <v>1997.107</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>40.429</v>
@@ -6074,7 +6250,15 @@
         <v>0.753</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I203" s="0" t="n">
+        <f aca="false">SUM(B203:H203)</f>
+        <v>4033.391</v>
+      </c>
+      <c r="J203" s="0" t="n">
+        <f aca="false">I203-$I$181</f>
+        <v>26.5590000000002</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,10 +6266,10 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>1881.196</v>
+        <v>1997.107</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>40.429</v>
@@ -6100,7 +6284,15 @@
         <v>0.753</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
+      </c>
+      <c r="I204" s="0" t="n">
+        <f aca="false">SUM(B204:H204)</f>
+        <v>4033.391</v>
+      </c>
+      <c r="J204" s="0" t="n">
+        <f aca="false">I204-$I$181</f>
+        <v>26.5590000000002</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,10 +6300,10 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>1886.222</v>
+        <v>1997.107</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>40.429</v>
@@ -6127,6 +6319,14 @@
       </c>
       <c r="H205" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <f aca="false">SUM(B205:H205)</f>
+        <v>4033.391</v>
+      </c>
+      <c r="J205" s="0" t="n">
+        <f aca="false">I205-$I$181</f>
+        <v>26.5590000000002</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,10 +6334,10 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>1907.981</v>
+        <v>1997.381</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>40.429</v>
@@ -6153,6 +6353,14 @@
       </c>
       <c r="H206" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <f aca="false">SUM(B206:H206)</f>
+        <v>4033.665</v>
+      </c>
+      <c r="J206" s="0" t="n">
+        <f aca="false">I206-$I$181</f>
+        <v>26.8330000000001</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,10 +6368,10 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>1907.981</v>
+        <v>1997.381</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>132.465</v>
+        <v>134.429</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>40.429</v>
@@ -6179,6 +6387,14 @@
       </c>
       <c r="H207" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <f aca="false">SUM(B207:H207)</f>
+        <v>4033.751</v>
+      </c>
+      <c r="J207" s="0" t="n">
+        <f aca="false">I207-$I$181</f>
+        <v>26.9190000000003</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,10 +6402,10 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>40.429</v>
@@ -6205,6 +6421,14 @@
       </c>
       <c r="H208" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I208" s="0" t="n">
+        <f aca="false">SUM(B208:H208)</f>
+        <v>4052.887</v>
+      </c>
+      <c r="J208" s="0" t="n">
+        <f aca="false">I208-$I$181</f>
+        <v>46.0550000000003</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6212,10 +6436,10 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>40.429</v>
@@ -6231,6 +6455,14 @@
       </c>
       <c r="H209" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <f aca="false">SUM(B209:H209)</f>
+        <v>4052.887</v>
+      </c>
+      <c r="J209" s="0" t="n">
+        <f aca="false">I209-$I$181</f>
+        <v>46.0550000000003</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,10 +6470,10 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>40.429</v>
@@ -6257,6 +6489,14 @@
       </c>
       <c r="H210" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I210" s="0" t="n">
+        <f aca="false">SUM(B210:H210)</f>
+        <v>4052.887</v>
+      </c>
+      <c r="J210" s="0" t="n">
+        <f aca="false">I210-$I$181</f>
+        <v>46.0550000000003</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,10 +6504,10 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>40.429</v>
@@ -6283,6 +6523,14 @@
       </c>
       <c r="H211" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I211" s="0" t="n">
+        <f aca="false">SUM(B211:H211)</f>
+        <v>4052.887</v>
+      </c>
+      <c r="J211" s="0" t="n">
+        <f aca="false">I211-$I$181</f>
+        <v>46.0550000000003</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,10 +6538,10 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>40.429</v>
@@ -6309,6 +6557,10 @@
       </c>
       <c r="H212" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I212" s="0" t="n">
+        <f aca="false">SUM(B212:H212)</f>
+        <v>4052.887</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,10 +6568,10 @@
         <v>219</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>40.429</v>
@@ -6335,6 +6587,10 @@
       </c>
       <c r="H213" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I213" s="0" t="n">
+        <f aca="false">SUM(B213:H213)</f>
+        <v>4052.887</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6342,10 +6598,10 @@
         <v>220</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.525</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>40.429</v>
@@ -6361,6 +6617,10 @@
       </c>
       <c r="H214" s="0" t="n">
         <v>1856.046</v>
+      </c>
+      <c r="I214" s="0" t="n">
+        <f aca="false">SUM(B214:H214)</f>
+        <v>4052.896</v>
       </c>
     </row>
   </sheetData>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,184 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-02-10 17:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-03 00:00:01 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-31 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-10 00:00:00 +0200</t>
+    <t xml:space="preserve">2022-04-10 07:30:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2022-04-11 00:00:00 +0200</t>
@@ -682,7 +505,184 @@
     <t xml:space="preserve">2022-10-30 00:00:00 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-30 20:52:13 +0100</t>
+    <t xml:space="preserve">2022-10-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-13 00:00:01 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-28 09:59:11 +0100</t>
   </si>
 </sst>
 </file>
@@ -757,12 +757,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,45 +779,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K193" activeCellId="0" sqref="K193"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -830,13 +826,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1471.601</v>
+        <v>1558.02</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1.802</v>
@@ -856,13 +852,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1471.601</v>
+        <v>1562.795</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1.802</v>
@@ -882,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1471.601</v>
+        <v>1566.999</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>120.727</v>
+        <v>120.783</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>36.405</v>
+        <v>37.963</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1.802</v>
@@ -908,13 +904,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1479.143</v>
+        <v>1566.999</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1.802</v>
@@ -934,13 +930,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1484.415</v>
+        <v>1569.146</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1.802</v>
@@ -960,13 +956,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1484.415</v>
+        <v>1569.146</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1.802</v>
@@ -986,13 +982,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1484.415</v>
+        <v>1569.146</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1.802</v>
@@ -1012,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1484.415</v>
+        <v>1574.856</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1.802</v>
@@ -1038,13 +1034,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1486.893</v>
+        <v>1596.036</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1.802</v>
@@ -1064,13 +1060,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1486.893</v>
+        <v>1607.704</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1.802</v>
@@ -1090,13 +1086,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1494.513</v>
+        <v>1607.704</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1.802</v>
@@ -1116,13 +1112,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1500.075</v>
+        <v>1610.236</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1.802</v>
@@ -1142,13 +1138,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1500.075</v>
+        <v>1610.236</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1.802</v>
@@ -1168,13 +1164,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1502.493</v>
+        <v>1615.023</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1.802</v>
@@ -1194,13 +1190,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1502.493</v>
+        <v>1624.966</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1.802</v>
@@ -1220,13 +1216,13 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1502.983</v>
+        <v>1624.966</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1.802</v>
@@ -1246,13 +1242,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1502.983</v>
+        <v>1627.551</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1.802</v>
@@ -1272,13 +1268,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1502.983</v>
+        <v>1627.551</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1.802</v>
@@ -1298,13 +1294,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1502.983</v>
+        <v>1627.551</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1.802</v>
@@ -1324,13 +1320,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1502.983</v>
+        <v>1628.089</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>36.416</v>
+        <v>37.963</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1.802</v>
@@ -1350,10 +1346,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1502.983</v>
+        <v>1628.089</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>37.963</v>
@@ -1376,10 +1372,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1502.983</v>
+        <v>1628.089</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>120.76</v>
+        <v>120.783</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>37.963</v>
@@ -1402,10 +1398,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1502.983</v>
+        <v>1655.3</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>37.963</v>
@@ -1428,10 +1424,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1502.983</v>
+        <v>1681.417</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>37.963</v>
@@ -1454,10 +1450,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1502.983</v>
+        <v>1695.138</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>37.963</v>
@@ -1480,10 +1476,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1503.528</v>
+        <v>1697.331</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>37.963</v>
@@ -1506,10 +1502,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1503.528</v>
+        <v>1698.137</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>37.963</v>
@@ -1532,10 +1528,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1503.528</v>
+        <v>1698.137</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>37.963</v>
@@ -1558,10 +1554,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1503.543</v>
+        <v>1698.137</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>37.963</v>
@@ -1584,10 +1580,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1504.3</v>
+        <v>1698.137</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>37.963</v>
@@ -1610,10 +1606,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1504.3</v>
+        <v>1698.96</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>37.963</v>
@@ -1636,10 +1632,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1504.3</v>
+        <v>1698.96</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>37.963</v>
@@ -1662,10 +1658,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1509.15</v>
+        <v>1698.96</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>37.963</v>
@@ -1688,10 +1684,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1509.15</v>
+        <v>1698.96</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>37.963</v>
@@ -1714,10 +1710,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1509.15</v>
+        <v>1699.023</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>37.963</v>
@@ -1740,10 +1736,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1509.15</v>
+        <v>1703.826</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>37.963</v>
@@ -1766,10 +1762,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1509.15</v>
+        <v>1717.017</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>120.76</v>
+        <v>120.903</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>37.963</v>
@@ -1792,10 +1788,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1516.393</v>
+        <v>1721.798</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>37.963</v>
@@ -1818,10 +1814,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1516.393</v>
+        <v>1732.352</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>37.963</v>
@@ -1844,10 +1840,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1518.198</v>
+        <v>1732.352</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>37.963</v>
@@ -1870,13 +1866,13 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1518.198</v>
+        <v>1732.352</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1.802</v>
@@ -1896,13 +1892,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1518.198</v>
+        <v>1732.352</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1.802</v>
@@ -1922,13 +1918,13 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1518.198</v>
+        <v>1739.822</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1.802</v>
@@ -1948,13 +1944,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1519.152</v>
+        <v>1753.541</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1.802</v>
@@ -1974,13 +1970,13 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1519.152</v>
+        <v>1753.541</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1.802</v>
@@ -2000,13 +1996,13 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1526.801</v>
+        <v>1781.201</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1.802</v>
@@ -2026,13 +2022,13 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1542.406</v>
+        <v>1793.538</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1.802</v>
@@ -2052,13 +2048,13 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1546.617</v>
+        <v>1793.538</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1.802</v>
@@ -2078,13 +2074,13 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1546.617</v>
+        <v>1796.994</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1.802</v>
@@ -2104,13 +2100,13 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1549.226</v>
+        <v>1796.994</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1.802</v>
@@ -2130,13 +2126,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1549.226</v>
+        <v>1796.994</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1.802</v>
@@ -2156,13 +2152,13 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1549.226</v>
+        <v>1796.994</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1.802</v>
@@ -2182,13 +2178,13 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1554.01</v>
+        <v>1796.994</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>1.802</v>
@@ -2208,13 +2204,13 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1555.705</v>
+        <v>1796.994</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1.802</v>
@@ -2234,13 +2230,13 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1555.705</v>
+        <v>1796.994</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1.802</v>
@@ -2260,13 +2256,13 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1555.705</v>
+        <v>1798.132</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1.802</v>
@@ -2286,13 +2282,13 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1555.705</v>
+        <v>1798.132</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1.802</v>
@@ -2312,13 +2308,13 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1557.601</v>
+        <v>1798.132</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1.802</v>
@@ -2338,13 +2334,13 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1557.601</v>
+        <v>1798.132</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1.802</v>
@@ -2364,13 +2360,13 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1557.601</v>
+        <v>1802.04</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1.802</v>
@@ -2390,13 +2386,13 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1562.795</v>
+        <v>1802.04</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1.802</v>
@@ -2416,13 +2412,13 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1566.999</v>
+        <v>1803.906</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1.802</v>
@@ -2442,13 +2438,13 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1566.999</v>
+        <v>1803.906</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1.802</v>
@@ -2468,13 +2464,13 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1569.146</v>
+        <v>1805.865</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1.802</v>
@@ -2494,13 +2490,13 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1569.146</v>
+        <v>1828.818</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>120.783</v>
+        <v>126.75</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1.802</v>
@@ -2520,13 +2516,13 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1569.146</v>
+        <v>1828.818</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120.783</v>
+        <v>126.75</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1.802</v>
@@ -2546,13 +2542,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1574.856</v>
+        <v>1828.818</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>120.783</v>
+        <v>128.105</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1.802</v>
@@ -2572,13 +2568,13 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1596.036</v>
+        <v>1828.818</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>120.783</v>
+        <v>132.344</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1.802</v>
@@ -2598,13 +2594,13 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1607.704</v>
+        <v>1836.454</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1.802</v>
@@ -2624,13 +2620,13 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1607.704</v>
+        <v>1839.363</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1.802</v>
@@ -2650,13 +2646,13 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1610.236</v>
+        <v>1841.97</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1.802</v>
@@ -2676,13 +2672,13 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1610.236</v>
+        <v>1841.97</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1.802</v>
@@ -2702,13 +2698,13 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1615.023</v>
+        <v>1841.97</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1.802</v>
@@ -2728,13 +2724,13 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1624.966</v>
+        <v>1841.97</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1.802</v>
@@ -2754,13 +2750,13 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1624.966</v>
+        <v>1843.146</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1.802</v>
@@ -2780,13 +2776,13 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1627.551</v>
+        <v>1850.778</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1.802</v>
@@ -2806,13 +2802,13 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1627.551</v>
+        <v>1859.281</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1.802</v>
@@ -2832,13 +2828,13 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1627.551</v>
+        <v>1859.281</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1.802</v>
@@ -2858,13 +2854,13 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1628.089</v>
+        <v>1862.009</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1.802</v>
@@ -2884,13 +2880,13 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1628.089</v>
+        <v>1862.405</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1.802</v>
@@ -2910,13 +2906,13 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1628.089</v>
+        <v>1862.405</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>120.783</v>
+        <v>132.426</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1.802</v>
@@ -2936,13 +2932,13 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1655.3</v>
+        <v>1863.029</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1.802</v>
@@ -2962,13 +2958,13 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1681.417</v>
+        <v>1869.914</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1.802</v>
@@ -2988,13 +2984,13 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>1695.138</v>
+        <v>1881.196</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1.802</v>
@@ -3014,13 +3010,13 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1697.331</v>
+        <v>1881.196</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1.802</v>
@@ -3040,13 +3036,13 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1698.137</v>
+        <v>1886.222</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1.802</v>
@@ -3058,7 +3054,7 @@
         <v>0.753</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,13 +3062,13 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1698.137</v>
+        <v>1907.981</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1.802</v>
@@ -3084,7 +3080,7 @@
         <v>0.753</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,13 +3088,13 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1698.137</v>
+        <v>1907.981</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1.802</v>
@@ -3110,7 +3106,7 @@
         <v>0.753</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,13 +3114,13 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1698.137</v>
+        <v>1907.981</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1.802</v>
@@ -3136,7 +3132,7 @@
         <v>0.753</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,13 +3140,13 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1698.96</v>
+        <v>1907.981</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1.802</v>
@@ -3162,7 +3158,7 @@
         <v>0.753</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,13 +3166,13 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1698.96</v>
+        <v>1907.981</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1.802</v>
@@ -3188,7 +3184,7 @@
         <v>0.753</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,13 +3192,13 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1698.96</v>
+        <v>1907.981</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1.802</v>
@@ -3214,7 +3210,7 @@
         <v>0.753</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,13 +3218,13 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1698.96</v>
+        <v>1907.981</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1.802</v>
@@ -3240,7 +3236,7 @@
         <v>0.753</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,13 +3244,13 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1699.023</v>
+        <v>1907.981</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1.802</v>
@@ -3266,7 +3262,7 @@
         <v>0.753</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,13 +3270,13 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1703.826</v>
+        <v>1907.981</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1.802</v>
@@ -3292,7 +3288,7 @@
         <v>0.753</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,13 +3296,13 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1717.017</v>
+        <v>1907.981</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1.802</v>
@@ -3318,7 +3314,7 @@
         <v>0.753</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,13 +3322,13 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1721.798</v>
+        <v>1907.981</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1.802</v>
@@ -3344,7 +3340,7 @@
         <v>0.753</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,13 +3348,13 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1732.352</v>
+        <v>1907.981</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1.802</v>
@@ -3370,7 +3366,7 @@
         <v>0.753</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,13 +3374,13 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>1732.352</v>
+        <v>1907.981</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1.802</v>
@@ -3396,7 +3392,7 @@
         <v>0.753</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,10 +3400,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>1732.352</v>
+        <v>1907.981</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>40.429</v>
@@ -3422,7 +3418,7 @@
         <v>0.753</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,10 +3426,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1732.352</v>
+        <v>1907.981</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>40.429</v>
@@ -3448,7 +3444,7 @@
         <v>0.753</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,10 +3452,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1739.822</v>
+        <v>1907.981</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>40.429</v>
@@ -3474,7 +3470,7 @@
         <v>0.753</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,10 +3478,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1753.541</v>
+        <v>1907.981</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>40.429</v>
@@ -3500,7 +3496,7 @@
         <v>0.753</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,10 +3504,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1753.541</v>
+        <v>1907.981</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>120.903</v>
+        <v>132.465</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>40.429</v>
@@ -3526,7 +3522,7 @@
         <v>0.753</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,10 +3530,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>1781.201</v>
+        <v>1912.759</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>40.429</v>
@@ -3552,7 +3548,7 @@
         <v>0.753</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,10 +3556,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1793.538</v>
+        <v>1931.285</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>125.902</v>
+        <v>133.352</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>40.429</v>
@@ -3578,7 +3574,7 @@
         <v>0.753</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,10 +3582,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1793.538</v>
+        <v>1947.236</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>40.429</v>
@@ -3604,7 +3600,7 @@
         <v>0.753</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,10 +3608,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1796.994</v>
+        <v>1947.236</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>40.429</v>
@@ -3630,7 +3626,7 @@
         <v>0.753</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,10 +3634,10 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>1796.994</v>
+        <v>1947.886</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>40.429</v>
@@ -3656,7 +3652,7 @@
         <v>0.753</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,10 +3660,10 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1796.994</v>
+        <v>1947.886</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>40.429</v>
@@ -3682,7 +3678,7 @@
         <v>0.753</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,10 +3686,10 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1796.994</v>
+        <v>1947.886</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>40.429</v>
@@ -3708,7 +3704,7 @@
         <v>0.753</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,10 +3712,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1796.994</v>
+        <v>1962.96</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>40.429</v>
@@ -3734,7 +3730,7 @@
         <v>0.753</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +3738,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1796.994</v>
+        <v>1962.96</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>40.429</v>
@@ -3760,7 +3756,7 @@
         <v>0.753</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,10 +3764,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1796.994</v>
+        <v>1962.96</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>40.429</v>
@@ -3786,7 +3782,7 @@
         <v>0.753</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,10 +3790,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1798.132</v>
+        <v>1963.031</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>40.429</v>
@@ -3812,7 +3808,7 @@
         <v>0.753</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,10 +3816,10 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1798.132</v>
+        <v>1963.031</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>40.429</v>
@@ -3838,7 +3834,7 @@
         <v>0.753</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,10 +3842,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1798.132</v>
+        <v>1963.031</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>125.902</v>
+        <v>134.244</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>40.429</v>
@@ -3864,7 +3860,7 @@
         <v>0.753</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,10 +3868,10 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1798.132</v>
+        <v>1970.397</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>40.429</v>
@@ -3890,7 +3886,7 @@
         <v>0.753</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,10 +3894,10 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>1802.04</v>
+        <v>1970.548</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>40.429</v>
@@ -3916,7 +3912,7 @@
         <v>0.753</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,10 +3920,10 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>1802.04</v>
+        <v>1970.548</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40.429</v>
@@ -3942,7 +3938,7 @@
         <v>0.753</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,10 +3946,10 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>1803.906</v>
+        <v>1970.548</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>40.429</v>
@@ -3968,7 +3964,7 @@
         <v>0.753</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,10 +3972,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>1803.906</v>
+        <v>1970.548</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>40.429</v>
@@ -3994,7 +3990,7 @@
         <v>0.753</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,10 +3998,10 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>1805.865</v>
+        <v>1970.873</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>125.902</v>
+        <v>134.343</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>40.429</v>
@@ -4020,7 +4016,7 @@
         <v>0.753</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,10 +4024,10 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>1828.818</v>
+        <v>1970.873</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>126.75</v>
+        <v>134.343</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>40.429</v>
@@ -4046,7 +4042,7 @@
         <v>0.753</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,10 +4050,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>1828.818</v>
+        <v>1970.873</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>126.75</v>
+        <v>134.343</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>40.429</v>
@@ -4072,7 +4068,7 @@
         <v>0.753</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,10 +4076,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1828.818</v>
+        <v>1971.538</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>128.105</v>
+        <v>134.343</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>40.429</v>
@@ -4098,7 +4094,7 @@
         <v>0.753</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,10 +4102,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>1828.818</v>
+        <v>1981.161</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>132.344</v>
+        <v>134.343</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>40.429</v>
@@ -4124,7 +4120,7 @@
         <v>0.753</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,10 +4128,10 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>1836.454</v>
+        <v>1981.161</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>40.429</v>
@@ -4150,7 +4146,7 @@
         <v>0.753</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,10 +4154,10 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>1839.363</v>
+        <v>1981.161</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>40.429</v>
@@ -4176,7 +4172,7 @@
         <v>0.753</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,10 +4180,10 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>1841.97</v>
+        <v>1981.296</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>40.429</v>
@@ -4202,7 +4198,7 @@
         <v>0.753</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,10 +4206,10 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1841.97</v>
+        <v>1981.296</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>40.429</v>
@@ -4228,7 +4224,7 @@
         <v>0.753</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,10 +4232,10 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>1841.97</v>
+        <v>1981.527</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>40.429</v>
@@ -4254,7 +4250,7 @@
         <v>0.753</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,10 +4258,10 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>1841.97</v>
+        <v>1981.527</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>40.429</v>
@@ -4280,7 +4276,7 @@
         <v>0.753</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,10 +4284,10 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1843.146</v>
+        <v>1989.396</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>40.429</v>
@@ -4306,7 +4302,7 @@
         <v>0.753</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,10 +4310,10 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>1850.778</v>
+        <v>1989.396</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>40.429</v>
@@ -4332,7 +4328,7 @@
         <v>0.753</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,10 +4336,10 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>1859.281</v>
+        <v>1996.318</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>40.429</v>
@@ -4358,7 +4354,7 @@
         <v>0.753</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,10 +4362,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>1859.281</v>
+        <v>1996.318</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>40.429</v>
@@ -4384,7 +4380,7 @@
         <v>0.753</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,10 +4388,10 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>1862.009</v>
+        <v>1996.54</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>40.429</v>
@@ -4410,7 +4406,7 @@
         <v>0.753</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,10 +4414,10 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>1862.405</v>
+        <v>1996.54</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>40.429</v>
@@ -4436,7 +4432,7 @@
         <v>0.753</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,10 +4440,10 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>1862.405</v>
+        <v>1996.54</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>40.429</v>
@@ -4462,7 +4458,7 @@
         <v>0.753</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,10 +4466,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1863.029</v>
+        <v>1996.54</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>132.426</v>
+        <v>134.343</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>40.429</v>
@@ -4488,7 +4484,7 @@
         <v>0.753</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,10 +4492,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>1869.914</v>
+        <v>1997.107</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>40.429</v>
@@ -4514,7 +4510,7 @@
         <v>0.753</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,10 +4518,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>1881.196</v>
+        <v>1997.107</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>40.429</v>
@@ -4540,7 +4536,7 @@
         <v>0.753</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,10 +4544,10 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1881.196</v>
+        <v>1997.107</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>40.429</v>
@@ -4566,7 +4562,7 @@
         <v>0.753</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,10 +4570,10 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>1886.222</v>
+        <v>1997.107</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>40.429</v>
@@ -4600,10 +4596,10 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>1907.981</v>
+        <v>1997.381</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>40.429</v>
@@ -4626,10 +4622,10 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>1907.981</v>
+        <v>1997.381</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>132.465</v>
+        <v>134.429</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>40.429</v>
@@ -4652,10 +4648,10 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>40.429</v>
@@ -4678,10 +4674,10 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>40.429</v>
@@ -4704,10 +4700,10 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>40.429</v>
@@ -4730,10 +4726,10 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>40.429</v>
@@ -4756,10 +4752,10 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>40.429</v>
@@ -4782,10 +4778,10 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.516</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>40.429</v>
@@ -4808,10 +4804,10 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.525</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>40.429</v>
@@ -4834,10 +4830,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.933</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>40.429</v>
@@ -4860,10 +4856,10 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>1907.981</v>
+        <v>2016.933</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>40.429</v>
@@ -4886,10 +4882,10 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>1907.981</v>
+        <v>2024.386</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>40.429</v>
@@ -4912,10 +4908,10 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>1907.981</v>
+        <v>2024.386</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>40.429</v>
@@ -4938,10 +4934,10 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>1907.981</v>
+        <v>2024.386</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>40.429</v>
@@ -4964,10 +4960,10 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>1907.981</v>
+        <v>2024.386</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>40.429</v>
@@ -4990,10 +4986,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.337</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>40.429</v>
@@ -5016,10 +5012,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.337</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>40.429</v>
@@ -5042,10 +5038,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.337</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>40.429</v>
@@ -5068,10 +5064,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>1912.759</v>
+        <v>2045.337</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>40.429</v>
@@ -5094,10 +5090,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>1931.285</v>
+        <v>2045.365</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>133.352</v>
+        <v>134.531</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>40.429</v>
@@ -5120,10 +5116,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>1947.236</v>
+        <v>2045.365</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>40.429</v>
@@ -5146,10 +5142,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>1947.236</v>
+        <v>2055.64</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>40.429</v>
@@ -5172,10 +5168,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>1947.886</v>
+        <v>2055.64</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>40.429</v>
@@ -5198,10 +5194,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>1947.886</v>
+        <v>2055.64</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>40.429</v>
@@ -5224,10 +5220,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>1947.886</v>
+        <v>2055.64</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>40.429</v>
@@ -5250,10 +5246,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>1962.96</v>
+        <v>2055.64</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>40.429</v>
@@ -5276,10 +5272,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>1962.96</v>
+        <v>2055.64</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>40.429</v>
@@ -5302,10 +5298,10 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>1962.96</v>
+        <v>2055.928</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>40.429</v>
@@ -5328,10 +5324,10 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>1963.031</v>
+        <v>2055.928</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>40.429</v>
@@ -5354,10 +5350,10 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>1963.031</v>
+        <v>2065.57</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>40.429</v>
@@ -5380,10 +5376,10 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>1963.031</v>
+        <v>2065.57</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>40.429</v>
@@ -5406,10 +5402,10 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>1970.397</v>
+        <v>2065.57</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>40.429</v>
@@ -5432,10 +5428,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>1970.548</v>
+        <v>2074.804</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>40.429</v>
@@ -5458,10 +5454,10 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>1970.548</v>
+        <v>2074.804</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>40.429</v>
@@ -5484,10 +5480,10 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>1970.548</v>
+        <v>2074.804</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>40.429</v>
@@ -5503,14 +5499,6 @@
       </c>
       <c r="H181" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I181" s="0" t="n">
-        <f aca="false">SUM(B181:H181)</f>
-        <v>4006.832</v>
-      </c>
-      <c r="J181" s="0" t="n">
-        <f aca="false">I181-$I$181</f>
-        <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,10 +5506,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>1970.548</v>
+        <v>2074.934</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>40.429</v>
@@ -5537,14 +5525,6 @@
       </c>
       <c r="H182" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I182" s="0" t="n">
-        <f aca="false">SUM(B182:H182)</f>
-        <v>4006.832</v>
-      </c>
-      <c r="J182" s="0" t="n">
-        <f aca="false">I182-$I$181</f>
-        <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,10 +5532,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>1970.873</v>
+        <v>2074.934</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>40.429</v>
@@ -5571,14 +5551,6 @@
       </c>
       <c r="H183" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I183" s="0" t="n">
-        <f aca="false">SUM(B183:H183)</f>
-        <v>4007.157</v>
-      </c>
-      <c r="J183" s="0" t="n">
-        <f aca="false">I183-$I$181</f>
-        <v>0.325000000000273</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,10 +5558,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>1970.873</v>
+        <v>2096.361</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>40.429</v>
@@ -5605,14 +5577,6 @@
       </c>
       <c r="H184" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I184" s="0" t="n">
-        <f aca="false">SUM(B184:H184)</f>
-        <v>4007.157</v>
-      </c>
-      <c r="J184" s="0" t="n">
-        <f aca="false">I184-$I$181</f>
-        <v>0.325000000000273</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,10 +5584,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>1970.873</v>
+        <v>2117.909</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>40.429</v>
@@ -5639,14 +5603,6 @@
       </c>
       <c r="H185" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I185" s="0" t="n">
-        <f aca="false">SUM(B185:H185)</f>
-        <v>4007.157</v>
-      </c>
-      <c r="J185" s="0" t="n">
-        <f aca="false">I185-$I$181</f>
-        <v>0.325000000000273</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,10 +5610,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>1971.538</v>
+        <v>2117.909</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>40.429</v>
@@ -5673,14 +5629,6 @@
       </c>
       <c r="H186" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I186" s="0" t="n">
-        <f aca="false">SUM(B186:H186)</f>
-        <v>4007.822</v>
-      </c>
-      <c r="J186" s="0" t="n">
-        <f aca="false">I186-$I$181</f>
-        <v>0.990000000000237</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,10 +5636,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>1981.161</v>
+        <v>2117.909</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>40.429</v>
@@ -5707,14 +5655,6 @@
       </c>
       <c r="H187" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I187" s="0" t="n">
-        <f aca="false">SUM(B187:H187)</f>
-        <v>4017.445</v>
-      </c>
-      <c r="J187" s="0" t="n">
-        <f aca="false">I187-$I$181</f>
-        <v>10.6130000000003</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,13 +5662,13 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>1981.161</v>
+        <v>2117.909</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>1.802</v>
@@ -5741,14 +5681,6 @@
       </c>
       <c r="H188" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I188" s="0" t="n">
-        <f aca="false">SUM(B188:H188)</f>
-        <v>4017.445</v>
-      </c>
-      <c r="J188" s="0" t="n">
-        <f aca="false">I188-$I$181</f>
-        <v>10.6130000000003</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,13 +5688,13 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>1981.161</v>
+        <v>2117.909</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>1.802</v>
@@ -5775,14 +5707,6 @@
       </c>
       <c r="H189" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I189" s="0" t="n">
-        <f aca="false">SUM(B189:H189)</f>
-        <v>4017.445</v>
-      </c>
-      <c r="J189" s="0" t="n">
-        <f aca="false">I189-$I$181</f>
-        <v>10.6130000000003</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5790,13 +5714,13 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>1981.296</v>
+        <v>2117.909</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>1.802</v>
@@ -5809,14 +5733,6 @@
       </c>
       <c r="H190" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I190" s="0" t="n">
-        <f aca="false">SUM(B190:H190)</f>
-        <v>4017.58</v>
-      </c>
-      <c r="J190" s="0" t="n">
-        <f aca="false">I190-$I$181</f>
-        <v>10.748</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,13 +5740,13 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>1981.296</v>
+        <v>2117.909</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>1.802</v>
@@ -5843,14 +5759,6 @@
       </c>
       <c r="H191" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I191" s="0" t="n">
-        <f aca="false">SUM(B191:H191)</f>
-        <v>4017.58</v>
-      </c>
-      <c r="J191" s="0" t="n">
-        <f aca="false">I191-$I$181</f>
-        <v>10.748</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,13 +5766,13 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>1981.527</v>
+        <v>2117.909</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1.802</v>
@@ -5877,14 +5785,6 @@
       </c>
       <c r="H192" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I192" s="0" t="n">
-        <f aca="false">SUM(B192:H192)</f>
-        <v>4017.811</v>
-      </c>
-      <c r="J192" s="0" t="n">
-        <f aca="false">I192-$I$181</f>
-        <v>10.9790000000003</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,13 +5792,13 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>1981.527</v>
+        <v>2117.909</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1.802</v>
@@ -5911,14 +5811,6 @@
       </c>
       <c r="H193" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I193" s="0" t="n">
-        <f aca="false">SUM(B193:H193)</f>
-        <v>4017.811</v>
-      </c>
-      <c r="J193" s="0" t="n">
-        <f aca="false">I193-$I$181</f>
-        <v>10.9790000000003</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,13 +5818,13 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>1989.396</v>
+        <v>2117.909</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1.802</v>
@@ -5945,14 +5837,6 @@
       </c>
       <c r="H194" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I194" s="0" t="n">
-        <f aca="false">SUM(B194:H194)</f>
-        <v>4025.68</v>
-      </c>
-      <c r="J194" s="0" t="n">
-        <f aca="false">I194-$I$181</f>
-        <v>18.848</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,13 +5844,13 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>1989.396</v>
+        <v>2117.909</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1.802</v>
@@ -5979,14 +5863,6 @@
       </c>
       <c r="H195" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I195" s="0" t="n">
-        <f aca="false">SUM(B195:H195)</f>
-        <v>4025.68</v>
-      </c>
-      <c r="J195" s="0" t="n">
-        <f aca="false">I195-$I$181</f>
-        <v>18.848</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,13 +5870,13 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>1996.318</v>
+        <v>2117.909</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1.802</v>
@@ -6013,14 +5889,6 @@
       </c>
       <c r="H196" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I196" s="0" t="n">
-        <f aca="false">SUM(B196:H196)</f>
-        <v>4032.602</v>
-      </c>
-      <c r="J196" s="0" t="n">
-        <f aca="false">I196-$I$181</f>
-        <v>25.77</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6028,13 +5896,13 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>1996.318</v>
+        <v>2117.909</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1.802</v>
@@ -6047,14 +5915,6 @@
       </c>
       <c r="H197" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I197" s="0" t="n">
-        <f aca="false">SUM(B197:H197)</f>
-        <v>4032.602</v>
-      </c>
-      <c r="J197" s="0" t="n">
-        <f aca="false">I197-$I$181</f>
-        <v>25.77</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,13 +5922,13 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>1996.54</v>
+        <v>2117.909</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1.802</v>
@@ -6081,14 +5941,6 @@
       </c>
       <c r="H198" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I198" s="0" t="n">
-        <f aca="false">SUM(B198:H198)</f>
-        <v>4032.824</v>
-      </c>
-      <c r="J198" s="0" t="n">
-        <f aca="false">I198-$I$181</f>
-        <v>25.9920000000002</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,13 +5948,13 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>1996.54</v>
+        <v>2117.909</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1.802</v>
@@ -6115,14 +5967,6 @@
       </c>
       <c r="H199" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I199" s="0" t="n">
-        <f aca="false">SUM(B199:H199)</f>
-        <v>4032.824</v>
-      </c>
-      <c r="J199" s="0" t="n">
-        <f aca="false">I199-$I$181</f>
-        <v>25.9920000000002</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,13 +5974,13 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>1996.54</v>
+        <v>2117.909</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1.802</v>
@@ -6149,14 +5993,6 @@
       </c>
       <c r="H200" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I200" s="0" t="n">
-        <f aca="false">SUM(B200:H200)</f>
-        <v>4032.824</v>
-      </c>
-      <c r="J200" s="0" t="n">
-        <f aca="false">I200-$I$181</f>
-        <v>25.9920000000002</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,13 +6000,13 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>1996.54</v>
+        <v>2117.909</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1.802</v>
@@ -6183,14 +6019,6 @@
       </c>
       <c r="H201" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I201" s="0" t="n">
-        <f aca="false">SUM(B201:H201)</f>
-        <v>4032.824</v>
-      </c>
-      <c r="J201" s="0" t="n">
-        <f aca="false">I201-$I$181</f>
-        <v>25.9920000000002</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,16 +6026,16 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>1997.107</v>
+        <v>2117.909</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>40.429</v>
+        <v>40.999</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F202" s="0" t="n">
         <v>2.911</v>
@@ -6217,14 +6045,6 @@
       </c>
       <c r="H202" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I202" s="0" t="n">
-        <f aca="false">SUM(B202:H202)</f>
-        <v>4033.391</v>
-      </c>
-      <c r="J202" s="0" t="n">
-        <f aca="false">I202-$I$181</f>
-        <v>26.5590000000002</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6232,16 +6052,16 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>1997.107</v>
+        <v>2117.909</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F203" s="0" t="n">
         <v>2.911</v>
@@ -6251,14 +6071,6 @@
       </c>
       <c r="H203" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I203" s="0" t="n">
-        <f aca="false">SUM(B203:H203)</f>
-        <v>4033.391</v>
-      </c>
-      <c r="J203" s="0" t="n">
-        <f aca="false">I203-$I$181</f>
-        <v>26.5590000000002</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6266,16 +6078,16 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>1997.107</v>
+        <v>2117.909</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F204" s="0" t="n">
         <v>2.911</v>
@@ -6285,14 +6097,6 @@
       </c>
       <c r="H204" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I204" s="0" t="n">
-        <f aca="false">SUM(B204:H204)</f>
-        <v>4033.391</v>
-      </c>
-      <c r="J204" s="0" t="n">
-        <f aca="false">I204-$I$181</f>
-        <v>26.5590000000002</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,16 +6104,16 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>1997.107</v>
+        <v>2117.909</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F205" s="0" t="n">
         <v>2.911</v>
@@ -6319,14 +6123,6 @@
       </c>
       <c r="H205" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I205" s="0" t="n">
-        <f aca="false">SUM(B205:H205)</f>
-        <v>4033.391</v>
-      </c>
-      <c r="J205" s="0" t="n">
-        <f aca="false">I205-$I$181</f>
-        <v>26.5590000000002</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,16 +6130,16 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>1997.381</v>
+        <v>2117.909</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F206" s="0" t="n">
         <v>2.911</v>
@@ -6353,14 +6149,6 @@
       </c>
       <c r="H206" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I206" s="0" t="n">
-        <f aca="false">SUM(B206:H206)</f>
-        <v>4033.665</v>
-      </c>
-      <c r="J206" s="0" t="n">
-        <f aca="false">I206-$I$181</f>
-        <v>26.8330000000001</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,16 +6156,16 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>1997.381</v>
+        <v>2117.909</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>134.429</v>
+        <v>134.611</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F207" s="0" t="n">
         <v>2.911</v>
@@ -6387,14 +6175,6 @@
       </c>
       <c r="H207" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I207" s="0" t="n">
-        <f aca="false">SUM(B207:H207)</f>
-        <v>4033.751</v>
-      </c>
-      <c r="J207" s="0" t="n">
-        <f aca="false">I207-$I$181</f>
-        <v>26.9190000000003</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6402,16 +6182,16 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2016.516</v>
+        <v>2117.909</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F208" s="0" t="n">
         <v>2.911</v>
@@ -6421,14 +6201,6 @@
       </c>
       <c r="H208" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I208" s="0" t="n">
-        <f aca="false">SUM(B208:H208)</f>
-        <v>4052.887</v>
-      </c>
-      <c r="J208" s="0" t="n">
-        <f aca="false">I208-$I$181</f>
-        <v>46.0550000000003</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6436,16 +6208,16 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2016.516</v>
+        <v>2117.909</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>134.43</v>
+        <v>134.704</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F209" s="0" t="n">
         <v>2.911</v>
@@ -6455,14 +6227,6 @@
       </c>
       <c r="H209" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I209" s="0" t="n">
-        <f aca="false">SUM(B209:H209)</f>
-        <v>4052.887</v>
-      </c>
-      <c r="J209" s="0" t="n">
-        <f aca="false">I209-$I$181</f>
-        <v>46.0550000000003</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6470,16 +6234,16 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2016.516</v>
+        <v>2122.703</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>134.43</v>
+        <v>134.704</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F210" s="0" t="n">
         <v>2.911</v>
@@ -6489,14 +6253,6 @@
       </c>
       <c r="H210" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I210" s="0" t="n">
-        <f aca="false">SUM(B210:H210)</f>
-        <v>4052.887</v>
-      </c>
-      <c r="J210" s="0" t="n">
-        <f aca="false">I210-$I$181</f>
-        <v>46.0550000000003</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,16 +6260,16 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2016.516</v>
+        <v>2133.56</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>134.43</v>
+        <v>134.704</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F211" s="0" t="n">
         <v>2.911</v>
@@ -6523,14 +6279,6 @@
       </c>
       <c r="H211" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I211" s="0" t="n">
-        <f aca="false">SUM(B211:H211)</f>
-        <v>4052.887</v>
-      </c>
-      <c r="J211" s="0" t="n">
-        <f aca="false">I211-$I$181</f>
-        <v>46.0550000000003</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6538,16 +6286,16 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>2016.516</v>
+        <v>2133.56</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>134.43</v>
+        <v>134.704</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F212" s="0" t="n">
         <v>2.911</v>
@@ -6557,10 +6305,6 @@
       </c>
       <c r="H212" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I212" s="0" t="n">
-        <f aca="false">SUM(B212:H212)</f>
-        <v>4052.887</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,16 +6312,16 @@
         <v>219</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2016.516</v>
+        <v>2133.573</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>134.43</v>
+        <v>134.704</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F213" s="0" t="n">
         <v>2.911</v>
@@ -6587,10 +6331,6 @@
       </c>
       <c r="H213" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I213" s="0" t="n">
-        <f aca="false">SUM(B213:H213)</f>
-        <v>4052.887</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,16 +6338,16 @@
         <v>220</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>2016.525</v>
+        <v>2133.573</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>134.43</v>
+        <v>134.704</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F214" s="0" t="n">
         <v>2.911</v>
@@ -6617,10 +6357,6 @@
       </c>
       <c r="H214" s="0" t="n">
         <v>1856.046</v>
-      </c>
-      <c r="I214" s="0" t="n">
-        <f aca="false">SUM(B214:H214)</f>
-        <v>4052.896</v>
       </c>
     </row>
   </sheetData>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,112 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-04-10 07:30:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-27 00:00:01 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-15 00:00:00 +0200</t>
+    <t xml:space="preserve">2022-05-15 18:30:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2022-05-21 22:00:00 +0200</t>
@@ -682,7 +577,112 @@
     <t xml:space="preserve">2022-12-28 00:00:00 +0100</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-12-28 09:59:11 +0100</t>
+    <t xml:space="preserve">2022-12-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-09 00:00:01 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-01 20:04:08 +0100</t>
   </si>
 </sst>
 </file>
@@ -781,17 +781,17 @@
   </sheetPr>
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E219" activeCellId="0" sqref="E219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
   </cols>
   <sheetData>
@@ -826,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1558.02</v>
+        <v>1717.017</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>37.963</v>
@@ -852,10 +852,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1562.795</v>
+        <v>1717.017</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>37.963</v>
@@ -878,10 +878,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1566.999</v>
+        <v>1721.798</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>37.963</v>
@@ -904,10 +904,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1566.999</v>
+        <v>1732.352</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>37.963</v>
@@ -930,10 +930,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1569.146</v>
+        <v>1732.352</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>37.963</v>
@@ -956,13 +956,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1569.146</v>
+        <v>1732.352</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1.802</v>
@@ -982,13 +982,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1569.146</v>
+        <v>1732.352</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1.802</v>
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1574.856</v>
+        <v>1739.822</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1.802</v>
@@ -1034,13 +1034,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1596.036</v>
+        <v>1753.541</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1.802</v>
@@ -1060,13 +1060,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1607.704</v>
+        <v>1753.541</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>120.783</v>
+        <v>120.903</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1.802</v>
@@ -1086,13 +1086,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1607.704</v>
+        <v>1781.201</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1.802</v>
@@ -1112,13 +1112,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1610.236</v>
+        <v>1793.538</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1.802</v>
@@ -1138,13 +1138,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1610.236</v>
+        <v>1793.538</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1.802</v>
@@ -1164,13 +1164,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1615.023</v>
+        <v>1796.994</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1.802</v>
@@ -1190,13 +1190,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1624.966</v>
+        <v>1796.994</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1.802</v>
@@ -1216,13 +1216,13 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1624.966</v>
+        <v>1796.994</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1.802</v>
@@ -1242,13 +1242,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1627.551</v>
+        <v>1796.994</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1.802</v>
@@ -1268,13 +1268,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1627.551</v>
+        <v>1796.994</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1.802</v>
@@ -1294,13 +1294,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1627.551</v>
+        <v>1796.994</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1.802</v>
@@ -1320,13 +1320,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1628.089</v>
+        <v>1796.994</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1.802</v>
@@ -1346,13 +1346,13 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1628.089</v>
+        <v>1798.132</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1.802</v>
@@ -1372,13 +1372,13 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1628.089</v>
+        <v>1798.132</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>120.783</v>
+        <v>125.902</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1.802</v>
@@ -1398,13 +1398,13 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1655.3</v>
+        <v>1798.132</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1.802</v>
@@ -1424,13 +1424,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1681.417</v>
+        <v>1798.132</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1.802</v>
@@ -1450,13 +1450,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1695.138</v>
+        <v>1802.04</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1.802</v>
@@ -1476,13 +1476,13 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1697.331</v>
+        <v>1802.04</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>1.802</v>
@@ -1502,13 +1502,13 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1698.137</v>
+        <v>1803.906</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1.802</v>
@@ -1528,13 +1528,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1698.137</v>
+        <v>1803.906</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1.802</v>
@@ -1554,13 +1554,13 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1698.137</v>
+        <v>1805.865</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>120.903</v>
+        <v>125.902</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1.802</v>
@@ -1580,13 +1580,13 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1698.137</v>
+        <v>1828.818</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>120.903</v>
+        <v>126.75</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1.802</v>
@@ -1606,13 +1606,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1698.96</v>
+        <v>1828.818</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>120.903</v>
+        <v>126.75</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1.802</v>
@@ -1632,13 +1632,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1698.96</v>
+        <v>1828.818</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>120.903</v>
+        <v>128.105</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1.802</v>
@@ -1658,13 +1658,13 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1698.96</v>
+        <v>1828.818</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>120.903</v>
+        <v>132.344</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1.802</v>
@@ -1684,13 +1684,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1698.96</v>
+        <v>1836.454</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1.802</v>
@@ -1710,13 +1710,13 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1699.023</v>
+        <v>1839.363</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1.802</v>
@@ -1736,13 +1736,13 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1703.826</v>
+        <v>1841.97</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1.802</v>
@@ -1762,13 +1762,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1717.017</v>
+        <v>1841.97</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1.802</v>
@@ -1788,13 +1788,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1721.798</v>
+        <v>1841.97</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1.802</v>
@@ -1814,13 +1814,13 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1732.352</v>
+        <v>1841.97</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1.802</v>
@@ -1840,13 +1840,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1732.352</v>
+        <v>1843.146</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1.802</v>
@@ -1866,10 +1866,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1732.352</v>
+        <v>1850.778</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>40.429</v>
@@ -1892,10 +1892,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1732.352</v>
+        <v>1859.281</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>40.429</v>
@@ -1918,10 +1918,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1739.822</v>
+        <v>1859.281</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>40.429</v>
@@ -1944,10 +1944,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1753.541</v>
+        <v>1862.009</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>40.429</v>
@@ -1970,10 +1970,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1753.541</v>
+        <v>1862.405</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>40.429</v>
@@ -1996,10 +1996,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1781.201</v>
+        <v>1862.405</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>40.429</v>
@@ -2022,10 +2022,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1793.538</v>
+        <v>1863.029</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>40.429</v>
@@ -2048,10 +2048,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1793.538</v>
+        <v>1869.914</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>40.429</v>
@@ -2074,10 +2074,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1796.994</v>
+        <v>1881.196</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>40.429</v>
@@ -2100,10 +2100,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1796.994</v>
+        <v>1881.196</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>40.429</v>
@@ -2126,10 +2126,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1796.994</v>
+        <v>1886.222</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>40.429</v>
@@ -2144,7 +2144,7 @@
         <v>0.753</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,10 +2152,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1796.994</v>
+        <v>1907.981</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>40.429</v>
@@ -2170,7 +2170,7 @@
         <v>0.753</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,10 +2178,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1796.994</v>
+        <v>1907.981</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>40.429</v>
@@ -2196,7 +2196,7 @@
         <v>0.753</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,10 +2204,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1796.994</v>
+        <v>1907.981</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>40.429</v>
@@ -2222,7 +2222,7 @@
         <v>0.753</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,10 +2230,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1796.994</v>
+        <v>1907.981</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>40.429</v>
@@ -2248,7 +2248,7 @@
         <v>0.753</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,10 +2256,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1798.132</v>
+        <v>1907.981</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>40.429</v>
@@ -2274,7 +2274,7 @@
         <v>0.753</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2282,10 +2282,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1798.132</v>
+        <v>1907.981</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>40.429</v>
@@ -2300,7 +2300,7 @@
         <v>0.753</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,10 +2308,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1798.132</v>
+        <v>1907.981</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>40.429</v>
@@ -2326,7 +2326,7 @@
         <v>0.753</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,10 +2334,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1798.132</v>
+        <v>1907.981</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>40.429</v>
@@ -2352,7 +2352,7 @@
         <v>0.753</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,10 +2360,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1802.04</v>
+        <v>1907.981</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>40.429</v>
@@ -2378,7 +2378,7 @@
         <v>0.753</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,10 +2386,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1802.04</v>
+        <v>1907.981</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>40.429</v>
@@ -2404,7 +2404,7 @@
         <v>0.753</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,10 +2412,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1803.906</v>
+        <v>1907.981</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>40.429</v>
@@ -2430,7 +2430,7 @@
         <v>0.753</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,10 +2438,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1803.906</v>
+        <v>1907.981</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>40.429</v>
@@ -2456,7 +2456,7 @@
         <v>0.753</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,10 +2464,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1805.865</v>
+        <v>1907.981</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>40.429</v>
@@ -2482,7 +2482,7 @@
         <v>0.753</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,10 +2490,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>126.75</v>
+        <v>132.465</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>40.429</v>
@@ -2508,7 +2508,7 @@
         <v>0.753</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,10 +2516,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>126.75</v>
+        <v>132.465</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>40.429</v>
@@ -2534,7 +2534,7 @@
         <v>0.753</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2542,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>128.105</v>
+        <v>132.465</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>40.429</v>
@@ -2560,7 +2560,7 @@
         <v>0.753</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,10 +2568,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>132.344</v>
+        <v>132.465</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>40.429</v>
@@ -2586,7 +2586,7 @@
         <v>0.753</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,10 +2594,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1836.454</v>
+        <v>1907.981</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>40.429</v>
@@ -2612,7 +2612,7 @@
         <v>0.753</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,10 +2620,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1839.363</v>
+        <v>1912.759</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>40.429</v>
@@ -2638,7 +2638,7 @@
         <v>0.753</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,10 +2646,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1841.97</v>
+        <v>1931.285</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>132.426</v>
+        <v>133.352</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>40.429</v>
@@ -2664,7 +2664,7 @@
         <v>0.753</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,10 +2672,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1841.97</v>
+        <v>1947.236</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>40.429</v>
@@ -2690,7 +2690,7 @@
         <v>0.753</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,10 +2698,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1841.97</v>
+        <v>1947.236</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>40.429</v>
@@ -2716,7 +2716,7 @@
         <v>0.753</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,10 +2724,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1841.97</v>
+        <v>1947.886</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>40.429</v>
@@ -2742,7 +2742,7 @@
         <v>0.753</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,10 +2750,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1843.146</v>
+        <v>1947.886</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>40.429</v>
@@ -2768,7 +2768,7 @@
         <v>0.753</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,10 +2776,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1850.778</v>
+        <v>1947.886</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>40.429</v>
@@ -2794,7 +2794,7 @@
         <v>0.753</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,10 +2802,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1859.281</v>
+        <v>1962.96</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>40.429</v>
@@ -2820,7 +2820,7 @@
         <v>0.753</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,10 +2828,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1859.281</v>
+        <v>1962.96</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>40.429</v>
@@ -2846,7 +2846,7 @@
         <v>0.753</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,10 +2854,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1862.009</v>
+        <v>1962.96</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>40.429</v>
@@ -2872,7 +2872,7 @@
         <v>0.753</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,10 +2880,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1862.405</v>
+        <v>1963.031</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>40.429</v>
@@ -2898,7 +2898,7 @@
         <v>0.753</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +2906,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1862.405</v>
+        <v>1963.031</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>40.429</v>
@@ -2924,7 +2924,7 @@
         <v>0.753</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,10 +2932,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1863.029</v>
+        <v>1963.031</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>40.429</v>
@@ -2950,7 +2950,7 @@
         <v>0.753</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,10 +2958,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1869.914</v>
+        <v>1970.397</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>40.429</v>
@@ -2976,7 +2976,7 @@
         <v>0.753</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,10 +2984,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>1881.196</v>
+        <v>1970.548</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>40.429</v>
@@ -3002,7 +3002,7 @@
         <v>0.753</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,10 +3010,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1881.196</v>
+        <v>1970.548</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>40.429</v>
@@ -3028,7 +3028,7 @@
         <v>0.753</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,10 +3036,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1886.222</v>
+        <v>1970.548</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>40.429</v>
@@ -3062,10 +3062,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>40.429</v>
@@ -3088,10 +3088,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>40.429</v>
@@ -3114,10 +3114,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>40.429</v>
@@ -3140,10 +3140,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>40.429</v>
@@ -3166,10 +3166,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1907.981</v>
+        <v>1971.538</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>40.429</v>
@@ -3192,10 +3192,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>40.429</v>
@@ -3218,10 +3218,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>40.429</v>
@@ -3244,10 +3244,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>40.429</v>
@@ -3270,10 +3270,10 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.296</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>40.429</v>
@@ -3296,10 +3296,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.296</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>40.429</v>
@@ -3322,10 +3322,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.527</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>40.429</v>
@@ -3348,10 +3348,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.527</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>40.429</v>
@@ -3374,10 +3374,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>1907.981</v>
+        <v>1989.396</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>40.429</v>
@@ -3400,10 +3400,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>1907.981</v>
+        <v>1989.396</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>40.429</v>
@@ -3426,10 +3426,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1907.981</v>
+        <v>1996.318</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>40.429</v>
@@ -3452,10 +3452,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1907.981</v>
+        <v>1996.318</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>40.429</v>
@@ -3478,10 +3478,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1907.981</v>
+        <v>1996.54</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>40.429</v>
@@ -3504,10 +3504,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1907.981</v>
+        <v>1996.54</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>40.429</v>
@@ -3530,10 +3530,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>1912.759</v>
+        <v>1996.54</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>40.429</v>
@@ -3556,10 +3556,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1931.285</v>
+        <v>1996.54</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>133.352</v>
+        <v>134.343</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>40.429</v>
@@ -3582,10 +3582,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1947.236</v>
+        <v>1997.107</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>40.429</v>
@@ -3608,10 +3608,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1947.236</v>
+        <v>1997.107</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>40.429</v>
@@ -3634,10 +3634,10 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>1947.886</v>
+        <v>1997.107</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>40.429</v>
@@ -3660,10 +3660,10 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1947.886</v>
+        <v>1997.107</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>40.429</v>
@@ -3686,10 +3686,10 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1947.886</v>
+        <v>1997.381</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>40.429</v>
@@ -3712,10 +3712,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1962.96</v>
+        <v>1997.381</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>134.244</v>
+        <v>134.429</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>40.429</v>
@@ -3738,10 +3738,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1962.96</v>
+        <v>2016.516</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>134.244</v>
+        <v>134.43</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>40.429</v>
@@ -3764,10 +3764,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1962.96</v>
+        <v>2016.516</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>134.244</v>
+        <v>134.43</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>40.429</v>
@@ -3790,10 +3790,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1963.031</v>
+        <v>2016.516</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>134.244</v>
+        <v>134.43</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>40.429</v>
@@ -3816,10 +3816,10 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1963.031</v>
+        <v>2016.516</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>134.244</v>
+        <v>134.43</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>40.429</v>
@@ -3842,10 +3842,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1963.031</v>
+        <v>2016.516</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>134.244</v>
+        <v>134.43</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>40.429</v>
@@ -3868,10 +3868,10 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1970.397</v>
+        <v>2016.516</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>40.429</v>
@@ -3894,10 +3894,10 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>1970.548</v>
+        <v>2016.525</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>40.429</v>
@@ -3920,10 +3920,10 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>1970.548</v>
+        <v>2016.933</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40.429</v>
@@ -3946,10 +3946,10 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>1970.548</v>
+        <v>2016.933</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>40.429</v>
@@ -3972,10 +3972,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>1970.548</v>
+        <v>2024.386</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>40.429</v>
@@ -3998,10 +3998,10 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>1970.873</v>
+        <v>2024.386</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>40.429</v>
@@ -4024,10 +4024,10 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>1970.873</v>
+        <v>2024.386</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>40.429</v>
@@ -4050,10 +4050,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>1970.873</v>
+        <v>2024.386</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>40.429</v>
@@ -4076,10 +4076,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1971.538</v>
+        <v>2045.337</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>40.429</v>
@@ -4102,10 +4102,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>1981.161</v>
+        <v>2045.337</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>40.429</v>
@@ -4128,10 +4128,10 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>1981.161</v>
+        <v>2045.337</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>40.429</v>
@@ -4154,10 +4154,10 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>1981.161</v>
+        <v>2045.337</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>40.429</v>
@@ -4180,10 +4180,10 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>1981.296</v>
+        <v>2045.365</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>40.429</v>
@@ -4206,10 +4206,10 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1981.296</v>
+        <v>2045.365</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>40.429</v>
@@ -4232,10 +4232,10 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>1981.527</v>
+        <v>2055.64</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>40.429</v>
@@ -4258,10 +4258,10 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>1981.527</v>
+        <v>2055.64</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>40.429</v>
@@ -4284,10 +4284,10 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1989.396</v>
+        <v>2055.64</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>40.429</v>
@@ -4310,10 +4310,10 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>1989.396</v>
+        <v>2055.64</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>40.429</v>
@@ -4336,10 +4336,10 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>1996.318</v>
+        <v>2055.64</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>40.429</v>
@@ -4362,10 +4362,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>1996.318</v>
+        <v>2055.64</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>40.429</v>
@@ -4388,10 +4388,10 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>1996.54</v>
+        <v>2055.928</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>40.429</v>
@@ -4414,10 +4414,10 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>1996.54</v>
+        <v>2055.928</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>40.429</v>
@@ -4440,10 +4440,10 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>1996.54</v>
+        <v>2065.57</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>40.429</v>
@@ -4466,10 +4466,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1996.54</v>
+        <v>2065.57</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>40.429</v>
@@ -4492,10 +4492,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>1997.107</v>
+        <v>2065.57</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>40.429</v>
@@ -4518,10 +4518,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>1997.107</v>
+        <v>2074.804</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>40.429</v>
@@ -4544,10 +4544,10 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1997.107</v>
+        <v>2074.804</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>40.429</v>
@@ -4570,10 +4570,10 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>1997.107</v>
+        <v>2074.804</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>40.429</v>
@@ -4596,10 +4596,10 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>1997.381</v>
+        <v>2074.934</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>40.429</v>
@@ -4622,10 +4622,10 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>1997.381</v>
+        <v>2074.934</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>134.429</v>
+        <v>134.531</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>40.429</v>
@@ -4648,10 +4648,10 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2016.516</v>
+        <v>2096.361</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>40.429</v>
@@ -4674,10 +4674,10 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2016.516</v>
+        <v>2117.909</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>40.429</v>
@@ -4700,10 +4700,10 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2016.516</v>
+        <v>2117.909</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>40.429</v>
@@ -4726,10 +4726,10 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2016.516</v>
+        <v>2117.909</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>40.429</v>
@@ -4752,13 +4752,13 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2016.516</v>
+        <v>2117.909</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1.802</v>
@@ -4778,13 +4778,13 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2016.516</v>
+        <v>2117.909</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1.802</v>
@@ -4804,13 +4804,13 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2016.525</v>
+        <v>2117.909</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1.802</v>
@@ -4830,13 +4830,13 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>2016.933</v>
+        <v>2117.909</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1.802</v>
@@ -4856,13 +4856,13 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2016.933</v>
+        <v>2117.909</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1.802</v>
@@ -4882,13 +4882,13 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1.802</v>
@@ -4908,13 +4908,13 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1.802</v>
@@ -4934,13 +4934,13 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1.802</v>
@@ -4960,13 +4960,13 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1.802</v>
@@ -4986,13 +4986,13 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1.802</v>
@@ -5012,13 +5012,13 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1.802</v>
@@ -5038,13 +5038,13 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1.802</v>
@@ -5064,13 +5064,13 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>1.802</v>
@@ -5090,13 +5090,13 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2045.365</v>
+        <v>2117.909</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>1.802</v>
@@ -5116,16 +5116,16 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2045.365</v>
+        <v>2117.909</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>40.429</v>
+        <v>40.999</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F167" s="0" t="n">
         <v>2.911</v>
@@ -5142,16 +5142,16 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F168" s="0" t="n">
         <v>2.911</v>
@@ -5168,16 +5168,16 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F169" s="0" t="n">
         <v>2.911</v>
@@ -5194,16 +5194,16 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>2.911</v>
@@ -5220,16 +5220,16 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F171" s="0" t="n">
         <v>2.911</v>
@@ -5246,16 +5246,16 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F172" s="0" t="n">
         <v>2.911</v>
@@ -5272,16 +5272,16 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F173" s="0" t="n">
         <v>2.911</v>
@@ -5298,16 +5298,16 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>2055.928</v>
+        <v>2117.909</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F174" s="0" t="n">
         <v>2.911</v>
@@ -5324,16 +5324,16 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2055.928</v>
+        <v>2122.703</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>2.911</v>
@@ -5350,16 +5350,16 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2065.57</v>
+        <v>2133.56</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F176" s="0" t="n">
         <v>2.911</v>
@@ -5376,16 +5376,16 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2065.57</v>
+        <v>2133.56</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F177" s="0" t="n">
         <v>2.911</v>
@@ -5402,16 +5402,16 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>2065.57</v>
+        <v>2133.573</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F178" s="0" t="n">
         <v>2.911</v>
@@ -5428,16 +5428,16 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>2074.804</v>
+        <v>2133.573</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F179" s="0" t="n">
         <v>2.911</v>
@@ -5454,16 +5454,16 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>2074.804</v>
+        <v>2147.5</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F180" s="0" t="n">
         <v>2.911</v>
@@ -5480,16 +5480,16 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2074.804</v>
+        <v>2156.509</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F181" s="0" t="n">
         <v>2.911</v>
@@ -5506,16 +5506,16 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>2074.934</v>
+        <v>2160.415</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F182" s="0" t="n">
         <v>2.911</v>
@@ -5532,16 +5532,16 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>2074.934</v>
+        <v>2171.753</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F183" s="0" t="n">
         <v>2.911</v>
@@ -5558,16 +5558,16 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>2096.361</v>
+        <v>2171.753</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>2.911</v>
@@ -5584,16 +5584,16 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.753</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>2.911</v>
@@ -5610,16 +5610,16 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>2.911</v>
@@ -5636,16 +5636,16 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F187" s="0" t="n">
         <v>2.911</v>
@@ -5662,16 +5662,16 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F188" s="0" t="n">
         <v>2.911</v>
@@ -5688,16 +5688,16 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>2117.909</v>
+        <v>2175.116</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F189" s="0" t="n">
         <v>2.911</v>
@@ -5714,16 +5714,16 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F190" s="0" t="n">
         <v>2.911</v>
@@ -5740,16 +5740,16 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F191" s="0" t="n">
         <v>2.911</v>
@@ -5766,16 +5766,16 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F192" s="0" t="n">
         <v>2.911</v>
@@ -5792,16 +5792,16 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>2.911</v>
@@ -5818,16 +5818,16 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F194" s="0" t="n">
         <v>2.911</v>
@@ -5844,16 +5844,16 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>2.911</v>
@@ -5870,16 +5870,16 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F196" s="0" t="n">
         <v>2.911</v>
@@ -5896,16 +5896,16 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>2117.909</v>
+        <v>2201.881</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>2.911</v>
@@ -5922,16 +5922,16 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F198" s="0" t="n">
         <v>2.911</v>
@@ -5948,22 +5948,22 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F199" s="0" t="n">
         <v>2.911</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>1856.046</v>
@@ -5974,22 +5974,22 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>2.911</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H200" s="0" t="n">
         <v>1856.046</v>
@@ -6000,22 +6000,22 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H201" s="0" t="n">
         <v>1856.046</v>
@@ -6026,22 +6026,22 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>40.999</v>
+        <v>41.007</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1.891</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H202" s="0" t="n">
         <v>1856.046</v>
@@ -6052,10 +6052,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>41.007</v>
@@ -6064,10 +6064,10 @@
         <v>1.891</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H203" s="0" t="n">
         <v>1856.046</v>
@@ -6078,10 +6078,10 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>41.007</v>
@@ -6090,10 +6090,10 @@
         <v>1.891</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H204" s="0" t="n">
         <v>1856.046</v>
@@ -6104,10 +6104,10 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>41.007</v>
@@ -6116,10 +6116,10 @@
         <v>1.891</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H205" s="0" t="n">
         <v>1856.046</v>
@@ -6130,10 +6130,10 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>41.007</v>
@@ -6142,10 +6142,10 @@
         <v>1.891</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H206" s="0" t="n">
         <v>1856.046</v>
@@ -6156,10 +6156,10 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>41.007</v>
@@ -6168,10 +6168,10 @@
         <v>1.891</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H207" s="0" t="n">
         <v>1856.046</v>
@@ -6182,10 +6182,10 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>41.007</v>
@@ -6194,10 +6194,10 @@
         <v>1.891</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H208" s="0" t="n">
         <v>1856.046</v>
@@ -6208,10 +6208,10 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>41.007</v>
@@ -6220,10 +6220,10 @@
         <v>1.891</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H209" s="0" t="n">
         <v>1856.046</v>
@@ -6234,10 +6234,10 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2122.703</v>
+        <v>2228.126</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>41.007</v>
@@ -6246,10 +6246,10 @@
         <v>1.891</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H210" s="0" t="n">
         <v>1856.046</v>
@@ -6260,10 +6260,10 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2133.56</v>
+        <v>2233.252</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>41.007</v>
@@ -6272,10 +6272,10 @@
         <v>1.891</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H211" s="0" t="n">
         <v>1856.046</v>
@@ -6286,10 +6286,10 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>2133.56</v>
+        <v>2249.212</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>41.007</v>
@@ -6298,10 +6298,10 @@
         <v>1.891</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H212" s="0" t="n">
         <v>1856.046</v>
@@ -6312,10 +6312,10 @@
         <v>219</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2133.573</v>
+        <v>2249.212</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>41.007</v>
@@ -6324,10 +6324,10 @@
         <v>1.891</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H213" s="0" t="n">
         <v>1856.046</v>
@@ -6338,10 +6338,10 @@
         <v>220</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>2133.573</v>
+        <v>2249.212</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>41.007</v>
@@ -6350,10 +6350,10 @@
         <v>1.891</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H214" s="0" t="n">
         <v>1856.046</v>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,94 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-05-15 18:30:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-21 22:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-31 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-18 00:00:00 +0200</t>
+    <t xml:space="preserve">2022-06-18 23:00:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2022-06-19 00:00:00 +0200</t>
@@ -682,7 +595,91 @@
     <t xml:space="preserve">2023-02-01 00:00:00 +0100</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-02-01 20:04:08 +0100</t>
+    <t xml:space="preserve">2023-02-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-01 23:31:53 +0100</t>
   </si>
 </sst>
 </file>
@@ -779,17 +776,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E219" activeCellId="0" sqref="E219"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
@@ -826,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1717.017</v>
+        <v>1828.818</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>120.903</v>
+        <v>126.75</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1.802</v>
@@ -852,13 +849,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1717.017</v>
+        <v>1828.818</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>120.903</v>
+        <v>126.75</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1.802</v>
@@ -878,13 +875,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1721.798</v>
+        <v>1828.818</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>120.903</v>
+        <v>128.105</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1.802</v>
@@ -904,13 +901,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1732.352</v>
+        <v>1828.818</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>120.903</v>
+        <v>132.344</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1.802</v>
@@ -930,13 +927,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1732.352</v>
+        <v>1836.454</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>37.963</v>
+        <v>40.429</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1.802</v>
@@ -956,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1732.352</v>
+        <v>1839.363</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>40.429</v>
@@ -982,10 +979,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1732.352</v>
+        <v>1841.97</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>40.429</v>
@@ -1008,10 +1005,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1739.822</v>
+        <v>1841.97</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>40.429</v>
@@ -1034,10 +1031,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1753.541</v>
+        <v>1841.97</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>40.429</v>
@@ -1060,10 +1057,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1753.541</v>
+        <v>1841.97</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>120.903</v>
+        <v>132.426</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>40.429</v>
@@ -1086,10 +1083,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1781.201</v>
+        <v>1843.146</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>40.429</v>
@@ -1112,10 +1109,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1793.538</v>
+        <v>1850.778</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>40.429</v>
@@ -1138,10 +1135,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1793.538</v>
+        <v>1859.281</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>40.429</v>
@@ -1164,10 +1161,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1796.994</v>
+        <v>1859.281</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>40.429</v>
@@ -1190,10 +1187,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1796.994</v>
+        <v>1862.009</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>40.429</v>
@@ -1216,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1796.994</v>
+        <v>1862.405</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>40.429</v>
@@ -1242,10 +1239,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1796.994</v>
+        <v>1862.405</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>40.429</v>
@@ -1268,10 +1265,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1796.994</v>
+        <v>1863.029</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>125.902</v>
+        <v>132.426</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>40.429</v>
@@ -1294,10 +1291,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1796.994</v>
+        <v>1869.914</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>40.429</v>
@@ -1320,10 +1317,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1796.994</v>
+        <v>1881.196</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>40.429</v>
@@ -1346,10 +1343,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1798.132</v>
+        <v>1881.196</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>40.429</v>
@@ -1372,10 +1369,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1798.132</v>
+        <v>1886.222</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>40.429</v>
@@ -1390,7 +1387,7 @@
         <v>0.753</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,10 +1395,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1798.132</v>
+        <v>1907.981</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>40.429</v>
@@ -1416,7 +1413,7 @@
         <v>0.753</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,10 +1421,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1798.132</v>
+        <v>1907.981</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>40.429</v>
@@ -1442,7 +1439,7 @@
         <v>0.753</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,10 +1447,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1802.04</v>
+        <v>1907.981</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>40.429</v>
@@ -1468,7 +1465,7 @@
         <v>0.753</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,10 +1473,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1802.04</v>
+        <v>1907.981</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>40.429</v>
@@ -1494,7 +1491,7 @@
         <v>0.753</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,10 +1499,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1803.906</v>
+        <v>1907.981</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>40.429</v>
@@ -1520,7 +1517,7 @@
         <v>0.753</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,10 +1525,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1803.906</v>
+        <v>1907.981</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>40.429</v>
@@ -1546,7 +1543,7 @@
         <v>0.753</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,10 +1551,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1805.865</v>
+        <v>1907.981</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>125.902</v>
+        <v>132.465</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>40.429</v>
@@ -1572,7 +1569,7 @@
         <v>0.753</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,10 +1577,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>126.75</v>
+        <v>132.465</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>40.429</v>
@@ -1598,7 +1595,7 @@
         <v>0.753</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,10 +1603,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>126.75</v>
+        <v>132.465</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>40.429</v>
@@ -1624,7 +1621,7 @@
         <v>0.753</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,10 +1629,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>128.105</v>
+        <v>132.465</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>40.429</v>
@@ -1650,7 +1647,7 @@
         <v>0.753</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,10 +1655,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>132.344</v>
+        <v>132.465</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>40.429</v>
@@ -1676,7 +1673,7 @@
         <v>0.753</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,10 +1681,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1836.454</v>
+        <v>1907.981</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>40.429</v>
@@ -1702,7 +1699,7 @@
         <v>0.753</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,10 +1707,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1839.363</v>
+        <v>1907.981</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>40.429</v>
@@ -1728,7 +1725,7 @@
         <v>0.753</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,10 +1733,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1841.97</v>
+        <v>1907.981</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>40.429</v>
@@ -1754,7 +1751,7 @@
         <v>0.753</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,10 +1759,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1841.97</v>
+        <v>1907.981</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>40.429</v>
@@ -1780,7 +1777,7 @@
         <v>0.753</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,10 +1785,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1841.97</v>
+        <v>1907.981</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>40.429</v>
@@ -1806,7 +1803,7 @@
         <v>0.753</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,10 +1811,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1841.97</v>
+        <v>1907.981</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>40.429</v>
@@ -1832,7 +1829,7 @@
         <v>0.753</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,10 +1837,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1843.146</v>
+        <v>1907.981</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>40.429</v>
@@ -1858,7 +1855,7 @@
         <v>0.753</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,10 +1863,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1850.778</v>
+        <v>1912.759</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>40.429</v>
@@ -1884,7 +1881,7 @@
         <v>0.753</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,10 +1889,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1859.281</v>
+        <v>1931.285</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>132.426</v>
+        <v>133.352</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>40.429</v>
@@ -1910,7 +1907,7 @@
         <v>0.753</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,10 +1915,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1859.281</v>
+        <v>1947.236</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>40.429</v>
@@ -1936,7 +1933,7 @@
         <v>0.753</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,10 +1941,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1862.009</v>
+        <v>1947.236</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>40.429</v>
@@ -1962,7 +1959,7 @@
         <v>0.753</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +1967,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1862.405</v>
+        <v>1947.886</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>40.429</v>
@@ -1988,7 +1985,7 @@
         <v>0.753</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,10 +1993,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1862.405</v>
+        <v>1947.886</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>40.429</v>
@@ -2014,7 +2011,7 @@
         <v>0.753</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,10 +2019,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1863.029</v>
+        <v>1947.886</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>40.429</v>
@@ -2040,7 +2037,7 @@
         <v>0.753</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,10 +2045,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1869.914</v>
+        <v>1962.96</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>40.429</v>
@@ -2066,7 +2063,7 @@
         <v>0.753</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,10 +2071,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1881.196</v>
+        <v>1962.96</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>40.429</v>
@@ -2092,7 +2089,7 @@
         <v>0.753</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,10 +2097,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1881.196</v>
+        <v>1962.96</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>40.429</v>
@@ -2118,7 +2115,7 @@
         <v>0.753</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,10 +2123,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1886.222</v>
+        <v>1963.031</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>40.429</v>
@@ -2152,10 +2149,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1907.981</v>
+        <v>1963.031</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>40.429</v>
@@ -2178,10 +2175,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1907.981</v>
+        <v>1963.031</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>40.429</v>
@@ -2204,10 +2201,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.397</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>40.429</v>
@@ -2230,10 +2227,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>40.429</v>
@@ -2256,10 +2253,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>40.429</v>
@@ -2282,10 +2279,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>40.429</v>
@@ -2308,10 +2305,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>40.429</v>
@@ -2334,10 +2331,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>40.429</v>
@@ -2360,10 +2357,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>40.429</v>
@@ -2386,10 +2383,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>40.429</v>
@@ -2412,10 +2409,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1907.981</v>
+        <v>1971.538</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>40.429</v>
@@ -2438,10 +2435,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>40.429</v>
@@ -2464,10 +2461,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>40.429</v>
@@ -2490,10 +2487,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>40.429</v>
@@ -2516,10 +2513,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.296</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>40.429</v>
@@ -2542,10 +2539,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.296</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>40.429</v>
@@ -2568,10 +2565,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.527</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>40.429</v>
@@ -2594,10 +2591,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.527</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>40.429</v>
@@ -2620,10 +2617,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1912.759</v>
+        <v>1989.396</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>40.429</v>
@@ -2646,10 +2643,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1931.285</v>
+        <v>1989.396</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>133.352</v>
+        <v>134.343</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>40.429</v>
@@ -2672,10 +2669,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1947.236</v>
+        <v>1996.318</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>40.429</v>
@@ -2698,10 +2695,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1947.236</v>
+        <v>1996.318</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>40.429</v>
@@ -2724,10 +2721,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1947.886</v>
+        <v>1996.54</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>40.429</v>
@@ -2750,10 +2747,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1947.886</v>
+        <v>1996.54</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>40.429</v>
@@ -2776,10 +2773,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1947.886</v>
+        <v>1996.54</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>40.429</v>
@@ -2802,10 +2799,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1962.96</v>
+        <v>1996.54</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>40.429</v>
@@ -2828,10 +2825,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1962.96</v>
+        <v>1997.107</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>40.429</v>
@@ -2854,10 +2851,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1962.96</v>
+        <v>1997.107</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>40.429</v>
@@ -2880,10 +2877,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1963.031</v>
+        <v>1997.107</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>40.429</v>
@@ -2906,10 +2903,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1963.031</v>
+        <v>1997.107</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>40.429</v>
@@ -2932,10 +2929,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1963.031</v>
+        <v>1997.381</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>40.429</v>
@@ -2958,10 +2955,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1970.397</v>
+        <v>1997.381</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>134.343</v>
+        <v>134.429</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>40.429</v>
@@ -2984,10 +2981,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>1970.548</v>
+        <v>2016.516</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>40.429</v>
@@ -3010,10 +3007,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1970.548</v>
+        <v>2016.516</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>40.429</v>
@@ -3036,10 +3033,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1970.548</v>
+        <v>2016.516</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>40.429</v>
@@ -3062,10 +3059,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1970.548</v>
+        <v>2016.516</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>40.429</v>
@@ -3088,10 +3085,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1970.873</v>
+        <v>2016.516</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>40.429</v>
@@ -3114,10 +3111,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1970.873</v>
+        <v>2016.516</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>40.429</v>
@@ -3140,10 +3137,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1970.873</v>
+        <v>2016.525</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>40.429</v>
@@ -3166,10 +3163,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1971.538</v>
+        <v>2016.933</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>40.429</v>
@@ -3192,10 +3189,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1981.161</v>
+        <v>2016.933</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>40.429</v>
@@ -3218,10 +3215,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1981.161</v>
+        <v>2024.386</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>40.429</v>
@@ -3244,10 +3241,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1981.161</v>
+        <v>2024.386</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>40.429</v>
@@ -3270,10 +3267,10 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1981.296</v>
+        <v>2024.386</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>40.429</v>
@@ -3296,10 +3293,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1981.296</v>
+        <v>2024.386</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>40.429</v>
@@ -3322,10 +3319,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1981.527</v>
+        <v>2045.337</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>40.429</v>
@@ -3348,10 +3345,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1981.527</v>
+        <v>2045.337</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>40.429</v>
@@ -3374,10 +3371,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>1989.396</v>
+        <v>2045.337</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>40.429</v>
@@ -3400,10 +3397,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>1989.396</v>
+        <v>2045.337</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>40.429</v>
@@ -3426,10 +3423,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1996.318</v>
+        <v>2045.365</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>40.429</v>
@@ -3452,10 +3449,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1996.318</v>
+        <v>2045.365</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>40.429</v>
@@ -3478,10 +3475,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1996.54</v>
+        <v>2055.64</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>40.429</v>
@@ -3504,10 +3501,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1996.54</v>
+        <v>2055.64</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>40.429</v>
@@ -3530,10 +3527,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>1996.54</v>
+        <v>2055.64</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>40.429</v>
@@ -3556,10 +3553,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1996.54</v>
+        <v>2055.64</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>40.429</v>
@@ -3582,10 +3579,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1997.107</v>
+        <v>2055.64</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>40.429</v>
@@ -3608,10 +3605,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1997.107</v>
+        <v>2055.64</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>40.429</v>
@@ -3634,10 +3631,10 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>1997.107</v>
+        <v>2055.928</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>40.429</v>
@@ -3660,10 +3657,10 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1997.107</v>
+        <v>2055.928</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>40.429</v>
@@ -3686,10 +3683,10 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1997.381</v>
+        <v>2065.57</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>40.429</v>
@@ -3712,10 +3709,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1997.381</v>
+        <v>2065.57</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>134.429</v>
+        <v>134.531</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>40.429</v>
@@ -3738,10 +3735,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2016.516</v>
+        <v>2065.57</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>40.429</v>
@@ -3764,10 +3761,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2016.516</v>
+        <v>2074.804</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>40.429</v>
@@ -3790,10 +3787,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2016.516</v>
+        <v>2074.804</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>40.429</v>
@@ -3816,10 +3813,10 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2016.516</v>
+        <v>2074.804</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>40.429</v>
@@ -3842,10 +3839,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2016.516</v>
+        <v>2074.934</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>40.429</v>
@@ -3868,10 +3865,10 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2016.516</v>
+        <v>2074.934</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>40.429</v>
@@ -3894,10 +3891,10 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2016.525</v>
+        <v>2096.361</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>40.429</v>
@@ -3920,10 +3917,10 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2016.933</v>
+        <v>2117.909</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40.429</v>
@@ -3946,10 +3943,10 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2016.933</v>
+        <v>2117.909</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>40.429</v>
@@ -3972,10 +3969,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>40.429</v>
@@ -3998,13 +3995,13 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1.802</v>
@@ -4024,13 +4021,13 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1.802</v>
@@ -4050,13 +4047,13 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1.802</v>
@@ -4076,13 +4073,13 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1.802</v>
@@ -4102,13 +4099,13 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1.802</v>
@@ -4128,13 +4125,13 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1.802</v>
@@ -4154,13 +4151,13 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1.802</v>
@@ -4180,13 +4177,13 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2045.365</v>
+        <v>2117.909</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1.802</v>
@@ -4206,13 +4203,13 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>2045.365</v>
+        <v>2117.909</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1.802</v>
@@ -4232,13 +4229,13 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>1.802</v>
@@ -4258,13 +4255,13 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>1.802</v>
@@ -4284,13 +4281,13 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1.802</v>
@@ -4310,13 +4307,13 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1.802</v>
@@ -4336,13 +4333,13 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1.802</v>
@@ -4362,16 +4359,16 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>40.429</v>
+        <v>40.999</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>2.911</v>
@@ -4388,16 +4385,16 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2055.928</v>
+        <v>2117.909</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F139" s="0" t="n">
         <v>2.911</v>
@@ -4414,16 +4411,16 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2055.928</v>
+        <v>2117.909</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F140" s="0" t="n">
         <v>2.911</v>
@@ -4440,16 +4437,16 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2065.57</v>
+        <v>2117.909</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>2.911</v>
@@ -4466,16 +4463,16 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>2065.57</v>
+        <v>2117.909</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>2.911</v>
@@ -4492,16 +4489,16 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2065.57</v>
+        <v>2117.909</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>2.911</v>
@@ -4518,16 +4515,16 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2074.804</v>
+        <v>2117.909</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>2.911</v>
@@ -4544,16 +4541,16 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>2074.804</v>
+        <v>2117.909</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F145" s="0" t="n">
         <v>2.911</v>
@@ -4570,16 +4567,16 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2074.804</v>
+        <v>2122.703</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>2.911</v>
@@ -4596,16 +4593,16 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>2074.934</v>
+        <v>2133.56</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>2.911</v>
@@ -4622,16 +4619,16 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>2074.934</v>
+        <v>2133.56</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>2.911</v>
@@ -4648,16 +4645,16 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2096.361</v>
+        <v>2133.573</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>134.611</v>
+        <v>134.704</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>2.911</v>
@@ -4674,16 +4671,16 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2117.909</v>
+        <v>2133.573</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F150" s="0" t="n">
         <v>2.911</v>
@@ -4700,16 +4697,16 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2117.909</v>
+        <v>2147.5</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>2.911</v>
@@ -4726,16 +4723,16 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2117.909</v>
+        <v>2156.509</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>2.911</v>
@@ -4752,16 +4749,16 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2117.909</v>
+        <v>2160.415</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F153" s="0" t="n">
         <v>2.911</v>
@@ -4778,16 +4775,16 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.753</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>2.911</v>
@@ -4804,16 +4801,16 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.753</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F155" s="0" t="n">
         <v>2.911</v>
@@ -4830,16 +4827,16 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.753</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F156" s="0" t="n">
         <v>2.911</v>
@@ -4856,16 +4853,16 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>2.911</v>
@@ -4882,16 +4879,16 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F158" s="0" t="n">
         <v>2.911</v>
@@ -4908,16 +4905,16 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>2.911</v>
@@ -4934,16 +4931,16 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>2117.909</v>
+        <v>2175.116</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F160" s="0" t="n">
         <v>2.911</v>
@@ -4960,16 +4957,16 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>2.911</v>
@@ -4986,16 +4983,16 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>2.911</v>
@@ -5012,16 +5009,16 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>2.911</v>
@@ -5038,16 +5035,16 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>2.911</v>
@@ -5064,16 +5061,16 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F165" s="0" t="n">
         <v>2.911</v>
@@ -5090,16 +5087,16 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F166" s="0" t="n">
         <v>2.911</v>
@@ -5116,13 +5113,13 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>40.999</v>
+        <v>41.007</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>1.891</v>
@@ -5142,10 +5139,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2117.909</v>
+        <v>2201.881</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>41.007</v>
@@ -5168,10 +5165,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>41.007</v>
@@ -5194,10 +5191,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>41.007</v>
@@ -5209,7 +5206,7 @@
         <v>2.911</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>1856.046</v>
@@ -5220,10 +5217,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>41.007</v>
@@ -5235,7 +5232,7 @@
         <v>2.911</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>1856.046</v>
@@ -5246,10 +5243,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>41.007</v>
@@ -5258,10 +5255,10 @@
         <v>1.891</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>1856.046</v>
@@ -5272,10 +5269,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>41.007</v>
@@ -5284,10 +5281,10 @@
         <v>1.891</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>1856.046</v>
@@ -5298,10 +5295,10 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>41.007</v>
@@ -5310,10 +5307,10 @@
         <v>1.891</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>1856.046</v>
@@ -5324,10 +5321,10 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2122.703</v>
+        <v>2228.126</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>41.007</v>
@@ -5336,10 +5333,10 @@
         <v>1.891</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>1856.046</v>
@@ -5350,10 +5347,10 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2133.56</v>
+        <v>2228.126</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>41.007</v>
@@ -5362,10 +5359,10 @@
         <v>1.891</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>1856.046</v>
@@ -5376,10 +5373,10 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2133.56</v>
+        <v>2228.126</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>41.007</v>
@@ -5388,10 +5385,10 @@
         <v>1.891</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>1856.046</v>
@@ -5402,10 +5399,10 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>2133.573</v>
+        <v>2228.126</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>41.007</v>
@@ -5414,10 +5411,10 @@
         <v>1.891</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>1856.046</v>
@@ -5428,10 +5425,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>2133.573</v>
+        <v>2228.126</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>41.007</v>
@@ -5440,10 +5437,10 @@
         <v>1.891</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>1856.046</v>
@@ -5454,10 +5451,10 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>2147.5</v>
+        <v>2228.126</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>41.007</v>
@@ -5466,10 +5463,10 @@
         <v>1.891</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>1856.046</v>
@@ -5480,10 +5477,10 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2156.509</v>
+        <v>2228.126</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>41.007</v>
@@ -5492,10 +5489,10 @@
         <v>1.891</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>1856.046</v>
@@ -5506,10 +5503,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>2160.415</v>
+        <v>2233.252</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>41.007</v>
@@ -5518,10 +5515,10 @@
         <v>1.891</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>1856.046</v>
@@ -5532,10 +5529,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>2171.753</v>
+        <v>2249.212</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>41.007</v>
@@ -5544,10 +5541,10 @@
         <v>1.891</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>1856.046</v>
@@ -5558,10 +5555,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>2171.753</v>
+        <v>2249.212</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>41.007</v>
@@ -5570,10 +5567,10 @@
         <v>1.891</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>1856.046</v>
@@ -5584,10 +5581,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2171.753</v>
+        <v>2249.212</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>41.007</v>
@@ -5596,10 +5593,10 @@
         <v>1.891</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>1856.046</v>
@@ -5610,10 +5607,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>41.007</v>
@@ -5622,10 +5619,10 @@
         <v>1.891</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H186" s="0" t="n">
         <v>1856.046</v>
@@ -5636,10 +5633,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>41.007</v>
@@ -5648,10 +5645,10 @@
         <v>1.891</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H187" s="0" t="n">
         <v>1856.046</v>
@@ -5662,10 +5659,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>41.007</v>
@@ -5674,10 +5671,10 @@
         <v>1.891</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>1856.046</v>
@@ -5688,10 +5685,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>2175.116</v>
+        <v>2249.212</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>41.007</v>
@@ -5700,10 +5697,10 @@
         <v>1.891</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>1856.046</v>
@@ -5714,10 +5711,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>41.007</v>
@@ -5726,10 +5723,10 @@
         <v>1.891</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>1856.046</v>
@@ -5740,10 +5737,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>41.007</v>
@@ -5752,10 +5749,10 @@
         <v>1.891</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>1856.046</v>
@@ -5766,10 +5763,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>41.007</v>
@@ -5778,10 +5775,10 @@
         <v>1.891</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>1856.046</v>
@@ -5792,10 +5789,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>41.007</v>
@@ -5804,10 +5801,10 @@
         <v>1.891</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>1856.046</v>
@@ -5818,10 +5815,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>41.007</v>
@@ -5830,10 +5827,10 @@
         <v>1.891</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>1856.046</v>
@@ -5844,10 +5841,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>41.007</v>
@@ -5856,10 +5853,10 @@
         <v>1.891</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>1856.046</v>
@@ -5870,10 +5867,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>41.007</v>
@@ -5882,10 +5879,10 @@
         <v>1.891</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>1856.046</v>
@@ -5896,7 +5893,7 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>2201.881</v>
+        <v>2249.212</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>134.756</v>
@@ -5908,10 +5905,10 @@
         <v>1.891</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>1856.046</v>
@@ -5922,7 +5919,7 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>134.756</v>
@@ -5934,10 +5931,10 @@
         <v>1.891</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>1856.046</v>
@@ -5948,7 +5945,7 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>134.756</v>
@@ -5960,7 +5957,7 @@
         <v>1.891</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>1.188</v>
@@ -5974,7 +5971,7 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>134.756</v>
@@ -5986,7 +5983,7 @@
         <v>1.891</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>1.188</v>
@@ -6000,7 +5997,7 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>134.756</v>
@@ -6026,7 +6023,7 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>2224.759</v>
+        <v>2250.614</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>134.756</v>
@@ -6052,7 +6049,7 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2224.759</v>
+        <v>2250.614</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>134.756</v>
@@ -6078,7 +6075,7 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.614</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>134.756</v>
@@ -6104,7 +6101,7 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.787</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>134.756</v>
@@ -6130,7 +6127,7 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.787</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>134.756</v>
@@ -6156,7 +6153,7 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.787</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>134.756</v>
@@ -6182,7 +6179,7 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.787</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>134.756</v>
@@ -6208,7 +6205,7 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.787</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>134.756</v>
@@ -6234,7 +6231,7 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2228.126</v>
+        <v>2265.706</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>134.756</v>
@@ -6260,7 +6257,7 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2233.252</v>
+        <v>2284.409</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>134.756</v>
@@ -6286,7 +6283,7 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>134.756</v>
@@ -6312,7 +6309,7 @@
         <v>219</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>134.756</v>
@@ -6330,32 +6327,6 @@
         <v>1.188</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>1856.046</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B214" s="0" t="n">
-        <v>2249.212</v>
-      </c>
-      <c r="C214" s="0" t="n">
-        <v>134.756</v>
-      </c>
-      <c r="D214" s="0" t="n">
-        <v>41.007</v>
-      </c>
-      <c r="E214" s="0" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="F214" s="0" t="n">
-        <v>2.942</v>
-      </c>
-      <c r="G214" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H214" s="0" t="n">
         <v>1856.046</v>
       </c>
     </row>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,85 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-06-18 23:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-24 19:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-23 20:52:25 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-29 00:00:00 +0200</t>
+    <t xml:space="preserve">2022-08-29 06:00:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2022-08-30 00:00:00 +0200</t>
@@ -679,7 +601,79 @@
     <t xml:space="preserve">2023-03-01 00:00:00 +0100</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-01 23:31:53 +0100</t>
+    <t xml:space="preserve">2023-03-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-25 11:35:28 +0100</t>
   </si>
 </sst>
 </file>
@@ -776,13 +770,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
@@ -823,10 +817,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>126.75</v>
+        <v>132.465</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40.429</v>
@@ -841,7 +835,7 @@
         <v>0.753</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,10 +843,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>126.75</v>
+        <v>132.465</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40.429</v>
@@ -867,7 +861,7 @@
         <v>0.753</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>128.105</v>
+        <v>132.465</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40.429</v>
@@ -893,7 +887,7 @@
         <v>0.753</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,10 +895,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1828.818</v>
+        <v>1907.981</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>132.344</v>
+        <v>132.465</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>40.429</v>
@@ -919,7 +913,7 @@
         <v>0.753</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,10 +921,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1836.454</v>
+        <v>1907.981</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>40.429</v>
@@ -945,7 +939,7 @@
         <v>0.753</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,10 +947,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1839.363</v>
+        <v>1907.981</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>40.429</v>
@@ -971,7 +965,7 @@
         <v>0.753</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,10 +973,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1841.97</v>
+        <v>1907.981</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>40.429</v>
@@ -997,7 +991,7 @@
         <v>0.753</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,10 +999,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1841.97</v>
+        <v>1907.981</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>40.429</v>
@@ -1023,7 +1017,7 @@
         <v>0.753</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,10 +1025,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1841.97</v>
+        <v>1907.981</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>40.429</v>
@@ -1049,7 +1043,7 @@
         <v>0.753</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1841.97</v>
+        <v>1907.981</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>40.429</v>
@@ -1075,7 +1069,7 @@
         <v>0.753</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,10 +1077,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1843.146</v>
+        <v>1907.981</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>40.429</v>
@@ -1101,7 +1095,7 @@
         <v>0.753</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,10 +1103,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1850.778</v>
+        <v>1907.981</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>40.429</v>
@@ -1127,7 +1121,7 @@
         <v>0.753</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,10 +1129,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1859.281</v>
+        <v>1907.981</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>40.429</v>
@@ -1153,7 +1147,7 @@
         <v>0.753</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,10 +1155,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1859.281</v>
+        <v>1907.981</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>40.429</v>
@@ -1179,7 +1173,7 @@
         <v>0.753</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,10 +1181,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1862.009</v>
+        <v>1912.759</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>132.426</v>
+        <v>132.465</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>40.429</v>
@@ -1205,7 +1199,7 @@
         <v>0.753</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1862.405</v>
+        <v>1931.285</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>132.426</v>
+        <v>133.352</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>40.429</v>
@@ -1231,7 +1225,7 @@
         <v>0.753</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,10 +1233,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1862.405</v>
+        <v>1947.236</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>40.429</v>
@@ -1257,7 +1251,7 @@
         <v>0.753</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,10 +1259,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1863.029</v>
+        <v>1947.236</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>132.426</v>
+        <v>134.244</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>40.429</v>
@@ -1283,7 +1277,7 @@
         <v>0.753</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,10 +1285,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1869.914</v>
+        <v>1947.886</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>40.429</v>
@@ -1309,7 +1303,7 @@
         <v>0.753</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,10 +1311,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1881.196</v>
+        <v>1947.886</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>40.429</v>
@@ -1335,7 +1329,7 @@
         <v>0.753</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,10 +1337,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1881.196</v>
+        <v>1947.886</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>40.429</v>
@@ -1361,7 +1355,7 @@
         <v>0.753</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1628.134</v>
+        <v>1856.046</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,10 +1363,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1886.222</v>
+        <v>1962.96</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>40.429</v>
@@ -1395,10 +1389,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1907.981</v>
+        <v>1962.96</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>40.429</v>
@@ -1421,10 +1415,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1907.981</v>
+        <v>1962.96</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>40.429</v>
@@ -1447,10 +1441,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1907.981</v>
+        <v>1963.031</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>40.429</v>
@@ -1473,10 +1467,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1907.981</v>
+        <v>1963.031</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>40.429</v>
@@ -1499,10 +1493,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1907.981</v>
+        <v>1963.031</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>132.465</v>
+        <v>134.244</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>40.429</v>
@@ -1525,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.397</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>40.429</v>
@@ -1551,10 +1545,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>40.429</v>
@@ -1577,10 +1571,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>40.429</v>
@@ -1603,10 +1597,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>40.429</v>
@@ -1629,10 +1623,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.548</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>40.429</v>
@@ -1655,10 +1649,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>40.429</v>
@@ -1681,10 +1675,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>40.429</v>
@@ -1707,10 +1701,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1907.981</v>
+        <v>1970.873</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>40.429</v>
@@ -1733,10 +1727,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1907.981</v>
+        <v>1971.538</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>40.429</v>
@@ -1759,10 +1753,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>40.429</v>
@@ -1785,10 +1779,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>40.429</v>
@@ -1811,10 +1805,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.161</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>40.429</v>
@@ -1837,10 +1831,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1907.981</v>
+        <v>1981.296</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>40.429</v>
@@ -1863,10 +1857,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1912.759</v>
+        <v>1981.296</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>132.465</v>
+        <v>134.343</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>40.429</v>
@@ -1889,10 +1883,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1931.285</v>
+        <v>1981.527</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>133.352</v>
+        <v>134.343</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>40.429</v>
@@ -1915,10 +1909,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1947.236</v>
+        <v>1981.527</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>40.429</v>
@@ -1941,10 +1935,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1947.236</v>
+        <v>1989.396</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>40.429</v>
@@ -1967,10 +1961,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1947.886</v>
+        <v>1989.396</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>40.429</v>
@@ -1993,10 +1987,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1947.886</v>
+        <v>1996.318</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>40.429</v>
@@ -2019,10 +2013,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1947.886</v>
+        <v>1996.318</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>40.429</v>
@@ -2045,10 +2039,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1962.96</v>
+        <v>1996.54</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>40.429</v>
@@ -2071,10 +2065,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1962.96</v>
+        <v>1996.54</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>40.429</v>
@@ -2097,10 +2091,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1962.96</v>
+        <v>1996.54</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>40.429</v>
@@ -2123,10 +2117,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1963.031</v>
+        <v>1996.54</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>40.429</v>
@@ -2149,10 +2143,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1963.031</v>
+        <v>1997.107</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>40.429</v>
@@ -2175,10 +2169,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1963.031</v>
+        <v>1997.107</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>134.244</v>
+        <v>134.343</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>40.429</v>
@@ -2201,7 +2195,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1970.397</v>
+        <v>1997.107</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>134.343</v>
@@ -2227,7 +2221,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1970.548</v>
+        <v>1997.107</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>134.343</v>
@@ -2253,7 +2247,7 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1970.548</v>
+        <v>1997.381</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>134.343</v>
@@ -2279,10 +2273,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1970.548</v>
+        <v>1997.381</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>134.343</v>
+        <v>134.429</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>40.429</v>
@@ -2305,10 +2299,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1970.548</v>
+        <v>2016.516</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>40.429</v>
@@ -2331,10 +2325,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1970.873</v>
+        <v>2016.516</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>40.429</v>
@@ -2357,10 +2351,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1970.873</v>
+        <v>2016.516</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>40.429</v>
@@ -2383,10 +2377,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1970.873</v>
+        <v>2016.516</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>40.429</v>
@@ -2409,10 +2403,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1971.538</v>
+        <v>2016.516</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>40.429</v>
@@ -2435,10 +2429,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1981.161</v>
+        <v>2016.516</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>40.429</v>
@@ -2461,10 +2455,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1981.161</v>
+        <v>2016.525</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>40.429</v>
@@ -2487,10 +2481,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1981.161</v>
+        <v>2016.933</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>40.429</v>
@@ -2513,10 +2507,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1981.296</v>
+        <v>2016.933</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>40.429</v>
@@ -2539,10 +2533,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1981.296</v>
+        <v>2024.386</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>40.429</v>
@@ -2565,10 +2559,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1981.527</v>
+        <v>2024.386</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>40.429</v>
@@ -2591,10 +2585,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1981.527</v>
+        <v>2024.386</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>40.429</v>
@@ -2617,10 +2611,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1989.396</v>
+        <v>2024.386</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>134.343</v>
+        <v>134.43</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>40.429</v>
@@ -2643,10 +2637,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1989.396</v>
+        <v>2045.337</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>40.429</v>
@@ -2669,10 +2663,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1996.318</v>
+        <v>2045.337</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>40.429</v>
@@ -2695,10 +2689,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1996.318</v>
+        <v>2045.337</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>40.429</v>
@@ -2721,10 +2715,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1996.54</v>
+        <v>2045.337</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>40.429</v>
@@ -2747,10 +2741,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1996.54</v>
+        <v>2045.365</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>40.429</v>
@@ -2773,10 +2767,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1996.54</v>
+        <v>2045.365</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>40.429</v>
@@ -2799,10 +2793,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1996.54</v>
+        <v>2055.64</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>40.429</v>
@@ -2825,10 +2819,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1997.107</v>
+        <v>2055.64</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>40.429</v>
@@ -2851,10 +2845,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1997.107</v>
+        <v>2055.64</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>40.429</v>
@@ -2877,10 +2871,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1997.107</v>
+        <v>2055.64</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>40.429</v>
@@ -2903,10 +2897,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1997.107</v>
+        <v>2055.64</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>40.429</v>
@@ -2929,10 +2923,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1997.381</v>
+        <v>2055.64</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>134.343</v>
+        <v>134.531</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>40.429</v>
@@ -2955,10 +2949,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1997.381</v>
+        <v>2055.928</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>134.429</v>
+        <v>134.531</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>40.429</v>
@@ -2981,10 +2975,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2016.516</v>
+        <v>2055.928</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>40.429</v>
@@ -3007,10 +3001,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2016.516</v>
+        <v>2065.57</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>40.429</v>
@@ -3033,10 +3027,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2016.516</v>
+        <v>2065.57</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>40.429</v>
@@ -3059,10 +3053,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2016.516</v>
+        <v>2065.57</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>40.429</v>
@@ -3085,10 +3079,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2016.516</v>
+        <v>2074.804</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>40.429</v>
@@ -3111,10 +3105,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2016.516</v>
+        <v>2074.804</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>40.429</v>
@@ -3137,10 +3131,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2016.525</v>
+        <v>2074.804</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>40.429</v>
@@ -3163,10 +3157,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2016.933</v>
+        <v>2074.934</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>40.429</v>
@@ -3189,10 +3183,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2016.933</v>
+        <v>2074.934</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>134.43</v>
+        <v>134.531</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>40.429</v>
@@ -3215,10 +3209,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2024.386</v>
+        <v>2096.361</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>40.429</v>
@@ -3241,10 +3235,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>40.429</v>
@@ -3267,10 +3261,10 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>40.429</v>
@@ -3293,10 +3287,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>40.429</v>
@@ -3319,13 +3313,13 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1.802</v>
@@ -3345,13 +3339,13 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1.802</v>
@@ -3371,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1.802</v>
@@ -3397,13 +3391,13 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1.802</v>
@@ -3423,13 +3417,13 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2045.365</v>
+        <v>2117.909</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1.802</v>
@@ -3449,13 +3443,13 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2045.365</v>
+        <v>2117.909</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1.802</v>
@@ -3475,13 +3469,13 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1.802</v>
@@ -3501,13 +3495,13 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1.802</v>
@@ -3527,13 +3521,13 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1.802</v>
@@ -3553,13 +3547,13 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1.802</v>
@@ -3579,13 +3573,13 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1.802</v>
@@ -3605,13 +3599,13 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1.802</v>
@@ -3631,13 +3625,13 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2055.928</v>
+        <v>2117.909</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>1.802</v>
@@ -3657,13 +3651,13 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2055.928</v>
+        <v>2117.909</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>1.802</v>
@@ -3683,16 +3677,16 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2065.57</v>
+        <v>2117.909</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>40.429</v>
+        <v>40.999</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>2.911</v>
@@ -3709,16 +3703,16 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2065.57</v>
+        <v>2117.909</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>2.911</v>
@@ -3735,16 +3729,16 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2065.57</v>
+        <v>2117.909</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>2.911</v>
@@ -3761,16 +3755,16 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2074.804</v>
+        <v>2117.909</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>2.911</v>
@@ -3787,16 +3781,16 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2074.804</v>
+        <v>2117.909</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>2.911</v>
@@ -3813,16 +3807,16 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2074.804</v>
+        <v>2117.909</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>2.911</v>
@@ -3839,16 +3833,16 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2074.934</v>
+        <v>2117.909</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>2.911</v>
@@ -3865,16 +3859,16 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2074.934</v>
+        <v>2117.909</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>2.911</v>
@@ -3891,16 +3885,16 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2096.361</v>
+        <v>2122.703</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>134.611</v>
+        <v>134.704</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>2.911</v>
@@ -3917,16 +3911,16 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2117.909</v>
+        <v>2133.56</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>134.611</v>
+        <v>134.704</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>2.911</v>
@@ -3943,16 +3937,16 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2117.909</v>
+        <v>2133.56</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>134.611</v>
+        <v>134.704</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>2.911</v>
@@ -3969,16 +3963,16 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2117.909</v>
+        <v>2133.573</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>134.611</v>
+        <v>134.704</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>2.911</v>
@@ -3995,16 +3989,16 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2117.909</v>
+        <v>2133.573</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>2.911</v>
@@ -4021,16 +4015,16 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2117.909</v>
+        <v>2147.5</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>2.911</v>
@@ -4047,16 +4041,16 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2117.909</v>
+        <v>2156.509</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>2.911</v>
@@ -4073,16 +4067,16 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2117.909</v>
+        <v>2160.415</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F127" s="0" t="n">
         <v>2.911</v>
@@ -4099,16 +4093,16 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.753</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F128" s="0" t="n">
         <v>2.911</v>
@@ -4125,16 +4119,16 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.753</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>2.911</v>
@@ -4151,16 +4145,16 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.753</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>2.911</v>
@@ -4177,16 +4171,16 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>2.911</v>
@@ -4203,16 +4197,16 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F132" s="0" t="n">
         <v>2.911</v>
@@ -4229,16 +4223,16 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F133" s="0" t="n">
         <v>2.911</v>
@@ -4255,16 +4249,16 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2117.909</v>
+        <v>2175.116</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F134" s="0" t="n">
         <v>2.911</v>
@@ -4281,16 +4275,16 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F135" s="0" t="n">
         <v>2.911</v>
@@ -4307,16 +4301,16 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F136" s="0" t="n">
         <v>2.911</v>
@@ -4333,16 +4327,16 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F137" s="0" t="n">
         <v>2.911</v>
@@ -4359,13 +4353,13 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>40.999</v>
+        <v>41.007</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1.891</v>
@@ -4385,10 +4379,10 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>41.007</v>
@@ -4411,10 +4405,10 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>41.007</v>
@@ -4437,10 +4431,10 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>41.007</v>
@@ -4463,10 +4457,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>2117.909</v>
+        <v>2201.881</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>41.007</v>
@@ -4489,10 +4483,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>41.007</v>
@@ -4515,10 +4509,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>41.007</v>
@@ -4530,7 +4524,7 @@
         <v>2.911</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>1856.046</v>
@@ -4541,10 +4535,10 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>41.007</v>
@@ -4556,7 +4550,7 @@
         <v>2.911</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>1856.046</v>
@@ -4567,10 +4561,10 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2122.703</v>
+        <v>2224.759</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>41.007</v>
@@ -4579,10 +4573,10 @@
         <v>1.891</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>1856.046</v>
@@ -4593,10 +4587,10 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>2133.56</v>
+        <v>2224.759</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>41.007</v>
@@ -4605,10 +4599,10 @@
         <v>1.891</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>1856.046</v>
@@ -4619,10 +4613,10 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>2133.56</v>
+        <v>2224.759</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>41.007</v>
@@ -4631,10 +4625,10 @@
         <v>1.891</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>1856.046</v>
@@ -4645,10 +4639,10 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2133.573</v>
+        <v>2228.126</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>41.007</v>
@@ -4657,10 +4651,10 @@
         <v>1.891</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>1856.046</v>
@@ -4671,10 +4665,10 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2133.573</v>
+        <v>2228.126</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>41.007</v>
@@ -4683,10 +4677,10 @@
         <v>1.891</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>1856.046</v>
@@ -4697,10 +4691,10 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2147.5</v>
+        <v>2228.126</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>41.007</v>
@@ -4709,10 +4703,10 @@
         <v>1.891</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>1856.046</v>
@@ -4723,10 +4717,10 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2156.509</v>
+        <v>2228.126</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>41.007</v>
@@ -4735,10 +4729,10 @@
         <v>1.891</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>1856.046</v>
@@ -4749,10 +4743,10 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2160.415</v>
+        <v>2228.126</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>41.007</v>
@@ -4761,10 +4755,10 @@
         <v>1.891</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>1856.046</v>
@@ -4775,10 +4769,10 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2171.753</v>
+        <v>2228.126</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>41.007</v>
@@ -4787,10 +4781,10 @@
         <v>1.891</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>1856.046</v>
@@ -4801,10 +4795,10 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2171.753</v>
+        <v>2228.126</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>41.007</v>
@@ -4813,10 +4807,10 @@
         <v>1.891</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>1856.046</v>
@@ -4827,10 +4821,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>2171.753</v>
+        <v>2233.252</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>41.007</v>
@@ -4839,10 +4833,10 @@
         <v>1.891</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>1856.046</v>
@@ -4853,10 +4847,10 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>41.007</v>
@@ -4865,10 +4859,10 @@
         <v>1.891</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>1856.046</v>
@@ -4879,10 +4873,10 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>41.007</v>
@@ -4891,10 +4885,10 @@
         <v>1.891</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>1856.046</v>
@@ -4905,10 +4899,10 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>41.007</v>
@@ -4917,10 +4911,10 @@
         <v>1.891</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>1856.046</v>
@@ -4931,10 +4925,10 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>2175.116</v>
+        <v>2249.212</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>41.007</v>
@@ -4943,10 +4937,10 @@
         <v>1.891</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>1856.046</v>
@@ -4957,10 +4951,10 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>41.007</v>
@@ -4969,10 +4963,10 @@
         <v>1.891</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>1856.046</v>
@@ -4983,10 +4977,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>41.007</v>
@@ -4995,10 +4989,10 @@
         <v>1.891</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>1856.046</v>
@@ -5009,10 +5003,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>41.007</v>
@@ -5021,10 +5015,10 @@
         <v>1.891</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>1856.046</v>
@@ -5035,10 +5029,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>41.007</v>
@@ -5047,10 +5041,10 @@
         <v>1.891</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>1856.046</v>
@@ -5061,10 +5055,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>41.007</v>
@@ -5073,10 +5067,10 @@
         <v>1.891</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>1856.046</v>
@@ -5087,10 +5081,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>41.007</v>
@@ -5099,10 +5093,10 @@
         <v>1.891</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>1856.046</v>
@@ -5113,10 +5107,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>41.007</v>
@@ -5125,10 +5119,10 @@
         <v>1.891</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>1856.046</v>
@@ -5139,7 +5133,7 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2201.881</v>
+        <v>2249.212</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>134.756</v>
@@ -5151,10 +5145,10 @@
         <v>1.891</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>1856.046</v>
@@ -5165,7 +5159,7 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>134.756</v>
@@ -5177,10 +5171,10 @@
         <v>1.891</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>1856.046</v>
@@ -5191,7 +5185,7 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>134.756</v>
@@ -5203,7 +5197,7 @@
         <v>1.891</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>1.188</v>
@@ -5217,7 +5211,7 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>134.756</v>
@@ -5229,7 +5223,7 @@
         <v>1.891</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>1.188</v>
@@ -5243,7 +5237,7 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>134.756</v>
@@ -5269,7 +5263,7 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>134.756</v>
@@ -5295,7 +5289,7 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>2224.759</v>
+        <v>2249.212</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>134.756</v>
@@ -5321,7 +5315,7 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2228.126</v>
+        <v>2249.212</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>134.756</v>
@@ -5347,7 +5341,7 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.614</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>134.756</v>
@@ -5373,7 +5367,7 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.614</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>134.756</v>
@@ -5399,7 +5393,7 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.614</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>134.756</v>
@@ -5425,7 +5419,7 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.787</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>134.756</v>
@@ -5451,7 +5445,7 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.787</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>134.756</v>
@@ -5477,7 +5471,7 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2228.126</v>
+        <v>2250.787</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>134.756</v>
@@ -5503,7 +5497,7 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>2233.252</v>
+        <v>2250.787</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>134.756</v>
@@ -5529,7 +5523,7 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>2249.212</v>
+        <v>2250.787</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>134.756</v>
@@ -5555,7 +5549,7 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>2249.212</v>
+        <v>2265.706</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>134.756</v>
@@ -5581,7 +5575,7 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>134.756</v>
@@ -5607,7 +5601,7 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>134.756</v>
@@ -5633,7 +5627,7 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>134.756</v>
@@ -5659,7 +5653,7 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>134.756</v>
@@ -5685,7 +5679,7 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>134.756</v>
@@ -5711,7 +5705,7 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>134.756</v>
@@ -5737,7 +5731,7 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>134.756</v>
@@ -5763,7 +5757,7 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>134.756</v>
@@ -5789,7 +5783,7 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>134.756</v>
@@ -5798,7 +5792,7 @@
         <v>41.007</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>2.942</v>
@@ -5815,7 +5809,7 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>134.756</v>
@@ -5824,7 +5818,7 @@
         <v>41.007</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F194" s="0" t="n">
         <v>2.942</v>
@@ -5841,7 +5835,7 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>134.756</v>
@@ -5850,7 +5844,7 @@
         <v>41.007</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>2.942</v>
@@ -5867,7 +5861,7 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>134.756</v>
@@ -5876,7 +5870,7 @@
         <v>41.007</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F196" s="0" t="n">
         <v>2.942</v>
@@ -5893,7 +5887,7 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>2249.212</v>
+        <v>2287.589</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>134.756</v>
@@ -5902,7 +5896,7 @@
         <v>41.007</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>2.942</v>
@@ -5919,7 +5913,7 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>2249.212</v>
+        <v>2305.98</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>134.756</v>
@@ -5928,7 +5922,7 @@
         <v>41.007</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F198" s="0" t="n">
         <v>2.942</v>
@@ -5945,16 +5939,16 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F199" s="0" t="n">
         <v>2.942</v>
@@ -5971,16 +5965,16 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>2.942</v>
@@ -5997,16 +5991,16 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F201" s="0" t="n">
         <v>2.942</v>
@@ -6023,16 +6017,16 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>2250.614</v>
+        <v>2309.635</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F202" s="0" t="n">
         <v>2.942</v>
@@ -6049,16 +6043,16 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2250.614</v>
+        <v>2309.635</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F203" s="0" t="n">
         <v>2.942</v>
@@ -6075,16 +6069,16 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2250.614</v>
+        <v>2309.635</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F204" s="0" t="n">
         <v>2.942</v>
@@ -6101,16 +6095,16 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>2250.787</v>
+        <v>2309.635</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F205" s="0" t="n">
         <v>2.942</v>
@@ -6127,16 +6121,16 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>2250.787</v>
+        <v>2309.635</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F206" s="0" t="n">
         <v>2.942</v>
@@ -6153,16 +6147,16 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>2250.787</v>
+        <v>2309.635</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F207" s="0" t="n">
         <v>2.942</v>
@@ -6179,16 +6173,16 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2250.787</v>
+        <v>2309.635</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F208" s="0" t="n">
         <v>2.942</v>
@@ -6205,16 +6199,16 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2250.787</v>
+        <v>2309.635</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F209" s="0" t="n">
         <v>2.942</v>
@@ -6231,16 +6225,16 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2265.706</v>
+        <v>2309.635</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F210" s="0" t="n">
         <v>2.942</v>
@@ -6257,16 +6251,16 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2284.409</v>
+        <v>2309.635</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F211" s="0" t="n">
         <v>2.942</v>
@@ -6275,58 +6269,6 @@
         <v>1.188</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1856.046</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212" s="0" t="n">
-        <v>2284.409</v>
-      </c>
-      <c r="C212" s="0" t="n">
-        <v>134.756</v>
-      </c>
-      <c r="D212" s="0" t="n">
-        <v>41.007</v>
-      </c>
-      <c r="E212" s="0" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="F212" s="0" t="n">
-        <v>2.942</v>
-      </c>
-      <c r="G212" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H212" s="0" t="n">
-        <v>1856.046</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B213" s="0" t="n">
-        <v>2284.409</v>
-      </c>
-      <c r="C213" s="0" t="n">
-        <v>134.756</v>
-      </c>
-      <c r="D213" s="0" t="n">
-        <v>41.007</v>
-      </c>
-      <c r="E213" s="0" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="F213" s="0" t="n">
-        <v>2.942</v>
-      </c>
-      <c r="G213" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H213" s="0" t="n">
         <v>1856.046</v>
       </c>
     </row>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,211 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-08-29 06:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-31 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-16 00:00:01 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-05 00:00:00 +0100</t>
+    <t xml:space="preserve">2022-11-05 11:30:00 +0100</t>
   </si>
   <si>
     <t xml:space="preserve">2022-11-06 00:00:00 +0100</t>
@@ -673,7 +469,211 @@
     <t xml:space="preserve">2023-03-25 00:00:00 +0100</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-25 11:35:28 +0100</t>
+    <t xml:space="preserve">2023-03-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-01 18:33:17 +0200</t>
   </si>
 </sst>
 </file>
@@ -766,24 +766,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B215" activeCellId="0" sqref="B215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,10 +817,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1907.981</v>
+        <v>2024.386</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40.429</v>
@@ -843,10 +843,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1907.981</v>
+        <v>2024.386</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>132.465</v>
+        <v>134.43</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40.429</v>
@@ -869,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.337</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40.429</v>
@@ -895,10 +895,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.337</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>40.429</v>
@@ -921,10 +921,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.337</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>40.429</v>
@@ -947,10 +947,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.337</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>40.429</v>
@@ -973,10 +973,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.365</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>40.429</v>
@@ -999,10 +999,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1907.981</v>
+        <v>2045.365</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>40.429</v>
@@ -1025,10 +1025,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1907.981</v>
+        <v>2055.64</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>40.429</v>
@@ -1051,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1907.981</v>
+        <v>2055.64</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>40.429</v>
@@ -1077,10 +1077,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1907.981</v>
+        <v>2055.64</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>40.429</v>
@@ -1103,10 +1103,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1907.981</v>
+        <v>2055.64</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>40.429</v>
@@ -1129,10 +1129,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1907.981</v>
+        <v>2055.64</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>40.429</v>
@@ -1155,10 +1155,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1907.981</v>
+        <v>2055.64</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>40.429</v>
@@ -1181,10 +1181,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1912.759</v>
+        <v>2055.928</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>132.465</v>
+        <v>134.531</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>40.429</v>
@@ -1207,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1931.285</v>
+        <v>2055.928</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>133.352</v>
+        <v>134.531</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>40.429</v>
@@ -1233,10 +1233,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1947.236</v>
+        <v>2065.57</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>40.429</v>
@@ -1259,10 +1259,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1947.236</v>
+        <v>2065.57</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>40.429</v>
@@ -1285,10 +1285,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1947.886</v>
+        <v>2065.57</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>40.429</v>
@@ -1311,10 +1311,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1947.886</v>
+        <v>2074.804</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>40.429</v>
@@ -1337,10 +1337,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1947.886</v>
+        <v>2074.804</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>40.429</v>
@@ -1363,10 +1363,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1962.96</v>
+        <v>2074.804</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>40.429</v>
@@ -1389,10 +1389,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1962.96</v>
+        <v>2074.934</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>40.429</v>
@@ -1415,10 +1415,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1962.96</v>
+        <v>2074.934</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>134.244</v>
+        <v>134.531</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>40.429</v>
@@ -1441,10 +1441,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1963.031</v>
+        <v>2096.361</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>134.244</v>
+        <v>134.611</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>40.429</v>
@@ -1467,10 +1467,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1963.031</v>
+        <v>2117.909</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>134.244</v>
+        <v>134.611</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>40.429</v>
@@ -1493,10 +1493,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1963.031</v>
+        <v>2117.909</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>134.244</v>
+        <v>134.611</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>40.429</v>
@@ -1519,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1970.397</v>
+        <v>2117.909</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>40.429</v>
@@ -1545,13 +1545,13 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1970.548</v>
+        <v>2117.909</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1.802</v>
@@ -1571,13 +1571,13 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1970.548</v>
+        <v>2117.909</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1.802</v>
@@ -1597,13 +1597,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1970.548</v>
+        <v>2117.909</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1.802</v>
@@ -1623,13 +1623,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1970.548</v>
+        <v>2117.909</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1.802</v>
@@ -1649,13 +1649,13 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1970.873</v>
+        <v>2117.909</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1.802</v>
@@ -1675,13 +1675,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1970.873</v>
+        <v>2117.909</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1.802</v>
@@ -1701,13 +1701,13 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1970.873</v>
+        <v>2117.909</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1.802</v>
@@ -1727,13 +1727,13 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1971.538</v>
+        <v>2117.909</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1.802</v>
@@ -1753,13 +1753,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1981.161</v>
+        <v>2117.909</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1.802</v>
@@ -1779,13 +1779,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1981.161</v>
+        <v>2117.909</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1.802</v>
@@ -1805,13 +1805,13 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1981.161</v>
+        <v>2117.909</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1.802</v>
@@ -1831,13 +1831,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1981.296</v>
+        <v>2117.909</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1.802</v>
@@ -1857,13 +1857,13 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1981.296</v>
+        <v>2117.909</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1.802</v>
@@ -1883,13 +1883,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1981.527</v>
+        <v>2117.909</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1.802</v>
@@ -1909,16 +1909,16 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1981.527</v>
+        <v>2117.909</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>40.429</v>
+        <v>40.999</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2.911</v>
@@ -1935,16 +1935,16 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1989.396</v>
+        <v>2117.909</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2.911</v>
@@ -1961,16 +1961,16 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1989.396</v>
+        <v>2117.909</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2.911</v>
@@ -1987,16 +1987,16 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1996.318</v>
+        <v>2117.909</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2.911</v>
@@ -2013,16 +2013,16 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1996.318</v>
+        <v>2117.909</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2.911</v>
@@ -2039,16 +2039,16 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1996.54</v>
+        <v>2117.909</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2.911</v>
@@ -2065,16 +2065,16 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1996.54</v>
+        <v>2117.909</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>134.343</v>
+        <v>134.611</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2.911</v>
@@ -2091,16 +2091,16 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1996.54</v>
+        <v>2117.909</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>134.343</v>
+        <v>134.704</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2.911</v>
@@ -2117,16 +2117,16 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1996.54</v>
+        <v>2122.703</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>134.343</v>
+        <v>134.704</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2.911</v>
@@ -2143,16 +2143,16 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1997.107</v>
+        <v>2133.56</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>134.343</v>
+        <v>134.704</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2.911</v>
@@ -2169,16 +2169,16 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1997.107</v>
+        <v>2133.56</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>134.343</v>
+        <v>134.704</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2.911</v>
@@ -2195,16 +2195,16 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1997.107</v>
+        <v>2133.573</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>134.343</v>
+        <v>134.704</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2.911</v>
@@ -2221,16 +2221,16 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1997.107</v>
+        <v>2133.573</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>134.343</v>
+        <v>134.751</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2.911</v>
@@ -2247,16 +2247,16 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1997.381</v>
+        <v>2147.5</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>134.343</v>
+        <v>134.751</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2.911</v>
@@ -2273,16 +2273,16 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1997.381</v>
+        <v>2156.509</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>134.429</v>
+        <v>134.751</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2.911</v>
@@ -2299,16 +2299,16 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2016.516</v>
+        <v>2160.415</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2.911</v>
@@ -2325,16 +2325,16 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2016.516</v>
+        <v>2171.753</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2.911</v>
@@ -2351,16 +2351,16 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2016.516</v>
+        <v>2171.753</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2.911</v>
@@ -2377,16 +2377,16 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2016.516</v>
+        <v>2171.753</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2.911</v>
@@ -2403,16 +2403,16 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2016.516</v>
+        <v>2171.989</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2.911</v>
@@ -2429,16 +2429,16 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2016.516</v>
+        <v>2171.989</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2.911</v>
@@ -2455,16 +2455,16 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2016.525</v>
+        <v>2171.989</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2.911</v>
@@ -2481,16 +2481,16 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2016.933</v>
+        <v>2175.116</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2.911</v>
@@ -2507,16 +2507,16 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2016.933</v>
+        <v>2194.318</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2.911</v>
@@ -2533,16 +2533,16 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2024.386</v>
+        <v>2194.318</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2.911</v>
@@ -2559,16 +2559,16 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2024.386</v>
+        <v>2194.318</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2.911</v>
@@ -2585,16 +2585,16 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2024.386</v>
+        <v>2194.318</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2.911</v>
@@ -2611,16 +2611,16 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2024.386</v>
+        <v>2194.318</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>134.43</v>
+        <v>134.751</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2.911</v>
@@ -2637,16 +2637,16 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2045.337</v>
+        <v>2194.318</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2.911</v>
@@ -2663,16 +2663,16 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2045.337</v>
+        <v>2194.318</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2.911</v>
@@ -2689,16 +2689,16 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2045.337</v>
+        <v>2201.881</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>2.911</v>
@@ -2715,16 +2715,16 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2045.337</v>
+        <v>2224.759</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>2.911</v>
@@ -2741,22 +2741,22 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2045.365</v>
+        <v>2224.759</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>2.911</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1856.046</v>
@@ -2767,22 +2767,22 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2045.365</v>
+        <v>2224.759</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>2.911</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1856.046</v>
@@ -2793,22 +2793,22 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2055.64</v>
+        <v>2224.759</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1856.046</v>
@@ -2819,22 +2819,22 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2055.64</v>
+        <v>2224.759</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1856.046</v>
@@ -2845,22 +2845,22 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2055.64</v>
+        <v>2224.759</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1856.046</v>
@@ -2871,22 +2871,22 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2055.64</v>
+        <v>2228.126</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1856.046</v>
@@ -2897,22 +2897,22 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2055.64</v>
+        <v>2228.126</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1856.046</v>
@@ -2923,22 +2923,22 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2055.64</v>
+        <v>2228.126</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1856.046</v>
@@ -2949,22 +2949,22 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2055.928</v>
+        <v>2228.126</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1856.046</v>
@@ -2975,22 +2975,22 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2055.928</v>
+        <v>2228.126</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1856.046</v>
@@ -3001,22 +3001,22 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2065.57</v>
+        <v>2228.126</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1856.046</v>
@@ -3027,22 +3027,22 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2065.57</v>
+        <v>2228.126</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1856.046</v>
@@ -3053,22 +3053,22 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2065.57</v>
+        <v>2233.252</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1856.046</v>
@@ -3079,22 +3079,22 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2074.804</v>
+        <v>2249.212</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1856.046</v>
@@ -3105,22 +3105,22 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2074.804</v>
+        <v>2249.212</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1856.046</v>
@@ -3131,22 +3131,22 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2074.804</v>
+        <v>2249.212</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1856.046</v>
@@ -3157,22 +3157,22 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2074.934</v>
+        <v>2249.212</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1856.046</v>
@@ -3183,22 +3183,22 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2074.934</v>
+        <v>2249.212</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>134.531</v>
+        <v>134.756</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1856.046</v>
@@ -3209,22 +3209,22 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2096.361</v>
+        <v>2249.212</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>1856.046</v>
@@ -3235,22 +3235,22 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>1856.046</v>
@@ -3261,22 +3261,22 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>1856.046</v>
@@ -3287,22 +3287,22 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1856.046</v>
@@ -3313,22 +3313,22 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1856.046</v>
@@ -3339,22 +3339,22 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1856.046</v>
@@ -3365,22 +3365,22 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1856.046</v>
@@ -3391,22 +3391,22 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>1856.046</v>
@@ -3417,22 +3417,22 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1856.046</v>
@@ -3443,22 +3443,22 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>1856.046</v>
@@ -3469,22 +3469,22 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>1856.046</v>
@@ -3495,22 +3495,22 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>1856.046</v>
@@ -3521,22 +3521,22 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1856.046</v>
@@ -3547,22 +3547,22 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1856.046</v>
@@ -3573,22 +3573,22 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>2117.909</v>
+        <v>2250.614</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1856.046</v>
@@ -3599,22 +3599,22 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2117.909</v>
+        <v>2250.614</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>1856.046</v>
@@ -3625,22 +3625,22 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2117.909</v>
+        <v>2250.614</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>1856.046</v>
@@ -3651,22 +3651,22 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2117.909</v>
+        <v>2250.787</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>1856.046</v>
@@ -3677,22 +3677,22 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2117.909</v>
+        <v>2250.787</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>40.999</v>
+        <v>41.007</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>1.891</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>1856.046</v>
@@ -3703,10 +3703,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2117.909</v>
+        <v>2250.787</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>41.007</v>
@@ -3715,10 +3715,10 @@
         <v>1.891</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>1856.046</v>
@@ -3729,10 +3729,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2117.909</v>
+        <v>2250.787</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>41.007</v>
@@ -3741,10 +3741,10 @@
         <v>1.891</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>1856.046</v>
@@ -3755,10 +3755,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2117.909</v>
+        <v>2250.787</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>41.007</v>
@@ -3767,10 +3767,10 @@
         <v>1.891</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>1856.046</v>
@@ -3781,10 +3781,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2117.909</v>
+        <v>2265.706</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>41.007</v>
@@ -3793,10 +3793,10 @@
         <v>1.891</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>1856.046</v>
@@ -3807,10 +3807,10 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2117.909</v>
+        <v>2284.409</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>41.007</v>
@@ -3819,10 +3819,10 @@
         <v>1.891</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>1856.046</v>
@@ -3833,10 +3833,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2117.909</v>
+        <v>2284.409</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>41.007</v>
@@ -3845,10 +3845,10 @@
         <v>1.891</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>1856.046</v>
@@ -3859,10 +3859,10 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2117.909</v>
+        <v>2284.409</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>41.007</v>
@@ -3871,10 +3871,10 @@
         <v>1.891</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>1856.046</v>
@@ -3885,10 +3885,10 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2122.703</v>
+        <v>2284.409</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>41.007</v>
@@ -3897,10 +3897,10 @@
         <v>1.891</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>1856.046</v>
@@ -3911,10 +3911,10 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2133.56</v>
+        <v>2284.409</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>41.007</v>
@@ -3923,10 +3923,10 @@
         <v>1.891</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>1856.046</v>
@@ -3937,10 +3937,10 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2133.56</v>
+        <v>2284.409</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>41.007</v>
@@ -3949,10 +3949,10 @@
         <v>1.891</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>1856.046</v>
@@ -3963,10 +3963,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2133.573</v>
+        <v>2284.409</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>41.007</v>
@@ -3975,10 +3975,10 @@
         <v>1.891</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>1856.046</v>
@@ -3989,10 +3989,10 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2133.573</v>
+        <v>2284.409</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>41.007</v>
@@ -4001,10 +4001,10 @@
         <v>1.891</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>1856.046</v>
@@ -4015,22 +4015,22 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2147.5</v>
+        <v>2284.409</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>1856.046</v>
@@ -4041,22 +4041,22 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2156.509</v>
+        <v>2284.409</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>1856.046</v>
@@ -4067,22 +4067,22 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2160.415</v>
+        <v>2284.409</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>1856.046</v>
@@ -4093,22 +4093,22 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2171.753</v>
+        <v>2284.409</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>1856.046</v>
@@ -4119,22 +4119,22 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2171.753</v>
+        <v>2287.589</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H129" s="0" t="n">
         <v>1856.046</v>
@@ -4145,22 +4145,22 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2171.753</v>
+        <v>2305.98</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>1856.046</v>
@@ -4171,22 +4171,22 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2171.989</v>
+        <v>2309.635</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>1856.046</v>
@@ -4197,22 +4197,22 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>2171.989</v>
+        <v>2309.635</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>1856.046</v>
@@ -4223,22 +4223,22 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2171.989</v>
+        <v>2309.635</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>1856.046</v>
@@ -4249,22 +4249,22 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2175.116</v>
+        <v>2309.635</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>1856.046</v>
@@ -4275,22 +4275,22 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2194.318</v>
+        <v>2309.635</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>1856.046</v>
@@ -4301,22 +4301,22 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2194.318</v>
+        <v>2309.635</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>1856.046</v>
@@ -4327,22 +4327,22 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>2194.318</v>
+        <v>2309.635</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>1856.046</v>
@@ -4353,22 +4353,22 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2194.318</v>
+        <v>2309.635</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>1856.046</v>
@@ -4379,22 +4379,22 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2194.318</v>
+        <v>2309.635</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>1856.046</v>
@@ -4405,22 +4405,22 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2194.318</v>
+        <v>2309.635</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>1856.046</v>
@@ -4431,22 +4431,22 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2194.318</v>
+        <v>2309.635</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>134.751</v>
+        <v>137.026</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>1856.046</v>
@@ -4457,22 +4457,22 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>2201.881</v>
+        <v>2309.635</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>1856.046</v>
@@ -4483,22 +4483,22 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2224.759</v>
+        <v>2314.348</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>1856.046</v>
@@ -4509,19 +4509,19 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2224.759</v>
+        <v>2333.764</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>1.188</v>
@@ -4535,19 +4535,19 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>2224.759</v>
+        <v>2354.235</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>1.188</v>
@@ -4561,16 +4561,16 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2224.759</v>
+        <v>2354.235</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>2.942</v>
@@ -4587,16 +4587,16 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>2224.759</v>
+        <v>2354.235</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>2.942</v>
@@ -4613,16 +4613,16 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>2224.759</v>
+        <v>2354.235</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>2.942</v>
@@ -4639,16 +4639,16 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2228.126</v>
+        <v>2354.235</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>2.942</v>
@@ -4665,16 +4665,16 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2228.126</v>
+        <v>2354.235</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F150" s="0" t="n">
         <v>2.942</v>
@@ -4691,16 +4691,16 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2228.126</v>
+        <v>2354.235</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>2.942</v>
@@ -4717,16 +4717,16 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2228.126</v>
+        <v>2364.703</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>2.942</v>
@@ -4743,16 +4743,16 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2228.126</v>
+        <v>2364.703</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F153" s="0" t="n">
         <v>2.942</v>
@@ -4769,16 +4769,16 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2228.126</v>
+        <v>2364.703</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>2.942</v>
@@ -4795,16 +4795,16 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2228.126</v>
+        <v>2364.703</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F155" s="0" t="n">
         <v>2.942</v>
@@ -4821,16 +4821,16 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>2233.252</v>
+        <v>2364.703</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F156" s="0" t="n">
         <v>2.942</v>
@@ -4847,16 +4847,16 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2249.212</v>
+        <v>2364.703</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>2.942</v>
@@ -4873,16 +4873,16 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>2249.212</v>
+        <v>2372.194</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F158" s="0" t="n">
         <v>2.942</v>
@@ -4899,16 +4899,16 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2249.212</v>
+        <v>2390.475</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>2.942</v>
@@ -4925,16 +4925,16 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>2249.212</v>
+        <v>2390.475</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F160" s="0" t="n">
         <v>2.942</v>
@@ -4951,16 +4951,16 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2249.212</v>
+        <v>2390.475</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>2.942</v>
@@ -4977,16 +4977,16 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2249.212</v>
+        <v>2390.475</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>2.942</v>
@@ -5003,16 +5003,16 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>2249.212</v>
+        <v>2390.475</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>2.942</v>
@@ -5029,16 +5029,16 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>2249.212</v>
+        <v>2390.475</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>2.942</v>
@@ -5055,16 +5055,16 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>2249.212</v>
+        <v>2391.191</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F165" s="0" t="n">
         <v>2.942</v>
@@ -5081,16 +5081,16 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2249.212</v>
+        <v>2391.191</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F166" s="0" t="n">
         <v>2.942</v>
@@ -5107,16 +5107,16 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2249.212</v>
+        <v>2391.191</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F167" s="0" t="n">
         <v>2.942</v>
@@ -5133,16 +5133,16 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2249.212</v>
+        <v>2391.225</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F168" s="0" t="n">
         <v>2.942</v>
@@ -5159,16 +5159,16 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2249.212</v>
+        <v>2391.255</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F169" s="0" t="n">
         <v>2.942</v>
@@ -5185,16 +5185,16 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2249.212</v>
+        <v>2391.255</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>2.942</v>
@@ -5211,16 +5211,16 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2249.212</v>
+        <v>2391.255</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F171" s="0" t="n">
         <v>2.942</v>
@@ -5237,16 +5237,16 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2249.212</v>
+        <v>2391.255</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F172" s="0" t="n">
         <v>2.942</v>
@@ -5263,16 +5263,16 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>2249.212</v>
+        <v>2404.665</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F173" s="0" t="n">
         <v>2.942</v>
@@ -5289,16 +5289,16 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>2249.212</v>
+        <v>2404.665</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F174" s="0" t="n">
         <v>2.942</v>
@@ -5315,16 +5315,16 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2249.212</v>
+        <v>2404.665</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>2.942</v>
@@ -5341,16 +5341,16 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2250.614</v>
+        <v>2404.665</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F176" s="0" t="n">
         <v>2.942</v>
@@ -5367,16 +5367,16 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2250.614</v>
+        <v>2404.779</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F177" s="0" t="n">
         <v>2.942</v>
@@ -5393,16 +5393,16 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>2250.614</v>
+        <v>2404.779</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F178" s="0" t="n">
         <v>2.942</v>
@@ -5419,16 +5419,16 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>2250.787</v>
+        <v>2405.069</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F179" s="0" t="n">
         <v>2.942</v>
@@ -5445,16 +5445,16 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>2250.787</v>
+        <v>2424.415</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F180" s="0" t="n">
         <v>2.942</v>
@@ -5471,16 +5471,16 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2250.787</v>
+        <v>2424.415</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F181" s="0" t="n">
         <v>2.942</v>
@@ -5497,16 +5497,16 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>2250.787</v>
+        <v>2424.415</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F182" s="0" t="n">
         <v>2.942</v>
@@ -5523,16 +5523,16 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>2250.787</v>
+        <v>2424.676</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F183" s="0" t="n">
         <v>2.942</v>
@@ -5549,16 +5549,16 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>2265.706</v>
+        <v>2424.676</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>2.942</v>
@@ -5575,16 +5575,16 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2284.409</v>
+        <v>2424.676</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>2.942</v>
@@ -5601,16 +5601,16 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2284.409</v>
+        <v>2424.91</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>2.942</v>
@@ -5627,16 +5627,16 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2284.409</v>
+        <v>2425.41</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F187" s="0" t="n">
         <v>2.942</v>
@@ -5653,16 +5653,16 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2284.409</v>
+        <v>2436.402</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F188" s="0" t="n">
         <v>2.942</v>
@@ -5679,16 +5679,16 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>2284.409</v>
+        <v>2436.402</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F189" s="0" t="n">
         <v>2.942</v>
@@ -5705,16 +5705,16 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>2284.409</v>
+        <v>2436.402</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F190" s="0" t="n">
         <v>2.942</v>
@@ -5731,16 +5731,16 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>2284.409</v>
+        <v>2436.402</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F191" s="0" t="n">
         <v>2.942</v>
@@ -5757,16 +5757,16 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2284.409</v>
+        <v>2436.696</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F192" s="0" t="n">
         <v>2.942</v>
@@ -5783,13 +5783,13 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2284.409</v>
+        <v>2445.158</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>2.256</v>
@@ -5809,13 +5809,13 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2284.409</v>
+        <v>2465.691</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>2.256</v>
@@ -5835,13 +5835,13 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2284.409</v>
+        <v>2466.054</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>2.256</v>
@@ -5861,13 +5861,13 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>2284.409</v>
+        <v>2466.054</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>2.256</v>
@@ -5887,13 +5887,13 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>2287.589</v>
+        <v>2466.054</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>2.256</v>
@@ -5913,13 +5913,13 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>2305.98</v>
+        <v>2466.054</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>2.256</v>
@@ -5939,13 +5939,13 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>2309.635</v>
+        <v>2466.35</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>2.256</v>
@@ -5965,13 +5965,13 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2309.635</v>
+        <v>2481.047</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>2.256</v>
@@ -5991,13 +5991,13 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>2309.635</v>
+        <v>2481.047</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>2.256</v>
@@ -6017,13 +6017,13 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>2309.635</v>
+        <v>2481.047</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>2.256</v>
@@ -6043,13 +6043,13 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2309.635</v>
+        <v>2481.047</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>137.026</v>
+        <v>138.533</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>2.256</v>
@@ -6069,13 +6069,13 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2309.635</v>
+        <v>2488.615</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>137.026</v>
+        <v>138.533</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>2.256</v>
@@ -6095,13 +6095,13 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>2309.635</v>
+        <v>2511.577</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>137.026</v>
+        <v>138.684</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>2.256</v>
@@ -6121,13 +6121,13 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>2309.635</v>
+        <v>2513.267</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>137.026</v>
+        <v>141.433</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>2.256</v>
@@ -6147,13 +6147,13 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>2309.635</v>
+        <v>2513.267</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>137.026</v>
+        <v>141.433</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>2.256</v>
@@ -6173,13 +6173,13 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2309.635</v>
+        <v>2534.144</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>137.026</v>
+        <v>143.526</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>2.256</v>
@@ -6199,13 +6199,13 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2309.635</v>
+        <v>2549.388</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>137.026</v>
+        <v>143.773</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>2.256</v>
@@ -6225,13 +6225,13 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2309.635</v>
+        <v>2549.592</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>137.026</v>
+        <v>143.773</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>2.256</v>
@@ -6251,13 +6251,13 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2309.635</v>
+        <v>2549.592</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>137.026</v>
+        <v>143.773</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>2.256</v>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,121 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-11-05 11:30:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-13 00:00:01 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-13 00:00:00 +0100</t>
+    <t xml:space="preserve">2022-12-13 11:00:00 +0100</t>
   </si>
   <si>
     <t xml:space="preserve">2022-12-14 00:00:00 +0100</t>
@@ -673,7 +559,130 @@
     <t xml:space="preserve">2023-06-01 00:00:00 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-01 18:33:17 +0200</t>
+    <t xml:space="preserve">2023-06-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-13 23:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-04 19:32:42 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-08 20:30:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-01 23:21:45 +0200</t>
   </si>
 </sst>
 </file>
@@ -748,8 +757,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -770,20 +783,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B215" activeCellId="0" sqref="B215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A215" activeCellId="0" sqref="215:215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,13 +830,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1.802</v>
@@ -843,13 +856,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2024.386</v>
+        <v>2117.909</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>134.43</v>
+        <v>134.611</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1.802</v>
@@ -869,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1.802</v>
@@ -895,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>40.429</v>
+        <v>40.973</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1.802</v>
@@ -921,16 +934,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>40.429</v>
+        <v>40.999</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.911</v>
@@ -947,16 +960,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2045.337</v>
+        <v>2117.909</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2.911</v>
@@ -973,16 +986,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2045.365</v>
+        <v>2117.909</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2.911</v>
@@ -999,16 +1012,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2045.365</v>
+        <v>2117.909</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2.911</v>
@@ -1025,16 +1038,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2.911</v>
@@ -1051,16 +1064,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2.911</v>
@@ -1077,16 +1090,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>134.531</v>
+        <v>134.611</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2.911</v>
@@ -1103,16 +1116,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2055.64</v>
+        <v>2117.909</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2.911</v>
@@ -1129,16 +1142,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2055.64</v>
+        <v>2122.703</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2.911</v>
@@ -1155,16 +1168,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2055.64</v>
+        <v>2133.56</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2.911</v>
@@ -1181,16 +1194,16 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2055.928</v>
+        <v>2133.56</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2.911</v>
@@ -1207,16 +1220,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2055.928</v>
+        <v>2133.573</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>134.531</v>
+        <v>134.704</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2.911</v>
@@ -1233,16 +1246,16 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2065.57</v>
+        <v>2133.573</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2.911</v>
@@ -1259,16 +1272,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2065.57</v>
+        <v>2147.5</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2.911</v>
@@ -1285,16 +1298,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2065.57</v>
+        <v>2156.509</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2.911</v>
@@ -1311,16 +1324,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2074.804</v>
+        <v>2160.415</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2.911</v>
@@ -1337,16 +1350,16 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2074.804</v>
+        <v>2171.753</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2.911</v>
@@ -1363,16 +1376,16 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2074.804</v>
+        <v>2171.753</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2.911</v>
@@ -1389,16 +1402,16 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2074.934</v>
+        <v>2171.753</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2.911</v>
@@ -1415,16 +1428,16 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2074.934</v>
+        <v>2171.989</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>134.531</v>
+        <v>134.751</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>2.911</v>
@@ -1441,16 +1454,16 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2096.361</v>
+        <v>2171.989</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2.911</v>
@@ -1467,16 +1480,16 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2117.909</v>
+        <v>2171.989</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>2.911</v>
@@ -1493,16 +1506,16 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2117.909</v>
+        <v>2175.116</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>2.911</v>
@@ -1519,16 +1532,16 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>40.429</v>
+        <v>41.007</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2.911</v>
@@ -1545,16 +1558,16 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2.911</v>
@@ -1571,16 +1584,16 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>2.911</v>
@@ -1597,16 +1610,16 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2.911</v>
@@ -1623,16 +1636,16 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2.911</v>
@@ -1649,16 +1662,16 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2.911</v>
@@ -1675,16 +1688,16 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2117.909</v>
+        <v>2194.318</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>134.611</v>
+        <v>134.751</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2.911</v>
@@ -1701,16 +1714,16 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2117.909</v>
+        <v>2201.881</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2.911</v>
@@ -1727,16 +1740,16 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2.911</v>
@@ -1753,22 +1766,22 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2.911</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1856.046</v>
@@ -1779,22 +1792,22 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2.911</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1856.046</v>
@@ -1805,22 +1818,22 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1856.046</v>
@@ -1831,22 +1844,22 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1856.046</v>
@@ -1857,22 +1870,22 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2117.909</v>
+        <v>2224.759</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1856.046</v>
@@ -1883,22 +1896,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>40.973</v>
+        <v>41.007</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1.802</v>
+        <v>1.891</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1856.046</v>
@@ -1909,22 +1922,22 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>40.999</v>
+        <v>41.007</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1.891</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>1856.046</v>
@@ -1935,10 +1948,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>41.007</v>
@@ -1947,10 +1960,10 @@
         <v>1.891</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1856.046</v>
@@ -1961,10 +1974,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>41.007</v>
@@ -1973,10 +1986,10 @@
         <v>1.891</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>1856.046</v>
@@ -1987,10 +2000,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>41.007</v>
@@ -1999,10 +2012,10 @@
         <v>1.891</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1856.046</v>
@@ -2013,10 +2026,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>41.007</v>
@@ -2025,10 +2038,10 @@
         <v>1.891</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1856.046</v>
@@ -2039,10 +2052,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>2117.909</v>
+        <v>2228.126</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>41.007</v>
@@ -2051,10 +2064,10 @@
         <v>1.891</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1856.046</v>
@@ -2065,10 +2078,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2117.909</v>
+        <v>2233.252</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>134.611</v>
+        <v>134.756</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>41.007</v>
@@ -2077,10 +2090,10 @@
         <v>1.891</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1856.046</v>
@@ -2091,10 +2104,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2117.909</v>
+        <v>2249.212</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>41.007</v>
@@ -2103,10 +2116,10 @@
         <v>1.891</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1856.046</v>
@@ -2117,10 +2130,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2122.703</v>
+        <v>2249.212</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>41.007</v>
@@ -2129,10 +2142,10 @@
         <v>1.891</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1856.046</v>
@@ -2143,10 +2156,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2133.56</v>
+        <v>2249.212</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>41.007</v>
@@ -2155,10 +2168,10 @@
         <v>1.891</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1856.046</v>
@@ -2169,10 +2182,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2133.56</v>
+        <v>2249.212</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>41.007</v>
@@ -2181,10 +2194,10 @@
         <v>1.891</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1856.046</v>
@@ -2195,10 +2208,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2133.573</v>
+        <v>2249.212</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>134.704</v>
+        <v>134.756</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>41.007</v>
@@ -2207,10 +2220,10 @@
         <v>1.891</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>1856.046</v>
@@ -2221,10 +2234,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2133.573</v>
+        <v>2249.212</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>41.007</v>
@@ -2233,10 +2246,10 @@
         <v>1.891</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>1856.046</v>
@@ -2247,10 +2260,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>2147.5</v>
+        <v>2249.212</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>41.007</v>
@@ -2259,10 +2272,10 @@
         <v>1.891</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1856.046</v>
@@ -2273,10 +2286,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2156.509</v>
+        <v>2249.212</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>41.007</v>
@@ -2285,10 +2298,10 @@
         <v>1.891</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>1856.046</v>
@@ -2299,10 +2312,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2160.415</v>
+        <v>2249.212</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>41.007</v>
@@ -2311,10 +2324,10 @@
         <v>1.891</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>1856.046</v>
@@ -2325,10 +2338,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2171.753</v>
+        <v>2249.212</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>41.007</v>
@@ -2337,10 +2350,10 @@
         <v>1.891</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>1856.046</v>
@@ -2351,10 +2364,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2171.753</v>
+        <v>2249.212</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>41.007</v>
@@ -2363,10 +2376,10 @@
         <v>1.891</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1856.046</v>
@@ -2377,10 +2390,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2171.753</v>
+        <v>2249.212</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>41.007</v>
@@ -2389,10 +2402,10 @@
         <v>1.891</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>1856.046</v>
@@ -2403,10 +2416,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>41.007</v>
@@ -2415,10 +2428,10 @@
         <v>1.891</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>1856.046</v>
@@ -2429,10 +2442,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>41.007</v>
@@ -2441,10 +2454,10 @@
         <v>1.891</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>1856.046</v>
@@ -2455,10 +2468,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2171.989</v>
+        <v>2249.212</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>41.007</v>
@@ -2467,10 +2480,10 @@
         <v>1.891</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>1856.046</v>
@@ -2481,10 +2494,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2175.116</v>
+        <v>2249.212</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>41.007</v>
@@ -2493,10 +2506,10 @@
         <v>1.891</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>1856.046</v>
@@ -2507,10 +2520,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>41.007</v>
@@ -2519,10 +2532,10 @@
         <v>1.891</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>1856.046</v>
@@ -2533,10 +2546,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>41.007</v>
@@ -2545,10 +2558,10 @@
         <v>1.891</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>1856.046</v>
@@ -2559,10 +2572,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2194.318</v>
+        <v>2249.212</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>41.007</v>
@@ -2571,10 +2584,10 @@
         <v>1.891</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>1856.046</v>
@@ -2585,10 +2598,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2194.318</v>
+        <v>2250.614</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>41.007</v>
@@ -2597,10 +2610,10 @@
         <v>1.891</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>1856.046</v>
@@ -2611,10 +2624,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2194.318</v>
+        <v>2250.614</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>41.007</v>
@@ -2623,10 +2636,10 @@
         <v>1.891</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>1856.046</v>
@@ -2637,10 +2650,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2194.318</v>
+        <v>2250.614</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>41.007</v>
@@ -2649,10 +2662,10 @@
         <v>1.891</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>1856.046</v>
@@ -2663,10 +2676,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2194.318</v>
+        <v>2250.787</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>134.751</v>
+        <v>134.756</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>41.007</v>
@@ -2675,10 +2688,10 @@
         <v>1.891</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>1856.046</v>
@@ -2689,7 +2702,7 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2201.881</v>
+        <v>2250.787</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>134.756</v>
@@ -2701,10 +2714,10 @@
         <v>1.891</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>1856.046</v>
@@ -2715,7 +2728,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2224.759</v>
+        <v>2250.787</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>134.756</v>
@@ -2727,10 +2740,10 @@
         <v>1.891</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1856.046</v>
@@ -2741,7 +2754,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2224.759</v>
+        <v>2250.787</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>134.756</v>
@@ -2753,7 +2766,7 @@
         <v>1.891</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>1.188</v>
@@ -2767,7 +2780,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2224.759</v>
+        <v>2250.787</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>134.756</v>
@@ -2779,7 +2792,7 @@
         <v>1.891</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>1.188</v>
@@ -2793,7 +2806,7 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2224.759</v>
+        <v>2265.706</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>134.756</v>
@@ -2819,7 +2832,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2224.759</v>
+        <v>2284.409</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>134.756</v>
@@ -2845,7 +2858,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2224.759</v>
+        <v>2284.409</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>134.756</v>
@@ -2871,7 +2884,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2228.126</v>
+        <v>2284.409</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>134.756</v>
@@ -2897,7 +2910,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2228.126</v>
+        <v>2284.409</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>134.756</v>
@@ -2923,7 +2936,7 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2228.126</v>
+        <v>2284.409</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>134.756</v>
@@ -2949,7 +2962,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2228.126</v>
+        <v>2284.409</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>134.756</v>
@@ -2975,7 +2988,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2228.126</v>
+        <v>2284.409</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>134.756</v>
@@ -3001,7 +3014,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2228.126</v>
+        <v>2284.409</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>134.756</v>
@@ -3027,7 +3040,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2228.126</v>
+        <v>2284.409</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>134.756</v>
@@ -3036,7 +3049,7 @@
         <v>41.007</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>2.942</v>
@@ -3053,7 +3066,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2233.252</v>
+        <v>2284.409</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>134.756</v>
@@ -3062,7 +3075,7 @@
         <v>41.007</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>2.942</v>
@@ -3079,7 +3092,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>134.756</v>
@@ -3088,7 +3101,7 @@
         <v>41.007</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>2.942</v>
@@ -3105,7 +3118,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2249.212</v>
+        <v>2284.409</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>134.756</v>
@@ -3114,7 +3127,7 @@
         <v>41.007</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>2.942</v>
@@ -3131,7 +3144,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2249.212</v>
+        <v>2287.589</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>134.756</v>
@@ -3140,7 +3153,7 @@
         <v>41.007</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>2.942</v>
@@ -3157,7 +3170,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2249.212</v>
+        <v>2305.98</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>134.756</v>
@@ -3166,7 +3179,7 @@
         <v>41.007</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>2.942</v>
@@ -3183,16 +3196,16 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>2.942</v>
@@ -3209,16 +3222,16 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>2.942</v>
@@ -3235,16 +3248,16 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>2.942</v>
@@ -3261,16 +3274,16 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>2.942</v>
@@ -3287,16 +3300,16 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>2.942</v>
@@ -3313,16 +3326,16 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>2.942</v>
@@ -3339,16 +3352,16 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>2.942</v>
@@ -3365,16 +3378,16 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>2.942</v>
@@ -3391,16 +3404,16 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>2.942</v>
@@ -3417,16 +3430,16 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>2.942</v>
@@ -3443,16 +3456,16 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>2.942</v>
@@ -3469,16 +3482,16 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2249.212</v>
+        <v>2309.635</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>2.942</v>
@@ -3495,16 +3508,16 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2249.212</v>
+        <v>2314.348</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>134.756</v>
+        <v>137.026</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>2.942</v>
@@ -3521,16 +3534,16 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2249.212</v>
+        <v>2333.764</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>2.942</v>
@@ -3547,16 +3560,16 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2249.212</v>
+        <v>2354.235</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>2.942</v>
@@ -3573,16 +3586,16 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>2250.614</v>
+        <v>2354.235</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>2.942</v>
@@ -3599,16 +3612,16 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2250.614</v>
+        <v>2354.235</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>2.942</v>
@@ -3625,16 +3638,16 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2250.614</v>
+        <v>2354.235</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>2.942</v>
@@ -3651,16 +3664,16 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2250.787</v>
+        <v>2354.235</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>2.942</v>
@@ -3677,16 +3690,16 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2250.787</v>
+        <v>2354.235</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>2.942</v>
@@ -3703,16 +3716,16 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2250.787</v>
+        <v>2354.235</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>2.942</v>
@@ -3729,16 +3742,16 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2250.787</v>
+        <v>2364.703</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>2.942</v>
@@ -3755,16 +3768,16 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2250.787</v>
+        <v>2364.703</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>2.942</v>
@@ -3781,16 +3794,16 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2265.706</v>
+        <v>2364.703</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>2.942</v>
@@ -3807,16 +3820,16 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2284.409</v>
+        <v>2364.703</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>2.942</v>
@@ -3833,16 +3846,16 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2284.409</v>
+        <v>2364.703</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>41.007</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>2.942</v>
@@ -3859,16 +3872,16 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2284.409</v>
+        <v>2364.703</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>2.942</v>
@@ -3885,16 +3898,16 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2284.409</v>
+        <v>2372.194</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>2.942</v>
@@ -3911,16 +3924,16 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2284.409</v>
+        <v>2390.475</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>2.942</v>
@@ -3937,16 +3950,16 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2284.409</v>
+        <v>2390.475</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>2.942</v>
@@ -3963,16 +3976,16 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2284.409</v>
+        <v>2390.475</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>41.007</v>
+        <v>41.03</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>2.942</v>
@@ -3989,16 +4002,16 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2284.409</v>
+        <v>2390.475</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>2.942</v>
@@ -4015,13 +4028,13 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2284.409</v>
+        <v>2390.475</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>2.256</v>
@@ -4041,13 +4054,13 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2284.409</v>
+        <v>2390.475</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>2.256</v>
@@ -4067,13 +4080,13 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2284.409</v>
+        <v>2391.191</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>2.256</v>
@@ -4093,13 +4106,13 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2284.409</v>
+        <v>2391.191</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>2.256</v>
@@ -4119,13 +4132,13 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2287.589</v>
+        <v>2391.191</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>134.756</v>
+        <v>138.292</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>2.256</v>
@@ -4145,13 +4158,13 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2305.98</v>
+        <v>2391.225</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>2.256</v>
@@ -4171,13 +4184,13 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2309.635</v>
+        <v>2391.255</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>2.256</v>
@@ -4197,13 +4210,13 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>2309.635</v>
+        <v>2391.255</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>2.256</v>
@@ -4223,13 +4236,13 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2309.635</v>
+        <v>2391.255</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>2.256</v>
@@ -4249,13 +4262,13 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2309.635</v>
+        <v>2391.255</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>2.256</v>
@@ -4275,13 +4288,13 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2309.635</v>
+        <v>2404.665</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>2.256</v>
@@ -4301,13 +4314,13 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2309.635</v>
+        <v>2404.665</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>2.256</v>
@@ -4327,13 +4340,13 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>2309.635</v>
+        <v>2404.665</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>2.256</v>
@@ -4353,13 +4366,13 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2309.635</v>
+        <v>2404.665</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>2.256</v>
@@ -4379,13 +4392,13 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2309.635</v>
+        <v>2404.779</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>2.256</v>
@@ -4405,13 +4418,13 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2309.635</v>
+        <v>2404.779</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>2.256</v>
@@ -4431,13 +4444,13 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2309.635</v>
+        <v>2405.069</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>2.256</v>
@@ -4457,13 +4470,13 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>2309.635</v>
+        <v>2424.415</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>2.256</v>
@@ -4483,13 +4496,13 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2314.348</v>
+        <v>2424.415</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>137.026</v>
+        <v>138.428</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>2.256</v>
@@ -4509,13 +4522,13 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2333.764</v>
+        <v>2424.415</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>2.256</v>
@@ -4535,13 +4548,13 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>2354.235</v>
+        <v>2424.676</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>2.256</v>
@@ -4561,13 +4574,13 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2354.235</v>
+        <v>2424.676</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>2.256</v>
@@ -4587,13 +4600,13 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>2354.235</v>
+        <v>2424.676</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>2.256</v>
@@ -4613,13 +4626,13 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>2354.235</v>
+        <v>2424.91</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>2.256</v>
@@ -4639,13 +4652,13 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2354.235</v>
+        <v>2425.41</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>2.256</v>
@@ -4665,13 +4678,13 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2354.235</v>
+        <v>2436.402</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>2.256</v>
@@ -4691,13 +4704,13 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2354.235</v>
+        <v>2436.402</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>2.256</v>
@@ -4717,13 +4730,13 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2364.703</v>
+        <v>2436.402</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>2.256</v>
@@ -4743,13 +4756,13 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2364.703</v>
+        <v>2436.402</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>2.256</v>
@@ -4769,13 +4782,13 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2364.703</v>
+        <v>2436.696</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>2.256</v>
@@ -4795,13 +4808,13 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2364.703</v>
+        <v>2445.158</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>2.256</v>
@@ -4821,13 +4834,13 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>2364.703</v>
+        <v>2465.691</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>2.256</v>
@@ -4847,13 +4860,13 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2364.703</v>
+        <v>2466.054</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>41.03</v>
+        <v>41.278</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>2.256</v>
@@ -4873,13 +4886,13 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>2372.194</v>
+        <v>2466.054</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>41.03</v>
+        <v>41.278</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>2.256</v>
@@ -4899,13 +4912,13 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2390.475</v>
+        <v>2466.054</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>41.03</v>
+        <v>41.278</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>2.256</v>
@@ -4925,13 +4938,13 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>2390.475</v>
+        <v>2466.054</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>41.03</v>
+        <v>41.278</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>2.256</v>
@@ -4951,13 +4964,13 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2390.475</v>
+        <v>2466.35</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>41.03</v>
+        <v>41.278</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>2.256</v>
@@ -4977,10 +4990,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2390.475</v>
+        <v>2481.047</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>41.278</v>
@@ -5003,10 +5016,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>2390.475</v>
+        <v>2481.047</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>41.278</v>
@@ -5029,10 +5042,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>2390.475</v>
+        <v>2481.047</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>41.278</v>
@@ -5055,10 +5068,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>2391.191</v>
+        <v>2481.047</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>138.292</v>
+        <v>138.533</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>41.278</v>
@@ -5081,10 +5094,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2391.191</v>
+        <v>2488.615</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>138.292</v>
+        <v>138.533</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>41.278</v>
@@ -5107,10 +5120,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2391.191</v>
+        <v>2511.577</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>138.292</v>
+        <v>138.684</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>41.278</v>
@@ -5133,10 +5146,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2391.225</v>
+        <v>2513.267</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>138.428</v>
+        <v>141.433</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>41.278</v>
@@ -5159,10 +5172,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2391.255</v>
+        <v>2513.267</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>138.428</v>
+        <v>141.433</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>41.278</v>
@@ -5185,10 +5198,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2391.255</v>
+        <v>2534.144</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>138.428</v>
+        <v>143.526</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>41.278</v>
@@ -5211,10 +5224,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2391.255</v>
+        <v>2549.388</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>41.278</v>
@@ -5237,10 +5250,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2391.255</v>
+        <v>2549.592</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>41.278</v>
@@ -5263,10 +5276,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>2404.665</v>
+        <v>2549.592</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>41.278</v>
@@ -5289,10 +5302,10 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>2404.665</v>
+        <v>2549.592</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>41.278</v>
@@ -5315,10 +5328,10 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2404.665</v>
+        <v>2557.769</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>41.278</v>
@@ -5341,10 +5354,10 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2404.665</v>
+        <v>2557.769</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>41.278</v>
@@ -5367,10 +5380,10 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2404.779</v>
+        <v>2571.571</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>41.278</v>
@@ -5393,10 +5406,10 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>2404.779</v>
+        <v>2571.571</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>41.278</v>
@@ -5419,10 +5432,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>2405.069</v>
+        <v>2571.571</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>41.278</v>
@@ -5445,13 +5458,13 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>2424.415</v>
+        <v>2571.571</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>41.278</v>
+        <v>41.607</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>2.256</v>
@@ -5471,13 +5484,13 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2424.415</v>
+        <v>2571.571</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>41.278</v>
+        <v>41.607</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>2.256</v>
@@ -5497,13 +5510,13 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>2424.415</v>
+        <v>2571.571</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>2.256</v>
@@ -5523,13 +5536,13 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>2424.676</v>
+        <v>2589.671</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>2.256</v>
@@ -5549,13 +5562,13 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>2424.676</v>
+        <v>2589.671</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>2.256</v>
@@ -5575,13 +5588,13 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2424.676</v>
+        <v>2608.252</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>2.256</v>
@@ -5601,13 +5614,13 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2424.91</v>
+        <v>2608.252</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2.256</v>
@@ -5627,13 +5640,13 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2425.41</v>
+        <v>2608.252</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2.256</v>
@@ -5653,13 +5666,13 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2436.402</v>
+        <v>2608.252</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2.256</v>
@@ -5671,7 +5684,7 @@
         <v>1.188</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,13 +5692,13 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>2436.402</v>
+        <v>2608.252</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>138.428</v>
+        <v>143.866</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2.256</v>
@@ -5697,7 +5710,7 @@
         <v>1.188</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,13 +5718,13 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>2436.402</v>
+        <v>2608.252</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>138.428</v>
+        <v>143.866</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2.256</v>
@@ -5723,7 +5736,7 @@
         <v>1.188</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,13 +5744,13 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>2436.402</v>
+        <v>2631.12</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>138.428</v>
+        <v>143.903</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>2.256</v>
@@ -5749,7 +5762,7 @@
         <v>1.188</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5757,13 +5770,13 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2436.696</v>
+        <v>2631.12</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>138.428</v>
+        <v>143.903</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>2.256</v>
@@ -5775,7 +5788,7 @@
         <v>1.188</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,13 +5796,13 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2445.158</v>
+        <v>2631.12</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>138.428</v>
+        <v>143.903</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>2.256</v>
@@ -5801,7 +5814,7 @@
         <v>1.188</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5809,13 +5822,13 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2465.691</v>
+        <v>2631.12</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>138.428</v>
+        <v>143.903</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>2.256</v>
@@ -5827,7 +5840,7 @@
         <v>1.188</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5835,13 +5848,13 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2466.054</v>
+        <v>2631.12</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>138.428</v>
+        <v>143.903</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>2.256</v>
@@ -5853,7 +5866,7 @@
         <v>1.188</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,13 +5874,13 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>2466.054</v>
+        <v>2631.12</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>138.428</v>
+        <v>143.903</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>2.256</v>
@@ -5879,7 +5892,7 @@
         <v>1.188</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,13 +5900,13 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>2466.054</v>
+        <v>2631.13</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>138.428</v>
+        <v>143.908</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>2.256</v>
@@ -5905,7 +5918,7 @@
         <v>1.188</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,13 +5926,13 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>2466.054</v>
+        <v>2644.788</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>138.428</v>
+        <v>143.908</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>2.256</v>
@@ -5931,7 +5944,7 @@
         <v>1.188</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,13 +5952,13 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>2466.35</v>
+        <v>2644.788</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>138.428</v>
+        <v>143.908</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>2.256</v>
@@ -5957,7 +5970,7 @@
         <v>1.188</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,13 +5978,13 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2481.047</v>
+        <v>2644.788</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>138.428</v>
+        <v>143.908</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>2.256</v>
@@ -5983,7 +5996,7 @@
         <v>1.188</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,13 +6004,13 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>2481.047</v>
+        <v>2644.788</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>138.428</v>
+        <v>143.908</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>2.256</v>
@@ -6009,7 +6022,7 @@
         <v>1.188</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6017,13 +6030,13 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>2481.047</v>
+        <v>2644.788</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>138.428</v>
+        <v>143.908</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>2.256</v>
@@ -6035,7 +6048,7 @@
         <v>1.188</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,13 +6056,13 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2481.047</v>
+        <v>2644.788</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>138.533</v>
+        <v>143.908</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>2.256</v>
@@ -6061,7 +6074,7 @@
         <v>1.188</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6069,13 +6082,13 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2488.615</v>
+        <v>2644.947</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>138.533</v>
+        <v>143.908</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>2.256</v>
@@ -6087,7 +6100,7 @@
         <v>1.188</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6095,13 +6108,13 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>2511.577</v>
+        <v>2666.152</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>138.684</v>
+        <v>143.908</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>2.256</v>
@@ -6113,7 +6126,7 @@
         <v>1.188</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6121,13 +6134,13 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>2513.267</v>
+        <v>2666.152</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>141.433</v>
+        <v>143.908</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>2.256</v>
@@ -6139,7 +6152,7 @@
         <v>1.188</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,13 +6160,13 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>2513.267</v>
+        <v>2666.152</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>141.433</v>
+        <v>143.908</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>2.256</v>
@@ -6165,7 +6178,7 @@
         <v>1.188</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,13 +6186,13 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2534.144</v>
+        <v>2666.152</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>143.526</v>
+        <v>143.908</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>2.256</v>
@@ -6191,7 +6204,7 @@
         <v>1.188</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6199,13 +6212,13 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2549.388</v>
+        <v>2666.152</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>2.256</v>
@@ -6217,7 +6230,7 @@
         <v>1.188</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,13 +6238,13 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2549.592</v>
+        <v>2666.152</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>2.256</v>
@@ -6243,7 +6256,7 @@
         <v>1.188</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6251,13 +6264,13 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2549.592</v>
+        <v>2666.152</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>2.256</v>
@@ -6269,8 +6282,96 @@
         <v>1.188</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1856.046</v>
-      </c>
+        <v>1873.577</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>2670.247</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>144.043</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>41.965</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>2.942</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <v>1873.577</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>2685.354</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>144.047</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>41.965</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>2.942</v>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <v>1873.577</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>2685.354</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>144.047</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>41.965</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>2.942</v>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>1873.577</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0"/>
+      <c r="B215" s="0"/>
+      <c r="C215" s="0"/>
+      <c r="D215" s="0"/>
+      <c r="E215" s="0"/>
+      <c r="F215" s="0"/>
+      <c r="G215" s="0"/>
+      <c r="H215" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,376 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-12-13 11:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-09 00:00:01 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-15 00:00:00 +0200</t>
+    <t xml:space="preserve">2023-04-15 23:30:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-16 00:00:00 +0200</t>
@@ -682,7 +313,379 @@
     <t xml:space="preserve">2023-08-01 00:00:00 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-01 23:21:45 +0200</t>
+    <t xml:space="preserve">2023-08-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-03 10:11:30 +0100</t>
   </si>
 </sst>
 </file>
@@ -785,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A215" activeCellId="0" sqref="215:215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C218" activeCellId="0" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -800,28 +803,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -830,22 +833,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2117.909</v>
+        <v>2390.475</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>134.611</v>
+        <v>138.292</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>40.973</v>
+        <v>41.278</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.802</v>
+        <v>2.256</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1856.046</v>
@@ -856,22 +859,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2117.909</v>
+        <v>2390.475</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>134.611</v>
+        <v>138.292</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>40.973</v>
+        <v>41.278</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1.802</v>
+        <v>2.256</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1856.046</v>
@@ -882,22 +885,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2117.909</v>
+        <v>2391.191</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>134.611</v>
+        <v>138.292</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>40.973</v>
+        <v>41.278</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1.802</v>
+        <v>2.256</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1856.046</v>
@@ -908,22 +911,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2117.909</v>
+        <v>2391.191</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>134.611</v>
+        <v>138.292</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>40.973</v>
+        <v>41.278</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1.802</v>
+        <v>2.256</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1856.046</v>
@@ -934,22 +937,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2117.909</v>
+        <v>2391.191</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>134.611</v>
+        <v>138.292</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>40.999</v>
+        <v>41.278</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1856.046</v>
@@ -960,22 +963,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2117.909</v>
+        <v>2391.225</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>134.611</v>
+        <v>138.428</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1856.046</v>
@@ -986,22 +989,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2117.909</v>
+        <v>2391.255</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>134.611</v>
+        <v>138.428</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1856.046</v>
@@ -1012,22 +1015,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2117.909</v>
+        <v>2391.255</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>134.611</v>
+        <v>138.428</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1856.046</v>
@@ -1038,22 +1041,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2117.909</v>
+        <v>2391.255</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>134.611</v>
+        <v>138.428</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1856.046</v>
@@ -1064,22 +1067,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2117.909</v>
+        <v>2391.255</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>134.611</v>
+        <v>138.428</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1856.046</v>
@@ -1090,22 +1093,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2117.909</v>
+        <v>2404.665</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>134.611</v>
+        <v>138.428</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1856.046</v>
@@ -1116,22 +1119,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2117.909</v>
+        <v>2404.665</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>134.704</v>
+        <v>138.428</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1856.046</v>
@@ -1142,22 +1145,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2122.703</v>
+        <v>2404.665</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>134.704</v>
+        <v>138.428</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1856.046</v>
@@ -1168,22 +1171,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2133.56</v>
+        <v>2404.665</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>134.704</v>
+        <v>138.428</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1856.046</v>
@@ -1194,22 +1197,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2133.56</v>
+        <v>2404.779</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>134.704</v>
+        <v>138.428</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1856.046</v>
@@ -1220,22 +1223,22 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2133.573</v>
+        <v>2404.779</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>134.704</v>
+        <v>138.428</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1856.046</v>
@@ -1246,22 +1249,22 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2133.573</v>
+        <v>2405.069</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1856.046</v>
@@ -1272,22 +1275,22 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2147.5</v>
+        <v>2424.415</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1856.046</v>
@@ -1298,22 +1301,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2156.509</v>
+        <v>2424.415</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1856.046</v>
@@ -1324,22 +1327,22 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2160.415</v>
+        <v>2424.415</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1856.046</v>
@@ -1350,22 +1353,22 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2171.753</v>
+        <v>2424.676</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1856.046</v>
@@ -1376,22 +1379,22 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2171.753</v>
+        <v>2424.676</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1856.046</v>
@@ -1402,22 +1405,22 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2171.753</v>
+        <v>2424.676</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1856.046</v>
@@ -1428,22 +1431,22 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2171.989</v>
+        <v>2424.91</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1856.046</v>
@@ -1454,22 +1457,22 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2171.989</v>
+        <v>2425.41</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1856.046</v>
@@ -1480,22 +1483,22 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2171.989</v>
+        <v>2436.402</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1856.046</v>
@@ -1506,22 +1509,22 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2175.116</v>
+        <v>2436.402</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1856.046</v>
@@ -1532,22 +1535,22 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2194.318</v>
+        <v>2436.402</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1856.046</v>
@@ -1558,22 +1561,22 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2194.318</v>
+        <v>2436.402</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1856.046</v>
@@ -1584,22 +1587,22 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2194.318</v>
+        <v>2436.696</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1856.046</v>
@@ -1610,22 +1613,22 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2194.318</v>
+        <v>2445.158</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1856.046</v>
@@ -1636,22 +1639,22 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2194.318</v>
+        <v>2465.691</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1856.046</v>
@@ -1662,22 +1665,22 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2194.318</v>
+        <v>2466.054</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1856.046</v>
@@ -1688,22 +1691,22 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2194.318</v>
+        <v>2466.054</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>134.751</v>
+        <v>138.428</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>1856.046</v>
@@ -1714,22 +1717,22 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2201.881</v>
+        <v>2466.054</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1856.046</v>
@@ -1740,22 +1743,22 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2224.759</v>
+        <v>2466.054</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.753</v>
+        <v>1.188</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1856.046</v>
@@ -1766,19 +1769,19 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2224.759</v>
+        <v>2466.35</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1.188</v>
@@ -1792,19 +1795,19 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2224.759</v>
+        <v>2481.047</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>2.911</v>
+        <v>2.942</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1.188</v>
@@ -1818,16 +1821,16 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2224.759</v>
+        <v>2481.047</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2.942</v>
@@ -1844,16 +1847,16 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2224.759</v>
+        <v>2481.047</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>134.756</v>
+        <v>138.428</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2.942</v>
@@ -1870,16 +1873,16 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2224.759</v>
+        <v>2481.047</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>134.756</v>
+        <v>138.533</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2.942</v>
@@ -1896,16 +1899,16 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2228.126</v>
+        <v>2488.615</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>134.756</v>
+        <v>138.533</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2.942</v>
@@ -1922,16 +1925,16 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>2228.126</v>
+        <v>2511.577</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>134.756</v>
+        <v>138.684</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2.942</v>
@@ -1948,16 +1951,16 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2228.126</v>
+        <v>2513.267</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>134.756</v>
+        <v>141.433</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2.942</v>
@@ -1974,16 +1977,16 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2228.126</v>
+        <v>2513.267</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>134.756</v>
+        <v>141.433</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2.942</v>
@@ -2000,16 +2003,16 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>2228.126</v>
+        <v>2534.144</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>134.756</v>
+        <v>143.526</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2.942</v>
@@ -2026,16 +2029,16 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2228.126</v>
+        <v>2549.388</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2.942</v>
@@ -2052,16 +2055,16 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>2228.126</v>
+        <v>2549.592</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2.942</v>
@@ -2078,16 +2081,16 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2233.252</v>
+        <v>2549.592</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2.942</v>
@@ -2104,16 +2107,16 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2249.212</v>
+        <v>2549.592</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2.942</v>
@@ -2130,16 +2133,16 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2249.212</v>
+        <v>2557.769</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2.942</v>
@@ -2156,16 +2159,16 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2249.212</v>
+        <v>2557.769</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2.942</v>
@@ -2182,16 +2185,16 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2249.212</v>
+        <v>2571.571</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2.942</v>
@@ -2208,16 +2211,16 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2249.212</v>
+        <v>2571.571</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2.942</v>
@@ -2234,16 +2237,16 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2249.212</v>
+        <v>2571.571</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>41.007</v>
+        <v>41.278</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2.942</v>
@@ -2260,16 +2263,16 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>2249.212</v>
+        <v>2571.571</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>41.007</v>
+        <v>41.607</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2.942</v>
@@ -2286,16 +2289,16 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2249.212</v>
+        <v>2571.571</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>134.756</v>
+        <v>143.773</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>41.007</v>
+        <v>41.607</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2.942</v>
@@ -2312,16 +2315,16 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2249.212</v>
+        <v>2571.571</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>134.756</v>
+        <v>143.857</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2.942</v>
@@ -2338,16 +2341,16 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2249.212</v>
+        <v>2589.671</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>134.756</v>
+        <v>143.857</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2.942</v>
@@ -2364,16 +2367,16 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2249.212</v>
+        <v>2589.671</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>134.756</v>
+        <v>143.857</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2.942</v>
@@ -2390,16 +2393,16 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2249.212</v>
+        <v>2608.252</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>134.756</v>
+        <v>143.857</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2.942</v>
@@ -2416,16 +2419,16 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2249.212</v>
+        <v>2608.252</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>134.756</v>
+        <v>143.857</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2.942</v>
@@ -2442,16 +2445,16 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2249.212</v>
+        <v>2608.252</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>134.756</v>
+        <v>143.857</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2.942</v>
@@ -2468,16 +2471,16 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2249.212</v>
+        <v>2608.252</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>134.756</v>
+        <v>143.857</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2.942</v>
@@ -2486,7 +2489,7 @@
         <v>1.188</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,16 +2497,16 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2249.212</v>
+        <v>2608.252</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>134.756</v>
+        <v>143.866</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2.942</v>
@@ -2512,7 +2515,7 @@
         <v>1.188</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,16 +2523,16 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2249.212</v>
+        <v>2608.252</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>134.756</v>
+        <v>143.866</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2.942</v>
@@ -2538,7 +2541,7 @@
         <v>1.188</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,16 +2549,16 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2249.212</v>
+        <v>2631.12</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>134.756</v>
+        <v>143.903</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2.942</v>
@@ -2564,7 +2567,7 @@
         <v>1.188</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,16 +2575,16 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2249.212</v>
+        <v>2631.12</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>134.756</v>
+        <v>143.903</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2.942</v>
@@ -2590,7 +2593,7 @@
         <v>1.188</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,16 +2601,16 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2250.614</v>
+        <v>2631.12</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>134.756</v>
+        <v>143.903</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2.942</v>
@@ -2616,7 +2619,7 @@
         <v>1.188</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,16 +2627,16 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2250.614</v>
+        <v>2631.12</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>134.756</v>
+        <v>143.903</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2.942</v>
@@ -2642,7 +2645,7 @@
         <v>1.188</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,16 +2653,16 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2250.614</v>
+        <v>2631.12</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>134.756</v>
+        <v>143.903</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2.942</v>
@@ -2668,7 +2671,7 @@
         <v>1.188</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,16 +2679,16 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2250.787</v>
+        <v>2631.12</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>134.756</v>
+        <v>143.903</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2.942</v>
@@ -2694,7 +2697,7 @@
         <v>1.188</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,16 +2705,16 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2250.787</v>
+        <v>2631.13</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>2.942</v>
@@ -2720,7 +2723,7 @@
         <v>1.188</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,16 +2731,16 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2250.787</v>
+        <v>2644.788</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>2.942</v>
@@ -2746,7 +2749,7 @@
         <v>1.188</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,16 +2757,16 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2250.787</v>
+        <v>2644.788</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>2.942</v>
@@ -2772,7 +2775,7 @@
         <v>1.188</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,16 +2783,16 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2250.787</v>
+        <v>2644.788</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>2.942</v>
@@ -2798,7 +2801,7 @@
         <v>1.188</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,16 +2809,16 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2265.706</v>
+        <v>2644.788</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>2.942</v>
@@ -2824,7 +2827,7 @@
         <v>1.188</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,16 +2835,16 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2284.409</v>
+        <v>2644.788</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>2.942</v>
@@ -2850,7 +2853,7 @@
         <v>1.188</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,16 +2861,16 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2284.409</v>
+        <v>2644.788</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>2.942</v>
@@ -2876,7 +2879,7 @@
         <v>1.188</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,16 +2887,16 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2284.409</v>
+        <v>2644.947</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>2.942</v>
@@ -2902,7 +2905,7 @@
         <v>1.188</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,16 +2913,16 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2284.409</v>
+        <v>2666.152</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>2.942</v>
@@ -2928,7 +2931,7 @@
         <v>1.188</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,16 +2939,16 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2284.409</v>
+        <v>2666.152</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>2.942</v>
@@ -2954,7 +2957,7 @@
         <v>1.188</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,16 +2965,16 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2284.409</v>
+        <v>2666.152</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>2.942</v>
@@ -2980,7 +2983,7 @@
         <v>1.188</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,16 +2991,16 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2284.409</v>
+        <v>2666.152</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>2.942</v>
@@ -3006,7 +3009,7 @@
         <v>1.188</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,16 +3017,16 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2284.409</v>
+        <v>2666.152</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1.891</v>
+        <v>2.256</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>2.942</v>
@@ -3032,7 +3035,7 @@
         <v>1.188</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,13 +3043,13 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2284.409</v>
+        <v>2666.152</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>2.256</v>
@@ -3058,7 +3061,7 @@
         <v>1.188</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,13 +3069,13 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2284.409</v>
+        <v>2666.152</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>134.756</v>
+        <v>143.908</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>2.256</v>
@@ -3084,7 +3087,7 @@
         <v>1.188</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,13 +3095,13 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2284.409</v>
+        <v>2670.247</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>134.756</v>
+        <v>144.043</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>2.256</v>
@@ -3110,7 +3113,7 @@
         <v>1.188</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,13 +3121,13 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2284.409</v>
+        <v>2685.354</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>134.756</v>
+        <v>144.047</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>2.256</v>
@@ -3136,7 +3139,7 @@
         <v>1.188</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,13 +3147,13 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2287.589</v>
+        <v>2685.354</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>134.756</v>
+        <v>144.047</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>2.256</v>
@@ -3162,7 +3165,7 @@
         <v>1.188</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,13 +3173,13 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2305.98</v>
+        <v>2685.354</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>134.756</v>
+        <v>144.047</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>2.256</v>
@@ -3188,7 +3191,7 @@
         <v>1.188</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,13 +3199,13 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2309.635</v>
+        <v>2685.354</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>2.256</v>
@@ -3214,7 +3217,7 @@
         <v>1.188</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,13 +3225,13 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2309.635</v>
+        <v>2694.587</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>2.256</v>
@@ -3240,7 +3243,7 @@
         <v>1.188</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,13 +3251,13 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2309.635</v>
+        <v>2694.587</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>2.256</v>
@@ -3266,7 +3269,7 @@
         <v>1.188</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,13 +3277,13 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2309.635</v>
+        <v>2694.587</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>2.256</v>
@@ -3292,7 +3295,7 @@
         <v>1.188</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,13 +3303,13 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2309.635</v>
+        <v>2694.587</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>2.256</v>
@@ -3318,7 +3321,7 @@
         <v>1.188</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,13 +3329,13 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2309.635</v>
+        <v>2694.69</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>2.256</v>
@@ -3344,7 +3347,7 @@
         <v>1.188</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,13 +3355,13 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2309.635</v>
+        <v>2694.69</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>2.256</v>
@@ -3370,7 +3373,7 @@
         <v>1.188</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,13 +3381,13 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2309.635</v>
+        <v>2695.301</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>2.256</v>
@@ -3396,7 +3399,7 @@
         <v>1.188</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,13 +3407,13 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2309.635</v>
+        <v>2695.301</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>2.256</v>
@@ -3422,7 +3425,7 @@
         <v>1.188</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,13 +3433,13 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2309.635</v>
+        <v>2695.301</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>2.256</v>
@@ -3448,7 +3451,7 @@
         <v>1.188</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,13 +3459,13 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2309.635</v>
+        <v>2695.536</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>2.256</v>
@@ -3474,7 +3477,7 @@
         <v>1.188</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,13 +3485,13 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2309.635</v>
+        <v>2695.536</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>2.256</v>
@@ -3500,7 +3503,7 @@
         <v>1.188</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,13 +3511,13 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2314.348</v>
+        <v>2695.536</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>137.026</v>
+        <v>144.047</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>2.256</v>
@@ -3526,7 +3529,7 @@
         <v>1.188</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,13 +3537,13 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2333.764</v>
+        <v>2696.432</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>138.292</v>
+        <v>144.047</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>2.256</v>
@@ -3552,7 +3555,7 @@
         <v>1.188</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,13 +3563,13 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2354.235</v>
+        <v>2696.432</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>138.292</v>
+        <v>144.047</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>2.256</v>
@@ -3578,7 +3581,7 @@
         <v>1.188</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,13 +3589,13 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>2354.235</v>
+        <v>2703.447</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>138.292</v>
+        <v>144.047</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>2.256</v>
@@ -3604,7 +3607,7 @@
         <v>1.188</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,13 +3615,13 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2354.235</v>
+        <v>2722.556</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>2.256</v>
@@ -3630,7 +3633,7 @@
         <v>1.188</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,13 +3641,13 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2354.235</v>
+        <v>2723.47</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2.256</v>
@@ -3656,7 +3659,7 @@
         <v>1.188</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,13 +3667,13 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2354.235</v>
+        <v>2723.47</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2.256</v>
@@ -3682,7 +3685,7 @@
         <v>1.188</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,13 +3693,13 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2354.235</v>
+        <v>2723.47</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2.256</v>
@@ -3708,7 +3711,7 @@
         <v>1.188</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,13 +3719,13 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2354.235</v>
+        <v>2723.678</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2.256</v>
@@ -3734,7 +3737,7 @@
         <v>1.188</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,13 +3745,13 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2364.703</v>
+        <v>2723.678</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2.256</v>
@@ -3760,7 +3763,7 @@
         <v>1.188</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,13 +3771,13 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2364.703</v>
+        <v>2723.678</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2.256</v>
@@ -3786,7 +3789,7 @@
         <v>1.188</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,13 +3797,13 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2364.703</v>
+        <v>2723.678</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2.256</v>
@@ -3812,7 +3815,7 @@
         <v>1.188</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,13 +3823,13 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2364.703</v>
+        <v>2724.521</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2.256</v>
@@ -3838,7 +3841,7 @@
         <v>1.188</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,13 +3849,13 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2364.703</v>
+        <v>2724.521</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>41.007</v>
+        <v>41.965</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2.256</v>
@@ -3864,7 +3867,7 @@
         <v>1.188</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,13 +3875,13 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2364.703</v>
+        <v>2724.521</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>41.03</v>
+        <v>41.965</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2.256</v>
@@ -3890,7 +3893,7 @@
         <v>1.188</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,13 +3901,13 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2372.194</v>
+        <v>2724.521</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>41.03</v>
+        <v>41.965</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2.256</v>
@@ -3916,7 +3919,7 @@
         <v>1.188</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,13 +3927,13 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2390.475</v>
+        <v>2724.778</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>41.03</v>
+        <v>41.965</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>2.256</v>
@@ -3942,7 +3945,7 @@
         <v>1.188</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,13 +3953,13 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2390.475</v>
+        <v>2724.778</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>41.03</v>
+        <v>41.965</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>2.256</v>
@@ -3968,7 +3971,7 @@
         <v>1.188</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,13 +3979,13 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2390.475</v>
+        <v>2725.696</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>41.03</v>
+        <v>41.965</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>2.256</v>
@@ -3994,7 +3997,7 @@
         <v>1.188</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,13 +4005,13 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2390.475</v>
+        <v>2741.751</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>2.256</v>
@@ -4020,7 +4023,7 @@
         <v>1.188</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,13 +4031,13 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2390.475</v>
+        <v>2741.751</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>2.256</v>
@@ -4046,7 +4049,7 @@
         <v>1.188</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,13 +4057,13 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2390.475</v>
+        <v>2741.751</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>2.256</v>
@@ -4072,7 +4075,7 @@
         <v>1.188</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,13 +4083,13 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2391.191</v>
+        <v>2741.751</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>2.256</v>
@@ -4098,7 +4101,7 @@
         <v>1.188</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,13 +4109,13 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2391.191</v>
+        <v>2741.751</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>2.256</v>
@@ -4124,7 +4127,7 @@
         <v>1.188</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,13 +4135,13 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2391.191</v>
+        <v>2741.751</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>138.292</v>
+        <v>144.051</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>2.256</v>
@@ -4150,7 +4153,7 @@
         <v>1.188</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,13 +4161,13 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2391.225</v>
+        <v>2744.934</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>2.256</v>
@@ -4176,7 +4179,7 @@
         <v>1.188</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,13 +4187,13 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2391.255</v>
+        <v>2767.917</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>138.428</v>
+        <v>145.165</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>2.256</v>
@@ -4202,7 +4205,7 @@
         <v>1.188</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,13 +4213,13 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>2391.255</v>
+        <v>2770.446</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>2.256</v>
@@ -4228,7 +4231,7 @@
         <v>1.188</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,13 +4239,13 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2391.255</v>
+        <v>2770.446</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>2.256</v>
@@ -4254,7 +4257,7 @@
         <v>1.188</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,13 +4265,13 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2391.255</v>
+        <v>2770.446</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>2.256</v>
@@ -4280,7 +4283,7 @@
         <v>1.188</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,13 +4291,13 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2404.665</v>
+        <v>2770.446</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>2.256</v>
@@ -4306,7 +4309,7 @@
         <v>1.188</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,13 +4317,13 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2404.665</v>
+        <v>2770.752</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>2.256</v>
@@ -4332,7 +4335,7 @@
         <v>1.188</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,13 +4343,13 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>2404.665</v>
+        <v>2770.752</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>2.256</v>
@@ -4358,7 +4361,7 @@
         <v>1.188</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,13 +4369,13 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2404.665</v>
+        <v>2770.752</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>2.256</v>
@@ -4384,7 +4387,7 @@
         <v>1.188</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,13 +4395,13 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2404.779</v>
+        <v>2771.824</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>2.256</v>
@@ -4410,7 +4413,7 @@
         <v>1.188</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,13 +4421,13 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2404.779</v>
+        <v>2771.824</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>2.256</v>
@@ -4436,7 +4439,7 @@
         <v>1.188</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,13 +4447,13 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2405.069</v>
+        <v>2771.951</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>2.256</v>
@@ -4462,7 +4465,7 @@
         <v>1.188</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,13 +4473,13 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>2424.415</v>
+        <v>2789.241</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>2.256</v>
@@ -4488,7 +4491,7 @@
         <v>1.188</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,13 +4499,13 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2424.415</v>
+        <v>2811.081</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>2.256</v>
@@ -4514,7 +4517,7 @@
         <v>1.188</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,13 +4525,13 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2424.415</v>
+        <v>2815.751</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>138.428</v>
+        <v>151.112</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>2.256</v>
@@ -4540,7 +4543,7 @@
         <v>1.188</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,13 +4551,13 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>2424.676</v>
+        <v>2838.684</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>2.256</v>
@@ -4566,7 +4569,7 @@
         <v>1.188</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,13 +4577,13 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2424.676</v>
+        <v>2840.266</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>2.256</v>
@@ -4592,7 +4595,7 @@
         <v>1.188</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,13 +4603,13 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>2424.676</v>
+        <v>2840.531</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>2.256</v>
@@ -4618,7 +4621,7 @@
         <v>1.188</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,13 +4629,13 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>2424.91</v>
+        <v>2840.531</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>2.256</v>
@@ -4644,7 +4647,7 @@
         <v>1.188</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,13 +4655,13 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2425.41</v>
+        <v>2840.843</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>2.256</v>
@@ -4670,7 +4673,7 @@
         <v>1.188</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,13 +4681,13 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2436.402</v>
+        <v>2840.843</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>2.256</v>
@@ -4696,7 +4699,7 @@
         <v>1.188</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,13 +4707,13 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2436.402</v>
+        <v>2840.843</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>2.256</v>
@@ -4722,7 +4725,7 @@
         <v>1.188</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,13 +4733,13 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2436.402</v>
+        <v>2840.843</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>2.256</v>
@@ -4748,7 +4751,7 @@
         <v>1.188</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,13 +4759,13 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2436.402</v>
+        <v>2841.947</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>2.256</v>
@@ -4774,7 +4777,7 @@
         <v>1.188</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,13 +4785,13 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2436.696</v>
+        <v>2841.947</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>2.256</v>
@@ -4800,7 +4803,7 @@
         <v>1.188</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,13 +4811,13 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2445.158</v>
+        <v>2841.947</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>2.256</v>
@@ -4826,7 +4829,7 @@
         <v>1.188</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,13 +4837,13 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>2465.691</v>
+        <v>2841.947</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>2.256</v>
@@ -4852,7 +4855,7 @@
         <v>1.188</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,13 +4863,13 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2466.054</v>
+        <v>2842.039</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>2.256</v>
@@ -4878,7 +4881,7 @@
         <v>1.188</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,13 +4889,13 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>2466.054</v>
+        <v>2842.772</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>2.256</v>
@@ -4904,7 +4907,7 @@
         <v>1.188</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,13 +4915,13 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2466.054</v>
+        <v>2842.772</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>2.256</v>
@@ -4930,7 +4933,7 @@
         <v>1.188</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,13 +4941,13 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>2466.054</v>
+        <v>2842.772</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>2.256</v>
@@ -4956,7 +4959,7 @@
         <v>1.188</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,13 +4967,13 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2466.35</v>
+        <v>2842.772</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>2.256</v>
@@ -4982,7 +4985,7 @@
         <v>1.188</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,13 +4993,13 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2481.047</v>
+        <v>2842.772</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>2.256</v>
@@ -5008,7 +5011,7 @@
         <v>1.188</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,13 +5019,13 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>2481.047</v>
+        <v>2842.772</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>2.256</v>
@@ -5034,7 +5037,7 @@
         <v>1.188</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,13 +5045,13 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>2481.047</v>
+        <v>2842.772</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>138.428</v>
+        <v>157.472</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>2.256</v>
@@ -5060,7 +5063,7 @@
         <v>1.188</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,13 +5071,13 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>2481.047</v>
+        <v>2842.772</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>138.533</v>
+        <v>157.472</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>2.256</v>
@@ -5086,7 +5089,7 @@
         <v>1.188</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,13 +5097,13 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2488.615</v>
+        <v>2843.983</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>138.533</v>
+        <v>157.472</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>2.256</v>
@@ -5112,7 +5115,7 @@
         <v>1.188</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,13 +5123,13 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2511.577</v>
+        <v>2843.983</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>138.684</v>
+        <v>157.472</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>2.256</v>
@@ -5138,7 +5141,7 @@
         <v>1.188</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,13 +5149,13 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2513.267</v>
+        <v>2843.983</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>141.433</v>
+        <v>157.472</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>2.256</v>
@@ -5164,7 +5167,7 @@
         <v>1.188</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,13 +5175,13 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2513.267</v>
+        <v>2843.983</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>141.433</v>
+        <v>157.472</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>2.256</v>
@@ -5190,7 +5193,7 @@
         <v>1.188</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,13 +5201,13 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2534.144</v>
+        <v>2843.983</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>143.526</v>
+        <v>157.472</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>2.256</v>
@@ -5216,7 +5219,7 @@
         <v>1.188</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,13 +5227,13 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2549.388</v>
+        <v>2843.983</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>2.256</v>
@@ -5242,7 +5245,7 @@
         <v>1.188</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5250,13 +5253,13 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2549.592</v>
+        <v>2845.039</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>2.256</v>
@@ -5268,7 +5271,7 @@
         <v>1.188</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5276,13 +5279,13 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>2549.592</v>
+        <v>2845.039</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>2.256</v>
@@ -5294,7 +5297,7 @@
         <v>1.188</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,13 +5305,13 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>2549.592</v>
+        <v>2845.039</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>2.256</v>
@@ -5320,7 +5323,7 @@
         <v>1.188</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,13 +5331,13 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2557.769</v>
+        <v>2845.039</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>2.256</v>
@@ -5346,7 +5349,7 @@
         <v>1.188</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,13 +5357,13 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2557.769</v>
+        <v>2845.039</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>2.256</v>
@@ -5372,7 +5375,7 @@
         <v>1.188</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,13 +5383,13 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2571.571</v>
+        <v>2845.039</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>2.256</v>
@@ -5398,7 +5401,7 @@
         <v>1.188</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5406,13 +5409,13 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>2571.571</v>
+        <v>2845.039</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>2.256</v>
@@ -5424,7 +5427,7 @@
         <v>1.188</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,13 +5435,13 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>2571.571</v>
+        <v>2845.039</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>143.773</v>
+        <v>157.472</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>2.256</v>
@@ -5450,7 +5453,7 @@
         <v>1.188</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,13 +5461,13 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>2571.571</v>
+        <v>2862.022</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>143.773</v>
+        <v>157.518</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>41.607</v>
+        <v>41.965</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>2.256</v>
@@ -5476,7 +5479,7 @@
         <v>1.188</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5484,13 +5487,13 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2571.571</v>
+        <v>2862.034</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>143.773</v>
+        <v>157.619</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>41.607</v>
+        <v>41.965</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>2.256</v>
@@ -5502,7 +5505,7 @@
         <v>1.188</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,10 +5513,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>2571.571</v>
+        <v>2863.113</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>143.857</v>
+        <v>157.619</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>41.965</v>
@@ -5528,7 +5531,7 @@
         <v>1.188</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,10 +5539,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>2589.671</v>
+        <v>2863.113</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>143.857</v>
+        <v>157.619</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>41.965</v>
@@ -5554,7 +5557,7 @@
         <v>1.188</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,10 +5565,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>2589.671</v>
+        <v>2863.113</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>143.857</v>
+        <v>157.619</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>41.965</v>
@@ -5580,7 +5583,7 @@
         <v>1.188</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5588,10 +5591,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2608.252</v>
+        <v>2863.113</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>143.857</v>
+        <v>157.619</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>41.965</v>
@@ -5606,7 +5609,7 @@
         <v>1.188</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,10 +5617,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2608.252</v>
+        <v>2863.331</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>143.857</v>
+        <v>157.619</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>41.965</v>
@@ -5632,7 +5635,7 @@
         <v>1.188</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,10 +5643,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2608.252</v>
+        <v>2863.721</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>143.857</v>
+        <v>157.619</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>41.965</v>
@@ -5658,7 +5661,7 @@
         <v>1.188</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,10 +5669,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2608.252</v>
+        <v>2863.721</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>143.857</v>
+        <v>157.619</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>41.965</v>
@@ -5692,10 +5695,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>2608.252</v>
+        <v>2864.183</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>143.866</v>
+        <v>157.619</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>41.965</v>
@@ -5718,10 +5721,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>2608.252</v>
+        <v>2864.183</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>143.866</v>
+        <v>157.619</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>41.965</v>
@@ -5744,10 +5747,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>2631.12</v>
+        <v>2864.404</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>143.903</v>
+        <v>157.619</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>41.965</v>
@@ -5770,10 +5773,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2631.12</v>
+        <v>2864.404</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>143.903</v>
+        <v>157.619</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>41.965</v>
@@ -5796,10 +5799,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2631.12</v>
+        <v>2875.844</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>143.903</v>
+        <v>157.619</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>41.965</v>
@@ -5822,10 +5825,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2631.12</v>
+        <v>2875.844</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>143.903</v>
+        <v>157.619</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>41.965</v>
@@ -5848,10 +5851,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2631.12</v>
+        <v>2875.844</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>143.903</v>
+        <v>157.619</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>41.965</v>
@@ -5874,10 +5877,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>2631.12</v>
+        <v>2875.844</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>143.903</v>
+        <v>157.619</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>41.965</v>
@@ -5900,10 +5903,10 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>2631.13</v>
+        <v>2875.853</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>143.908</v>
+        <v>157.619</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>41.965</v>
@@ -5926,10 +5929,10 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>2644.788</v>
+        <v>2876.161</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>143.908</v>
+        <v>157.619</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>41.965</v>
@@ -5952,10 +5955,10 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>2644.788</v>
+        <v>2876.161</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>143.908</v>
+        <v>157.619</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>41.965</v>
@@ -5978,10 +5981,10 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2644.788</v>
+        <v>2876.397</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>143.908</v>
+        <v>157.619</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>41.965</v>
@@ -6004,10 +6007,10 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>2644.788</v>
+        <v>2886.936</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>41.965</v>
@@ -6030,10 +6033,10 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>2644.788</v>
+        <v>2887.492</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>41.965</v>
@@ -6056,10 +6059,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2644.788</v>
+        <v>2887.771</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>41.965</v>
@@ -6082,10 +6085,10 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2644.947</v>
+        <v>2887.771</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>41.965</v>
@@ -6108,10 +6111,10 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>2666.152</v>
+        <v>2887.771</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>41.965</v>
@@ -6134,10 +6137,10 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>2666.152</v>
+        <v>2888</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>41.965</v>
@@ -6160,10 +6163,10 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>2666.152</v>
+        <v>2888</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>41.965</v>
@@ -6186,10 +6189,10 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2666.152</v>
+        <v>2899.866</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>41.965</v>
@@ -6212,10 +6215,10 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2666.152</v>
+        <v>2899.866</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>41.965</v>
@@ -6238,10 +6241,10 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2666.152</v>
+        <v>2899.866</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>41.965</v>
@@ -6264,10 +6267,10 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2666.152</v>
+        <v>2899.866</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>143.908</v>
+        <v>157.782</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>41.965</v>
@@ -6290,10 +6293,10 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>2670.247</v>
+        <v>2899.866</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>144.043</v>
+        <v>157.782</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>41.965</v>
@@ -6302,7 +6305,7 @@
         <v>2.256</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>1.188</v>
@@ -6316,10 +6319,10 @@
         <v>219</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2685.354</v>
+        <v>2899.866</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>144.047</v>
+        <v>157.782</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>41.965</v>
@@ -6328,7 +6331,7 @@
         <v>2.256</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>1.188</v>
@@ -6342,10 +6345,10 @@
         <v>220</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>2685.354</v>
+        <v>2899.866</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>144.047</v>
+        <v>157.782</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>41.965</v>
@@ -6354,7 +6357,7 @@
         <v>2.256</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>1.188</v>
@@ -6364,14 +6367,30 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0"/>
-      <c r="B215" s="0"/>
-      <c r="C215" s="0"/>
-      <c r="D215" s="0"/>
-      <c r="E215" s="0"/>
-      <c r="F215" s="0"/>
-      <c r="G215" s="0"/>
-      <c r="H215" s="0"/>
+      <c r="A215" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>2899.866</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>157.782</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>42.191</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>3.563</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>1873.577</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,82 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-15 23:30:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-10 00:00:00 +0200</t>
+    <t xml:space="preserve">2023-05-10 23:30:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-11 00:00:00 +0200</t>
@@ -685,7 +610,82 @@
     <t xml:space="preserve">2023-12-03 00:00:00 +0100</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-03 10:11:30 +0100</t>
+    <t xml:space="preserve">2023-12-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-28 10:23:07 +0100</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C218" activeCellId="0" sqref="C218"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,10 +833,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2390.475</v>
+        <v>2436.402</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>41.278</v>
@@ -859,10 +859,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2390.475</v>
+        <v>2436.402</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>41.278</v>
@@ -885,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2391.191</v>
+        <v>2436.402</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>41.278</v>
@@ -911,10 +911,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2391.191</v>
+        <v>2436.402</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>41.278</v>
@@ -937,10 +937,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2391.191</v>
+        <v>2436.696</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>138.292</v>
+        <v>138.428</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>41.278</v>
@@ -963,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2391.225</v>
+        <v>2445.158</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>138.428</v>
@@ -989,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2391.255</v>
+        <v>2465.691</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>138.428</v>
@@ -1015,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2391.255</v>
+        <v>2466.054</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>138.428</v>
@@ -1041,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2391.255</v>
+        <v>2466.054</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>138.428</v>
@@ -1067,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2391.255</v>
+        <v>2466.054</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>138.428</v>
@@ -1093,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2404.665</v>
+        <v>2466.054</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>138.428</v>
@@ -1119,7 +1119,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2404.665</v>
+        <v>2466.35</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>138.428</v>
@@ -1145,7 +1145,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2404.665</v>
+        <v>2481.047</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>138.428</v>
@@ -1171,7 +1171,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2404.665</v>
+        <v>2481.047</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>138.428</v>
@@ -1197,7 +1197,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2404.779</v>
+        <v>2481.047</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>138.428</v>
@@ -1223,10 +1223,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2404.779</v>
+        <v>2481.047</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>138.428</v>
+        <v>138.533</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>41.278</v>
@@ -1249,10 +1249,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2405.069</v>
+        <v>2488.615</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>138.428</v>
+        <v>138.533</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>41.278</v>
@@ -1275,10 +1275,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2424.415</v>
+        <v>2511.577</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>138.428</v>
+        <v>138.684</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>41.278</v>
@@ -1301,10 +1301,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2424.415</v>
+        <v>2513.267</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>138.428</v>
+        <v>141.433</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>41.278</v>
@@ -1327,10 +1327,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2424.415</v>
+        <v>2513.267</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>138.428</v>
+        <v>141.433</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41.278</v>
@@ -1353,10 +1353,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2424.676</v>
+        <v>2534.144</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>138.428</v>
+        <v>143.526</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>41.278</v>
@@ -1379,10 +1379,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2424.676</v>
+        <v>2549.388</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>41.278</v>
@@ -1405,10 +1405,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2424.676</v>
+        <v>2549.592</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>41.278</v>
@@ -1431,10 +1431,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2424.91</v>
+        <v>2549.592</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>41.278</v>
@@ -1457,10 +1457,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2425.41</v>
+        <v>2549.592</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>41.278</v>
@@ -1483,10 +1483,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2436.402</v>
+        <v>2557.769</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>41.278</v>
@@ -1509,10 +1509,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2436.402</v>
+        <v>2557.769</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>41.278</v>
@@ -1535,10 +1535,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2436.402</v>
+        <v>2571.571</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>41.278</v>
@@ -1561,10 +1561,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2436.402</v>
+        <v>2571.571</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>41.278</v>
@@ -1587,10 +1587,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2436.696</v>
+        <v>2571.571</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>41.278</v>
@@ -1613,13 +1613,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2445.158</v>
+        <v>2571.571</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>41.278</v>
+        <v>41.607</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>2.256</v>
@@ -1639,13 +1639,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2465.691</v>
+        <v>2571.571</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>138.428</v>
+        <v>143.773</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>41.278</v>
+        <v>41.607</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>2.256</v>
@@ -1665,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2466.054</v>
+        <v>2571.571</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>2.256</v>
@@ -1691,13 +1691,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2466.054</v>
+        <v>2589.671</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>2.256</v>
@@ -1717,13 +1717,13 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2466.054</v>
+        <v>2589.671</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>2.256</v>
@@ -1743,13 +1743,13 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2466.054</v>
+        <v>2608.252</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2.256</v>
@@ -1769,13 +1769,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2466.35</v>
+        <v>2608.252</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2.256</v>
@@ -1795,13 +1795,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2481.047</v>
+        <v>2608.252</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>2.256</v>
@@ -1821,13 +1821,13 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2481.047</v>
+        <v>2608.252</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>138.428</v>
+        <v>143.857</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>2.256</v>
@@ -1839,7 +1839,7 @@
         <v>1.188</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,13 +1847,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2481.047</v>
+        <v>2608.252</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>138.428</v>
+        <v>143.866</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>2.256</v>
@@ -1865,7 +1865,7 @@
         <v>1.188</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,13 +1873,13 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2481.047</v>
+        <v>2608.252</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>138.533</v>
+        <v>143.866</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>2.256</v>
@@ -1891,7 +1891,7 @@
         <v>1.188</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,13 +1899,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2488.615</v>
+        <v>2631.12</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>138.533</v>
+        <v>143.903</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2.256</v>
@@ -1917,7 +1917,7 @@
         <v>1.188</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,13 +1925,13 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>2511.577</v>
+        <v>2631.12</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>138.684</v>
+        <v>143.903</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>2.256</v>
@@ -1943,7 +1943,7 @@
         <v>1.188</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,13 +1951,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2513.267</v>
+        <v>2631.12</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>141.433</v>
+        <v>143.903</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>2.256</v>
@@ -1969,7 +1969,7 @@
         <v>1.188</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,13 +1977,13 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2513.267</v>
+        <v>2631.12</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>141.433</v>
+        <v>143.903</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>2.256</v>
@@ -1995,7 +1995,7 @@
         <v>1.188</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,13 +2003,13 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>2534.144</v>
+        <v>2631.12</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>143.526</v>
+        <v>143.903</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>2.256</v>
@@ -2021,7 +2021,7 @@
         <v>1.188</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,13 +2029,13 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2549.388</v>
+        <v>2631.12</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>143.773</v>
+        <v>143.903</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>2.256</v>
@@ -2047,7 +2047,7 @@
         <v>1.188</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,13 +2055,13 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>2549.592</v>
+        <v>2631.13</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>2.256</v>
@@ -2073,7 +2073,7 @@
         <v>1.188</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,13 +2081,13 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2549.592</v>
+        <v>2644.788</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>2.256</v>
@@ -2099,7 +2099,7 @@
         <v>1.188</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,13 +2107,13 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2549.592</v>
+        <v>2644.788</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>2.256</v>
@@ -2125,7 +2125,7 @@
         <v>1.188</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,13 +2133,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2557.769</v>
+        <v>2644.788</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>2.256</v>
@@ -2151,7 +2151,7 @@
         <v>1.188</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,13 +2159,13 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2557.769</v>
+        <v>2644.788</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>2.256</v>
@@ -2177,7 +2177,7 @@
         <v>1.188</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,13 +2185,13 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2571.571</v>
+        <v>2644.788</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2.256</v>
@@ -2203,7 +2203,7 @@
         <v>1.188</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,13 +2211,13 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2571.571</v>
+        <v>2644.788</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2.256</v>
@@ -2229,7 +2229,7 @@
         <v>1.188</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,13 +2237,13 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2571.571</v>
+        <v>2644.947</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2.256</v>
@@ -2255,7 +2255,7 @@
         <v>1.188</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,13 +2263,13 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>2571.571</v>
+        <v>2666.152</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>41.607</v>
+        <v>41.965</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>2.256</v>
@@ -2281,7 +2281,7 @@
         <v>1.188</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,13 +2289,13 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2571.571</v>
+        <v>2666.152</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>143.773</v>
+        <v>143.908</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>41.607</v>
+        <v>41.965</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>2.256</v>
@@ -2307,7 +2307,7 @@
         <v>1.188</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,10 +2315,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2571.571</v>
+        <v>2666.152</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>143.857</v>
+        <v>143.908</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>41.965</v>
@@ -2333,7 +2333,7 @@
         <v>1.188</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2341,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2589.671</v>
+        <v>2666.152</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>143.857</v>
+        <v>143.908</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>41.965</v>
@@ -2359,7 +2359,7 @@
         <v>1.188</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,10 +2367,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2589.671</v>
+        <v>2666.152</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>143.857</v>
+        <v>143.908</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>41.965</v>
@@ -2385,7 +2385,7 @@
         <v>1.188</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,10 +2393,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2608.252</v>
+        <v>2666.152</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>143.857</v>
+        <v>143.908</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>41.965</v>
@@ -2411,7 +2411,7 @@
         <v>1.188</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,10 +2419,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2608.252</v>
+        <v>2666.152</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>143.857</v>
+        <v>143.908</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>41.965</v>
@@ -2437,7 +2437,7 @@
         <v>1.188</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,10 +2445,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2608.252</v>
+        <v>2670.247</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>143.857</v>
+        <v>144.043</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>41.965</v>
@@ -2463,7 +2463,7 @@
         <v>1.188</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,10 +2471,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2608.252</v>
+        <v>2685.354</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>143.857</v>
+        <v>144.047</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>41.965</v>
@@ -2497,10 +2497,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2608.252</v>
+        <v>2685.354</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>143.866</v>
+        <v>144.047</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>41.965</v>
@@ -2523,10 +2523,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2608.252</v>
+        <v>2685.354</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>143.866</v>
+        <v>144.047</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>41.965</v>
@@ -2549,10 +2549,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2631.12</v>
+        <v>2685.354</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>143.903</v>
+        <v>144.047</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>41.965</v>
@@ -2575,10 +2575,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2631.12</v>
+        <v>2694.587</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>143.903</v>
+        <v>144.047</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>41.965</v>
@@ -2601,10 +2601,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2631.12</v>
+        <v>2694.587</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>143.903</v>
+        <v>144.047</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>41.965</v>
@@ -2627,10 +2627,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2631.12</v>
+        <v>2694.587</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>143.903</v>
+        <v>144.047</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>41.965</v>
@@ -2653,10 +2653,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2631.12</v>
+        <v>2694.587</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>143.903</v>
+        <v>144.047</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>41.965</v>
@@ -2679,10 +2679,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2631.12</v>
+        <v>2694.69</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>143.903</v>
+        <v>144.047</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>41.965</v>
@@ -2705,10 +2705,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2631.13</v>
+        <v>2694.69</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>41.965</v>
@@ -2731,10 +2731,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2644.788</v>
+        <v>2695.301</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>41.965</v>
@@ -2757,10 +2757,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2644.788</v>
+        <v>2695.301</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>41.965</v>
@@ -2783,10 +2783,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2644.788</v>
+        <v>2695.301</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>41.965</v>
@@ -2809,10 +2809,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2644.788</v>
+        <v>2695.536</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>41.965</v>
@@ -2835,10 +2835,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2644.788</v>
+        <v>2695.536</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>41.965</v>
@@ -2861,10 +2861,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2644.788</v>
+        <v>2695.536</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>41.965</v>
@@ -2887,10 +2887,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2644.947</v>
+        <v>2696.432</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>41.965</v>
@@ -2913,10 +2913,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2666.152</v>
+        <v>2696.432</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>41.965</v>
@@ -2939,10 +2939,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2666.152</v>
+        <v>2703.447</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>143.908</v>
+        <v>144.047</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>41.965</v>
@@ -2965,10 +2965,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2666.152</v>
+        <v>2722.556</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>143.908</v>
+        <v>144.051</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>41.965</v>
@@ -2991,10 +2991,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2666.152</v>
+        <v>2723.47</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>143.908</v>
+        <v>144.051</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>41.965</v>
@@ -3017,10 +3017,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2666.152</v>
+        <v>2723.47</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>143.908</v>
+        <v>144.051</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>41.965</v>
@@ -3043,10 +3043,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2666.152</v>
+        <v>2723.47</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>143.908</v>
+        <v>144.051</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>41.965</v>
@@ -3069,10 +3069,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2666.152</v>
+        <v>2723.678</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>143.908</v>
+        <v>144.051</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>41.965</v>
@@ -3095,10 +3095,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2670.247</v>
+        <v>2723.678</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>144.043</v>
+        <v>144.051</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>41.965</v>
@@ -3121,10 +3121,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2685.354</v>
+        <v>2723.678</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>41.965</v>
@@ -3147,10 +3147,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2685.354</v>
+        <v>2723.678</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>41.965</v>
@@ -3173,10 +3173,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2685.354</v>
+        <v>2724.521</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>41.965</v>
@@ -3199,10 +3199,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2685.354</v>
+        <v>2724.521</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>41.965</v>
@@ -3225,10 +3225,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2694.587</v>
+        <v>2724.521</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>41.965</v>
@@ -3251,10 +3251,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2694.587</v>
+        <v>2724.521</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>41.965</v>
@@ -3277,10 +3277,10 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2694.587</v>
+        <v>2724.778</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>41.965</v>
@@ -3303,10 +3303,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2694.587</v>
+        <v>2724.778</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>41.965</v>
@@ -3329,10 +3329,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2694.69</v>
+        <v>2725.696</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>41.965</v>
@@ -3355,10 +3355,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2694.69</v>
+        <v>2741.751</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>41.965</v>
@@ -3381,10 +3381,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2695.301</v>
+        <v>2741.751</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>41.965</v>
@@ -3407,10 +3407,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2695.301</v>
+        <v>2741.751</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>41.965</v>
@@ -3433,10 +3433,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2695.301</v>
+        <v>2741.751</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>41.965</v>
@@ -3459,10 +3459,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2695.536</v>
+        <v>2741.751</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>41.965</v>
@@ -3485,10 +3485,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2695.536</v>
+        <v>2741.751</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>41.965</v>
@@ -3511,10 +3511,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2695.536</v>
+        <v>2744.934</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>144.047</v>
+        <v>144.051</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>41.965</v>
@@ -3537,10 +3537,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2696.432</v>
+        <v>2767.917</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>144.047</v>
+        <v>145.165</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>41.965</v>
@@ -3563,10 +3563,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2696.432</v>
+        <v>2770.446</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>144.047</v>
+        <v>151.112</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>41.965</v>
@@ -3589,10 +3589,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>2703.447</v>
+        <v>2770.446</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>144.047</v>
+        <v>151.112</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>41.965</v>
@@ -3615,10 +3615,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2722.556</v>
+        <v>2770.446</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>41.965</v>
@@ -3641,10 +3641,10 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2723.47</v>
+        <v>2770.446</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>41.965</v>
@@ -3667,10 +3667,10 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2723.47</v>
+        <v>2770.752</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>41.965</v>
@@ -3693,10 +3693,10 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2723.47</v>
+        <v>2770.752</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>41.965</v>
@@ -3719,10 +3719,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2723.678</v>
+        <v>2770.752</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>41.965</v>
@@ -3745,10 +3745,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2723.678</v>
+        <v>2771.824</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>41.965</v>
@@ -3771,10 +3771,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2723.678</v>
+        <v>2771.824</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>41.965</v>
@@ -3797,10 +3797,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2723.678</v>
+        <v>2771.951</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>41.965</v>
@@ -3823,10 +3823,10 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2724.521</v>
+        <v>2789.241</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>41.965</v>
@@ -3849,10 +3849,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2724.521</v>
+        <v>2811.081</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>41.965</v>
@@ -3875,10 +3875,10 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2724.521</v>
+        <v>2815.751</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>41.965</v>
@@ -3901,10 +3901,10 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2724.521</v>
+        <v>2838.684</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>41.965</v>
@@ -3927,10 +3927,10 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2724.778</v>
+        <v>2840.266</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>41.965</v>
@@ -3953,10 +3953,10 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2724.778</v>
+        <v>2840.531</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>41.965</v>
@@ -3979,10 +3979,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2725.696</v>
+        <v>2840.531</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>41.965</v>
@@ -4005,10 +4005,10 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2741.751</v>
+        <v>2840.843</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>41.965</v>
@@ -4031,10 +4031,10 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2741.751</v>
+        <v>2840.843</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>41.965</v>
@@ -4057,10 +4057,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2741.751</v>
+        <v>2840.843</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>41.965</v>
@@ -4083,10 +4083,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2741.751</v>
+        <v>2840.843</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>41.965</v>
@@ -4109,10 +4109,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2741.751</v>
+        <v>2841.947</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>41.965</v>
@@ -4135,10 +4135,10 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2741.751</v>
+        <v>2841.947</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>41.965</v>
@@ -4161,10 +4161,10 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2744.934</v>
+        <v>2841.947</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>41.965</v>
@@ -4187,10 +4187,10 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2767.917</v>
+        <v>2841.947</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>145.165</v>
+        <v>157.472</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>41.965</v>
@@ -4213,10 +4213,10 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.039</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>41.965</v>
@@ -4239,10 +4239,10 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>41.965</v>
@@ -4265,10 +4265,10 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>41.965</v>
@@ -4291,10 +4291,10 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>41.965</v>
@@ -4317,10 +4317,10 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2770.752</v>
+        <v>2842.772</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>41.965</v>
@@ -4343,10 +4343,10 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>2770.752</v>
+        <v>2842.772</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>41.965</v>
@@ -4369,10 +4369,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2770.752</v>
+        <v>2842.772</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>41.965</v>
@@ -4395,10 +4395,10 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2771.824</v>
+        <v>2842.772</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>41.965</v>
@@ -4421,10 +4421,10 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2771.824</v>
+        <v>2842.772</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>41.965</v>
@@ -4447,10 +4447,10 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2771.951</v>
+        <v>2843.983</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>41.965</v>
@@ -4473,10 +4473,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>2789.241</v>
+        <v>2843.983</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>41.965</v>
@@ -4499,10 +4499,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2811.081</v>
+        <v>2843.983</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>41.965</v>
@@ -4525,10 +4525,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2815.751</v>
+        <v>2843.983</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>41.965</v>
@@ -4551,7 +4551,7 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>2838.684</v>
+        <v>2843.983</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>157.472</v>
@@ -4577,7 +4577,7 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2840.266</v>
+        <v>2843.983</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>157.472</v>
@@ -4603,7 +4603,7 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>2840.531</v>
+        <v>2845.039</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>157.472</v>
@@ -4629,7 +4629,7 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>2840.531</v>
+        <v>2845.039</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>157.472</v>
@@ -4655,7 +4655,7 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>157.472</v>
@@ -4681,7 +4681,7 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>157.472</v>
@@ -4707,7 +4707,7 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>157.472</v>
@@ -4733,7 +4733,7 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>157.472</v>
@@ -4759,7 +4759,7 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2841.947</v>
+        <v>2845.039</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>157.472</v>
@@ -4785,7 +4785,7 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2841.947</v>
+        <v>2845.039</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>157.472</v>
@@ -4811,10 +4811,10 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2841.947</v>
+        <v>2862.022</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>157.472</v>
+        <v>157.518</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>41.965</v>
@@ -4837,10 +4837,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>2841.947</v>
+        <v>2862.034</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>41.965</v>
@@ -4863,10 +4863,10 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2842.039</v>
+        <v>2863.113</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>41.965</v>
@@ -4889,10 +4889,10 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.113</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>41.965</v>
@@ -4915,10 +4915,10 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.113</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>41.965</v>
@@ -4941,10 +4941,10 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.113</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>41.965</v>
@@ -4967,10 +4967,10 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.331</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>41.965</v>
@@ -4993,10 +4993,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.721</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>41.965</v>
@@ -5019,10 +5019,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.721</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>41.965</v>
@@ -5045,10 +5045,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.183</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>41.965</v>
@@ -5071,10 +5071,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.183</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>41.965</v>
@@ -5097,10 +5097,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2843.983</v>
+        <v>2864.404</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>41.965</v>
@@ -5123,10 +5123,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2843.983</v>
+        <v>2864.404</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>41.965</v>
@@ -5149,10 +5149,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>41.965</v>
@@ -5175,10 +5175,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>41.965</v>
@@ -5201,10 +5201,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>41.965</v>
@@ -5227,10 +5227,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>41.965</v>
@@ -5253,10 +5253,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2845.039</v>
+        <v>2875.853</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>41.965</v>
@@ -5279,10 +5279,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>2845.039</v>
+        <v>2876.161</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>41.965</v>
@@ -5305,10 +5305,10 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>2845.039</v>
+        <v>2876.161</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>41.965</v>
@@ -5331,10 +5331,10 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2845.039</v>
+        <v>2876.397</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>41.965</v>
@@ -5357,10 +5357,10 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2845.039</v>
+        <v>2886.936</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>41.965</v>
@@ -5383,10 +5383,10 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.492</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>41.965</v>
@@ -5409,10 +5409,10 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.771</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>41.965</v>
@@ -5435,10 +5435,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.771</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>41.965</v>
@@ -5461,10 +5461,10 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>2862.022</v>
+        <v>2887.771</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>157.518</v>
+        <v>157.782</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>41.965</v>
@@ -5487,10 +5487,10 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2862.034</v>
+        <v>2888</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>41.965</v>
@@ -5513,10 +5513,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>2863.113</v>
+        <v>2888</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>41.965</v>
@@ -5539,10 +5539,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>41.965</v>
@@ -5565,10 +5565,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>41.965</v>
@@ -5591,10 +5591,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>41.965</v>
@@ -5617,10 +5617,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2863.331</v>
+        <v>2899.866</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>41.965</v>
@@ -5643,10 +5643,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2863.721</v>
+        <v>2899.866</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>41.965</v>
@@ -5655,7 +5655,7 @@
         <v>2.256</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G187" s="0" t="n">
         <v>1.188</v>
@@ -5669,10 +5669,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2863.721</v>
+        <v>2899.866</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>41.965</v>
@@ -5681,7 +5681,7 @@
         <v>2.256</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G188" s="0" t="n">
         <v>1.188</v>
@@ -5695,10 +5695,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>2864.183</v>
+        <v>2899.866</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>41.965</v>
@@ -5707,7 +5707,7 @@
         <v>2.256</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G189" s="0" t="n">
         <v>1.188</v>
@@ -5721,19 +5721,19 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>2864.183</v>
+        <v>2899.866</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>1.188</v>
@@ -5747,19 +5747,19 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>2864.404</v>
+        <v>2899.866</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>1.188</v>
@@ -5773,19 +5773,19 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2864.404</v>
+        <v>2900.388</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>1.188</v>
@@ -5799,19 +5799,19 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2875.844</v>
+        <v>2900.388</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G193" s="0" t="n">
         <v>1.188</v>
@@ -5825,19 +5825,19 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2875.844</v>
+        <v>2900.388</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G194" s="0" t="n">
         <v>1.188</v>
@@ -5851,19 +5851,19 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2875.844</v>
+        <v>2900.388</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>41.965</v>
+        <v>42.416</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>1.188</v>
@@ -5877,19 +5877,19 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>2875.844</v>
+        <v>2900.388</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>157.619</v>
+        <v>157.835</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>1.188</v>
@@ -5903,19 +5903,19 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>2875.853</v>
+        <v>2912.717</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>1.188</v>
@@ -5929,19 +5929,19 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>2876.161</v>
+        <v>2924.242</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>1.188</v>
@@ -5955,19 +5955,19 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>2876.161</v>
+        <v>2924.242</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>1.188</v>
@@ -5981,19 +5981,19 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2876.397</v>
+        <v>2924.242</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>1.188</v>
@@ -6007,19 +6007,19 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>2886.936</v>
+        <v>2924.242</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>1.188</v>
@@ -6033,19 +6033,19 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>2887.492</v>
+        <v>2924.242</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G202" s="0" t="n">
         <v>1.188</v>
@@ -6059,19 +6059,19 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2887.771</v>
+        <v>2924.242</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>1.188</v>
@@ -6085,19 +6085,19 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2887.771</v>
+        <v>2931.72</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>1.188</v>
@@ -6111,19 +6111,19 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>2887.771</v>
+        <v>2950.048</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G205" s="0" t="n">
         <v>1.188</v>
@@ -6137,19 +6137,19 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>2888</v>
+        <v>2950.048</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>1.188</v>
@@ -6163,19 +6163,19 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>2888</v>
+        <v>2950.048</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>1.188</v>
@@ -6189,19 +6189,19 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2899.866</v>
+        <v>2950.356</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>1.188</v>
@@ -6215,19 +6215,19 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2899.866</v>
+        <v>2950.356</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>1.188</v>
@@ -6241,19 +6241,19 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2899.866</v>
+        <v>2963.804</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>1.188</v>
@@ -6267,19 +6267,19 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2899.866</v>
+        <v>2963.804</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>1.188</v>
@@ -6293,19 +6293,19 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>2899.866</v>
+        <v>2963.804</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>3.311</v>
+        <v>3.793</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>1.188</v>
@@ -6319,19 +6319,19 @@
         <v>219</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2899.866</v>
+        <v>2971.367</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>3.311</v>
+        <v>3.793</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>1.188</v>
@@ -6345,19 +6345,19 @@
         <v>220</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>2899.866</v>
+        <v>2980.453</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>1.188</v>
@@ -6371,19 +6371,19 @@
         <v>221</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>1.188</v>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,234 +46,6 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-10 23:30:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-31 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-13 23:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-04 19:32:42 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-08 20:30:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-31 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-13 00:00:00 +0200</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-08-14 00:00:00 +0200</t>
   </si>
   <si>
@@ -685,7 +457,223 @@
     <t xml:space="preserve">2023-12-28 00:00:00 +0100</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-28 10:23:07 +0100</t>
+    <t xml:space="preserve">2023-12-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-01 11:19:32 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-08 19:40:55 +0200</t>
   </si>
 </sst>
 </file>
@@ -786,10 +774,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H213" activeCellId="0" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2436.402</v>
+        <v>2695.536</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>138.428</v>
+        <v>144.047</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2.256</v>
@@ -851,7 +839,7 @@
         <v>1.188</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2436.402</v>
+        <v>2695.536</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>138.428</v>
+        <v>144.047</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2.256</v>
@@ -877,7 +865,7 @@
         <v>1.188</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2436.402</v>
+        <v>2695.536</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>138.428</v>
+        <v>144.047</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2.256</v>
@@ -903,7 +891,7 @@
         <v>1.188</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2436.402</v>
+        <v>2696.432</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>138.428</v>
+        <v>144.047</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2.256</v>
@@ -929,7 +917,7 @@
         <v>1.188</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2436.696</v>
+        <v>2696.432</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>138.428</v>
+        <v>144.047</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2.256</v>
@@ -955,7 +943,7 @@
         <v>1.188</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2445.158</v>
+        <v>2703.447</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>138.428</v>
+        <v>144.047</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2.256</v>
@@ -981,7 +969,7 @@
         <v>1.188</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2465.691</v>
+        <v>2722.556</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2.256</v>
@@ -1007,7 +995,7 @@
         <v>1.188</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2466.054</v>
+        <v>2723.47</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2.256</v>
@@ -1033,7 +1021,7 @@
         <v>1.188</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2466.054</v>
+        <v>2723.47</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2.256</v>
@@ -1059,7 +1047,7 @@
         <v>1.188</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2466.054</v>
+        <v>2723.47</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2.256</v>
@@ -1085,7 +1073,7 @@
         <v>1.188</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2466.054</v>
+        <v>2723.678</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>2.256</v>
@@ -1111,7 +1099,7 @@
         <v>1.188</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,13 +1107,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2466.35</v>
+        <v>2723.678</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>2.256</v>
@@ -1137,7 +1125,7 @@
         <v>1.188</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,13 +1133,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2481.047</v>
+        <v>2723.678</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>2.256</v>
@@ -1163,7 +1151,7 @@
         <v>1.188</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,13 +1159,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2481.047</v>
+        <v>2723.678</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2.256</v>
@@ -1189,7 +1177,7 @@
         <v>1.188</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,13 +1185,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2481.047</v>
+        <v>2724.521</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>138.428</v>
+        <v>144.051</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>2.256</v>
@@ -1215,7 +1203,7 @@
         <v>1.188</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,13 +1211,13 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2481.047</v>
+        <v>2724.521</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>138.533</v>
+        <v>144.051</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>2.256</v>
@@ -1241,7 +1229,7 @@
         <v>1.188</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,13 +1237,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2488.615</v>
+        <v>2724.521</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>138.533</v>
+        <v>144.051</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2.256</v>
@@ -1267,7 +1255,7 @@
         <v>1.188</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,13 +1263,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2511.577</v>
+        <v>2724.521</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>138.684</v>
+        <v>144.051</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2.256</v>
@@ -1293,7 +1281,7 @@
         <v>1.188</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,13 +1289,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2513.267</v>
+        <v>2724.778</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>141.433</v>
+        <v>144.051</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2.256</v>
@@ -1319,7 +1307,7 @@
         <v>1.188</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2513.267</v>
+        <v>2724.778</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>141.433</v>
+        <v>144.051</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2.256</v>
@@ -1345,7 +1333,7 @@
         <v>1.188</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,13 +1341,13 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2534.144</v>
+        <v>2725.696</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>143.526</v>
+        <v>144.051</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2.256</v>
@@ -1371,7 +1359,7 @@
         <v>1.188</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,13 +1367,13 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2549.388</v>
+        <v>2741.751</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>143.773</v>
+        <v>144.051</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>2.256</v>
@@ -1397,7 +1385,7 @@
         <v>1.188</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,13 +1393,13 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2549.592</v>
+        <v>2741.751</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>143.773</v>
+        <v>144.051</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2.256</v>
@@ -1423,7 +1411,7 @@
         <v>1.188</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,13 +1419,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2549.592</v>
+        <v>2741.751</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>143.773</v>
+        <v>144.051</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2.256</v>
@@ -1449,7 +1437,7 @@
         <v>1.188</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,13 +1445,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2549.592</v>
+        <v>2741.751</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>143.773</v>
+        <v>144.051</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2.256</v>
@@ -1475,7 +1463,7 @@
         <v>1.188</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,13 +1471,13 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2557.769</v>
+        <v>2741.751</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>143.773</v>
+        <v>144.051</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>2.256</v>
@@ -1501,7 +1489,7 @@
         <v>1.188</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,13 +1497,13 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2557.769</v>
+        <v>2741.751</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>143.773</v>
+        <v>144.051</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2.256</v>
@@ -1527,7 +1515,7 @@
         <v>1.188</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,13 +1523,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2571.571</v>
+        <v>2744.934</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>143.773</v>
+        <v>144.051</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>2.256</v>
@@ -1553,7 +1541,7 @@
         <v>1.188</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,13 +1549,13 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2571.571</v>
+        <v>2767.917</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>143.773</v>
+        <v>145.165</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2.256</v>
@@ -1579,7 +1567,7 @@
         <v>1.188</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,13 +1575,13 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2571.571</v>
+        <v>2770.446</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>143.773</v>
+        <v>151.112</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>41.278</v>
+        <v>41.965</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2.256</v>
@@ -1605,7 +1593,7 @@
         <v>1.188</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,13 +1601,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2571.571</v>
+        <v>2770.446</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>143.773</v>
+        <v>151.112</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>41.607</v>
+        <v>41.965</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>2.256</v>
@@ -1631,7 +1619,7 @@
         <v>1.188</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,13 +1627,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2571.571</v>
+        <v>2770.446</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>143.773</v>
+        <v>151.112</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>41.607</v>
+        <v>41.965</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>2.256</v>
@@ -1657,7 +1645,7 @@
         <v>1.188</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,10 +1653,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2571.571</v>
+        <v>2770.446</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>143.857</v>
+        <v>151.112</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>41.965</v>
@@ -1683,7 +1671,7 @@
         <v>1.188</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,10 +1679,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2589.671</v>
+        <v>2770.752</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>143.857</v>
+        <v>151.112</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>41.965</v>
@@ -1709,7 +1697,7 @@
         <v>1.188</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,10 +1705,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2589.671</v>
+        <v>2770.752</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>143.857</v>
+        <v>151.112</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>41.965</v>
@@ -1735,7 +1723,7 @@
         <v>1.188</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,10 +1731,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2608.252</v>
+        <v>2770.752</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>143.857</v>
+        <v>151.112</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>41.965</v>
@@ -1761,7 +1749,7 @@
         <v>1.188</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,10 +1757,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2608.252</v>
+        <v>2771.824</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>143.857</v>
+        <v>151.112</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>41.965</v>
@@ -1787,7 +1775,7 @@
         <v>1.188</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,10 +1783,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2608.252</v>
+        <v>2771.824</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>143.857</v>
+        <v>151.112</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>41.965</v>
@@ -1813,7 +1801,7 @@
         <v>1.188</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1856.046</v>
+        <v>1873.577</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,10 +1809,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2608.252</v>
+        <v>2771.951</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>143.857</v>
+        <v>151.112</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>41.965</v>
@@ -1847,10 +1835,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2608.252</v>
+        <v>2789.241</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>143.866</v>
+        <v>151.112</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>41.965</v>
@@ -1873,10 +1861,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2608.252</v>
+        <v>2811.081</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>143.866</v>
+        <v>151.112</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>41.965</v>
@@ -1899,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2631.12</v>
+        <v>2815.751</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>143.903</v>
+        <v>151.112</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>41.965</v>
@@ -1925,10 +1913,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>2631.12</v>
+        <v>2838.684</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>143.903</v>
+        <v>157.472</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>41.965</v>
@@ -1951,10 +1939,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2631.12</v>
+        <v>2840.266</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>143.903</v>
+        <v>157.472</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>41.965</v>
@@ -1977,10 +1965,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2631.12</v>
+        <v>2840.531</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>143.903</v>
+        <v>157.472</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>41.965</v>
@@ -2003,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>2631.12</v>
+        <v>2840.531</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>143.903</v>
+        <v>157.472</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>41.965</v>
@@ -2029,10 +2017,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2631.12</v>
+        <v>2840.843</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>143.903</v>
+        <v>157.472</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>41.965</v>
@@ -2055,10 +2043,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>2631.13</v>
+        <v>2840.843</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>41.965</v>
@@ -2081,10 +2069,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2644.788</v>
+        <v>2840.843</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>41.965</v>
@@ -2107,10 +2095,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2644.788</v>
+        <v>2840.843</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>41.965</v>
@@ -2133,10 +2121,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2644.788</v>
+        <v>2841.947</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>41.965</v>
@@ -2159,10 +2147,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2644.788</v>
+        <v>2841.947</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>41.965</v>
@@ -2185,10 +2173,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2644.788</v>
+        <v>2841.947</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>41.965</v>
@@ -2211,10 +2199,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2644.788</v>
+        <v>2841.947</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>41.965</v>
@@ -2237,10 +2225,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2644.947</v>
+        <v>2842.039</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>41.965</v>
@@ -2263,10 +2251,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>2666.152</v>
+        <v>2842.772</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>41.965</v>
@@ -2289,10 +2277,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2666.152</v>
+        <v>2842.772</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>41.965</v>
@@ -2315,10 +2303,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2666.152</v>
+        <v>2842.772</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>41.965</v>
@@ -2341,10 +2329,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2666.152</v>
+        <v>2842.772</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>41.965</v>
@@ -2367,10 +2355,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2666.152</v>
+        <v>2842.772</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>41.965</v>
@@ -2393,10 +2381,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2666.152</v>
+        <v>2842.772</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>41.965</v>
@@ -2419,10 +2407,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2666.152</v>
+        <v>2842.772</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>143.908</v>
+        <v>157.472</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>41.965</v>
@@ -2445,10 +2433,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2670.247</v>
+        <v>2842.772</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>144.043</v>
+        <v>157.472</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>41.965</v>
@@ -2471,10 +2459,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2685.354</v>
+        <v>2843.983</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>41.965</v>
@@ -2497,10 +2485,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2685.354</v>
+        <v>2843.983</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>41.965</v>
@@ -2523,10 +2511,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2685.354</v>
+        <v>2843.983</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>41.965</v>
@@ -2549,10 +2537,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2685.354</v>
+        <v>2843.983</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>41.965</v>
@@ -2575,10 +2563,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2694.587</v>
+        <v>2843.983</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>41.965</v>
@@ -2601,10 +2589,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2694.587</v>
+        <v>2843.983</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>41.965</v>
@@ -2627,10 +2615,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2694.587</v>
+        <v>2845.039</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>41.965</v>
@@ -2653,10 +2641,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2694.587</v>
+        <v>2845.039</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>41.965</v>
@@ -2679,10 +2667,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2694.69</v>
+        <v>2845.039</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>41.965</v>
@@ -2705,10 +2693,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2694.69</v>
+        <v>2845.039</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>41.965</v>
@@ -2731,10 +2719,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2695.301</v>
+        <v>2845.039</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>41.965</v>
@@ -2757,10 +2745,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2695.301</v>
+        <v>2845.039</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>41.965</v>
@@ -2783,10 +2771,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2695.301</v>
+        <v>2845.039</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>41.965</v>
@@ -2809,10 +2797,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2695.536</v>
+        <v>2845.039</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>144.047</v>
+        <v>157.472</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>41.965</v>
@@ -2835,10 +2823,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2695.536</v>
+        <v>2862.022</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>144.047</v>
+        <v>157.518</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>41.965</v>
@@ -2861,10 +2849,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2695.536</v>
+        <v>2862.034</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>144.047</v>
+        <v>157.619</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>41.965</v>
@@ -2887,10 +2875,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2696.432</v>
+        <v>2863.113</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>144.047</v>
+        <v>157.619</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>41.965</v>
@@ -2913,10 +2901,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2696.432</v>
+        <v>2863.113</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>144.047</v>
+        <v>157.619</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>41.965</v>
@@ -2939,10 +2927,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2703.447</v>
+        <v>2863.113</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>144.047</v>
+        <v>157.619</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>41.965</v>
@@ -2965,10 +2953,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2722.556</v>
+        <v>2863.113</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>41.965</v>
@@ -2991,10 +2979,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2723.47</v>
+        <v>2863.331</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>41.965</v>
@@ -3017,10 +3005,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2723.47</v>
+        <v>2863.721</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>41.965</v>
@@ -3043,10 +3031,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2723.47</v>
+        <v>2863.721</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>41.965</v>
@@ -3069,10 +3057,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2723.678</v>
+        <v>2864.183</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>41.965</v>
@@ -3095,10 +3083,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2723.678</v>
+        <v>2864.183</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>41.965</v>
@@ -3121,10 +3109,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2723.678</v>
+        <v>2864.404</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>41.965</v>
@@ -3147,10 +3135,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2723.678</v>
+        <v>2864.404</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>41.965</v>
@@ -3173,10 +3161,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2724.521</v>
+        <v>2875.844</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>41.965</v>
@@ -3199,10 +3187,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2724.521</v>
+        <v>2875.844</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>41.965</v>
@@ -3225,10 +3213,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2724.521</v>
+        <v>2875.844</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>41.965</v>
@@ -3251,10 +3239,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2724.521</v>
+        <v>2875.844</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>41.965</v>
@@ -3277,10 +3265,10 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2724.778</v>
+        <v>2875.853</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>41.965</v>
@@ -3303,10 +3291,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2724.778</v>
+        <v>2876.161</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>41.965</v>
@@ -3329,10 +3317,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2725.696</v>
+        <v>2876.161</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>41.965</v>
@@ -3355,10 +3343,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2741.751</v>
+        <v>2876.397</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>144.051</v>
+        <v>157.619</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>41.965</v>
@@ -3381,10 +3369,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2741.751</v>
+        <v>2886.936</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>144.051</v>
+        <v>157.782</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>41.965</v>
@@ -3407,10 +3395,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2741.751</v>
+        <v>2887.492</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>144.051</v>
+        <v>157.782</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>41.965</v>
@@ -3433,10 +3421,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2741.751</v>
+        <v>2887.771</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>144.051</v>
+        <v>157.782</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>41.965</v>
@@ -3459,10 +3447,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2741.751</v>
+        <v>2887.771</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>144.051</v>
+        <v>157.782</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>41.965</v>
@@ -3485,10 +3473,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2741.751</v>
+        <v>2887.771</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>144.051</v>
+        <v>157.782</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>41.965</v>
@@ -3511,10 +3499,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2744.934</v>
+        <v>2888</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>144.051</v>
+        <v>157.782</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>41.965</v>
@@ -3537,10 +3525,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2767.917</v>
+        <v>2888</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>145.165</v>
+        <v>157.782</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>41.965</v>
@@ -3563,10 +3551,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2770.446</v>
+        <v>2899.866</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>41.965</v>
@@ -3589,10 +3577,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>2770.446</v>
+        <v>2899.866</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>41.965</v>
@@ -3615,10 +3603,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2770.446</v>
+        <v>2899.866</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>41.965</v>
@@ -3641,10 +3629,10 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2770.446</v>
+        <v>2899.866</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>41.965</v>
@@ -3667,10 +3655,10 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2770.752</v>
+        <v>2899.866</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>41.965</v>
@@ -3679,7 +3667,7 @@
         <v>2.256</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>1.188</v>
@@ -3693,10 +3681,10 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2770.752</v>
+        <v>2899.866</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>41.965</v>
@@ -3705,7 +3693,7 @@
         <v>2.256</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>1.188</v>
@@ -3719,10 +3707,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2770.752</v>
+        <v>2899.866</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>41.965</v>
@@ -3731,7 +3719,7 @@
         <v>2.256</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>1.188</v>
@@ -3745,19 +3733,19 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2771.824</v>
+        <v>2899.866</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>1.188</v>
@@ -3771,19 +3759,19 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2771.824</v>
+        <v>2899.866</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>1.188</v>
@@ -3797,19 +3785,19 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2771.951</v>
+        <v>2900.388</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>1.188</v>
@@ -3823,19 +3811,19 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2789.241</v>
+        <v>2900.388</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>1.188</v>
@@ -3849,19 +3837,19 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2811.081</v>
+        <v>2900.388</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G118" s="0" t="n">
         <v>1.188</v>
@@ -3875,19 +3863,19 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2815.751</v>
+        <v>2900.388</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>151.112</v>
+        <v>157.782</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>41.965</v>
+        <v>42.416</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>1.188</v>
@@ -3901,19 +3889,19 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2838.684</v>
+        <v>2900.388</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>157.472</v>
+        <v>157.835</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>1.188</v>
@@ -3927,19 +3915,19 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2840.266</v>
+        <v>2912.717</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>1.188</v>
@@ -3953,19 +3941,19 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2840.531</v>
+        <v>2924.242</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>1.188</v>
@@ -3979,19 +3967,19 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2840.531</v>
+        <v>2924.242</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G123" s="0" t="n">
         <v>1.188</v>
@@ -4005,19 +3993,19 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2840.843</v>
+        <v>2924.242</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>1.188</v>
@@ -4031,19 +4019,19 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2840.843</v>
+        <v>2924.242</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G125" s="0" t="n">
         <v>1.188</v>
@@ -4057,19 +4045,19 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2840.843</v>
+        <v>2924.242</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G126" s="0" t="n">
         <v>1.188</v>
@@ -4083,19 +4071,19 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2840.843</v>
+        <v>2924.242</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G127" s="0" t="n">
         <v>1.188</v>
@@ -4109,19 +4097,19 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2841.947</v>
+        <v>2931.72</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G128" s="0" t="n">
         <v>1.188</v>
@@ -4135,19 +4123,19 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2841.947</v>
+        <v>2950.048</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G129" s="0" t="n">
         <v>1.188</v>
@@ -4161,19 +4149,19 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2841.947</v>
+        <v>2950.048</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>1.188</v>
@@ -4187,19 +4175,19 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2841.947</v>
+        <v>2950.048</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>1.188</v>
@@ -4213,19 +4201,19 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>2842.039</v>
+        <v>2950.356</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>1.188</v>
@@ -4239,19 +4227,19 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2842.772</v>
+        <v>2950.356</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>1.188</v>
@@ -4265,19 +4253,19 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2842.772</v>
+        <v>2963.804</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>1.188</v>
@@ -4291,19 +4279,19 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2842.772</v>
+        <v>2963.804</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>1.188</v>
@@ -4317,19 +4305,19 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2842.772</v>
+        <v>2963.804</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G136" s="0" t="n">
         <v>1.188</v>
@@ -4343,19 +4331,19 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>2842.772</v>
+        <v>2971.367</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G137" s="0" t="n">
         <v>1.188</v>
@@ -4369,19 +4357,19 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2842.772</v>
+        <v>2980.453</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G138" s="0" t="n">
         <v>1.188</v>
@@ -4395,19 +4383,19 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2842.772</v>
+        <v>2997.787</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G139" s="0" t="n">
         <v>1.188</v>
@@ -4421,19 +4409,19 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2842.772</v>
+        <v>2997.787</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G140" s="0" t="n">
         <v>1.188</v>
@@ -4447,19 +4435,19 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2843.983</v>
+        <v>2997.787</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G141" s="0" t="n">
         <v>1.188</v>
@@ -4473,19 +4461,19 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>2843.983</v>
+        <v>2997.787</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>1.188</v>
@@ -4499,19 +4487,19 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2843.983</v>
+        <v>2997.787</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>1.188</v>
@@ -4525,19 +4513,19 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2843.983</v>
+        <v>2997.787</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>1.188</v>
@@ -4551,19 +4539,19 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>2843.983</v>
+        <v>2997.787</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>1.188</v>
@@ -4577,19 +4565,19 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2843.983</v>
+        <v>2997.787</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>1.188</v>
@@ -4603,19 +4591,19 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>2845.039</v>
+        <v>2997.787</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>1.188</v>
@@ -4629,19 +4617,19 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>2845.039</v>
+        <v>2997.787</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>1.188</v>
@@ -4655,19 +4643,19 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2845.039</v>
+        <v>2997.937</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>1.188</v>
@@ -4681,19 +4669,19 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2845.039</v>
+        <v>2997.937</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>1.188</v>
@@ -4707,19 +4695,19 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2845.039</v>
+        <v>2997.937</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>2.942</v>
+        <v>4.549</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>1.188</v>
@@ -4733,19 +4721,19 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2845.039</v>
+        <v>2997.937</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>1.188</v>
@@ -4759,19 +4747,19 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2845.039</v>
+        <v>2997.937</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>1.188</v>
@@ -4785,19 +4773,19 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2845.039</v>
+        <v>2997.937</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>1.188</v>
@@ -4811,19 +4799,19 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2862.022</v>
+        <v>2997.937</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>157.518</v>
+        <v>164.049</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>1.188</v>
@@ -4837,19 +4825,19 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>2862.034</v>
+        <v>3005.43</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>1.188</v>
@@ -4863,19 +4851,19 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2863.113</v>
+        <v>3010.782</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G157" s="0" t="n">
         <v>1.188</v>
@@ -4889,19 +4877,19 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>2863.113</v>
+        <v>3010.782</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G158" s="0" t="n">
         <v>1.188</v>
@@ -4915,19 +4903,19 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>2863.113</v>
+        <v>3010.782</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G159" s="0" t="n">
         <v>1.188</v>
@@ -4941,19 +4929,19 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>2863.113</v>
+        <v>3010.782</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>2.942</v>
+        <v>5.216</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>1.188</v>
@@ -4967,19 +4955,19 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>2863.331</v>
+        <v>3010.782</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>1.188</v>
@@ -4993,19 +4981,19 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2863.721</v>
+        <v>3010.782</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>1.188</v>
@@ -5019,19 +5007,19 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>2863.721</v>
+        <v>3018.213</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G163" s="0" t="n">
         <v>1.188</v>
@@ -5045,19 +5033,19 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>2864.183</v>
+        <v>3027.483</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G164" s="0" t="n">
         <v>1.188</v>
@@ -5071,19 +5059,19 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>2864.183</v>
+        <v>3037.77</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>1.188</v>
@@ -5097,19 +5085,19 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>2864.404</v>
+        <v>3037.77</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>1.188</v>
@@ -5123,19 +5111,19 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2864.404</v>
+        <v>3037.77</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G167" s="0" t="n">
         <v>1.188</v>
@@ -5149,19 +5137,19 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>2875.844</v>
+        <v>3037.77</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>41.965</v>
+        <v>43.979</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G168" s="0" t="n">
         <v>1.188</v>
@@ -5175,19 +5163,19 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>2875.844</v>
+        <v>3045.333</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>41.965</v>
+        <v>43.979</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>1.188</v>
@@ -5201,19 +5189,19 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>2875.844</v>
+        <v>3067.38</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>41.965</v>
+        <v>43.979</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>1.188</v>
@@ -5227,19 +5215,19 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2875.844</v>
+        <v>3067.38</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>41.965</v>
+        <v>44.017</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>1.188</v>
@@ -5253,25 +5241,25 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2875.853</v>
+        <v>3067.38</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G172" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,25 +5267,25 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>2876.161</v>
+        <v>3067.38</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G173" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,25 +5293,25 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>2876.161</v>
+        <v>3067.856</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G174" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,25 +5319,25 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2876.397</v>
+        <v>3068.084</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G175" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,25 +5345,25 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2886.936</v>
+        <v>3068.314</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G176" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,25 +5371,25 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2887.492</v>
+        <v>3068.314</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G177" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,25 +5397,25 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>2887.771</v>
+        <v>3068.314</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>2.942</v>
+        <v>5.69</v>
       </c>
       <c r="G178" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,25 +5423,25 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>2887.771</v>
+        <v>3068.314</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>2.942</v>
+        <v>5.918</v>
       </c>
       <c r="G179" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5461,25 +5449,25 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>2887.771</v>
+        <v>3068.314</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>2.942</v>
+        <v>5.918</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,25 +5475,25 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2888</v>
+        <v>3068.314</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>2.942</v>
+        <v>5.918</v>
       </c>
       <c r="G181" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,25 +5501,25 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>2888</v>
+        <v>3075.872</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>2.942</v>
+        <v>5.918</v>
       </c>
       <c r="G182" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,25 +5527,25 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>2899.866</v>
+        <v>3094.404</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>2.942</v>
+        <v>5.918</v>
       </c>
       <c r="G183" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,25 +5553,25 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>2899.866</v>
+        <v>3094.404</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>2.942</v>
+        <v>5.918</v>
       </c>
       <c r="G184" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,25 +5579,25 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2899.866</v>
+        <v>3094.404</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>2.942</v>
+        <v>5.918</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,25 +5605,25 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2899.866</v>
+        <v>3094.404</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>2.942</v>
+        <v>5.918</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,25 +5631,25 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>2899.866</v>
+        <v>3104.759</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>3.311</v>
+        <v>5.918</v>
       </c>
       <c r="G187" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,25 +5657,25 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2899.866</v>
+        <v>3104.759</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>3.311</v>
+        <v>5.918</v>
       </c>
       <c r="G188" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,25 +5683,25 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>2899.866</v>
+        <v>3104.759</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>41.965</v>
+        <v>44.292</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>3.563</v>
+        <v>5.918</v>
       </c>
       <c r="G189" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5721,25 +5709,25 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>2899.866</v>
+        <v>3104.759</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>42.191</v>
+        <v>44.292</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>3.563</v>
+        <v>5.918</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,25 +5735,25 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>2899.866</v>
+        <v>3104.759</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>42.191</v>
+        <v>44.292</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>3.563</v>
+        <v>5.918</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,25 +5761,25 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>2900.388</v>
+        <v>3104.759</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>42.191</v>
+        <v>44.292</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>3.563</v>
+        <v>5.918</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,25 +5787,25 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2900.388</v>
+        <v>3104.759</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>42.191</v>
+        <v>44.292</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>3.563</v>
+        <v>5.918</v>
       </c>
       <c r="G193" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,25 +5813,25 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>2900.388</v>
+        <v>3104.759</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>42.191</v>
+        <v>44.292</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G194" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,25 +5839,25 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>2900.388</v>
+        <v>3104.786</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>157.782</v>
+        <v>164.093</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>42.416</v>
+        <v>44.292</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,25 +5865,25 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>2900.388</v>
+        <v>3104.798</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>157.835</v>
+        <v>164.093</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,25 +5891,25 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>2912.717</v>
+        <v>3104.798</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,25 +5917,25 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>2924.242</v>
+        <v>3104.798</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,25 +5943,25 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>2924.242</v>
+        <v>3104.798</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,25 +5969,25 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2924.242</v>
+        <v>3104.798</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,25 +5995,25 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>2924.242</v>
+        <v>3104.798</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,25 +6021,25 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>2924.242</v>
+        <v>3104.798</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>42.665</v>
+        <v>44.292</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G202" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,25 +6047,25 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>2924.242</v>
+        <v>3104.798</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>42.665</v>
+        <v>44.292</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,25 +6073,25 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>2931.72</v>
+        <v>3104.798</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>43.124</v>
+        <v>44.292</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,25 +6099,25 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.798</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>43.124</v>
+        <v>44.292</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G205" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,25 +6125,25 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.798</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,25 +6151,25 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.798</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,25 +6177,25 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>2950.356</v>
+        <v>3104.798</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6215,25 +6203,25 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2950.356</v>
+        <v>3104.798</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>159.561</v>
+        <v>164.093</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,25 +6229,25 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>2963.804</v>
+        <v>3104.798</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,129 +6255,25 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>2963.804</v>
+        <v>3104.798</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1873.577</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212" s="0" t="n">
-        <v>2963.804</v>
-      </c>
-      <c r="C212" s="0" t="n">
-        <v>164.049</v>
-      </c>
-      <c r="D212" s="0" t="n">
-        <v>43.729</v>
-      </c>
-      <c r="E212" s="0" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F212" s="0" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="G212" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H212" s="0" t="n">
-        <v>1873.577</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B213" s="0" t="n">
-        <v>2971.367</v>
-      </c>
-      <c r="C213" s="0" t="n">
-        <v>164.049</v>
-      </c>
-      <c r="D213" s="0" t="n">
-        <v>43.729</v>
-      </c>
-      <c r="E213" s="0" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F213" s="0" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="G213" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H213" s="0" t="n">
-        <v>1873.577</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B214" s="0" t="n">
-        <v>2980.453</v>
-      </c>
-      <c r="C214" s="0" t="n">
-        <v>164.049</v>
-      </c>
-      <c r="D214" s="0" t="n">
-        <v>43.729</v>
-      </c>
-      <c r="E214" s="0" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F214" s="0" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="G214" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H214" s="0" t="n">
-        <v>1873.577</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B215" s="0" t="n">
-        <v>2997.787</v>
-      </c>
-      <c r="C215" s="0" t="n">
-        <v>164.049</v>
-      </c>
-      <c r="D215" s="0" t="n">
-        <v>43.729</v>
-      </c>
-      <c r="E215" s="0" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F215" s="0" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="G215" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H215" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
   </sheetData>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,88 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-31 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-10 00:00:00 +0200</t>
+    <t xml:space="preserve">2023-09-10 23:30:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-11 00:00:00 +0200</t>
@@ -673,7 +592,91 @@
     <t xml:space="preserve">2024-04-08 00:00:00 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-04-08 19:40:55 +0200</t>
+    <t xml:space="preserve">2024-04-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-06 19:05:54 +0200</t>
   </si>
 </sst>
 </file>
@@ -774,10 +777,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H213" activeCellId="0" sqref="H213"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -821,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2695.536</v>
+        <v>2767.909</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>144.047</v>
+        <v>145.165</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>41.965</v>
@@ -847,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2695.536</v>
+        <v>2767.917</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>144.047</v>
+        <v>145.165</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>41.965</v>
@@ -873,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2695.536</v>
+        <v>2770.446</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>144.047</v>
+        <v>151.112</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>41.965</v>
@@ -899,10 +902,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2696.432</v>
+        <v>2770.446</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>144.047</v>
+        <v>151.112</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>41.965</v>
@@ -925,10 +928,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2696.432</v>
+        <v>2770.446</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>144.047</v>
+        <v>151.112</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>41.965</v>
@@ -951,10 +954,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2703.447</v>
+        <v>2770.446</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>144.047</v>
+        <v>151.112</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>41.965</v>
@@ -977,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2722.556</v>
+        <v>2770.752</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>41.965</v>
@@ -1003,10 +1006,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2723.47</v>
+        <v>2770.752</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>41.965</v>
@@ -1029,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2723.47</v>
+        <v>2770.752</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>41.965</v>
@@ -1055,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2723.47</v>
+        <v>2771.824</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>41.965</v>
@@ -1081,10 +1084,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2723.678</v>
+        <v>2771.824</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>41.965</v>
@@ -1107,10 +1110,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2723.678</v>
+        <v>2771.951</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>41.965</v>
@@ -1133,10 +1136,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2723.678</v>
+        <v>2789.241</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>41.965</v>
@@ -1159,10 +1162,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2723.678</v>
+        <v>2811.081</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>41.965</v>
@@ -1185,10 +1188,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2724.521</v>
+        <v>2815.751</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>144.051</v>
+        <v>151.112</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>41.965</v>
@@ -1211,10 +1214,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2724.521</v>
+        <v>2838.684</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>41.965</v>
@@ -1237,10 +1240,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2724.521</v>
+        <v>2840.266</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>41.965</v>
@@ -1263,10 +1266,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2724.521</v>
+        <v>2840.531</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>41.965</v>
@@ -1289,10 +1292,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2724.778</v>
+        <v>2840.531</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>41.965</v>
@@ -1315,10 +1318,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2724.778</v>
+        <v>2840.843</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41.965</v>
@@ -1341,10 +1344,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2725.696</v>
+        <v>2840.843</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>41.965</v>
@@ -1367,10 +1370,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2741.751</v>
+        <v>2840.843</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>41.965</v>
@@ -1393,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2741.751</v>
+        <v>2840.843</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>41.965</v>
@@ -1419,10 +1422,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2741.751</v>
+        <v>2841.947</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>41.965</v>
@@ -1445,10 +1448,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2741.751</v>
+        <v>2841.947</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>41.965</v>
@@ -1471,10 +1474,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2741.751</v>
+        <v>2841.947</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>41.965</v>
@@ -1497,10 +1500,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2741.751</v>
+        <v>2841.947</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>41.965</v>
@@ -1523,10 +1526,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2744.934</v>
+        <v>2842.039</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>144.051</v>
+        <v>157.472</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>41.965</v>
@@ -1549,10 +1552,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2767.917</v>
+        <v>2842.772</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>145.165</v>
+        <v>157.472</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>41.965</v>
@@ -1575,10 +1578,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>41.965</v>
@@ -1601,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>41.965</v>
@@ -1627,10 +1630,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>41.965</v>
@@ -1653,10 +1656,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>41.965</v>
@@ -1679,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2770.752</v>
+        <v>2842.772</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>41.965</v>
@@ -1705,10 +1708,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2770.752</v>
+        <v>2842.772</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>41.965</v>
@@ -1731,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2770.752</v>
+        <v>2842.772</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>41.965</v>
@@ -1757,10 +1760,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2771.824</v>
+        <v>2843.983</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>41.965</v>
@@ -1783,10 +1786,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2771.824</v>
+        <v>2843.983</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>41.965</v>
@@ -1809,10 +1812,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2771.951</v>
+        <v>2843.983</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>41.965</v>
@@ -1835,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2789.241</v>
+        <v>2843.983</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>41.965</v>
@@ -1861,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2811.081</v>
+        <v>2843.983</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>41.965</v>
@@ -1887,10 +1890,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2815.751</v>
+        <v>2843.983</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>41.965</v>
@@ -1913,7 +1916,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>2838.684</v>
+        <v>2845.039</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>157.472</v>
@@ -1939,7 +1942,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2840.266</v>
+        <v>2845.039</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>157.472</v>
@@ -1965,7 +1968,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2840.531</v>
+        <v>2845.039</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>157.472</v>
@@ -1991,7 +1994,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>2840.531</v>
+        <v>2845.039</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>157.472</v>
@@ -2017,7 +2020,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>157.472</v>
@@ -2043,7 +2046,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>157.472</v>
@@ -2069,7 +2072,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>157.472</v>
@@ -2095,7 +2098,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>157.472</v>
@@ -2121,10 +2124,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2841.947</v>
+        <v>2862.022</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>157.472</v>
+        <v>157.518</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>41.965</v>
@@ -2147,10 +2150,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2841.947</v>
+        <v>2862.034</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>41.965</v>
@@ -2173,10 +2176,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2841.947</v>
+        <v>2863.113</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>41.965</v>
@@ -2199,10 +2202,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2841.947</v>
+        <v>2863.113</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>41.965</v>
@@ -2225,10 +2228,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2842.039</v>
+        <v>2863.113</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>41.965</v>
@@ -2251,10 +2254,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.113</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>41.965</v>
@@ -2277,10 +2280,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.331</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>41.965</v>
@@ -2303,10 +2306,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.721</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>41.965</v>
@@ -2329,10 +2332,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.721</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>41.965</v>
@@ -2355,10 +2358,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.183</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>41.965</v>
@@ -2381,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.183</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>41.965</v>
@@ -2407,10 +2410,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.404</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>41.965</v>
@@ -2433,10 +2436,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.404</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>41.965</v>
@@ -2459,10 +2462,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>41.965</v>
@@ -2485,10 +2488,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>41.965</v>
@@ -2511,10 +2514,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>41.965</v>
@@ -2537,10 +2540,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>41.965</v>
@@ -2563,10 +2566,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.853</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>41.965</v>
@@ -2589,10 +2592,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2843.983</v>
+        <v>2876.161</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>41.965</v>
@@ -2615,10 +2618,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2845.039</v>
+        <v>2876.161</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>41.965</v>
@@ -2641,10 +2644,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2845.039</v>
+        <v>2876.397</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>41.965</v>
@@ -2667,10 +2670,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2845.039</v>
+        <v>2886.936</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>41.965</v>
@@ -2693,10 +2696,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.492</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>41.965</v>
@@ -2719,10 +2722,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.771</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>41.965</v>
@@ -2745,10 +2748,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.771</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>41.965</v>
@@ -2771,10 +2774,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.771</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>41.965</v>
@@ -2797,10 +2800,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2845.039</v>
+        <v>2888</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>41.965</v>
@@ -2823,10 +2826,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2862.022</v>
+        <v>2888</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>157.518</v>
+        <v>157.782</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>41.965</v>
@@ -2849,10 +2852,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2862.034</v>
+        <v>2899.866</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>41.965</v>
@@ -2875,10 +2878,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>41.965</v>
@@ -2901,10 +2904,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>41.965</v>
@@ -2927,10 +2930,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>41.965</v>
@@ -2953,10 +2956,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>41.965</v>
@@ -2965,7 +2968,7 @@
         <v>2.256</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>1.188</v>
@@ -2979,10 +2982,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2863.331</v>
+        <v>2899.866</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>41.965</v>
@@ -2991,7 +2994,7 @@
         <v>2.256</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>1.188</v>
@@ -3005,10 +3008,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2863.721</v>
+        <v>2899.866</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>41.965</v>
@@ -3017,7 +3020,7 @@
         <v>2.256</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>1.188</v>
@@ -3031,19 +3034,19 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2863.721</v>
+        <v>2899.866</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>1.188</v>
@@ -3057,19 +3060,19 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2864.183</v>
+        <v>2899.866</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>1.188</v>
@@ -3083,19 +3086,19 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2864.183</v>
+        <v>2900.388</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>1.188</v>
@@ -3109,19 +3112,19 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2864.404</v>
+        <v>2900.388</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>1.188</v>
@@ -3135,19 +3138,19 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2864.404</v>
+        <v>2900.388</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>1.188</v>
@@ -3161,19 +3164,19 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2875.844</v>
+        <v>2900.388</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>41.965</v>
+        <v>42.416</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G92" s="0" t="n">
         <v>1.188</v>
@@ -3187,19 +3190,19 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2875.844</v>
+        <v>2900.388</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>157.619</v>
+        <v>157.835</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>1.188</v>
@@ -3213,19 +3216,19 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2875.844</v>
+        <v>2912.717</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>1.188</v>
@@ -3239,19 +3242,19 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2875.844</v>
+        <v>2924.242</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>1.188</v>
@@ -3265,19 +3268,19 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2875.853</v>
+        <v>2924.242</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>1.188</v>
@@ -3291,19 +3294,19 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2876.161</v>
+        <v>2924.242</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>1.188</v>
@@ -3317,19 +3320,19 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2876.161</v>
+        <v>2924.242</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>1.188</v>
@@ -3343,19 +3346,19 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2876.397</v>
+        <v>2924.242</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>1.188</v>
@@ -3369,19 +3372,19 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2886.936</v>
+        <v>2924.242</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>1.188</v>
@@ -3395,19 +3398,19 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2887.492</v>
+        <v>2931.72</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>1.188</v>
@@ -3421,19 +3424,19 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2887.771</v>
+        <v>2950.048</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G102" s="0" t="n">
         <v>1.188</v>
@@ -3447,19 +3450,19 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2887.771</v>
+        <v>2950.048</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>1.188</v>
@@ -3473,19 +3476,19 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2887.771</v>
+        <v>2950.048</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G104" s="0" t="n">
         <v>1.188</v>
@@ -3499,19 +3502,19 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2888</v>
+        <v>2950.356</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>1.188</v>
@@ -3525,19 +3528,19 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2888</v>
+        <v>2950.356</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>1.188</v>
@@ -3551,19 +3554,19 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2899.866</v>
+        <v>2963.804</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>1.188</v>
@@ -3577,19 +3580,19 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>2899.866</v>
+        <v>2963.804</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>1.188</v>
@@ -3603,19 +3606,19 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2899.866</v>
+        <v>2963.804</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>1.188</v>
@@ -3629,19 +3632,19 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2899.866</v>
+        <v>2971.367</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>1.188</v>
@@ -3655,19 +3658,19 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2899.866</v>
+        <v>2980.453</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>3.311</v>
+        <v>3.793</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>1.188</v>
@@ -3681,19 +3684,19 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>3.311</v>
+        <v>3.793</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>1.188</v>
@@ -3707,19 +3710,19 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>1.188</v>
@@ -3733,19 +3736,19 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>1.188</v>
@@ -3759,19 +3762,19 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>1.188</v>
@@ -3785,19 +3788,19 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>1.188</v>
@@ -3811,19 +3814,19 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>1.188</v>
@@ -3837,13 +3840,13 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2.256</v>
@@ -3863,13 +3866,13 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>42.416</v>
+        <v>43.729</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2.256</v>
@@ -3889,13 +3892,13 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>157.835</v>
+        <v>164.049</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>42.65</v>
+        <v>43.729</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2.256</v>
@@ -3915,13 +3918,13 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2912.717</v>
+        <v>2997.787</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>2.256</v>
@@ -3941,13 +3944,13 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>2.256</v>
@@ -3967,13 +3970,13 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>2.256</v>
@@ -3993,19 +3996,19 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>3.793</v>
+        <v>4.549</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>1.188</v>
@@ -4019,19 +4022,19 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G125" s="0" t="n">
         <v>1.188</v>
@@ -4045,19 +4048,19 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>42.665</v>
+        <v>43.736</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G126" s="0" t="n">
         <v>1.188</v>
@@ -4071,19 +4074,19 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>42.665</v>
+        <v>43.736</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G127" s="0" t="n">
         <v>1.188</v>
@@ -4097,19 +4100,19 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2931.72</v>
+        <v>2997.937</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>43.124</v>
+        <v>43.736</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G128" s="0" t="n">
         <v>1.188</v>
@@ -4123,19 +4126,19 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2950.048</v>
+        <v>3005.43</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>43.124</v>
+        <v>43.736</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G129" s="0" t="n">
         <v>1.188</v>
@@ -4149,19 +4152,19 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2950.048</v>
+        <v>3010.782</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>43.729</v>
+        <v>43.736</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>1.188</v>
@@ -4175,19 +4178,19 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>2950.048</v>
+        <v>3010.782</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>43.729</v>
+        <v>43.736</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>1.188</v>
@@ -4201,19 +4204,19 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>2950.356</v>
+        <v>3010.782</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>1.188</v>
@@ -4227,19 +4230,19 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>2950.356</v>
+        <v>3010.782</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>3.793</v>
+        <v>5.216</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>1.188</v>
@@ -4253,19 +4256,19 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2963.804</v>
+        <v>3010.782</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>1.188</v>
@@ -4279,19 +4282,19 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2963.804</v>
+        <v>3010.782</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>1.188</v>
@@ -4305,19 +4308,19 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2963.804</v>
+        <v>3018.213</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G136" s="0" t="n">
         <v>1.188</v>
@@ -4331,19 +4334,19 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>2971.367</v>
+        <v>3027.483</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G137" s="0" t="n">
         <v>1.188</v>
@@ -4357,19 +4360,19 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2980.453</v>
+        <v>3037.77</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G138" s="0" t="n">
         <v>1.188</v>
@@ -4383,19 +4386,19 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>2997.787</v>
+        <v>3037.77</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G139" s="0" t="n">
         <v>1.188</v>
@@ -4409,19 +4412,19 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>2997.787</v>
+        <v>3037.77</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G140" s="0" t="n">
         <v>1.188</v>
@@ -4435,19 +4438,19 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2997.787</v>
+        <v>3037.77</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>43.729</v>
+        <v>43.979</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G141" s="0" t="n">
         <v>1.188</v>
@@ -4461,19 +4464,19 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>2997.787</v>
+        <v>3045.333</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>43.729</v>
+        <v>43.979</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>1.188</v>
@@ -4487,19 +4490,19 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.38</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>43.729</v>
+        <v>43.979</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>1.188</v>
@@ -4513,19 +4516,19 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.38</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>43.729</v>
+        <v>44.017</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>1.188</v>
@@ -4539,25 +4542,25 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.38</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>43.729</v>
+        <v>44.069</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,25 +4568,25 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.38</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>43.729</v>
+        <v>44.069</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,25 +4594,25 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.856</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>43.729</v>
+        <v>44.069</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,25 +4620,25 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>2997.787</v>
+        <v>3068.084</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4643,25 +4646,25 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,25 +4672,25 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,25 +4698,25 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>4.549</v>
+        <v>5.69</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,25 +4724,25 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,25 +4750,25 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,25 +4776,25 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,25 +4802,25 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2997.937</v>
+        <v>3075.872</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,25 +4828,25 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>3005.43</v>
+        <v>3094.404</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,25 +4854,25 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>3010.782</v>
+        <v>3094.404</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G157" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,25 +4880,25 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>3010.782</v>
+        <v>3094.404</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G158" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,25 +4906,25 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>3010.782</v>
+        <v>3094.404</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G159" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,25 +4932,25 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.759</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>5.216</v>
+        <v>5.918</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,25 +4958,25 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.759</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,25 +4984,25 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.759</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,25 +5010,25 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3018.213</v>
+        <v>3104.759</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G163" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,25 +5036,25 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3027.483</v>
+        <v>3104.759</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G164" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,25 +5062,25 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.759</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,25 +5088,25 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.759</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,25 +5114,25 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.759</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G167" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,25 +5140,25 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.786</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G168" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,25 +5166,25 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>3045.333</v>
+        <v>3104.798</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,25 +5192,25 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.798</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,25 +5218,25 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.798</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>44.017</v>
+        <v>44.292</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,19 +5244,19 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.798</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G172" s="0" t="n">
         <v>1.188</v>
@@ -5267,19 +5270,19 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.798</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G173" s="0" t="n">
         <v>1.188</v>
@@ -5293,19 +5296,19 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>3067.856</v>
+        <v>3104.798</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G174" s="0" t="n">
         <v>1.188</v>
@@ -5319,19 +5322,19 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>3068.084</v>
+        <v>3104.798</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G175" s="0" t="n">
         <v>1.188</v>
@@ -5345,19 +5348,19 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G176" s="0" t="n">
         <v>1.188</v>
@@ -5371,19 +5374,19 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G177" s="0" t="n">
         <v>1.188</v>
@@ -5397,19 +5400,19 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>5.69</v>
+        <v>5.918</v>
       </c>
       <c r="G178" s="0" t="n">
         <v>1.188</v>
@@ -5423,13 +5426,13 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>2.416</v>
@@ -5449,13 +5452,13 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>2.416</v>
@@ -5475,10 +5478,10 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>44.292</v>
@@ -5501,10 +5504,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>3075.872</v>
+        <v>3104.798</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>44.292</v>
@@ -5527,10 +5530,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>3094.404</v>
+        <v>3104.798</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>44.292</v>
@@ -5553,10 +5556,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>3094.404</v>
+        <v>3104.798</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>44.292</v>
@@ -5579,10 +5582,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>3094.404</v>
+        <v>3104.798</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>44.292</v>
@@ -5605,10 +5608,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>3094.404</v>
+        <v>3104.798</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>44.292</v>
@@ -5631,10 +5634,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.798</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>44.292</v>
@@ -5657,10 +5660,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.798</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>44.292</v>
@@ -5683,10 +5686,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>44.292</v>
@@ -5709,10 +5712,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>44.292</v>
@@ -5735,10 +5738,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>44.292</v>
@@ -5761,10 +5764,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>44.292</v>
@@ -5787,10 +5790,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>44.292</v>
@@ -5813,10 +5816,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>44.292</v>
@@ -5839,10 +5842,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>3104.786</v>
+        <v>3104.808</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>164.093</v>
+        <v>164.247</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>44.292</v>
@@ -5865,10 +5868,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>164.093</v>
+        <v>164.247</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>44.292</v>
@@ -5891,10 +5894,10 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>44.292</v>
@@ -5917,10 +5920,10 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>44.292</v>
@@ -5943,10 +5946,10 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>44.292</v>
@@ -5969,10 +5972,10 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>44.292</v>
@@ -5995,10 +5998,10 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>44.292</v>
@@ -6021,10 +6024,10 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>44.292</v>
@@ -6047,10 +6050,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>44.292</v>
@@ -6073,10 +6076,10 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>44.292</v>
@@ -6099,10 +6102,10 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>44.292</v>
@@ -6125,10 +6128,10 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>44.292</v>
@@ -6151,10 +6154,10 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>44.292</v>
@@ -6177,10 +6180,10 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>44.292</v>
@@ -6203,10 +6206,10 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>44.292</v>
@@ -6229,10 +6232,10 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>164.203</v>
+        <v>164.249</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>44.292</v>
@@ -6255,10 +6258,10 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>164.203</v>
+        <v>164.249</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>44.292</v>
@@ -6273,6 +6276,32 @@
         <v>1.188</v>
       </c>
       <c r="H211" s="0" t="n">
+        <v>1924.316</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>3119.148</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>182.007</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>44.292</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>2.416</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>5.918</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="H212" s="0" t="n">
         <v>1924.316</v>
       </c>
     </row>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,90 +46,6 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-09-10 23:30:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-07 00:00:00 +0200</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-10-08 00:00:00 +0200</t>
   </si>
   <si>
@@ -676,7 +592,85 @@
     <t xml:space="preserve">2024-05-06 00:00:00 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-05-06 19:05:54 +0200</t>
+    <t xml:space="preserve">2024-05-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-02 00:00:00 +0200</t>
   </si>
 </sst>
 </file>
@@ -777,10 +771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="A210" activeCellId="0" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,10 +818,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2767.909</v>
+        <v>2842.772</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>145.165</v>
+        <v>157.472</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>41.965</v>
@@ -850,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2767.917</v>
+        <v>2842.772</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>145.165</v>
+        <v>157.472</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>41.965</v>
@@ -876,10 +870,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>41.965</v>
@@ -902,10 +896,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>41.965</v>
@@ -928,10 +922,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>41.965</v>
@@ -954,10 +948,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2770.446</v>
+        <v>2842.772</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>41.965</v>
@@ -980,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2770.752</v>
+        <v>2842.772</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>41.965</v>
@@ -1006,10 +1000,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2770.752</v>
+        <v>2842.772</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>41.965</v>
@@ -1032,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2770.752</v>
+        <v>2843.983</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>41.965</v>
@@ -1058,10 +1052,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2771.824</v>
+        <v>2843.983</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>41.965</v>
@@ -1084,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2771.824</v>
+        <v>2843.983</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>41.965</v>
@@ -1110,10 +1104,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2771.951</v>
+        <v>2843.983</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>41.965</v>
@@ -1136,10 +1130,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2789.241</v>
+        <v>2843.983</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>41.965</v>
@@ -1162,10 +1156,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2811.081</v>
+        <v>2843.983</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>41.965</v>
@@ -1188,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2815.751</v>
+        <v>2845.039</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>151.112</v>
+        <v>157.472</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>41.965</v>
@@ -1214,7 +1208,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2838.684</v>
+        <v>2845.039</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>157.472</v>
@@ -1240,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2840.266</v>
+        <v>2845.039</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>157.472</v>
@@ -1266,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2840.531</v>
+        <v>2845.039</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>157.472</v>
@@ -1292,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2840.531</v>
+        <v>2845.039</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>157.472</v>
@@ -1318,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>157.472</v>
@@ -1344,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>157.472</v>
@@ -1370,7 +1364,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2840.843</v>
+        <v>2845.039</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>157.472</v>
@@ -1396,10 +1390,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2840.843</v>
+        <v>2862.022</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>157.472</v>
+        <v>157.518</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>41.965</v>
@@ -1422,10 +1416,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2841.947</v>
+        <v>2862.034</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>41.965</v>
@@ -1448,10 +1442,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2841.947</v>
+        <v>2863.113</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>41.965</v>
@@ -1474,10 +1468,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2841.947</v>
+        <v>2863.113</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>41.965</v>
@@ -1500,10 +1494,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2841.947</v>
+        <v>2863.113</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>41.965</v>
@@ -1526,10 +1520,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2842.039</v>
+        <v>2863.113</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>41.965</v>
@@ -1552,10 +1546,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.331</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>41.965</v>
@@ -1578,10 +1572,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.721</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>41.965</v>
@@ -1604,10 +1598,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2842.772</v>
+        <v>2863.721</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>41.965</v>
@@ -1630,10 +1624,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.183</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>41.965</v>
@@ -1656,10 +1650,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.183</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>41.965</v>
@@ -1682,10 +1676,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.404</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>41.965</v>
@@ -1708,10 +1702,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2842.772</v>
+        <v>2864.404</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>41.965</v>
@@ -1734,10 +1728,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2842.772</v>
+        <v>2875.844</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>41.965</v>
@@ -1760,10 +1754,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>41.965</v>
@@ -1786,10 +1780,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>41.965</v>
@@ -1812,10 +1806,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.844</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>41.965</v>
@@ -1838,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2843.983</v>
+        <v>2875.853</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>41.965</v>
@@ -1864,10 +1858,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2843.983</v>
+        <v>2876.161</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>41.965</v>
@@ -1890,10 +1884,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2843.983</v>
+        <v>2876.161</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>41.965</v>
@@ -1916,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>2845.039</v>
+        <v>2876.397</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>157.472</v>
+        <v>157.619</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>41.965</v>
@@ -1942,10 +1936,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2845.039</v>
+        <v>2886.936</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>41.965</v>
@@ -1968,10 +1962,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.492</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>41.965</v>
@@ -1994,10 +1988,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.771</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>41.965</v>
@@ -2020,10 +2014,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.771</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>41.965</v>
@@ -2046,10 +2040,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>2845.039</v>
+        <v>2887.771</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>41.965</v>
@@ -2072,10 +2066,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2845.039</v>
+        <v>2888</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>41.965</v>
@@ -2098,10 +2092,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2845.039</v>
+        <v>2888</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>41.965</v>
@@ -2124,10 +2118,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2862.022</v>
+        <v>2899.866</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>157.518</v>
+        <v>157.782</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>41.965</v>
@@ -2150,10 +2144,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2862.034</v>
+        <v>2899.866</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>41.965</v>
@@ -2176,10 +2170,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>41.965</v>
@@ -2202,10 +2196,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>41.965</v>
@@ -2228,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>41.965</v>
@@ -2240,7 +2234,7 @@
         <v>2.256</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>1.188</v>
@@ -2254,10 +2248,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>2863.113</v>
+        <v>2899.866</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>41.965</v>
@@ -2266,7 +2260,7 @@
         <v>2.256</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>2.942</v>
+        <v>3.311</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>1.188</v>
@@ -2280,10 +2274,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2863.331</v>
+        <v>2899.866</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>41.965</v>
@@ -2292,7 +2286,7 @@
         <v>2.256</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>1.188</v>
@@ -2306,19 +2300,19 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2863.721</v>
+        <v>2899.866</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>1.188</v>
@@ -2332,19 +2326,19 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2863.721</v>
+        <v>2899.866</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>1.188</v>
@@ -2358,19 +2352,19 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2864.183</v>
+        <v>2900.388</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>1.188</v>
@@ -2384,19 +2378,19 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2864.183</v>
+        <v>2900.388</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>1.188</v>
@@ -2410,19 +2404,19 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2864.404</v>
+        <v>2900.388</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>1.188</v>
@@ -2436,19 +2430,19 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2864.404</v>
+        <v>2900.388</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>157.619</v>
+        <v>157.782</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>41.965</v>
+        <v>42.416</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>1.188</v>
@@ -2462,19 +2456,19 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2875.844</v>
+        <v>2900.388</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>157.619</v>
+        <v>157.835</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>1.188</v>
@@ -2488,19 +2482,19 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2875.844</v>
+        <v>2912.717</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>1.188</v>
@@ -2514,19 +2508,19 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2875.844</v>
+        <v>2924.242</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>1.188</v>
@@ -2540,19 +2534,19 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2875.844</v>
+        <v>2924.242</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>1.188</v>
@@ -2566,19 +2560,19 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2875.853</v>
+        <v>2924.242</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>1.188</v>
@@ -2592,19 +2586,19 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2876.161</v>
+        <v>2924.242</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>1.188</v>
@@ -2618,19 +2612,19 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2876.161</v>
+        <v>2924.242</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>1.188</v>
@@ -2644,19 +2638,19 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2876.397</v>
+        <v>2924.242</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>157.619</v>
+        <v>159.561</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>1.188</v>
@@ -2670,19 +2664,19 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2886.936</v>
+        <v>2931.72</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>1.188</v>
@@ -2696,19 +2690,19 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2887.492</v>
+        <v>2950.048</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>1.188</v>
@@ -2722,19 +2716,19 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2887.771</v>
+        <v>2950.048</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>1.188</v>
@@ -2748,19 +2742,19 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2887.771</v>
+        <v>2950.048</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>1.188</v>
@@ -2774,19 +2768,19 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2887.771</v>
+        <v>2950.356</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>1.188</v>
@@ -2800,19 +2794,19 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2888</v>
+        <v>2950.356</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>157.782</v>
+        <v>159.561</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>1.188</v>
@@ -2826,19 +2820,19 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2888</v>
+        <v>2963.804</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>1.188</v>
@@ -2852,19 +2846,19 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2899.866</v>
+        <v>2963.804</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>1.188</v>
@@ -2878,19 +2872,19 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2899.866</v>
+        <v>2963.804</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>1.188</v>
@@ -2904,19 +2898,19 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2899.866</v>
+        <v>2971.367</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>1.188</v>
@@ -2930,19 +2924,19 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2899.866</v>
+        <v>2980.453</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>1.188</v>
@@ -2956,19 +2950,19 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>3.311</v>
+        <v>3.793</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>1.188</v>
@@ -2982,19 +2976,19 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>3.311</v>
+        <v>3.793</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>1.188</v>
@@ -3008,19 +3002,19 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>1.188</v>
@@ -3034,19 +3028,19 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>1.188</v>
@@ -3060,19 +3054,19 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2899.866</v>
+        <v>2997.787</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>1.188</v>
@@ -3086,19 +3080,19 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>1.188</v>
@@ -3112,19 +3106,19 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>3.563</v>
+        <v>3.793</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>1.188</v>
@@ -3138,13 +3132,13 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>42.191</v>
+        <v>43.729</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>2.256</v>
@@ -3164,13 +3158,13 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>42.416</v>
+        <v>43.729</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>2.256</v>
@@ -3190,13 +3184,13 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2900.388</v>
+        <v>2997.787</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>157.835</v>
+        <v>164.049</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>2.256</v>
@@ -3216,13 +3210,13 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2912.717</v>
+        <v>2997.937</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>2.256</v>
@@ -3242,13 +3236,13 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>2.256</v>
@@ -3268,19 +3262,19 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>3.793</v>
+        <v>4.549</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>1.188</v>
@@ -3294,19 +3288,19 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>1.188</v>
@@ -3320,19 +3314,19 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>42.65</v>
+        <v>43.736</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>1.188</v>
@@ -3346,19 +3340,19 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>42.665</v>
+        <v>43.736</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>1.188</v>
@@ -3372,19 +3366,19 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2924.242</v>
+        <v>2997.937</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>42.665</v>
+        <v>43.736</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>1.188</v>
@@ -3398,19 +3392,19 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2931.72</v>
+        <v>3005.43</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>43.124</v>
+        <v>43.736</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>1.188</v>
@@ -3424,19 +3418,19 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2950.048</v>
+        <v>3010.782</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>43.124</v>
+        <v>43.736</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G102" s="0" t="n">
         <v>1.188</v>
@@ -3450,19 +3444,19 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2950.048</v>
+        <v>3010.782</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>43.729</v>
+        <v>43.736</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>1.188</v>
@@ -3476,19 +3470,19 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2950.048</v>
+        <v>3010.782</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>3.793</v>
+        <v>4.949</v>
       </c>
       <c r="G104" s="0" t="n">
         <v>1.188</v>
@@ -3502,19 +3496,19 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2950.356</v>
+        <v>3010.782</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>3.793</v>
+        <v>5.216</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>1.188</v>
@@ -3528,19 +3522,19 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2950.356</v>
+        <v>3010.782</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>1.188</v>
@@ -3554,19 +3548,19 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2963.804</v>
+        <v>3010.782</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>1.188</v>
@@ -3580,19 +3574,19 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>2963.804</v>
+        <v>3018.213</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>1.188</v>
@@ -3606,19 +3600,19 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>2963.804</v>
+        <v>3027.483</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>1.188</v>
@@ -3632,19 +3626,19 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2971.367</v>
+        <v>3037.77</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>1.188</v>
@@ -3658,19 +3652,19 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2980.453</v>
+        <v>3037.77</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>1.188</v>
@@ -3684,19 +3678,19 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>2997.787</v>
+        <v>3037.77</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>43.729</v>
+        <v>43.971</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>1.188</v>
@@ -3710,19 +3704,19 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2997.787</v>
+        <v>3037.77</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>43.729</v>
+        <v>43.979</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>1.188</v>
@@ -3736,19 +3730,19 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>2997.787</v>
+        <v>3045.333</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>43.729</v>
+        <v>43.979</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>1.188</v>
@@ -3762,19 +3756,19 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.38</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>43.729</v>
+        <v>43.979</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>1.188</v>
@@ -3788,19 +3782,19 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.38</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>43.729</v>
+        <v>44.017</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>1.188</v>
@@ -3814,25 +3808,25 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.38</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>43.729</v>
+        <v>44.069</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,25 +3834,25 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.38</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>43.729</v>
+        <v>44.069</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G118" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,25 +3860,25 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>2997.787</v>
+        <v>3067.856</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>43.729</v>
+        <v>44.069</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,25 +3886,25 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>2997.787</v>
+        <v>3068.084</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>43.729</v>
+        <v>44.069</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,25 +3912,25 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>2997.787</v>
+        <v>3068.314</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,25 +3938,25 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,25 +3964,25 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>3.793</v>
+        <v>5.69</v>
       </c>
       <c r="G123" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,25 +3990,25 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>4.549</v>
+        <v>5.918</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,25 +4016,25 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>43.736</v>
+        <v>44.069</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G125" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,25 +4042,25 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2997.937</v>
+        <v>3068.314</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G126" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,25 +4068,25 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>2997.937</v>
+        <v>3075.872</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G127" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,25 +4094,25 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2997.937</v>
+        <v>3094.404</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G128" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,25 +4120,25 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>3005.43</v>
+        <v>3094.404</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G129" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,25 +4146,25 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3010.782</v>
+        <v>3094.404</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,25 +4172,25 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>3010.782</v>
+        <v>3094.404</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,25 +4198,25 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.759</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,25 +4224,25 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.759</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>5.216</v>
+        <v>5.918</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,25 +4250,25 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.759</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,25 +4276,25 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.759</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,25 +4302,25 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3018.213</v>
+        <v>3104.759</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G136" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,25 +4328,25 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3027.483</v>
+        <v>3104.759</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G137" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,25 +4354,25 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.759</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G138" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,25 +4380,25 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.759</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G139" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,25 +4406,25 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.786</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G140" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,25 +4432,25 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.798</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G141" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,25 +4458,25 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3045.333</v>
+        <v>3104.798</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,25 +4484,25 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.798</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,25 +4510,25 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.798</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>44.017</v>
+        <v>44.292</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,19 +4536,19 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.798</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>1.188</v>
@@ -4568,19 +4562,19 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.798</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>1.188</v>
@@ -4594,19 +4588,19 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>3067.856</v>
+        <v>3104.798</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>1.188</v>
@@ -4620,19 +4614,19 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>3068.084</v>
+        <v>3104.798</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>1.188</v>
@@ -4646,19 +4640,19 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>1.188</v>
@@ -4672,19 +4666,19 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>1.188</v>
@@ -4698,19 +4692,19 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>5.69</v>
+        <v>5.918</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>1.188</v>
@@ -4724,13 +4718,13 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>2.416</v>
@@ -4750,13 +4744,13 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>2.416</v>
@@ -4776,10 +4770,10 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.798</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>44.292</v>
@@ -4802,10 +4796,10 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>3075.872</v>
+        <v>3104.798</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>44.292</v>
@@ -4828,10 +4822,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>3094.404</v>
+        <v>3104.798</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>44.292</v>
@@ -4854,10 +4848,10 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>3094.404</v>
+        <v>3104.798</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>44.292</v>
@@ -4880,10 +4874,10 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>3094.404</v>
+        <v>3104.798</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>44.292</v>
@@ -4906,10 +4900,10 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>3094.404</v>
+        <v>3104.798</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>44.292</v>
@@ -4932,10 +4926,10 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.798</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>44.292</v>
@@ -4958,10 +4952,10 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>44.292</v>
@@ -4984,10 +4978,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>44.292</v>
@@ -5010,10 +5004,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>44.292</v>
@@ -5036,10 +5030,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>44.292</v>
@@ -5062,10 +5056,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>44.292</v>
@@ -5088,10 +5082,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>44.292</v>
@@ -5114,10 +5108,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>3104.759</v>
+        <v>3104.808</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>44.292</v>
@@ -5140,10 +5134,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>3104.786</v>
+        <v>3104.808</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>164.093</v>
+        <v>164.247</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>44.292</v>
@@ -5166,10 +5160,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>44.292</v>
@@ -5192,10 +5186,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>44.292</v>
@@ -5218,10 +5212,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>44.292</v>
@@ -5244,10 +5238,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>44.292</v>
@@ -5270,10 +5264,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>44.292</v>
@@ -5296,10 +5290,10 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>44.292</v>
@@ -5322,10 +5316,10 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>44.292</v>
@@ -5348,10 +5342,10 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>44.292</v>
@@ -5374,10 +5368,10 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>44.292</v>
@@ -5400,10 +5394,10 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>44.292</v>
@@ -5426,10 +5420,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>44.292</v>
@@ -5452,10 +5446,10 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>44.292</v>
@@ -5478,10 +5472,10 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>44.292</v>
@@ -5504,10 +5498,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>164.093</v>
+        <v>164.249</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>44.292</v>
@@ -5530,10 +5524,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>3104.798</v>
+        <v>3104.808</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>164.203</v>
+        <v>164.249</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>44.292</v>
@@ -5556,10 +5550,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>3104.798</v>
+        <v>3119.148</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>164.203</v>
+        <v>182.007</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>44.292</v>
@@ -5582,10 +5576,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>3104.798</v>
+        <v>3124.194</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>164.203</v>
+        <v>182.007</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>44.292</v>
@@ -5608,10 +5602,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>3104.798</v>
+        <v>3124.194</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>164.203</v>
+        <v>182.007</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>44.292</v>
@@ -5634,10 +5628,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>3104.798</v>
+        <v>3124.194</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>164.203</v>
+        <v>182.007</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>44.292</v>
@@ -5660,10 +5654,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>3104.798</v>
+        <v>3124.194</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>164.203</v>
+        <v>182.007</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>44.292</v>
@@ -5686,10 +5680,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3104.808</v>
+        <v>3124.682</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>164.247</v>
+        <v>182.007</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>44.292</v>
@@ -5712,10 +5706,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>3104.808</v>
+        <v>3140.801</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>164.247</v>
+        <v>187.483</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>44.292</v>
@@ -5738,10 +5732,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>3104.808</v>
+        <v>3140.801</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>164.247</v>
+        <v>187.483</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>44.292</v>
@@ -5764,10 +5758,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>3104.808</v>
+        <v>3140.801</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>164.247</v>
+        <v>187.483</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>44.292</v>
@@ -5790,10 +5784,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>3104.808</v>
+        <v>3140.801</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>164.247</v>
+        <v>187.483</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>44.292</v>
@@ -5816,10 +5810,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>3104.808</v>
+        <v>3140.961</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>164.247</v>
+        <v>187.483</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>44.292</v>
@@ -5842,10 +5836,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>3104.808</v>
+        <v>3140.961</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>164.247</v>
+        <v>187.483</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>44.292</v>
@@ -5868,10 +5862,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>3104.808</v>
+        <v>3148.376</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>164.247</v>
+        <v>198.064</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>44.292</v>
@@ -5894,10 +5888,10 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>3104.808</v>
+        <v>3169.944</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>164.249</v>
+        <v>198.064</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>44.292</v>
@@ -5920,10 +5914,10 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>3104.808</v>
+        <v>3192.78</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>44.292</v>
@@ -5946,10 +5940,10 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>3104.808</v>
+        <v>3192.78</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>44.292</v>
@@ -5972,10 +5966,10 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>3104.808</v>
+        <v>3192.78</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>44.292</v>
@@ -5998,10 +5992,10 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3104.808</v>
+        <v>3192.78</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>44.292</v>
@@ -6024,10 +6018,10 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>3104.808</v>
+        <v>3192.78</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>44.292</v>
@@ -6050,10 +6044,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>3104.808</v>
+        <v>3192.781</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>44.292</v>
@@ -6076,10 +6070,10 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>3104.808</v>
+        <v>3193.215</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>44.292</v>
@@ -6102,10 +6096,10 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>3104.808</v>
+        <v>3193.215</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>44.292</v>
@@ -6128,10 +6122,10 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>3104.808</v>
+        <v>3193.215</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>44.292</v>
@@ -6154,10 +6148,10 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>3104.808</v>
+        <v>3193.215</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>164.249</v>
+        <v>200.548</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>44.292</v>
@@ -6180,10 +6174,10 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>3104.808</v>
+        <v>3193.215</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>164.249</v>
+        <v>200.961</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>44.292</v>
@@ -6206,10 +6200,10 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>3104.808</v>
+        <v>3193.517</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>164.249</v>
+        <v>200.961</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>44.292</v>
@@ -6232,10 +6226,10 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>3104.808</v>
+        <v>3193.517</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>164.249</v>
+        <v>200.961</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>44.292</v>
@@ -6250,58 +6244,6 @@
         <v>1.188</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>1924.316</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B211" s="0" t="n">
-        <v>3104.808</v>
-      </c>
-      <c r="C211" s="0" t="n">
-        <v>164.249</v>
-      </c>
-      <c r="D211" s="0" t="n">
-        <v>44.292</v>
-      </c>
-      <c r="E211" s="0" t="n">
-        <v>2.416</v>
-      </c>
-      <c r="F211" s="0" t="n">
-        <v>5.918</v>
-      </c>
-      <c r="G211" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H211" s="0" t="n">
-        <v>1924.316</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212" s="0" t="n">
-        <v>3119.148</v>
-      </c>
-      <c r="C212" s="0" t="n">
-        <v>182.007</v>
-      </c>
-      <c r="D212" s="0" t="n">
-        <v>44.292</v>
-      </c>
-      <c r="E212" s="0" t="n">
-        <v>2.416</v>
-      </c>
-      <c r="F212" s="0" t="n">
-        <v>5.918</v>
-      </c>
-      <c r="G212" s="0" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="H212" s="0" t="n">
         <v>1924.316</v>
       </c>
     </row>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,183 +46,6 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-10-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-05 00:00:00 +0100</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-12-06 00:00:00 +0100</t>
   </si>
   <si>
@@ -671,6 +494,183 @@
   </si>
   <si>
     <t xml:space="preserve">2024-06-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-02 22:57:27 +0200</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
   <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A210" activeCellId="0" sqref="A210"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -818,19 +818,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2842.772</v>
+        <v>2900.388</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1.188</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2842.772</v>
+        <v>2900.388</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2.942</v>
+        <v>3.563</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1.188</v>
@@ -870,19 +870,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2842.772</v>
+        <v>2900.388</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>41.965</v>
+        <v>42.191</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1.188</v>
@@ -896,19 +896,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2842.772</v>
+        <v>2900.388</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>157.472</v>
+        <v>157.782</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>41.965</v>
+        <v>42.416</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1.188</v>
@@ -922,19 +922,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2842.772</v>
+        <v>2900.388</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>157.472</v>
+        <v>157.835</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1.188</v>
@@ -948,19 +948,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2842.772</v>
+        <v>2912.717</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1.188</v>
@@ -974,19 +974,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2842.772</v>
+        <v>2924.242</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1.188</v>
@@ -1000,19 +1000,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2842.772</v>
+        <v>2924.242</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1.188</v>
@@ -1026,19 +1026,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2843.983</v>
+        <v>2924.242</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1.188</v>
@@ -1052,19 +1052,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2843.983</v>
+        <v>2924.242</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>41.965</v>
+        <v>42.65</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1.188</v>
@@ -1078,19 +1078,19 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2843.983</v>
+        <v>2924.242</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1.188</v>
@@ -1104,19 +1104,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2843.983</v>
+        <v>2924.242</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>41.965</v>
+        <v>42.665</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1.188</v>
@@ -1130,19 +1130,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2843.983</v>
+        <v>2931.72</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1.188</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2843.983</v>
+        <v>2950.048</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>41.965</v>
+        <v>43.124</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1.188</v>
@@ -1182,19 +1182,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2845.039</v>
+        <v>2950.048</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1.188</v>
@@ -1208,19 +1208,19 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2845.039</v>
+        <v>2950.048</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1.188</v>
@@ -1234,19 +1234,19 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2845.039</v>
+        <v>2950.356</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1.188</v>
@@ -1260,19 +1260,19 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2845.039</v>
+        <v>2950.356</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>157.472</v>
+        <v>159.561</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1.188</v>
@@ -1286,19 +1286,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2845.039</v>
+        <v>2963.804</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1.188</v>
@@ -1312,19 +1312,19 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2845.039</v>
+        <v>2963.804</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1.188</v>
@@ -1338,19 +1338,19 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2845.039</v>
+        <v>2963.804</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1.188</v>
@@ -1364,19 +1364,19 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2845.039</v>
+        <v>2971.367</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>157.472</v>
+        <v>164.049</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1.188</v>
@@ -1390,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2862.022</v>
+        <v>2980.453</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>157.518</v>
+        <v>164.049</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1.188</v>
@@ -1416,19 +1416,19 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2862.034</v>
+        <v>2997.787</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1.188</v>
@@ -1442,19 +1442,19 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2863.113</v>
+        <v>2997.787</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1.188</v>
@@ -1468,19 +1468,19 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2863.113</v>
+        <v>2997.787</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1.188</v>
@@ -1494,19 +1494,19 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2863.113</v>
+        <v>2997.787</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1.188</v>
@@ -1520,19 +1520,19 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2863.113</v>
+        <v>2997.787</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>1.188</v>
@@ -1546,19 +1546,19 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2863.331</v>
+        <v>2997.787</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1.188</v>
@@ -1572,19 +1572,19 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2863.721</v>
+        <v>2997.787</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>1.188</v>
@@ -1598,19 +1598,19 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2863.721</v>
+        <v>2997.787</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1.188</v>
@@ -1624,19 +1624,19 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2864.183</v>
+        <v>2997.787</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>41.965</v>
+        <v>43.729</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1.188</v>
@@ -1650,19 +1650,19 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2864.183</v>
+        <v>2997.787</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1.188</v>
@@ -1676,19 +1676,19 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2864.404</v>
+        <v>2997.937</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1.188</v>
@@ -1702,19 +1702,19 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2864.404</v>
+        <v>2997.937</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2.942</v>
+        <v>3.793</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1.188</v>
@@ -1728,19 +1728,19 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2875.844</v>
+        <v>2997.937</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2.942</v>
+        <v>4.549</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>1.188</v>
@@ -1754,19 +1754,19 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2875.844</v>
+        <v>2997.937</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1.188</v>
@@ -1780,19 +1780,19 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2875.844</v>
+        <v>2997.937</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1.188</v>
@@ -1806,19 +1806,19 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2875.844</v>
+        <v>2997.937</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>1.188</v>
@@ -1832,19 +1832,19 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2875.853</v>
+        <v>2997.937</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>1.188</v>
@@ -1858,19 +1858,19 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2876.161</v>
+        <v>3005.43</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1.188</v>
@@ -1884,19 +1884,19 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2876.161</v>
+        <v>3010.782</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>1.188</v>
@@ -1910,19 +1910,19 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>2876.397</v>
+        <v>3010.782</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>157.619</v>
+        <v>164.049</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>41.965</v>
+        <v>43.736</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>1.188</v>
@@ -1936,19 +1936,19 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2886.936</v>
+        <v>3010.782</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>2.942</v>
+        <v>4.949</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>1.188</v>
@@ -1962,19 +1962,19 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2887.492</v>
+        <v>3010.782</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>2.942</v>
+        <v>5.216</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1.188</v>
@@ -1988,19 +1988,19 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>2887.771</v>
+        <v>3010.782</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>2.256</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>1.188</v>
@@ -2014,19 +2014,19 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2887.771</v>
+        <v>3010.782</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>1.188</v>
@@ -2040,19 +2040,19 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>2887.771</v>
+        <v>3018.213</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>1.188</v>
@@ -2066,19 +2066,19 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2888</v>
+        <v>3027.483</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1.188</v>
@@ -2092,19 +2092,19 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2888</v>
+        <v>3037.77</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>1.188</v>
@@ -2118,19 +2118,19 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2899.866</v>
+        <v>3037.77</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>1.188</v>
@@ -2144,19 +2144,19 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2899.866</v>
+        <v>3037.77</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>41.965</v>
+        <v>43.971</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>1.188</v>
@@ -2170,19 +2170,19 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2899.866</v>
+        <v>3037.77</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>41.965</v>
+        <v>43.979</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>1.188</v>
@@ -2196,19 +2196,19 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2899.866</v>
+        <v>3045.333</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>41.965</v>
+        <v>43.979</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>2.942</v>
+        <v>5.442</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>1.188</v>
@@ -2222,19 +2222,19 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2899.866</v>
+        <v>3067.38</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>41.965</v>
+        <v>43.979</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>2.256</v>
+        <v>2.362</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>3.311</v>
+        <v>5.442</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>1.188</v>
@@ -2248,19 +2248,19 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>2899.866</v>
+        <v>3067.38</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>41.965</v>
+        <v>44.017</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>3.311</v>
+        <v>5.442</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>1.188</v>
@@ -2274,25 +2274,25 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2899.866</v>
+        <v>3067.38</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>41.965</v>
+        <v>44.069</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>3.563</v>
+        <v>5.442</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,25 +2300,25 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2899.866</v>
+        <v>3067.38</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>42.191</v>
+        <v>44.069</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>3.563</v>
+        <v>5.442</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,25 +2326,25 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2899.866</v>
+        <v>3067.856</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>42.191</v>
+        <v>44.069</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>3.563</v>
+        <v>5.442</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,25 +2352,25 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.084</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>42.191</v>
+        <v>44.069</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>3.563</v>
+        <v>5.442</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,25 +2378,25 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>42.191</v>
+        <v>44.069</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>3.563</v>
+        <v>5.442</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,25 +2404,25 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>42.191</v>
+        <v>44.069</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,25 +2430,25 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>42.416</v>
+        <v>44.069</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>3.793</v>
+        <v>5.69</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,25 +2456,25 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>157.835</v>
+        <v>164.049</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>42.65</v>
+        <v>44.069</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,25 +2482,25 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2912.717</v>
+        <v>3068.314</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>42.65</v>
+        <v>44.069</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,25 +2508,25 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2924.242</v>
+        <v>3068.314</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,25 +2534,25 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2924.242</v>
+        <v>3075.872</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,25 +2560,25 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2924.242</v>
+        <v>3094.404</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,25 +2586,25 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2924.242</v>
+        <v>3094.404</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,25 +2612,25 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2924.242</v>
+        <v>3094.404</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>42.665</v>
+        <v>44.292</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,25 +2638,25 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2924.242</v>
+        <v>3094.404</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>42.665</v>
+        <v>44.292</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,25 +2664,25 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2931.72</v>
+        <v>3104.759</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>43.124</v>
+        <v>44.292</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,25 +2690,25 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.759</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>43.124</v>
+        <v>44.292</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,25 +2716,25 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.759</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,25 +2742,25 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.759</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,25 +2768,25 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2950.356</v>
+        <v>3104.759</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,25 +2794,25 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2950.356</v>
+        <v>3104.759</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,25 +2820,25 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2963.804</v>
+        <v>3104.759</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,25 +2846,25 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2963.804</v>
+        <v>3104.759</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,25 +2872,25 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2963.804</v>
+        <v>3104.786</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,25 +2898,25 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2971.367</v>
+        <v>3104.798</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,25 +2924,25 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2980.453</v>
+        <v>3104.798</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,25 +2950,25 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,25 +2976,25 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,25 +3002,25 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,25 +3028,25 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,25 +3054,25 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,25 +3080,25 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,25 +3106,25 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,25 +3132,25 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,25 +3158,25 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G92" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3184,25 +3184,25 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,25 +3210,25 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,25 +3236,25 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,25 +3262,25 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>4.549</v>
+        <v>5.918</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,25 +3288,25 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,25 +3314,25 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,25 +3340,25 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,25 +3366,25 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,25 +3392,25 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>3005.43</v>
+        <v>3104.798</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,25 +3418,25 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G102" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,25 +3444,25 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,25 +3470,25 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G104" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,25 +3496,25 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>5.216</v>
+        <v>5.918</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,25 +3522,25 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,25 +3548,25 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,25 +3574,25 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>3018.213</v>
+        <v>3104.808</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,25 +3600,25 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>3027.483</v>
+        <v>3104.808</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,25 +3626,25 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.808</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,25 +3652,25 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.808</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,25 +3678,25 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.808</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,25 +3704,25 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.808</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,25 +3730,25 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>3045.333</v>
+        <v>3104.808</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,25 +3756,25 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.808</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,25 +3782,25 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.808</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>44.017</v>
+        <v>44.292</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,19 +3808,19 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.808</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>1.188</v>
@@ -3834,19 +3834,19 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.808</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G118" s="0" t="n">
         <v>1.188</v>
@@ -3860,19 +3860,19 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>3067.856</v>
+        <v>3104.808</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>1.188</v>
@@ -3886,19 +3886,19 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>3068.084</v>
+        <v>3104.808</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>1.188</v>
@@ -3912,19 +3912,19 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.808</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>1.188</v>
@@ -3938,19 +3938,19 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.808</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>1.188</v>
@@ -3964,19 +3964,19 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.808</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>5.69</v>
+        <v>5.918</v>
       </c>
       <c r="G123" s="0" t="n">
         <v>1.188</v>
@@ -3990,13 +3990,13 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.808</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>2.416</v>
@@ -4016,13 +4016,13 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>3068.314</v>
+        <v>3119.148</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>2.416</v>
@@ -4042,10 +4042,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>3068.314</v>
+        <v>3124.194</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>44.292</v>
@@ -4068,10 +4068,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>3075.872</v>
+        <v>3124.194</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>44.292</v>
@@ -4094,10 +4094,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>3094.404</v>
+        <v>3124.194</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>44.292</v>
@@ -4120,10 +4120,10 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>3094.404</v>
+        <v>3124.194</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>44.292</v>
@@ -4146,10 +4146,10 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3094.404</v>
+        <v>3124.682</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>44.292</v>
@@ -4172,10 +4172,10 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>3094.404</v>
+        <v>3140.801</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>44.292</v>
@@ -4198,10 +4198,10 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.801</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>44.292</v>
@@ -4224,10 +4224,10 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.801</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>44.292</v>
@@ -4250,10 +4250,10 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.801</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>44.292</v>
@@ -4276,10 +4276,10 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.961</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>44.292</v>
@@ -4302,10 +4302,10 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.961</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>44.292</v>
@@ -4328,10 +4328,10 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3104.759</v>
+        <v>3148.376</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>164.049</v>
+        <v>198.064</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>44.292</v>
@@ -4354,10 +4354,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3104.759</v>
+        <v>3169.944</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>164.049</v>
+        <v>198.064</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>44.292</v>
@@ -4380,10 +4380,10 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>3104.759</v>
+        <v>3192.78</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>164.049</v>
+        <v>200.548</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>44.292</v>
@@ -4406,10 +4406,10 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3104.786</v>
+        <v>3192.78</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>44.292</v>
@@ -4432,10 +4432,10 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>3104.798</v>
+        <v>3192.78</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>44.292</v>
@@ -4458,10 +4458,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3104.798</v>
+        <v>3192.78</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>44.292</v>
@@ -4484,10 +4484,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>3104.798</v>
+        <v>3192.78</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>44.292</v>
@@ -4510,10 +4510,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>3104.798</v>
+        <v>3192.781</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>44.292</v>
@@ -4536,10 +4536,10 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>44.292</v>
@@ -4562,10 +4562,10 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>44.292</v>
@@ -4588,10 +4588,10 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>44.292</v>
@@ -4614,10 +4614,10 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>44.292</v>
@@ -4640,10 +4640,10 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>44.292</v>
@@ -4666,10 +4666,10 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.517</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>44.292</v>
@@ -4692,10 +4692,10 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.517</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>44.292</v>
@@ -4718,10 +4718,10 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.517</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>44.292</v>
@@ -4744,10 +4744,10 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>44.292</v>
@@ -4770,10 +4770,10 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>44.292</v>
@@ -4796,10 +4796,10 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>44.292</v>
@@ -4822,10 +4822,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>44.292</v>
@@ -4848,10 +4848,10 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>44.292</v>
@@ -4874,10 +4874,10 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>44.292</v>
@@ -4900,10 +4900,10 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>44.292</v>
@@ -4926,10 +4926,10 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>3104.798</v>
+        <v>3195.973</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>44.292</v>
@@ -4952,10 +4952,10 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>44.292</v>
@@ -4978,10 +4978,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>44.292</v>
@@ -5004,10 +5004,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>44.292</v>
@@ -5030,10 +5030,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>44.292</v>
@@ -5056,10 +5056,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>44.292</v>
@@ -5082,10 +5082,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.382</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>44.292</v>
@@ -5108,10 +5108,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.382</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>44.292</v>
@@ -5134,10 +5134,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.636</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>44.292</v>
@@ -5160,10 +5160,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.636</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>44.292</v>
@@ -5186,10 +5186,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.863</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>44.292</v>
@@ -5212,10 +5212,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.863</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>44.292</v>
@@ -5238,10 +5238,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.863</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>44.292</v>
@@ -5264,10 +5264,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.015</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>44.292</v>
@@ -5290,10 +5290,10 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.015</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>44.292</v>
@@ -5316,10 +5316,10 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.015</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>44.292</v>
@@ -5342,10 +5342,10 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.152</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>44.292</v>
@@ -5368,10 +5368,10 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.152</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>44.292</v>
@@ -5394,10 +5394,10 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.376</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>44.292</v>
@@ -5420,10 +5420,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.376</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>44.292</v>
@@ -5446,10 +5446,10 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>3104.808</v>
+        <v>3226.569</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>44.292</v>
@@ -5472,10 +5472,10 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>3104.808</v>
+        <v>3226.569</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>44.292</v>
@@ -5498,10 +5498,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>3104.808</v>
+        <v>3226.569</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>44.292</v>
@@ -5524,10 +5524,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>3104.808</v>
+        <v>3226.569</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>44.292</v>
@@ -5550,10 +5550,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>3119.148</v>
+        <v>3226.569</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>44.292</v>
@@ -5576,10 +5576,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>3124.194</v>
+        <v>3226.569</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>44.292</v>
@@ -5602,10 +5602,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>3124.194</v>
+        <v>3226.569</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>44.292</v>
@@ -5628,10 +5628,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>3124.194</v>
+        <v>3227.731</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>44.292</v>
@@ -5654,10 +5654,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>3124.194</v>
+        <v>3227.731</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>44.292</v>
@@ -5680,10 +5680,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3124.682</v>
+        <v>3227.731</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>44.292</v>
@@ -5706,10 +5706,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>3140.801</v>
+        <v>3227.731</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>44.292</v>
@@ -5732,10 +5732,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>3140.801</v>
+        <v>3227.731</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>44.292</v>
@@ -5758,10 +5758,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>3140.801</v>
+        <v>3227.731</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>44.292</v>
@@ -5784,10 +5784,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>3140.801</v>
+        <v>3227.731</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>44.292</v>
@@ -5810,10 +5810,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>3140.961</v>
+        <v>3235.248</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>44.292</v>
@@ -5836,10 +5836,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>3140.961</v>
+        <v>3251.563</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>44.292</v>
@@ -5862,10 +5862,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>3148.376</v>
+        <v>3251.563</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>198.064</v>
+        <v>209.674</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>44.292</v>
@@ -5888,10 +5888,10 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>3169.944</v>
+        <v>3251.563</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>198.064</v>
+        <v>209.674</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>44.292</v>
@@ -5914,10 +5914,10 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>3192.78</v>
+        <v>3252.176</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>200.548</v>
+        <v>209.674</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>44.292</v>
@@ -5940,10 +5940,10 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>3192.78</v>
+        <v>3252.176</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>200.548</v>
+        <v>209.674</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>44.292</v>
@@ -5966,10 +5966,10 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>3192.78</v>
+        <v>3252.176</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>200.548</v>
+        <v>209.674</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>44.292</v>
@@ -5992,10 +5992,10 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3192.78</v>
+        <v>3252.434</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>200.548</v>
+        <v>209.674</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>44.292</v>
@@ -6018,10 +6018,10 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>3192.78</v>
+        <v>3254.054</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>44.292</v>
@@ -6044,10 +6044,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>3192.781</v>
+        <v>3254.054</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>44.292</v>
@@ -6070,10 +6070,10 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>3193.215</v>
+        <v>3254.054</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>44.292</v>
@@ -6096,10 +6096,10 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>3193.215</v>
+        <v>3254.116</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>44.292</v>
@@ -6122,10 +6122,10 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>3193.215</v>
+        <v>3254.116</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>44.292</v>
@@ -6148,10 +6148,10 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>3193.215</v>
+        <v>3261.603</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>44.292</v>
@@ -6174,10 +6174,10 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>3193.215</v>
+        <v>3262.476</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>44.292</v>
@@ -6200,10 +6200,10 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>3193.517</v>
+        <v>3262.476</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>44.292</v>
@@ -6226,10 +6226,10 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>3193.517</v>
+        <v>3262.476</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>44.292</v>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,184 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-01 11:19:32 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-04 00:00:00 +0100</t>
+    <t xml:space="preserve">2024-03-04 14:30:00 +0100</t>
   </si>
   <si>
     <t xml:space="preserve">2024-03-05 00:00:00 +0100</t>
@@ -670,7 +493,190 @@
     <t xml:space="preserve">2024-07-30 00:00:00 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-08-02 22:57:27 +0200</t>
+    <t xml:space="preserve">2024-08-02 23:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01 22:15:53 +0200</t>
   </si>
 </sst>
 </file>
@@ -771,10 +777,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H210"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -818,25 +824,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>42.191</v>
+        <v>44.069</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3.563</v>
+        <v>5.442</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,25 +850,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>42.191</v>
+        <v>44.069</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3.563</v>
+        <v>5.442</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,25 +876,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>42.191</v>
+        <v>44.069</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3.793</v>
+        <v>5.442</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,25 +902,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>157.782</v>
+        <v>164.049</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>42.416</v>
+        <v>44.069</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3.793</v>
+        <v>5.69</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,25 +928,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2900.388</v>
+        <v>3068.314</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>157.835</v>
+        <v>164.049</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>42.65</v>
+        <v>44.069</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2912.717</v>
+        <v>3068.314</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>42.65</v>
+        <v>44.069</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,25 +980,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2924.242</v>
+        <v>3068.314</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,25 +1006,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2924.242</v>
+        <v>3075.872</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,25 +1032,25 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2924.242</v>
+        <v>3094.404</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2924.242</v>
+        <v>3094.404</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>42.65</v>
+        <v>44.292</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,25 +1084,25 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2924.242</v>
+        <v>3094.404</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>42.665</v>
+        <v>44.292</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,25 +1110,25 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2924.242</v>
+        <v>3094.404</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>42.665</v>
+        <v>44.292</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,25 +1136,25 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2931.72</v>
+        <v>3104.759</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>43.124</v>
+        <v>44.292</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,25 +1162,25 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.759</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>43.124</v>
+        <v>44.292</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,25 +1188,25 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.759</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,25 +1214,25 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2950.048</v>
+        <v>3104.759</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,25 +1240,25 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2950.356</v>
+        <v>3104.759</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,25 +1266,25 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2950.356</v>
+        <v>3104.759</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>159.561</v>
+        <v>164.049</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,25 +1292,25 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2963.804</v>
+        <v>3104.759</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,25 +1318,25 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2963.804</v>
+        <v>3104.759</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>164.049</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,25 +1344,25 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2963.804</v>
+        <v>3104.786</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,25 +1370,25 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2971.367</v>
+        <v>3104.798</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,25 +1396,25 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2980.453</v>
+        <v>3104.798</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,25 +1422,25 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,25 +1448,25 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,25 +1474,25 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,25 +1500,25 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,25 +1526,25 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,25 +1552,25 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,25 +1578,25 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,25 +1604,25 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,25 +1630,25 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>43.729</v>
+        <v>44.292</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,25 +1656,25 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2997.787</v>
+        <v>3104.798</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,25 +1682,25 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,25 +1708,25 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>164.049</v>
+        <v>164.093</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>3.793</v>
+        <v>5.918</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,25 +1734,25 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>4.549</v>
+        <v>5.918</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,25 +1760,25 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,25 +1786,25 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,25 +1812,25 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,25 +1838,25 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2997.937</v>
+        <v>3104.798</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,25 +1864,25 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>3005.43</v>
+        <v>3104.798</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>164.049</v>
+        <v>164.203</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,25 +1890,25 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,25 +1916,25 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>43.736</v>
+        <v>44.292</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,25 +1942,25 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>4.949</v>
+        <v>5.918</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,25 +1968,25 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>5.216</v>
+        <v>5.918</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,25 +1994,25 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2.256</v>
+        <v>2.416</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,25 +2020,25 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>3010.782</v>
+        <v>3104.808</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,25 +2046,25 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>3018.213</v>
+        <v>3104.808</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,25 +2072,25 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>3027.483</v>
+        <v>3104.808</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>164.049</v>
+        <v>164.247</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,25 +2098,25 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.808</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,25 +2124,25 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.808</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,25 +2150,25 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.808</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>43.971</v>
+        <v>44.292</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,25 +2176,25 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>3037.77</v>
+        <v>3104.808</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,25 +2202,25 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>3045.333</v>
+        <v>3104.808</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,25 +2228,25 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.808</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>43.979</v>
+        <v>44.292</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>2.362</v>
+        <v>2.416</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,25 +2254,25 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.808</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>44.017</v>
+        <v>44.292</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>1.188</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1873.577</v>
+        <v>1924.316</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,19 +2280,19 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.808</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>1.188</v>
@@ -2300,19 +2306,19 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>3067.38</v>
+        <v>3104.808</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>1.188</v>
@@ -2326,19 +2332,19 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3067.856</v>
+        <v>3104.808</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>1.188</v>
@@ -2352,19 +2358,19 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>3068.084</v>
+        <v>3104.808</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>1.188</v>
@@ -2378,19 +2384,19 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.808</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>1.188</v>
@@ -2404,19 +2410,19 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.808</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>1.188</v>
@@ -2430,19 +2436,19 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.808</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>5.69</v>
+        <v>5.918</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>1.188</v>
@@ -2456,13 +2462,13 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3068.314</v>
+        <v>3104.808</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>164.049</v>
+        <v>164.249</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2.416</v>
@@ -2482,13 +2488,13 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>3068.314</v>
+        <v>3119.148</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>2.416</v>
@@ -2508,10 +2514,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>3068.314</v>
+        <v>3124.194</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>44.292</v>
@@ -2534,10 +2540,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>3075.872</v>
+        <v>3124.194</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>44.292</v>
@@ -2560,10 +2566,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>3094.404</v>
+        <v>3124.194</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>44.292</v>
@@ -2586,10 +2592,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>3094.404</v>
+        <v>3124.194</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>44.292</v>
@@ -2612,10 +2618,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>3094.404</v>
+        <v>3124.682</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>164.049</v>
+        <v>182.007</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>44.292</v>
@@ -2638,10 +2644,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>3094.404</v>
+        <v>3140.801</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>44.292</v>
@@ -2664,10 +2670,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.801</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>44.292</v>
@@ -2690,10 +2696,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.801</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>44.292</v>
@@ -2716,10 +2722,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.801</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>44.292</v>
@@ -2742,10 +2748,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.961</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>44.292</v>
@@ -2768,10 +2774,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>3104.759</v>
+        <v>3140.961</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>164.049</v>
+        <v>187.483</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>44.292</v>
@@ -2794,10 +2800,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>3104.759</v>
+        <v>3148.376</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>164.049</v>
+        <v>198.064</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>44.292</v>
@@ -2820,10 +2826,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>3104.759</v>
+        <v>3169.944</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>164.049</v>
+        <v>198.064</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>44.292</v>
@@ -2846,10 +2852,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>3104.759</v>
+        <v>3192.78</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>164.049</v>
+        <v>200.548</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>44.292</v>
@@ -2872,10 +2878,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>3104.786</v>
+        <v>3192.78</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>44.292</v>
@@ -2898,10 +2904,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>3104.798</v>
+        <v>3192.78</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>44.292</v>
@@ -2924,10 +2930,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>3104.798</v>
+        <v>3192.78</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>44.292</v>
@@ -2950,10 +2956,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>3104.798</v>
+        <v>3192.78</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>44.292</v>
@@ -2976,10 +2982,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>3104.798</v>
+        <v>3192.781</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>44.292</v>
@@ -3002,10 +3008,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>44.292</v>
@@ -3028,10 +3034,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>44.292</v>
@@ -3054,10 +3060,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>44.292</v>
@@ -3080,10 +3086,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>164.093</v>
+        <v>200.548</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>44.292</v>
@@ -3106,10 +3112,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.215</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>44.292</v>
@@ -3132,10 +3138,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.517</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>44.292</v>
@@ -3158,10 +3164,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.517</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>44.292</v>
@@ -3184,10 +3190,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>3104.798</v>
+        <v>3193.517</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>44.292</v>
@@ -3210,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>44.292</v>
@@ -3236,10 +3242,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>164.093</v>
+        <v>200.961</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>44.292</v>
@@ -3262,10 +3268,10 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>44.292</v>
@@ -3288,10 +3294,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>44.292</v>
@@ -3314,10 +3320,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>44.292</v>
@@ -3340,10 +3346,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>44.292</v>
@@ -3366,10 +3372,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>3104.798</v>
+        <v>3194.466</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>44.292</v>
@@ -3392,10 +3398,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>3104.798</v>
+        <v>3195.973</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>164.203</v>
+        <v>200.961</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>44.292</v>
@@ -3418,10 +3424,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>44.292</v>
@@ -3444,10 +3450,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>44.292</v>
@@ -3470,10 +3476,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>44.292</v>
@@ -3496,10 +3502,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>44.292</v>
@@ -3522,10 +3528,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>3104.808</v>
+        <v>3195.973</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>164.247</v>
+        <v>200.961</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>44.292</v>
@@ -3548,10 +3554,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.382</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>44.292</v>
@@ -3574,10 +3580,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.382</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>44.292</v>
@@ -3600,10 +3606,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.636</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>44.292</v>
@@ -3626,10 +3632,10 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.636</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>44.292</v>
@@ -3652,10 +3658,10 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.863</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>44.292</v>
@@ -3678,10 +3684,10 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.863</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>44.292</v>
@@ -3704,10 +3710,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>3104.808</v>
+        <v>3223.863</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>44.292</v>
@@ -3730,10 +3736,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.015</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>44.292</v>
@@ -3756,10 +3762,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.015</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>44.292</v>
@@ -3782,10 +3788,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.015</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>44.292</v>
@@ -3808,10 +3814,10 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.152</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>44.292</v>
@@ -3834,10 +3840,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.152</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>44.292</v>
@@ -3860,10 +3866,10 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.376</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>44.292</v>
@@ -3886,10 +3892,10 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>3104.808</v>
+        <v>3225.376</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>44.292</v>
@@ -3912,10 +3918,10 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>3104.808</v>
+        <v>3226.569</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>44.292</v>
@@ -3938,10 +3944,10 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>3104.808</v>
+        <v>3226.569</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>44.292</v>
@@ -3964,10 +3970,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>3104.808</v>
+        <v>3226.569</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>44.292</v>
@@ -3990,10 +3996,10 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>3104.808</v>
+        <v>3226.569</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>44.292</v>
@@ -4016,10 +4022,10 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>3119.148</v>
+        <v>3226.569</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>44.292</v>
@@ -4042,10 +4048,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>3124.194</v>
+        <v>3226.569</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>44.292</v>
@@ -4068,10 +4074,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>3124.194</v>
+        <v>3226.569</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>44.292</v>
@@ -4094,10 +4100,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>3124.194</v>
+        <v>3227.731</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>44.292</v>
@@ -4120,10 +4126,10 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>3124.194</v>
+        <v>3227.731</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>44.292</v>
@@ -4146,10 +4152,10 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3124.682</v>
+        <v>3227.731</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>182.007</v>
+        <v>209.674</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>44.292</v>
@@ -4172,10 +4178,10 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>3140.801</v>
+        <v>3227.731</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>44.292</v>
@@ -4198,10 +4204,10 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>3140.801</v>
+        <v>3227.731</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>44.292</v>
@@ -4224,10 +4230,10 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>3140.801</v>
+        <v>3227.731</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>44.292</v>
@@ -4250,10 +4256,10 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>3140.801</v>
+        <v>3227.731</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>44.292</v>
@@ -4276,10 +4282,10 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3140.961</v>
+        <v>3235.248</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>44.292</v>
@@ -4302,10 +4308,10 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3140.961</v>
+        <v>3251.563</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>187.483</v>
+        <v>209.674</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>44.292</v>
@@ -4328,10 +4334,10 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3148.376</v>
+        <v>3251.563</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>198.064</v>
+        <v>209.674</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>44.292</v>
@@ -4354,10 +4360,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3169.944</v>
+        <v>3251.563</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>198.064</v>
+        <v>209.674</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>44.292</v>
@@ -4380,10 +4386,10 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>3192.78</v>
+        <v>3252.176</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>200.548</v>
+        <v>209.674</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>44.292</v>
@@ -4406,10 +4412,10 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3192.78</v>
+        <v>3252.176</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>200.548</v>
+        <v>209.674</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>44.292</v>
@@ -4432,10 +4438,10 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>3192.78</v>
+        <v>3252.176</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>200.548</v>
+        <v>209.674</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>44.292</v>
@@ -4458,10 +4464,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3192.78</v>
+        <v>3252.434</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>200.548</v>
+        <v>209.674</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>44.292</v>
@@ -4484,10 +4490,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>3192.78</v>
+        <v>3254.054</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>44.292</v>
@@ -4510,10 +4516,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>3192.781</v>
+        <v>3254.054</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>44.292</v>
@@ -4536,10 +4542,10 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>3193.215</v>
+        <v>3254.054</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>44.292</v>
@@ -4562,10 +4568,10 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>3193.215</v>
+        <v>3254.116</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>44.292</v>
@@ -4588,10 +4594,10 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>3193.215</v>
+        <v>3254.116</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>44.292</v>
@@ -4614,10 +4620,10 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>3193.215</v>
+        <v>3261.603</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>200.548</v>
+        <v>209.755</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>44.292</v>
@@ -4640,10 +4646,10 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>3193.215</v>
+        <v>3262.476</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>44.292</v>
@@ -4666,10 +4672,10 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>3193.517</v>
+        <v>3262.476</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>44.292</v>
@@ -4692,10 +4698,10 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>3193.517</v>
+        <v>3262.476</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>44.292</v>
@@ -4718,10 +4724,10 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>3193.517</v>
+        <v>3262.483</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>44.292</v>
@@ -4744,10 +4750,10 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>3194.466</v>
+        <v>3270.007</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>44.292</v>
@@ -4770,10 +4776,10 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>3194.466</v>
+        <v>3288.198</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>44.292</v>
@@ -4796,10 +4802,10 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>3194.466</v>
+        <v>3288.198</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>44.292</v>
@@ -4822,10 +4828,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>3194.466</v>
+        <v>3288.198</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>44.292</v>
@@ -4848,10 +4854,10 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>3194.466</v>
+        <v>3288.198</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>44.292</v>
@@ -4874,10 +4880,10 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>3194.466</v>
+        <v>3288.198</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>44.292</v>
@@ -4900,10 +4906,10 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>3194.466</v>
+        <v>3288.198</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>44.292</v>
@@ -4926,10 +4932,10 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>3195.973</v>
+        <v>3295.711</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>44.292</v>
@@ -4952,10 +4958,10 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>3195.973</v>
+        <v>3314.372</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>200.961</v>
+        <v>209.755</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>44.292</v>
@@ -4978,10 +4984,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>3195.973</v>
+        <v>3337.04</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>200.961</v>
+        <v>211.067</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>44.292</v>
@@ -5004,10 +5010,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3195.973</v>
+        <v>3337.04</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>200.961</v>
+        <v>211.067</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>44.292</v>
@@ -5030,10 +5036,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3195.973</v>
+        <v>3337.04</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>200.961</v>
+        <v>211.067</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>44.292</v>
@@ -5056,10 +5062,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3195.973</v>
+        <v>3337.04</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>200.961</v>
+        <v>211.067</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>44.292</v>
@@ -5082,10 +5088,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>3223.382</v>
+        <v>3337.04</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>209.674</v>
+        <v>211.067</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>44.292</v>
@@ -5108,10 +5114,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>3223.382</v>
+        <v>3337.04</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>209.674</v>
+        <v>211.067</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>44.292</v>
@@ -5134,10 +5140,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>3223.636</v>
+        <v>3337.04</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>209.674</v>
+        <v>211.067</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>44.292</v>
@@ -5160,10 +5166,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>3223.636</v>
+        <v>3337.04</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>209.674</v>
+        <v>211.067</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>44.292</v>
@@ -5186,10 +5192,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3223.863</v>
+        <v>3337.04</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>209.674</v>
+        <v>211.067</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>44.292</v>
@@ -5212,10 +5218,10 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>3223.863</v>
+        <v>3337.04</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>209.674</v>
+        <v>211.827</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>44.292</v>
@@ -5238,10 +5244,10 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3223.863</v>
+        <v>3337.04</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>209.674</v>
+        <v>211.827</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>44.292</v>
@@ -5264,10 +5270,10 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>3225.015</v>
+        <v>3337.04</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>209.674</v>
+        <v>211.827</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>44.292</v>
@@ -5290,10 +5296,10 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>3225.015</v>
+        <v>3365.756</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>209.674</v>
+        <v>211.831</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>44.292</v>
@@ -5316,10 +5322,10 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>3225.015</v>
+        <v>3374.855</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>209.674</v>
+        <v>211.831</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>44.292</v>
@@ -5342,10 +5348,10 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>3225.152</v>
+        <v>3374.855</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>209.674</v>
+        <v>211.831</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>44.292</v>
@@ -5368,10 +5374,10 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>3225.152</v>
+        <v>3374.855</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>209.674</v>
+        <v>211.831</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>44.292</v>
@@ -5394,10 +5400,10 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>3225.376</v>
+        <v>3374.862</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>209.674</v>
+        <v>211.831</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>44.292</v>
@@ -5420,10 +5426,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>3225.376</v>
+        <v>3374.862</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>209.674</v>
+        <v>211.831</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>44.292</v>
@@ -5446,10 +5452,10 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>3226.569</v>
+        <v>3374.862</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>209.674</v>
+        <v>211.831</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>44.292</v>
@@ -5472,10 +5478,10 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>3226.569</v>
+        <v>3375.287</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>44.292</v>
@@ -5498,10 +5504,10 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>3226.569</v>
+        <v>3375.922</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>44.292</v>
@@ -5524,10 +5530,10 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>3226.569</v>
+        <v>3375.922</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>44.292</v>
@@ -5550,10 +5556,10 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>3226.569</v>
+        <v>3375.922</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>44.292</v>
@@ -5576,10 +5582,10 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>3226.569</v>
+        <v>3376.205</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>44.292</v>
@@ -5602,10 +5608,10 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>3226.569</v>
+        <v>3376.205</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>44.292</v>
@@ -5628,10 +5634,10 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>3227.731</v>
+        <v>3376.205</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>44.292</v>
@@ -5654,10 +5660,10 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>3227.731</v>
+        <v>3376.254</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>209.674</v>
+        <v>211.895</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>44.292</v>
@@ -5680,10 +5686,10 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3227.731</v>
+        <v>3376.342</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>44.292</v>
@@ -5706,10 +5712,10 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>3227.731</v>
+        <v>3376.342</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>44.292</v>
@@ -5732,10 +5738,10 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>3227.731</v>
+        <v>3376.342</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>44.292</v>
@@ -5758,10 +5764,10 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>3227.731</v>
+        <v>3376.342</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>44.292</v>
@@ -5784,10 +5790,10 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>3227.731</v>
+        <v>3376.342</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>44.292</v>
@@ -5810,10 +5816,10 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>3235.248</v>
+        <v>3383.895</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>44.292</v>
@@ -5836,10 +5842,10 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>3251.563</v>
+        <v>3384.838</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>44.292</v>
@@ -5862,10 +5868,10 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>3251.563</v>
+        <v>3384.838</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>44.292</v>
@@ -5888,10 +5894,10 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>3251.563</v>
+        <v>3384.838</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>44.292</v>
@@ -5914,10 +5920,10 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>3252.176</v>
+        <v>3384.838</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>44.292</v>
@@ -5940,10 +5946,10 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>3252.176</v>
+        <v>3384.838</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>44.292</v>
@@ -5966,10 +5972,10 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>3252.176</v>
+        <v>3384.838</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>44.292</v>
@@ -5992,10 +5998,10 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3252.434</v>
+        <v>3385.726</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>44.292</v>
@@ -6018,10 +6024,10 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>3254.054</v>
+        <v>3393.193</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>44.292</v>
@@ -6044,10 +6050,10 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>3254.054</v>
+        <v>3402.209</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>44.292</v>
@@ -6070,10 +6076,10 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>3254.054</v>
+        <v>3402.209</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>44.292</v>
@@ -6096,10 +6102,10 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>3254.116</v>
+        <v>3402.349</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>44.292</v>
@@ -6122,10 +6128,10 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>3254.116</v>
+        <v>3402.349</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>44.292</v>
@@ -6148,10 +6154,10 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>3261.603</v>
+        <v>3402.349</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>44.292</v>
@@ -6174,10 +6180,10 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>3262.476</v>
+        <v>3402.689</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>44.292</v>
@@ -6200,10 +6206,10 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>3262.476</v>
+        <v>3402.689</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>44.292</v>
@@ -6226,10 +6232,10 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>3262.476</v>
+        <v>3403.331</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>209.755</v>
+        <v>211.903</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>44.292</v>
@@ -6244,6 +6250,58 @@
         <v>1.188</v>
       </c>
       <c r="H210" s="0" t="n">
+        <v>1924.316</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>3403.331</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>211.903</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>44.292</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>2.416</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>5.918</v>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <v>1924.316</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>3403.331</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>211.903</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>44.292</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>2.416</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>5.918</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="H212" s="0" t="n">
         <v>1924.316</v>
       </c>
     </row>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,265 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-04 14:30:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-29 00:00:00 +0200</t>
+    <t xml:space="preserve">2024-05-29 12:30:01 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2024-05-30 00:00:00 +0200</t>
@@ -676,7 +418,265 @@
     <t xml:space="preserve">2024-10-01 00:00:00 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-10-01 22:15:53 +0200</t>
+    <t xml:space="preserve">2024-10-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-26 18:49:55 +0100</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,19 +824,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>3068.314</v>
+        <v>3193.215</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>164.049</v>
+        <v>200.548</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1.188</v>
@@ -850,19 +850,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3068.314</v>
+        <v>3193.215</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>164.049</v>
+        <v>200.548</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1.188</v>
@@ -876,19 +876,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3068.314</v>
+        <v>3193.215</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5.442</v>
+        <v>5.918</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1.188</v>
@@ -902,19 +902,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3068.314</v>
+        <v>3193.517</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5.69</v>
+        <v>5.918</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1.188</v>
@@ -928,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3068.314</v>
+        <v>3193.517</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2.416</v>
@@ -954,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3068.314</v>
+        <v>3193.517</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>44.069</v>
+        <v>44.292</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2.416</v>
@@ -980,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3068.314</v>
+        <v>3194.466</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>44.292</v>
@@ -1006,10 +1006,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3075.872</v>
+        <v>3194.466</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>44.292</v>
@@ -1032,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3094.404</v>
+        <v>3194.466</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>44.292</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3094.404</v>
+        <v>3194.466</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>44.292</v>
@@ -1084,10 +1084,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3094.404</v>
+        <v>3194.466</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>44.292</v>
@@ -1110,10 +1110,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3094.404</v>
+        <v>3194.466</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>44.292</v>
@@ -1136,10 +1136,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3104.759</v>
+        <v>3194.466</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>44.292</v>
@@ -1162,10 +1162,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3104.759</v>
+        <v>3195.973</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>44.292</v>
@@ -1188,10 +1188,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3104.759</v>
+        <v>3195.973</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>44.292</v>
@@ -1214,10 +1214,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3104.759</v>
+        <v>3195.973</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>44.292</v>
@@ -1240,10 +1240,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3104.759</v>
+        <v>3195.973</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>44.292</v>
@@ -1266,10 +1266,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3104.759</v>
+        <v>3195.973</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>44.292</v>
@@ -1292,10 +1292,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3104.759</v>
+        <v>3195.973</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>164.049</v>
+        <v>200.961</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>44.292</v>
@@ -1318,10 +1318,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3104.759</v>
+        <v>3223.382</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>164.049</v>
+        <v>209.674</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>44.292</v>
@@ -1344,10 +1344,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3104.786</v>
+        <v>3223.382</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>44.292</v>
@@ -1370,10 +1370,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3104.798</v>
+        <v>3223.636</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>44.292</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3104.798</v>
+        <v>3223.636</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>44.292</v>
@@ -1422,10 +1422,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3104.798</v>
+        <v>3223.863</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>44.292</v>
@@ -1448,10 +1448,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3104.798</v>
+        <v>3223.863</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>44.292</v>
@@ -1474,10 +1474,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3104.798</v>
+        <v>3223.863</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>44.292</v>
@@ -1500,10 +1500,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3104.798</v>
+        <v>3225.015</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>44.292</v>
@@ -1526,10 +1526,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3104.798</v>
+        <v>3225.015</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>44.292</v>
@@ -1552,10 +1552,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3104.798</v>
+        <v>3225.015</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>44.292</v>
@@ -1578,10 +1578,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>3104.798</v>
+        <v>3225.152</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>44.292</v>
@@ -1604,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3104.798</v>
+        <v>3225.152</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>44.292</v>
@@ -1630,10 +1630,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>3104.798</v>
+        <v>3225.376</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>44.292</v>
@@ -1656,10 +1656,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>3104.798</v>
+        <v>3225.376</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>44.292</v>
@@ -1682,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>3104.798</v>
+        <v>3226.569</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>44.292</v>
@@ -1708,10 +1708,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>3104.798</v>
+        <v>3226.569</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>164.093</v>
+        <v>209.674</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>44.292</v>
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>3104.798</v>
+        <v>3226.569</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>164.203</v>
+        <v>209.674</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>44.292</v>
@@ -1760,10 +1760,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>3104.798</v>
+        <v>3226.569</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>164.203</v>
+        <v>209.674</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>44.292</v>
@@ -1786,10 +1786,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>3104.798</v>
+        <v>3226.569</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>164.203</v>
+        <v>209.674</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>44.292</v>
@@ -1812,10 +1812,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>3104.798</v>
+        <v>3226.569</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>164.203</v>
+        <v>209.674</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>44.292</v>
@@ -1838,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>3104.798</v>
+        <v>3226.569</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>164.203</v>
+        <v>209.674</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>44.292</v>
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>3104.798</v>
+        <v>3227.731</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>164.203</v>
+        <v>209.674</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>44.292</v>
@@ -1890,10 +1890,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>3104.808</v>
+        <v>3227.731</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>44.292</v>
@@ -1916,10 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>3104.808</v>
+        <v>3227.731</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>44.292</v>
@@ -1942,10 +1942,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>3104.808</v>
+        <v>3227.731</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>44.292</v>
@@ -1968,10 +1968,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>3104.808</v>
+        <v>3227.731</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>44.292</v>
@@ -1994,10 +1994,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>3104.808</v>
+        <v>3227.731</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>44.292</v>
@@ -2020,10 +2020,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>3104.808</v>
+        <v>3227.731</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>44.292</v>
@@ -2046,10 +2046,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>3104.808</v>
+        <v>3235.248</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>44.292</v>
@@ -2072,10 +2072,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>3104.808</v>
+        <v>3251.563</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>164.247</v>
+        <v>209.674</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>44.292</v>
@@ -2098,10 +2098,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>3104.808</v>
+        <v>3251.563</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>44.292</v>
@@ -2124,10 +2124,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>3104.808</v>
+        <v>3251.563</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>44.292</v>
@@ -2150,10 +2150,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>3104.808</v>
+        <v>3252.176</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>44.292</v>
@@ -2176,10 +2176,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>3104.808</v>
+        <v>3252.176</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>44.292</v>
@@ -2202,10 +2202,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>3104.808</v>
+        <v>3252.176</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>44.292</v>
@@ -2228,10 +2228,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>3104.808</v>
+        <v>3252.434</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>164.249</v>
+        <v>209.674</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>44.292</v>
@@ -2254,10 +2254,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>3104.808</v>
+        <v>3254.054</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>44.292</v>
@@ -2280,10 +2280,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>3104.808</v>
+        <v>3254.054</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>44.292</v>
@@ -2306,10 +2306,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>3104.808</v>
+        <v>3254.054</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>44.292</v>
@@ -2332,10 +2332,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3104.808</v>
+        <v>3254.116</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>44.292</v>
@@ -2358,10 +2358,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>3104.808</v>
+        <v>3254.116</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>44.292</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>3104.808</v>
+        <v>3261.603</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>44.292</v>
@@ -2410,10 +2410,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>3104.808</v>
+        <v>3262.476</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>44.292</v>
@@ -2436,10 +2436,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>3104.808</v>
+        <v>3262.476</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>44.292</v>
@@ -2462,10 +2462,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3104.808</v>
+        <v>3262.476</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>164.249</v>
+        <v>209.755</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>44.292</v>
@@ -2488,10 +2488,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>3119.148</v>
+        <v>3262.483</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>182.007</v>
+        <v>209.755</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>44.292</v>
@@ -2514,10 +2514,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>3124.194</v>
+        <v>3270.007</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>182.007</v>
+        <v>209.755</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>44.292</v>
@@ -2540,10 +2540,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>3124.194</v>
+        <v>3288.198</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>182.007</v>
+        <v>209.755</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>44.292</v>
@@ -2566,10 +2566,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>3124.194</v>
+        <v>3288.198</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>182.007</v>
+        <v>209.755</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>44.292</v>
@@ -2592,10 +2592,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>3124.194</v>
+        <v>3288.198</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>182.007</v>
+        <v>209.755</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>44.292</v>
@@ -2618,10 +2618,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>3124.682</v>
+        <v>3288.198</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>182.007</v>
+        <v>209.755</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>44.292</v>
@@ -2644,10 +2644,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>3140.801</v>
+        <v>3288.198</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>187.483</v>
+        <v>209.755</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>44.292</v>
@@ -2670,10 +2670,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>3140.801</v>
+        <v>3288.198</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>187.483</v>
+        <v>209.755</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>44.292</v>
@@ -2696,10 +2696,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>3140.801</v>
+        <v>3295.711</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>187.483</v>
+        <v>209.755</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>44.292</v>
@@ -2722,10 +2722,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>3140.801</v>
+        <v>3314.372</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>187.483</v>
+        <v>209.755</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>44.292</v>
@@ -2748,10 +2748,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>3140.961</v>
+        <v>3337.04</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>187.483</v>
+        <v>211.067</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>44.292</v>
@@ -2774,10 +2774,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>3140.961</v>
+        <v>3337.04</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>187.483</v>
+        <v>211.067</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>44.292</v>
@@ -2800,10 +2800,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>3148.376</v>
+        <v>3337.04</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>198.064</v>
+        <v>211.067</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>44.292</v>
@@ -2826,10 +2826,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>3169.944</v>
+        <v>3337.04</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>198.064</v>
+        <v>211.067</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>44.292</v>
@@ -2852,10 +2852,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>3192.78</v>
+        <v>3337.04</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>200.548</v>
+        <v>211.067</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>44.292</v>
@@ -2878,10 +2878,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>3192.78</v>
+        <v>3337.04</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>200.548</v>
+        <v>211.067</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>44.292</v>
@@ -2904,10 +2904,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>3192.78</v>
+        <v>3337.04</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>200.548</v>
+        <v>211.067</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>44.292</v>
@@ -2930,10 +2930,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>3192.78</v>
+        <v>3337.04</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>200.548</v>
+        <v>211.067</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>44.292</v>
@@ -2956,10 +2956,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>3192.78</v>
+        <v>3337.04</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>200.548</v>
+        <v>211.067</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>44.292</v>
@@ -2982,10 +2982,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>3192.781</v>
+        <v>3337.04</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>200.548</v>
+        <v>211.827</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>44.292</v>
@@ -3008,10 +3008,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>3193.215</v>
+        <v>3337.04</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>200.548</v>
+        <v>211.827</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>44.292</v>
@@ -3034,10 +3034,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>3193.215</v>
+        <v>3337.04</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>200.548</v>
+        <v>211.827</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>44.292</v>
@@ -3060,10 +3060,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>3193.215</v>
+        <v>3365.756</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>200.548</v>
+        <v>211.831</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>44.292</v>
@@ -3086,10 +3086,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>3193.215</v>
+        <v>3374.855</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>200.548</v>
+        <v>211.831</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>44.292</v>
@@ -3112,10 +3112,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>3193.215</v>
+        <v>3374.855</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>44.292</v>
@@ -3138,10 +3138,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>3193.517</v>
+        <v>3374.855</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>44.292</v>
@@ -3164,10 +3164,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>3193.517</v>
+        <v>3374.862</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>44.292</v>
@@ -3190,10 +3190,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>3193.517</v>
+        <v>3374.862</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>44.292</v>
@@ -3216,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>3194.466</v>
+        <v>3374.862</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>44.292</v>
@@ -3242,10 +3242,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>3194.466</v>
+        <v>3375.287</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>44.292</v>
@@ -3268,10 +3268,10 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>3194.466</v>
+        <v>3375.922</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>44.292</v>
@@ -3294,10 +3294,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>3194.466</v>
+        <v>3375.922</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>44.292</v>
@@ -3320,10 +3320,10 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>3194.466</v>
+        <v>3375.922</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>44.292</v>
@@ -3346,10 +3346,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>3194.466</v>
+        <v>3376.205</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>44.292</v>
@@ -3372,10 +3372,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>3194.466</v>
+        <v>3376.205</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>44.292</v>
@@ -3398,10 +3398,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>3195.973</v>
+        <v>3376.205</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>44.292</v>
@@ -3424,10 +3424,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>3195.973</v>
+        <v>3376.254</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>200.961</v>
+        <v>211.895</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>44.292</v>
@@ -3450,10 +3450,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>3195.973</v>
+        <v>3376.342</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>200.961</v>
+        <v>211.903</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>44.292</v>
@@ -3476,10 +3476,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>3195.973</v>
+        <v>3376.342</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>200.961</v>
+        <v>211.903</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>44.292</v>
@@ -3502,10 +3502,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>3195.973</v>
+        <v>3376.342</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>200.961</v>
+        <v>211.903</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>44.292</v>
@@ -3528,10 +3528,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>3195.973</v>
+        <v>3376.342</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>200.961</v>
+        <v>211.903</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>44.292</v>
@@ -3554,10 +3554,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>3223.382</v>
+        <v>3376.342</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>44.292</v>
@@ -3580,10 +3580,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>3223.382</v>
+        <v>3383.895</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>44.292</v>
@@ -3606,10 +3606,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>3223.636</v>
+        <v>3384.838</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>44.292</v>
@@ -3632,10 +3632,10 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>3223.636</v>
+        <v>3384.838</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>44.292</v>
@@ -3658,10 +3658,10 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>3223.863</v>
+        <v>3384.838</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>44.292</v>
@@ -3684,10 +3684,10 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>3223.863</v>
+        <v>3384.838</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>44.292</v>
@@ -3710,10 +3710,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>3223.863</v>
+        <v>3384.838</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>44.292</v>
@@ -3736,10 +3736,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>3225.015</v>
+        <v>3384.838</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>44.292</v>
@@ -3762,10 +3762,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>3225.015</v>
+        <v>3385.726</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>44.292</v>
@@ -3788,10 +3788,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>3225.015</v>
+        <v>3393.193</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>44.292</v>
@@ -3814,10 +3814,10 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>3225.152</v>
+        <v>3402.209</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>44.292</v>
@@ -3840,10 +3840,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>3225.152</v>
+        <v>3402.209</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>44.292</v>
@@ -3866,10 +3866,10 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>3225.376</v>
+        <v>3402.349</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>44.292</v>
@@ -3892,10 +3892,10 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>3225.376</v>
+        <v>3402.349</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>44.292</v>
@@ -3918,10 +3918,10 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>3226.569</v>
+        <v>3402.349</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>44.292</v>
@@ -3944,10 +3944,10 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>3226.569</v>
+        <v>3402.689</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>44.292</v>
@@ -3970,10 +3970,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>3226.569</v>
+        <v>3402.689</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>44.292</v>
@@ -3996,10 +3996,10 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>3226.569</v>
+        <v>3403.331</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>44.292</v>
@@ -4022,10 +4022,10 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>3226.569</v>
+        <v>3403.331</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>44.292</v>
@@ -4048,10 +4048,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>3226.569</v>
+        <v>3403.331</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>44.292</v>
@@ -4074,10 +4074,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>3226.569</v>
+        <v>3403.586</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>44.292</v>
@@ -4100,10 +4100,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>3227.731</v>
+        <v>3403.586</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>44.292</v>
@@ -4126,10 +4126,10 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>3227.731</v>
+        <v>3403.841</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>44.292</v>
@@ -4152,10 +4152,10 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3227.731</v>
+        <v>3403.841</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>44.292</v>
@@ -4178,10 +4178,10 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>3227.731</v>
+        <v>3411.378</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>44.292</v>
@@ -4204,10 +4204,10 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>3227.731</v>
+        <v>3414.314</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>44.292</v>
@@ -4230,10 +4230,10 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>3227.731</v>
+        <v>3414.314</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>44.292</v>
@@ -4256,10 +4256,10 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>3227.731</v>
+        <v>3414.314</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>44.292</v>
@@ -4282,10 +4282,10 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3235.248</v>
+        <v>3414.685</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>44.292</v>
@@ -4308,10 +4308,10 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3251.563</v>
+        <v>3414.685</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>44.292</v>
@@ -4334,10 +4334,10 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3251.563</v>
+        <v>3414.937</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>44.292</v>
@@ -4360,10 +4360,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3251.563</v>
+        <v>3414.937</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>44.292</v>
@@ -4386,10 +4386,10 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>3252.176</v>
+        <v>3415.234</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>209.674</v>
+        <v>212.011</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>44.292</v>
@@ -4412,10 +4412,10 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3252.176</v>
+        <v>3415.737</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>209.674</v>
+        <v>212.011</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>44.292</v>
@@ -4438,10 +4438,10 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>3252.176</v>
+        <v>3415.737</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>209.674</v>
+        <v>212.011</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>44.292</v>
@@ -4464,10 +4464,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3252.434</v>
+        <v>3415.977</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>209.674</v>
+        <v>212.011</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>44.292</v>
@@ -4490,10 +4490,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>3254.054</v>
+        <v>3415.977</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>44.292</v>
@@ -4516,10 +4516,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>3254.054</v>
+        <v>3416.207</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>44.292</v>
@@ -4542,10 +4542,10 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>3254.054</v>
+        <v>3416.207</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>44.292</v>
@@ -4568,10 +4568,10 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>3254.116</v>
+        <v>3416.484</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>44.292</v>
@@ -4594,10 +4594,10 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>3254.116</v>
+        <v>3416.484</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>44.292</v>
@@ -4620,10 +4620,10 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>3261.603</v>
+        <v>3416.484</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>44.292</v>
@@ -4646,10 +4646,10 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>3262.476</v>
+        <v>3416.484</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>44.292</v>
@@ -4672,10 +4672,10 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>3262.476</v>
+        <v>3416.484</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>44.292</v>
@@ -4698,10 +4698,10 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>3262.476</v>
+        <v>3416.484</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>44.292</v>
@@ -4724,10 +4724,10 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>3262.483</v>
+        <v>3417.938</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>44.292</v>
@@ -4750,10 +4750,10 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>3270.007</v>
+        <v>3417.938</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>44.292</v>
@@ -4776,10 +4776,10 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>3288.198</v>
+        <v>3417.938</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>44.292</v>
@@ -4802,10 +4802,10 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>3288.198</v>
+        <v>3417.938</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>44.292</v>
@@ -4828,10 +4828,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>3288.198</v>
+        <v>3417.938</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>44.292</v>
@@ -4854,10 +4854,10 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>3288.198</v>
+        <v>3417.938</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>44.292</v>
@@ -4880,10 +4880,10 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>3288.198</v>
+        <v>3417.938</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>44.292</v>
@@ -4906,10 +4906,10 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>3288.198</v>
+        <v>3419.122</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>44.292</v>
@@ -4932,10 +4932,10 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>3295.711</v>
+        <v>3419.122</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>44.292</v>
@@ -4958,10 +4958,10 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>3314.372</v>
+        <v>3419.122</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>44.292</v>
@@ -4984,10 +4984,10 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>44.292</v>
@@ -5010,10 +5010,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>44.292</v>
@@ -5036,10 +5036,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>44.292</v>
@@ -5062,10 +5062,10 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3337.04</v>
+        <v>3426.411</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>211.067</v>
+        <v>212.124</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>44.292</v>
@@ -5088,10 +5088,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>3337.04</v>
+        <v>3426.562</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>211.067</v>
+        <v>212.124</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>44.292</v>
@@ -5114,10 +5114,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>3337.04</v>
+        <v>3427.152</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>211.067</v>
+        <v>212.124</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>44.292</v>
@@ -5140,10 +5140,10 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>3337.04</v>
+        <v>3427.152</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>211.067</v>
+        <v>212.124</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>44.292</v>
@@ -5166,10 +5166,10 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>3337.04</v>
+        <v>3427.393</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>211.067</v>
+        <v>212.124</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>44.292</v>
@@ -5192,10 +5192,10 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3337.04</v>
+        <v>3427.393</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>211.067</v>
+        <v>212.124</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>44.292</v>
@@ -5218,13 +5218,13 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>3337.04</v>
+        <v>3427.393</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>211.827</v>
+        <v>212.124</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>2.416</v>
@@ -5244,13 +5244,13 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3337.04</v>
+        <v>3427.671</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>211.827</v>
+        <v>212.124</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>2.416</v>
@@ -5270,13 +5270,13 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>3337.04</v>
+        <v>3427.671</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>211.827</v>
+        <v>212.124</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>2.416</v>
@@ -5296,13 +5296,13 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>3365.756</v>
+        <v>3427.979</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>2.416</v>
@@ -5322,13 +5322,13 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>3374.855</v>
+        <v>3428.27</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>2.416</v>
@@ -5348,13 +5348,13 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>3374.855</v>
+        <v>3428.27</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>2.416</v>
@@ -5374,13 +5374,13 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>3374.855</v>
+        <v>3428.27</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>2.416</v>
@@ -5400,13 +5400,13 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>3374.862</v>
+        <v>3428.27</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>2.416</v>
@@ -5426,13 +5426,13 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>3374.862</v>
+        <v>3428.27</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>2.416</v>
@@ -5452,13 +5452,13 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>3374.862</v>
+        <v>3428.27</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>2.416</v>
@@ -5478,13 +5478,13 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>3375.287</v>
+        <v>3428.27</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>2.416</v>
@@ -5504,13 +5504,13 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>3375.922</v>
+        <v>3428.27</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>2.416</v>
@@ -5530,13 +5530,13 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>3375.922</v>
+        <v>3428.27</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>2.416</v>
@@ -5556,13 +5556,13 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>3375.922</v>
+        <v>3428.27</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>2.416</v>
@@ -5582,13 +5582,13 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>3376.205</v>
+        <v>3428.27</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>2.416</v>
@@ -5608,13 +5608,13 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>3376.205</v>
+        <v>3428.27</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>2.416</v>
@@ -5634,13 +5634,13 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>3376.205</v>
+        <v>3428.27</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>2.416</v>
@@ -5660,13 +5660,13 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>3376.254</v>
+        <v>3428.27</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>211.895</v>
+        <v>212.124</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>2.416</v>
@@ -5686,13 +5686,13 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>2.416</v>
@@ -5712,13 +5712,13 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>2.416</v>
@@ -5738,13 +5738,13 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>2.416</v>
@@ -5764,13 +5764,13 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>2.416</v>
@@ -5790,13 +5790,13 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>2.416</v>
@@ -5816,13 +5816,13 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>3383.895</v>
+        <v>3428.27</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>2.416</v>
@@ -5842,13 +5842,13 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>2.416</v>
@@ -5868,13 +5868,13 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>2.416</v>
@@ -5894,13 +5894,13 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>2.416</v>
@@ -5920,13 +5920,13 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>2.416</v>
@@ -5946,13 +5946,13 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>2.416</v>
@@ -5972,13 +5972,13 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>2.416</v>
@@ -5998,13 +5998,13 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3385.726</v>
+        <v>3435.699</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>2.416</v>
@@ -6024,13 +6024,13 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>3393.193</v>
+        <v>3456.614</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>2.416</v>
@@ -6050,13 +6050,13 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>3402.209</v>
+        <v>3456.614</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>2.416</v>
@@ -6076,13 +6076,13 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>3402.209</v>
+        <v>3456.614</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>2.416</v>
@@ -6102,13 +6102,13 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>3402.349</v>
+        <v>3456.614</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>2.416</v>
@@ -6128,13 +6128,13 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>3402.349</v>
+        <v>3456.614</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>2.416</v>
@@ -6154,13 +6154,13 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>3402.349</v>
+        <v>3456.614</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>2.416</v>
@@ -6180,13 +6180,13 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>3402.689</v>
+        <v>3456.614</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>2.416</v>
@@ -6206,13 +6206,13 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>3402.689</v>
+        <v>3456.614</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>2.416</v>
@@ -6232,13 +6232,13 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>3403.331</v>
+        <v>3456.614</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>2.416</v>
@@ -6258,13 +6258,13 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>3403.331</v>
+        <v>3456.614</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>2.416</v>
@@ -6284,13 +6284,13 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>3403.331</v>
+        <v>3456.614</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>2.416</v>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,13 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-05-29 12:30:01 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-31 00:00:00 +0200</t>
+    <t xml:space="preserve">2024-05-31 04:30:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2024-06-01 00:00:00 +0200</t>
@@ -676,7 +670,13 @@
     <t xml:space="preserve">2024-12-26 00:00:00 +0100</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-26 18:49:55 +0100</t>
+    <t xml:space="preserve">2024-12-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-28 10:58:43 +0100</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H212"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D213" activeCellId="0" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -827,7 +827,7 @@
         <v>3193.215</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>200.548</v>
+        <v>200.961</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>44.292</v>
@@ -850,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3193.215</v>
+        <v>3193.517</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>200.548</v>
+        <v>200.961</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>44.292</v>
@@ -876,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3193.215</v>
+        <v>3193.517</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>200.961</v>
@@ -928,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3193.517</v>
+        <v>3194.466</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>200.961</v>
@@ -954,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3193.517</v>
+        <v>3194.466</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>200.961</v>
@@ -1110,7 +1110,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3194.466</v>
+        <v>3195.973</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>200.961</v>
@@ -1136,7 +1136,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3194.466</v>
+        <v>3195.973</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>200.961</v>
@@ -1266,10 +1266,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3195.973</v>
+        <v>3223.382</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>200.961</v>
+        <v>209.674</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>44.292</v>
@@ -1292,10 +1292,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3195.973</v>
+        <v>3223.382</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>200.961</v>
+        <v>209.674</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>44.292</v>
@@ -1318,7 +1318,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3223.382</v>
+        <v>3223.636</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>209.674</v>
@@ -1344,7 +1344,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3223.382</v>
+        <v>3223.636</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>209.674</v>
@@ -1370,7 +1370,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3223.636</v>
+        <v>3223.863</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>209.674</v>
@@ -1396,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3223.636</v>
+        <v>3223.863</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>209.674</v>
@@ -1448,7 +1448,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3223.863</v>
+        <v>3225.015</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>209.674</v>
@@ -1474,7 +1474,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3223.863</v>
+        <v>3225.015</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>209.674</v>
@@ -1526,7 +1526,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3225.015</v>
+        <v>3225.152</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>209.674</v>
@@ -1552,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3225.015</v>
+        <v>3225.152</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>209.674</v>
@@ -1578,7 +1578,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>3225.152</v>
+        <v>3225.376</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>209.674</v>
@@ -1604,7 +1604,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3225.152</v>
+        <v>3225.376</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>209.674</v>
@@ -1630,7 +1630,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>3225.376</v>
+        <v>3226.569</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>209.674</v>
@@ -1656,7 +1656,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>3225.376</v>
+        <v>3226.569</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>209.674</v>
@@ -1812,7 +1812,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>3226.569</v>
+        <v>3227.731</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>209.674</v>
@@ -1838,7 +1838,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>3226.569</v>
+        <v>3227.731</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>209.674</v>
@@ -1994,7 +1994,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>3227.731</v>
+        <v>3235.248</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>209.674</v>
@@ -2020,7 +2020,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>3227.731</v>
+        <v>3251.563</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>209.674</v>
@@ -2046,7 +2046,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>3235.248</v>
+        <v>3251.563</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>209.674</v>
@@ -2098,7 +2098,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>3251.563</v>
+        <v>3252.176</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>209.674</v>
@@ -2124,7 +2124,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>3251.563</v>
+        <v>3252.176</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>209.674</v>
@@ -2176,7 +2176,7 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>3252.176</v>
+        <v>3252.434</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>209.674</v>
@@ -2202,10 +2202,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>3252.176</v>
+        <v>3254.054</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>209.674</v>
+        <v>209.755</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>44.292</v>
@@ -2228,10 +2228,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>3252.434</v>
+        <v>3254.054</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>209.674</v>
+        <v>209.755</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>44.292</v>
@@ -2280,7 +2280,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>3254.054</v>
+        <v>3254.116</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>209.755</v>
@@ -2306,7 +2306,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>3254.054</v>
+        <v>3254.116</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>209.755</v>
@@ -2332,7 +2332,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3254.116</v>
+        <v>3261.603</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>209.755</v>
@@ -2358,7 +2358,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>3254.116</v>
+        <v>3262.476</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>209.755</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>3261.603</v>
+        <v>3262.476</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>209.755</v>
@@ -2436,7 +2436,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>3262.476</v>
+        <v>3262.483</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>209.755</v>
@@ -2462,7 +2462,7 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3262.476</v>
+        <v>3270.007</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>209.755</v>
@@ -2488,7 +2488,7 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>3262.483</v>
+        <v>3288.198</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>209.755</v>
@@ -2514,7 +2514,7 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>3270.007</v>
+        <v>3288.198</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>209.755</v>
@@ -2644,7 +2644,7 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>3288.198</v>
+        <v>3295.711</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>209.755</v>
@@ -2670,7 +2670,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>3288.198</v>
+        <v>3314.372</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>209.755</v>
@@ -2696,10 +2696,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>3295.711</v>
+        <v>3337.04</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>209.755</v>
+        <v>211.067</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>44.292</v>
@@ -2722,10 +2722,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>3314.372</v>
+        <v>3337.04</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>209.755</v>
+        <v>211.067</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>44.292</v>
@@ -2933,7 +2933,7 @@
         <v>3337.04</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>211.067</v>
+        <v>211.827</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>44.292</v>
@@ -2959,7 +2959,7 @@
         <v>3337.04</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>211.067</v>
+        <v>211.827</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>44.292</v>
@@ -3008,10 +3008,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>3337.04</v>
+        <v>3365.756</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>211.827</v>
+        <v>211.831</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>44.292</v>
@@ -3034,10 +3034,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>3337.04</v>
+        <v>3374.855</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>211.827</v>
+        <v>211.831</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>44.292</v>
@@ -3060,7 +3060,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>3365.756</v>
+        <v>3374.855</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>211.831</v>
@@ -3112,7 +3112,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>3374.855</v>
+        <v>3374.862</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>211.831</v>
@@ -3138,7 +3138,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>3374.855</v>
+        <v>3374.862</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>211.831</v>
@@ -3190,10 +3190,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>3374.862</v>
+        <v>3375.287</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>211.831</v>
+        <v>211.837</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>44.292</v>
@@ -3216,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>3374.862</v>
+        <v>3375.922</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>211.831</v>
+        <v>211.837</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>44.292</v>
@@ -3242,7 +3242,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>3375.287</v>
+        <v>3375.922</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>211.837</v>
@@ -3294,7 +3294,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>3375.922</v>
+        <v>3376.205</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>211.837</v>
@@ -3320,7 +3320,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>3375.922</v>
+        <v>3376.205</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>211.837</v>
@@ -3372,10 +3372,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>3376.205</v>
+        <v>3376.254</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>211.837</v>
+        <v>211.895</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>44.292</v>
@@ -3398,10 +3398,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>3376.205</v>
+        <v>3376.342</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>211.837</v>
+        <v>211.903</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>44.292</v>
@@ -3424,10 +3424,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>3376.254</v>
+        <v>3376.342</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>211.895</v>
+        <v>211.903</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>44.292</v>
@@ -3528,7 +3528,7 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>3376.342</v>
+        <v>3383.895</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>211.903</v>
@@ -3554,7 +3554,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>3376.342</v>
+        <v>3384.838</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>211.903</v>
@@ -3580,7 +3580,7 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>3383.895</v>
+        <v>3384.838</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>211.903</v>
@@ -3710,7 +3710,7 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>3384.838</v>
+        <v>3385.726</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>211.903</v>
@@ -3736,7 +3736,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>3384.838</v>
+        <v>3393.193</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>211.903</v>
@@ -3762,7 +3762,7 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>3385.726</v>
+        <v>3402.209</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>211.903</v>
@@ -3788,7 +3788,7 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>3393.193</v>
+        <v>3402.209</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>211.903</v>
@@ -3814,7 +3814,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>3402.209</v>
+        <v>3402.349</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>211.903</v>
@@ -3840,7 +3840,7 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>3402.209</v>
+        <v>3402.349</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>211.903</v>
@@ -3892,7 +3892,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>3402.349</v>
+        <v>3402.689</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>211.903</v>
@@ -3918,7 +3918,7 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>3402.349</v>
+        <v>3402.689</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>211.903</v>
@@ -3944,7 +3944,7 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>3402.689</v>
+        <v>3403.331</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>211.903</v>
@@ -3970,7 +3970,7 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>3402.689</v>
+        <v>3403.331</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>211.903</v>
@@ -4022,7 +4022,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>3403.331</v>
+        <v>3403.586</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>211.903</v>
@@ -4048,7 +4048,7 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>3403.331</v>
+        <v>3403.586</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>211.903</v>
@@ -4074,7 +4074,7 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>3403.586</v>
+        <v>3403.841</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>211.903</v>
@@ -4100,7 +4100,7 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>3403.586</v>
+        <v>3403.841</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>211.903</v>
@@ -4126,7 +4126,7 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>3403.841</v>
+        <v>3411.378</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>211.903</v>
@@ -4152,10 +4152,10 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3403.841</v>
+        <v>3414.314</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>211.903</v>
+        <v>212.01</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>44.292</v>
@@ -4178,10 +4178,10 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>3411.378</v>
+        <v>3414.314</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>211.903</v>
+        <v>212.01</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>44.292</v>
@@ -4230,7 +4230,7 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>3414.314</v>
+        <v>3414.685</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>212.01</v>
@@ -4256,7 +4256,7 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>3414.314</v>
+        <v>3414.685</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>212.01</v>
@@ -4282,7 +4282,7 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3414.685</v>
+        <v>3414.937</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>212.01</v>
@@ -4308,7 +4308,7 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3414.685</v>
+        <v>3414.937</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>212.01</v>
@@ -4334,10 +4334,10 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3414.937</v>
+        <v>3415.234</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>212.01</v>
+        <v>212.011</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>44.292</v>
@@ -4360,10 +4360,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3414.937</v>
+        <v>3415.737</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>212.01</v>
+        <v>212.011</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>44.292</v>
@@ -4386,7 +4386,7 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>3415.234</v>
+        <v>3415.737</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>212.011</v>
@@ -4412,7 +4412,7 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3415.737</v>
+        <v>3415.977</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>212.011</v>
@@ -4438,7 +4438,7 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>3415.737</v>
+        <v>3415.977</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>212.011</v>
@@ -4464,7 +4464,7 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3415.977</v>
+        <v>3416.207</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>212.011</v>
@@ -4490,7 +4490,7 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>3415.977</v>
+        <v>3416.207</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>212.011</v>
@@ -4516,7 +4516,7 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>3416.207</v>
+        <v>3416.484</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>212.011</v>
@@ -4542,7 +4542,7 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>3416.207</v>
+        <v>3416.484</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>212.011</v>
@@ -4672,10 +4672,10 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>3416.484</v>
+        <v>3417.938</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>212.011</v>
+        <v>212.016</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>44.292</v>
@@ -4698,10 +4698,10 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>3416.484</v>
+        <v>3417.938</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>212.011</v>
+        <v>212.016</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>44.292</v>
@@ -4854,7 +4854,7 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>3417.938</v>
+        <v>3419.122</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>212.016</v>
@@ -4880,7 +4880,7 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>3417.938</v>
+        <v>3419.122</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>212.016</v>
@@ -5010,10 +5010,10 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3419.122</v>
+        <v>3426.411</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>44.292</v>
@@ -5036,10 +5036,10 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3419.122</v>
+        <v>3426.562</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>44.292</v>
@@ -5062,7 +5062,7 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3426.411</v>
+        <v>3427.152</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>212.124</v>
@@ -5088,7 +5088,7 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>3426.562</v>
+        <v>3427.152</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>212.124</v>
@@ -5114,7 +5114,7 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>3427.152</v>
+        <v>3427.393</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>212.124</v>
@@ -5140,7 +5140,7 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>3427.152</v>
+        <v>3427.393</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>212.124</v>
@@ -5172,7 +5172,7 @@
         <v>212.124</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>2.416</v>
@@ -5192,13 +5192,13 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3427.393</v>
+        <v>3427.671</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>2.416</v>
@@ -5218,7 +5218,7 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>3427.393</v>
+        <v>3427.671</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>212.124</v>
@@ -5244,7 +5244,7 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3427.671</v>
+        <v>3427.979</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>212.124</v>
@@ -5270,7 +5270,7 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>3427.671</v>
+        <v>3428.27</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>212.124</v>
@@ -5296,13 +5296,13 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>3427.979</v>
+        <v>3428.27</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>44.524</v>
+        <v>44.784</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>2.416</v>
@@ -5328,7 +5328,7 @@
         <v>212.124</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>44.524</v>
+        <v>44.784</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>2.416</v>
@@ -5510,7 +5510,7 @@
         <v>212.124</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>44.784</v>
+        <v>46.407</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>2.416</v>
@@ -5536,7 +5536,7 @@
         <v>212.124</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>44.784</v>
+        <v>46.407</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>2.416</v>
@@ -5946,7 +5946,7 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>3428.27</v>
+        <v>3435.699</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>212.124</v>
@@ -5972,7 +5972,7 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>3428.27</v>
+        <v>3456.614</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>212.124</v>
@@ -5998,7 +5998,7 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3435.699</v>
+        <v>3456.614</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>212.124</v>
@@ -6238,7 +6238,7 @@
         <v>212.124</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>46.407</v>
+        <v>53.852</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>2.416</v>
@@ -6264,16 +6264,16 @@
         <v>212.124</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>46.407</v>
+        <v>76.607</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>5.918</v>
+        <v>9.922</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H211" s="0" t="n">
         <v>1924.316</v>
@@ -6290,16 +6290,16 @@
         <v>212.124</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>46.407</v>
+        <v>76.607</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>5.918</v>
+        <v>9.922</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H212" s="0" t="n">
         <v>1924.316</v>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,244 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-05-31 04:30:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-02 23:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-20 00:00:00 +0200</t>
+    <t xml:space="preserve">2024-08-20 04:30:00 +0200</t>
   </si>
   <si>
     <t xml:space="preserve">2024-08-21 00:00:00 +0200</t>
@@ -676,7 +439,244 @@
     <t xml:space="preserve">2024-12-28 00:00:00 +0100</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-28 10:58:43 +0100</t>
+    <t xml:space="preserve">2024-12-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-16 00:00:01 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-20 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-21 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-22 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-23 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-24 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-25 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-26 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-30 23:17:35 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-30 23:21:15 +0200</t>
   </si>
 </sst>
 </file>
@@ -777,10 +777,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D213" activeCellId="0" sqref="D213"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I213" activeCellId="0" sqref="I213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>3193.215</v>
+        <v>3337.04</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>200.961</v>
+        <v>211.067</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>44.292</v>
@@ -850,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3193.517</v>
+        <v>3337.04</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>200.961</v>
+        <v>211.067</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>44.292</v>
@@ -876,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3193.517</v>
+        <v>3337.04</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>200.961</v>
+        <v>211.827</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>44.292</v>
@@ -902,10 +902,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3193.517</v>
+        <v>3337.04</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>200.961</v>
+        <v>211.827</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>44.292</v>
@@ -928,10 +928,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3194.466</v>
+        <v>3337.04</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>200.961</v>
+        <v>211.827</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>44.292</v>
@@ -954,10 +954,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3194.466</v>
+        <v>3365.756</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>44.292</v>
@@ -980,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3194.466</v>
+        <v>3374.855</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>44.292</v>
@@ -1006,10 +1006,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3194.466</v>
+        <v>3374.855</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>44.292</v>
@@ -1032,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3194.466</v>
+        <v>3374.855</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>44.292</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3194.466</v>
+        <v>3374.862</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>44.292</v>
@@ -1084,10 +1084,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3194.466</v>
+        <v>3374.862</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>44.292</v>
@@ -1110,10 +1110,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3195.973</v>
+        <v>3374.862</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>200.961</v>
+        <v>211.831</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>44.292</v>
@@ -1136,10 +1136,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3195.973</v>
+        <v>3375.287</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>44.292</v>
@@ -1162,10 +1162,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3195.973</v>
+        <v>3375.922</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>44.292</v>
@@ -1188,10 +1188,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3195.973</v>
+        <v>3375.922</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>44.292</v>
@@ -1214,10 +1214,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3195.973</v>
+        <v>3375.922</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>44.292</v>
@@ -1240,10 +1240,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3195.973</v>
+        <v>3376.205</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>200.961</v>
+        <v>211.837</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>44.292</v>
@@ -1266,10 +1266,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3223.382</v>
+        <v>3376.205</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>44.292</v>
@@ -1292,10 +1292,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3223.382</v>
+        <v>3376.205</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>209.674</v>
+        <v>211.837</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>44.292</v>
@@ -1318,10 +1318,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3223.636</v>
+        <v>3376.254</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>209.674</v>
+        <v>211.895</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>44.292</v>
@@ -1344,10 +1344,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3223.636</v>
+        <v>3376.342</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>44.292</v>
@@ -1370,10 +1370,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3223.863</v>
+        <v>3376.342</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>44.292</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3223.863</v>
+        <v>3376.342</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>44.292</v>
@@ -1422,10 +1422,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3223.863</v>
+        <v>3376.342</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>44.292</v>
@@ -1448,10 +1448,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3225.015</v>
+        <v>3376.342</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>44.292</v>
@@ -1474,10 +1474,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3225.015</v>
+        <v>3383.895</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>44.292</v>
@@ -1500,10 +1500,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3225.015</v>
+        <v>3384.838</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>44.292</v>
@@ -1526,10 +1526,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3225.152</v>
+        <v>3384.838</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>44.292</v>
@@ -1552,10 +1552,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3225.152</v>
+        <v>3384.838</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>44.292</v>
@@ -1578,10 +1578,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>3225.376</v>
+        <v>3384.838</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>44.292</v>
@@ -1604,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3225.376</v>
+        <v>3384.838</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>44.292</v>
@@ -1630,10 +1630,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>3226.569</v>
+        <v>3384.838</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>44.292</v>
@@ -1656,10 +1656,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>3226.569</v>
+        <v>3385.726</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>44.292</v>
@@ -1682,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>3226.569</v>
+        <v>3393.193</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>44.292</v>
@@ -1708,10 +1708,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>3226.569</v>
+        <v>3402.209</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>44.292</v>
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>3226.569</v>
+        <v>3402.209</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>44.292</v>
@@ -1760,10 +1760,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>3226.569</v>
+        <v>3402.349</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>44.292</v>
@@ -1786,10 +1786,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>3226.569</v>
+        <v>3402.349</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>44.292</v>
@@ -1812,10 +1812,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>3227.731</v>
+        <v>3402.349</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>44.292</v>
@@ -1838,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>3227.731</v>
+        <v>3402.689</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>44.292</v>
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>3227.731</v>
+        <v>3402.689</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>44.292</v>
@@ -1890,10 +1890,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>3227.731</v>
+        <v>3403.331</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>44.292</v>
@@ -1916,10 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>3227.731</v>
+        <v>3403.331</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>44.292</v>
@@ -1942,10 +1942,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>3227.731</v>
+        <v>3403.331</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>44.292</v>
@@ -1968,10 +1968,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>3227.731</v>
+        <v>3403.586</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>44.292</v>
@@ -1994,10 +1994,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>3235.248</v>
+        <v>3403.586</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>44.292</v>
@@ -2020,10 +2020,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>3251.563</v>
+        <v>3403.841</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>44.292</v>
@@ -2046,10 +2046,10 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>3251.563</v>
+        <v>3403.841</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>44.292</v>
@@ -2072,10 +2072,10 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>3251.563</v>
+        <v>3411.378</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>209.674</v>
+        <v>211.903</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>44.292</v>
@@ -2098,10 +2098,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>3252.176</v>
+        <v>3414.314</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>44.292</v>
@@ -2124,10 +2124,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>3252.176</v>
+        <v>3414.314</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>44.292</v>
@@ -2150,10 +2150,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>3252.176</v>
+        <v>3414.314</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>44.292</v>
@@ -2176,10 +2176,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>3252.434</v>
+        <v>3414.685</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>209.674</v>
+        <v>212.01</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>44.292</v>
@@ -2202,10 +2202,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>3254.054</v>
+        <v>3414.685</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>209.755</v>
+        <v>212.01</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>44.292</v>
@@ -2228,10 +2228,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>3254.054</v>
+        <v>3414.937</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>209.755</v>
+        <v>212.01</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>44.292</v>
@@ -2254,10 +2254,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>3254.054</v>
+        <v>3414.937</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>209.755</v>
+        <v>212.01</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>44.292</v>
@@ -2280,10 +2280,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>3254.116</v>
+        <v>3415.234</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>44.292</v>
@@ -2306,10 +2306,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>3254.116</v>
+        <v>3415.737</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>44.292</v>
@@ -2332,10 +2332,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3261.603</v>
+        <v>3415.737</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>44.292</v>
@@ -2358,10 +2358,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>3262.476</v>
+        <v>3415.977</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>44.292</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>3262.476</v>
+        <v>3415.977</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>44.292</v>
@@ -2410,10 +2410,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>3262.476</v>
+        <v>3416.207</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>44.292</v>
@@ -2436,10 +2436,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>3262.483</v>
+        <v>3416.207</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>44.292</v>
@@ -2462,10 +2462,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3270.007</v>
+        <v>3416.484</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>44.292</v>
@@ -2488,10 +2488,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>3288.198</v>
+        <v>3416.484</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>44.292</v>
@@ -2514,10 +2514,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>3288.198</v>
+        <v>3416.484</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>44.292</v>
@@ -2540,10 +2540,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>3288.198</v>
+        <v>3416.484</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>44.292</v>
@@ -2566,10 +2566,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>3288.198</v>
+        <v>3416.484</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>44.292</v>
@@ -2592,10 +2592,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>3288.198</v>
+        <v>3416.484</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>209.755</v>
+        <v>212.011</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>44.292</v>
@@ -2618,10 +2618,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>3288.198</v>
+        <v>3417.938</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>44.292</v>
@@ -2644,10 +2644,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>3295.711</v>
+        <v>3417.938</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>44.292</v>
@@ -2670,10 +2670,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>3314.372</v>
+        <v>3417.938</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>209.755</v>
+        <v>212.016</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>44.292</v>
@@ -2696,10 +2696,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>3337.04</v>
+        <v>3417.938</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>44.292</v>
@@ -2722,10 +2722,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>3337.04</v>
+        <v>3417.938</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>44.292</v>
@@ -2748,10 +2748,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>3337.04</v>
+        <v>3417.938</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>44.292</v>
@@ -2774,10 +2774,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>3337.04</v>
+        <v>3417.938</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>44.292</v>
@@ -2800,10 +2800,10 @@
         <v>84</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>44.292</v>
@@ -2826,10 +2826,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>44.292</v>
@@ -2852,10 +2852,10 @@
         <v>86</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>44.292</v>
@@ -2878,10 +2878,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>44.292</v>
@@ -2904,10 +2904,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>211.067</v>
+        <v>212.016</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>44.292</v>
@@ -2930,10 +2930,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>3337.04</v>
+        <v>3419.122</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>211.827</v>
+        <v>212.016</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>44.292</v>
@@ -2956,10 +2956,10 @@
         <v>90</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>3337.04</v>
+        <v>3426.411</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>211.827</v>
+        <v>212.124</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>44.292</v>
@@ -2982,10 +2982,10 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>3337.04</v>
+        <v>3426.562</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>211.827</v>
+        <v>212.124</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>44.292</v>
@@ -3008,10 +3008,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>3365.756</v>
+        <v>3427.152</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>44.292</v>
@@ -3034,10 +3034,10 @@
         <v>93</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>3374.855</v>
+        <v>3427.152</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>44.292</v>
@@ -3060,10 +3060,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>3374.855</v>
+        <v>3427.393</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>44.292</v>
@@ -3086,10 +3086,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>3374.855</v>
+        <v>3427.393</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>44.292</v>
@@ -3112,13 +3112,13 @@
         <v>96</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>3374.862</v>
+        <v>3427.393</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>2.416</v>
@@ -3138,13 +3138,13 @@
         <v>97</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>3374.862</v>
+        <v>3427.671</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>2.416</v>
@@ -3164,13 +3164,13 @@
         <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>3374.862</v>
+        <v>3427.671</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>211.831</v>
+        <v>212.124</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>2.416</v>
@@ -3190,13 +3190,13 @@
         <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>3375.287</v>
+        <v>3427.979</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>2.416</v>
@@ -3216,13 +3216,13 @@
         <v>100</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>3375.922</v>
+        <v>3428.27</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>44.292</v>
+        <v>44.524</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>2.416</v>
@@ -3242,13 +3242,13 @@
         <v>101</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>3375.922</v>
+        <v>3428.27</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>2.416</v>
@@ -3268,13 +3268,13 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>3375.922</v>
+        <v>3428.27</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>2.416</v>
@@ -3294,13 +3294,13 @@
         <v>103</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>3376.205</v>
+        <v>3428.27</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>2.416</v>
@@ -3320,13 +3320,13 @@
         <v>104</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>3376.205</v>
+        <v>3428.27</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>2.416</v>
@@ -3346,13 +3346,13 @@
         <v>105</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>3376.205</v>
+        <v>3428.27</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>211.837</v>
+        <v>212.124</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>2.416</v>
@@ -3372,13 +3372,13 @@
         <v>106</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>3376.254</v>
+        <v>3428.27</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>211.895</v>
+        <v>212.124</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>2.416</v>
@@ -3398,13 +3398,13 @@
         <v>107</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>2.416</v>
@@ -3424,13 +3424,13 @@
         <v>108</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>44.292</v>
+        <v>44.784</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>2.416</v>
@@ -3450,13 +3450,13 @@
         <v>109</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>2.416</v>
@@ -3476,13 +3476,13 @@
         <v>110</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>2.416</v>
@@ -3502,13 +3502,13 @@
         <v>111</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>3376.342</v>
+        <v>3428.27</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>2.416</v>
@@ -3528,13 +3528,13 @@
         <v>112</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>3383.895</v>
+        <v>3428.27</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>2.416</v>
@@ -3554,13 +3554,13 @@
         <v>113</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>2.416</v>
@@ -3580,13 +3580,13 @@
         <v>114</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>2.416</v>
@@ -3606,13 +3606,13 @@
         <v>115</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>2.416</v>
@@ -3632,13 +3632,13 @@
         <v>116</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>2.416</v>
@@ -3658,13 +3658,13 @@
         <v>117</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>2.416</v>
@@ -3684,13 +3684,13 @@
         <v>118</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>3384.838</v>
+        <v>3428.27</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>2.416</v>
@@ -3710,13 +3710,13 @@
         <v>119</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>3385.726</v>
+        <v>3428.27</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>2.416</v>
@@ -3736,13 +3736,13 @@
         <v>120</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>3393.193</v>
+        <v>3428.27</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>2.416</v>
@@ -3762,13 +3762,13 @@
         <v>121</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>3402.209</v>
+        <v>3428.27</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>2.416</v>
@@ -3788,13 +3788,13 @@
         <v>122</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>3402.209</v>
+        <v>3428.27</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2.416</v>
@@ -3814,13 +3814,13 @@
         <v>123</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>3402.349</v>
+        <v>3428.27</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>2.416</v>
@@ -3840,13 +3840,13 @@
         <v>124</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>3402.349</v>
+        <v>3428.27</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>2.416</v>
@@ -3866,13 +3866,13 @@
         <v>125</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>3402.349</v>
+        <v>3428.27</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>2.416</v>
@@ -3892,13 +3892,13 @@
         <v>126</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>3402.689</v>
+        <v>3435.699</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>2.416</v>
@@ -3918,13 +3918,13 @@
         <v>127</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>3402.689</v>
+        <v>3456.614</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>2.416</v>
@@ -3944,13 +3944,13 @@
         <v>128</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>3403.331</v>
+        <v>3456.614</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>2.416</v>
@@ -3970,13 +3970,13 @@
         <v>129</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>3403.331</v>
+        <v>3456.614</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>2.416</v>
@@ -3996,13 +3996,13 @@
         <v>130</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>3403.331</v>
+        <v>3456.614</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>2.416</v>
@@ -4022,13 +4022,13 @@
         <v>131</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>3403.586</v>
+        <v>3456.614</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>2.416</v>
@@ -4048,13 +4048,13 @@
         <v>132</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>3403.586</v>
+        <v>3456.614</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>2.416</v>
@@ -4074,13 +4074,13 @@
         <v>133</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>3403.841</v>
+        <v>3456.614</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>2.416</v>
@@ -4100,13 +4100,13 @@
         <v>134</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>3403.841</v>
+        <v>3456.614</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>2.416</v>
@@ -4126,13 +4126,13 @@
         <v>135</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>3411.378</v>
+        <v>3456.614</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>211.903</v>
+        <v>212.124</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>2.416</v>
@@ -4152,13 +4152,13 @@
         <v>136</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3414.314</v>
+        <v>3456.614</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>212.01</v>
+        <v>212.124</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>44.292</v>
+        <v>46.407</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>2.416</v>
@@ -4178,13 +4178,13 @@
         <v>137</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>3414.314</v>
+        <v>3456.614</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>212.01</v>
+        <v>212.124</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>44.292</v>
+        <v>53.852</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>2.416</v>
@@ -4204,22 +4204,22 @@
         <v>138</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>3414.314</v>
+        <v>3456.614</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>212.01</v>
+        <v>212.124</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>5.918</v>
+        <v>9.922</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>1924.316</v>
@@ -4230,22 +4230,22 @@
         <v>139</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>3414.685</v>
+        <v>3456.614</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>212.01</v>
+        <v>212.124</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>5.918</v>
+        <v>9.922</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>1924.316</v>
@@ -4256,22 +4256,22 @@
         <v>140</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>3414.685</v>
+        <v>3456.614</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>212.01</v>
+        <v>212.124</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>5.918</v>
+        <v>9.922</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>1924.316</v>
@@ -4282,22 +4282,22 @@
         <v>141</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3414.937</v>
+        <v>3456.614</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>212.01</v>
+        <v>212.124</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>2.416</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>5.918</v>
+        <v>10.705</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>1924.316</v>
@@ -4308,22 +4308,22 @@
         <v>142</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3414.937</v>
+        <v>3456.614</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>212.01</v>
+        <v>212.124</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>1924.316</v>
@@ -4334,22 +4334,22 @@
         <v>143</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3415.234</v>
+        <v>3464.049</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>1924.316</v>
@@ -4360,22 +4360,22 @@
         <v>144</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3415.737</v>
+        <v>3470.658</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>1924.316</v>
@@ -4386,22 +4386,22 @@
         <v>145</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>3415.737</v>
+        <v>3470.658</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>1924.316</v>
@@ -4412,22 +4412,22 @@
         <v>146</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3415.977</v>
+        <v>3470.658</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>1924.316</v>
@@ -4438,22 +4438,22 @@
         <v>147</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>3415.977</v>
+        <v>3478.015</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>1924.316</v>
@@ -4464,22 +4464,22 @@
         <v>148</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3416.207</v>
+        <v>3481.224</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>1924.316</v>
@@ -4490,22 +4490,22 @@
         <v>149</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>3416.207</v>
+        <v>3481.224</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>44.292</v>
+        <v>76.607</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>1924.316</v>
@@ -4516,22 +4516,22 @@
         <v>150</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>3416.484</v>
+        <v>3481.224</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>44.292</v>
+        <v>76.829</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>1924.316</v>
@@ -4542,22 +4542,22 @@
         <v>151</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>3416.484</v>
+        <v>3481.224</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>44.292</v>
+        <v>76.829</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>1924.316</v>
@@ -4568,22 +4568,22 @@
         <v>152</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>3416.484</v>
+        <v>3481.224</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>44.292</v>
+        <v>76.829</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>5.918</v>
+        <v>21.9</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>1924.316</v>
@@ -4594,22 +4594,22 @@
         <v>153</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>3416.484</v>
+        <v>3481.224</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>5.918</v>
+        <v>21.949</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>1924.316</v>
@@ -4620,22 +4620,22 @@
         <v>154</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>3416.484</v>
+        <v>3481.631</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>5.918</v>
+        <v>21.949</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>1924.316</v>
@@ -4646,22 +4646,22 @@
         <v>155</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>3416.484</v>
+        <v>3481.631</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>212.011</v>
+        <v>212.124</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>5.918</v>
+        <v>21.949</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>1924.316</v>
@@ -4672,22 +4672,22 @@
         <v>156</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>3417.938</v>
+        <v>3481.631</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>5.918</v>
+        <v>21.949</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>1924.316</v>
@@ -4698,22 +4698,22 @@
         <v>157</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>3417.938</v>
+        <v>3481.631</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>5.918</v>
+        <v>22.29</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>1924.316</v>
@@ -4724,22 +4724,22 @@
         <v>158</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>3417.938</v>
+        <v>3481.631</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>5.918</v>
+        <v>22.29</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>1924.316</v>
@@ -4750,22 +4750,22 @@
         <v>159</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>3417.938</v>
+        <v>3481.631</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>5.918</v>
+        <v>22.726</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>1924.316</v>
@@ -4776,22 +4776,22 @@
         <v>160</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>3417.938</v>
+        <v>3481.631</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>5.918</v>
+        <v>22.726</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>1924.316</v>
@@ -4802,22 +4802,22 @@
         <v>161</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>3417.938</v>
+        <v>3481.933</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>5.918</v>
+        <v>22.726</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>1924.316</v>
@@ -4828,22 +4828,22 @@
         <v>162</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>3417.938</v>
+        <v>3481.933</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>1924.316</v>
@@ -4854,22 +4854,22 @@
         <v>163</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>3419.122</v>
+        <v>3481.933</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>1924.316</v>
@@ -4880,22 +4880,22 @@
         <v>164</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>3419.122</v>
+        <v>3481.933</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>1924.316</v>
@@ -4906,22 +4906,22 @@
         <v>165</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>3419.122</v>
+        <v>3481.933</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>1924.316</v>
@@ -4932,22 +4932,22 @@
         <v>166</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>3419.122</v>
+        <v>3481.933</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>1924.316</v>
@@ -4958,22 +4958,22 @@
         <v>167</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>3419.122</v>
+        <v>3481.933</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>1924.316</v>
@@ -4984,22 +4984,22 @@
         <v>168</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>3419.122</v>
+        <v>3483.036</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>212.016</v>
+        <v>212.124</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>1924.316</v>
@@ -5010,22 +5010,22 @@
         <v>169</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3426.411</v>
+        <v>3483.036</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>1924.316</v>
@@ -5036,22 +5036,22 @@
         <v>170</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3426.562</v>
+        <v>3483.036</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>1924.316</v>
@@ -5062,22 +5062,22 @@
         <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3427.152</v>
+        <v>3483.036</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>1924.316</v>
@@ -5088,22 +5088,22 @@
         <v>172</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>3427.152</v>
+        <v>3483.036</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>1924.316</v>
@@ -5114,22 +5114,22 @@
         <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>3427.393</v>
+        <v>3483.036</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>1924.316</v>
@@ -5140,22 +5140,22 @@
         <v>174</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>3427.393</v>
+        <v>3483.036</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>44.292</v>
+        <v>77.101</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>1924.316</v>
@@ -5166,22 +5166,22 @@
         <v>175</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>3427.393</v>
+        <v>3490.51</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>44.524</v>
+        <v>77.101</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>1924.316</v>
@@ -5192,22 +5192,22 @@
         <v>176</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3427.671</v>
+        <v>3509.702</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>44.524</v>
+        <v>77.101</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>1924.316</v>
@@ -5218,22 +5218,22 @@
         <v>177</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>3427.671</v>
+        <v>3509.702</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>44.524</v>
+        <v>77.101</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>1924.316</v>
@@ -5244,22 +5244,22 @@
         <v>178</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3427.979</v>
+        <v>3509.702</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>44.524</v>
+        <v>77.169</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>1924.316</v>
@@ -5270,22 +5270,22 @@
         <v>179</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.702</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>44.524</v>
+        <v>77.236</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>1924.316</v>
@@ -5296,22 +5296,22 @@
         <v>180</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.702</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>44.784</v>
+        <v>77.236</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>1924.316</v>
@@ -5322,22 +5322,22 @@
         <v>181</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.702</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>44.784</v>
+        <v>77.31</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>1924.316</v>
@@ -5348,22 +5348,22 @@
         <v>182</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.786</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>44.784</v>
+        <v>77.31</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>1924.316</v>
@@ -5374,22 +5374,22 @@
         <v>183</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.786</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>44.784</v>
+        <v>77.476</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>1924.316</v>
@@ -5400,22 +5400,22 @@
         <v>184</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.786</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>44.784</v>
+        <v>77.476</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>1924.316</v>
@@ -5426,22 +5426,22 @@
         <v>185</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.786</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>44.784</v>
+        <v>77.773</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>1924.316</v>
@@ -5452,22 +5452,22 @@
         <v>186</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.786</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>44.784</v>
+        <v>77.98</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>1924.316</v>
@@ -5478,22 +5478,22 @@
         <v>187</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>3428.27</v>
+        <v>3509.786</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>44.784</v>
+        <v>77.98</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>1924.316</v>
@@ -5504,22 +5504,22 @@
         <v>188</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>3428.27</v>
+        <v>3510.107</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>1924.316</v>
@@ -5530,22 +5530,22 @@
         <v>189</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>3428.27</v>
+        <v>3510.341</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>1924.316</v>
@@ -5556,22 +5556,22 @@
         <v>190</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>3428.27</v>
+        <v>3510.341</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>1924.316</v>
@@ -5582,22 +5582,22 @@
         <v>191</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>3428.27</v>
+        <v>3510.341</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>1924.316</v>
@@ -5608,22 +5608,22 @@
         <v>192</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>3428.27</v>
+        <v>3510.341</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H186" s="0" t="n">
         <v>1924.316</v>
@@ -5634,22 +5634,22 @@
         <v>193</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>3428.27</v>
+        <v>3510.341</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H187" s="0" t="n">
         <v>1924.316</v>
@@ -5660,22 +5660,22 @@
         <v>194</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>3428.27</v>
+        <v>3510.341</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>1924.316</v>
@@ -5686,22 +5686,22 @@
         <v>195</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3428.27</v>
+        <v>3510.341</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>212.124</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>1924.316</v>
@@ -5712,22 +5712,22 @@
         <v>196</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>3428.27</v>
+        <v>3517.896</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>1924.316</v>
@@ -5738,22 +5738,22 @@
         <v>197</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>3428.27</v>
+        <v>3519.548</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>1924.316</v>
@@ -5764,22 +5764,22 @@
         <v>198</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>3428.27</v>
+        <v>3519.65</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>1924.316</v>
@@ -5790,22 +5790,22 @@
         <v>199</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>3428.27</v>
+        <v>3519.65</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>1924.316</v>
@@ -5816,22 +5816,22 @@
         <v>200</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>3428.27</v>
+        <v>3519.918</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>1924.316</v>
@@ -5842,22 +5842,22 @@
         <v>201</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>3428.27</v>
+        <v>3519.918</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>1924.316</v>
@@ -5868,22 +5868,22 @@
         <v>202</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>3428.27</v>
+        <v>3520.4</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>1924.316</v>
@@ -5894,22 +5894,22 @@
         <v>203</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>3428.27</v>
+        <v>3520.4</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>46.407</v>
+        <v>77.98</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>1924.316</v>
@@ -5920,22 +5920,22 @@
         <v>204</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>3428.27</v>
+        <v>3520.4</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>1924.316</v>
@@ -5946,22 +5946,22 @@
         <v>205</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>3435.699</v>
+        <v>3520.4</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>1924.316</v>
@@ -5972,22 +5972,22 @@
         <v>206</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>3456.614</v>
+        <v>3520.653</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H200" s="0" t="n">
         <v>1924.316</v>
@@ -5998,22 +5998,22 @@
         <v>207</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3456.614</v>
+        <v>3520.922</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H201" s="0" t="n">
         <v>1924.316</v>
@@ -6024,22 +6024,22 @@
         <v>208</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>3456.614</v>
+        <v>3520.922</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H202" s="0" t="n">
         <v>1924.316</v>
@@ -6050,22 +6050,22 @@
         <v>209</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.284</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H203" s="0" t="n">
         <v>1924.316</v>
@@ -6076,22 +6076,22 @@
         <v>210</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H204" s="0" t="n">
         <v>1924.316</v>
@@ -6102,22 +6102,22 @@
         <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H205" s="0" t="n">
         <v>1924.316</v>
@@ -6128,22 +6128,22 @@
         <v>212</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H206" s="0" t="n">
         <v>1924.316</v>
@@ -6154,22 +6154,22 @@
         <v>213</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H207" s="0" t="n">
         <v>1924.316</v>
@@ -6180,22 +6180,22 @@
         <v>214</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H208" s="0" t="n">
         <v>1924.316</v>
@@ -6206,22 +6206,22 @@
         <v>215</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>46.407</v>
+        <v>78.237</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H209" s="0" t="n">
         <v>1924.316</v>
@@ -6232,22 +6232,22 @@
         <v>216</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>53.852</v>
+        <v>78.237</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H210" s="0" t="n">
         <v>1924.316</v>
@@ -6258,25 +6258,25 @@
         <v>217</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>76.607</v>
+        <v>78.237</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>9.922</v>
+        <v>22.979</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>1.303</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6284,25 +6284,29 @@
         <v>218</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>3456.614</v>
+        <v>3521.526</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>212.124</v>
+        <v>212.226</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>76.607</v>
+        <v>78.237</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>9.922</v>
+        <v>22.979</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>1.303</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
+      </c>
+      <c r="I212" s="0" t="n">
+        <f aca="false">H212-H210</f>
+        <v>26.4780000000001</v>
       </c>
     </row>
   </sheetData>

--- a/rapport_compteur.xlsx
+++ b/rapport_compteur.xlsx
@@ -46,616 +46,7 @@
     <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-08-20 04:30:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-31 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-28 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-29 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-30 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-01 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-02 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-03 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-04 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-05 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-06 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-07 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-08 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-09 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-10 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-11 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-12 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-13 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-14 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-15 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-16 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-17 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-18 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-19 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-20 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-21 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-22 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-23 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-24 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-25 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-26 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-27 00:00:00 +0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-16 00:00:01 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-29 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-30 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-31 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-11 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-12 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-13 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-14 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-15 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-16 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-17 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-18 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-19 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-20 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-21 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-22 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-23 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-24 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-25 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-26 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-27 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-28 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-01 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-02 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-03 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-04 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-05 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-06 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-07 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-08 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-09 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-10 00:00:00 +0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-11 00:00:00 +0100</t>
+    <t xml:space="preserve">2025-03-11 00:30:00 +0100</t>
   </si>
   <si>
     <t xml:space="preserve">2025-03-12 00:00:00 +0100</t>
@@ -676,7 +67,616 @@
     <t xml:space="preserve">2025-04-30 23:17:35 +0200</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-30 23:21:15 +0200</t>
+    <t xml:space="preserve">2025-05-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-12 00:00:01 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-31 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-27 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-28 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-29 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-30 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-01 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-02 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-03 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-04 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-05 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-06 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-07 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-08 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-09 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-10 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-11 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-12 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-13 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-14 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-15 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-16 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-17 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-18 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-19 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-20 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-21 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-22 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-23 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-24 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-25 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-26 00:00:00 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-27 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-28 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-29 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-30 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-31 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-01 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-02 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-03 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-04 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-05 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-06 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-07 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-08 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-09 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-10 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-11 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-12 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-13 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-14 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-15 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-16 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-17 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-18 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-19 00:00:00 +0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-19 18:28:10 +0100</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I213" activeCellId="0" sqref="I213"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,22 +824,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>3337.04</v>
+        <v>3521.526</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>211.067</v>
+        <v>212.226</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1924.316</v>
@@ -850,22 +850,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3337.04</v>
+        <v>3521.526</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>211.067</v>
+        <v>212.226</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1924.316</v>
@@ -876,22 +876,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3337.04</v>
+        <v>3521.526</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>211.827</v>
+        <v>212.226</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1924.316</v>
@@ -902,22 +902,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3337.04</v>
+        <v>3521.526</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>211.827</v>
+        <v>212.226</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1924.316</v>
@@ -928,22 +928,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3337.04</v>
+        <v>3521.526</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>211.827</v>
+        <v>212.226</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1924.316</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3365.756</v>
+        <v>3521.526</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>211.831</v>
+        <v>212.226</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1924.316</v>
@@ -980,25 +980,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3374.855</v>
+        <v>3521.526</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>211.831</v>
+        <v>212.226</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,25 +1006,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3374.855</v>
+        <v>3521.526</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>211.831</v>
+        <v>212.226</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,25 +1032,25 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3374.855</v>
+        <v>3521.526</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>211.831</v>
+        <v>212.226</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3374.862</v>
+        <v>3521.526</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>211.831</v>
+        <v>212.226</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,25 +1084,25 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3374.862</v>
+        <v>3521.526</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>211.831</v>
+        <v>212.226</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,25 +1110,25 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3374.862</v>
+        <v>3521.526</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>211.831</v>
+        <v>212.226</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,25 +1136,25 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3375.287</v>
+        <v>3521.526</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>211.837</v>
+        <v>212.226</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,25 +1162,25 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3375.922</v>
+        <v>3521.526</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>211.837</v>
+        <v>212.226</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,25 +1188,25 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3375.922</v>
+        <v>3521.526</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>211.837</v>
+        <v>212.226</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,25 +1214,25 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3375.922</v>
+        <v>3521.526</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>211.837</v>
+        <v>212.226</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,25 +1240,25 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3376.205</v>
+        <v>3521.526</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>211.837</v>
+        <v>212.226</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,25 +1266,25 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3376.205</v>
+        <v>3521.526</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>211.837</v>
+        <v>212.226</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,25 +1292,25 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3376.205</v>
+        <v>3521.526</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>211.837</v>
+        <v>212.226</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,25 +1318,25 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3376.254</v>
+        <v>3521.526</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>211.895</v>
+        <v>212.226</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,25 +1344,25 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3376.342</v>
+        <v>3521.526</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>211.903</v>
+        <v>212.226</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,25 +1370,25 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3376.342</v>
+        <v>3521.526</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>211.903</v>
+        <v>212.226</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,25 +1396,25 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3376.342</v>
+        <v>3521.526</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>211.903</v>
+        <v>212.226</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,25 +1422,25 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3376.342</v>
+        <v>3521.526</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>211.903</v>
+        <v>212.226</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,25 +1448,25 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3376.342</v>
+        <v>3521.526</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,25 +1474,25 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3383.895</v>
+        <v>3521.526</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,25 +1500,25 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3384.838</v>
+        <v>3521.526</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,25 +1526,25 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3384.838</v>
+        <v>3521.526</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,25 +1552,25 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3384.838</v>
+        <v>3521.526</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,25 +1578,25 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>3384.838</v>
+        <v>3521.526</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,25 +1604,25 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3384.838</v>
+        <v>3521.526</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,25 +1630,25 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>3384.838</v>
+        <v>3521.526</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,25 +1656,25 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>3385.726</v>
+        <v>3521.526</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,25 +1682,25 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>3393.193</v>
+        <v>3521.526</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,25 +1708,25 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>3402.209</v>
+        <v>3521.526</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,25 +1734,25 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>3402.209</v>
+        <v>3521.526</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,25 +1760,25 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>3402.349</v>
+        <v>3521.526</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,25 +1786,25 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>3402.349</v>
+        <v>3521.526</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,25 +1812,25 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>3402.349</v>
+        <v>3521.526</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,25 +1838,25 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>3402.689</v>
+        <v>3521.526</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,25 +1864,25 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>3402.689</v>
+        <v>3521.526</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>211.903</v>
+        <v>212.389</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>44.292</v>
+        <v>78.237</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2.416</v>
+        <v>2.419</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>5.918</v>
+        <v>22.979</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.188</v>
+        <v>1.303</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1924.316</v>
+        <v>1950.794</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" colla